--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/Rituel ecoute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36291D20-23D0-0B47-8497-B6727B9CD3F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E356823-BF5A-9D48-9789-13443C3580A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,12 +379,6 @@
     <t>18/11/2025</t>
   </si>
   <si>
-    <t>The Wellermen</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=s88bTU7BoJY</t>
-  </si>
-  <si>
     <t>20/11/2025</t>
   </si>
   <si>
@@ -1537,9 +1531,6 @@
     <t>Toto - Piano Cover (2018)</t>
   </si>
   <si>
-    <t>My Mother Told Me  (2023)</t>
-  </si>
-  <si>
     <t>The Blue Danube (1866)</t>
   </si>
   <si>
@@ -1760,6 +1751,15 @@
   </si>
   <si>
     <t>Leo P at the BBC Proms (2017)</t>
+  </si>
+  <si>
+    <t>The High Kings</t>
+  </si>
+  <si>
+    <t>Rocky Road to Dublin  (1841)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0QdbeM2JWYE&amp;list=RD0QdbeM2JWYE&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
@@ -2153,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2166,7 +2166,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2198,7 +2198,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -2212,7 +2212,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -2232,16 +2232,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C4" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -2252,19 +2252,19 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C5" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G5" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2272,7 +2272,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -2292,10 +2292,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -2304,7 +2304,7 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2312,7 +2312,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -2332,7 +2332,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -2352,7 +2352,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -2372,19 +2372,19 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C11" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D11" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2412,19 +2412,19 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C13" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="G13" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2455,7 +2455,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -2464,7 +2464,7 @@
         <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2472,7 +2472,7 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -2492,10 +2492,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -2504,7 +2504,7 @@
         <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2552,7 +2552,7 @@
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
@@ -2572,19 +2572,19 @@
         <v>66</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C21" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F21" t="s">
         <v>67</v>
       </c>
       <c r="G21" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2612,7 +2612,7 @@
         <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C23" t="s">
         <v>73</v>
@@ -2632,7 +2632,7 @@
         <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C24" t="s">
         <v>76</v>
@@ -2652,7 +2652,7 @@
         <v>78</v>
       </c>
       <c r="B25" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C25" t="s">
         <v>79</v>
@@ -2692,10 +2692,10 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C27" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D27" t="s">
         <v>19</v>
@@ -2732,10 +2732,10 @@
         <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C29" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D29" t="s">
         <v>19</v>
@@ -2758,7 +2758,7 @@
         <v>96</v>
       </c>
       <c r="D30" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F30" t="s">
         <v>98</v>
@@ -2772,7 +2772,7 @@
         <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C31" t="s">
         <v>100</v>
@@ -2812,10 +2812,10 @@
         <v>105</v>
       </c>
       <c r="B33" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C33" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D33" t="s">
         <v>19</v>
@@ -2852,10 +2852,10 @@
         <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C35" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D35" t="s">
         <v>19</v>
@@ -2872,10 +2872,10 @@
         <v>112</v>
       </c>
       <c r="B36" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C36" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
@@ -2892,7 +2892,7 @@
         <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C37" t="s">
         <v>115</v>
@@ -2912,36 +2912,36 @@
         <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>504</v>
+        <v>577</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>576</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>314</v>
       </c>
       <c r="F38" t="s">
-        <v>119</v>
+        <v>578</v>
       </c>
       <c r="G38" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" t="s">
         <v>120</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
         <v>121</v>
-      </c>
-      <c r="C39" t="s">
-        <v>122</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
-        <v>123</v>
       </c>
       <c r="G39" t="s">
         <v>21</v>
@@ -2949,19 +2949,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C40" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D40" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
@@ -2969,19 +2969,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B41" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C41" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -2989,19 +2989,19 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C42" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G42" t="s">
         <v>21</v>
@@ -3009,19 +3009,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C43" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D43" t="s">
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G43" t="s">
         <v>21</v>
@@ -3029,19 +3029,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D44" t="s">
         <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
@@ -3049,19 +3049,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -3069,19 +3069,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
         <v>137</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
+        <v>481</v>
+      </c>
+      <c r="F46" t="s">
         <v>138</v>
-      </c>
-      <c r="C46" t="s">
-        <v>139</v>
-      </c>
-      <c r="D46" t="s">
-        <v>483</v>
-      </c>
-      <c r="F46" t="s">
-        <v>140</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -3089,10 +3089,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
         <v>89</v>
@@ -3101,7 +3101,7 @@
         <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G47" t="s">
         <v>21</v>
@@ -3109,39 +3109,39 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C48" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" t="s">
+        <v>535</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" t="s">
         <v>149</v>
-      </c>
-      <c r="B49" t="s">
-        <v>538</v>
-      </c>
-      <c r="C49" t="s">
-        <v>150</v>
-      </c>
-      <c r="D49" t="s">
-        <v>146</v>
-      </c>
-      <c r="F49" t="s">
-        <v>151</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -3149,39 +3149,39 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="s">
+        <v>151</v>
+      </c>
+      <c r="C50" t="s">
         <v>152</v>
-      </c>
-      <c r="B50" t="s">
-        <v>153</v>
-      </c>
-      <c r="C50" t="s">
-        <v>154</v>
       </c>
       <c r="D50" t="s">
         <v>37</v>
       </c>
       <c r="F50" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G50" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
         <v>158</v>
-      </c>
-      <c r="C51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" t="s">
-        <v>160</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
@@ -3189,30 +3189,30 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C52" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
         <v>36</v>
@@ -3221,7 +3221,7 @@
         <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G53" t="s">
         <v>10</v>
@@ -3229,30 +3229,30 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" t="s">
+        <v>506</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
         <v>167</v>
       </c>
-      <c r="B54" t="s">
-        <v>509</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="G54" t="s">
         <v>168</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s">
-        <v>169</v>
-      </c>
-      <c r="G54" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C55" t="s">
         <v>89</v>
@@ -3261,7 +3261,7 @@
         <v>90</v>
       </c>
       <c r="F55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G55" t="s">
         <v>21</v>
@@ -3269,30 +3269,30 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B56" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" t="s">
+        <v>144</v>
+      </c>
+      <c r="F56" t="s">
         <v>145</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>146</v>
-      </c>
-      <c r="F56" t="s">
-        <v>147</v>
-      </c>
-      <c r="G56" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="C57" t="s">
         <v>25</v>
@@ -3301,7 +3301,7 @@
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G57" t="s">
         <v>10</v>
@@ -3309,39 +3309,39 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
       </c>
       <c r="F58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G58" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" t="s">
+        <v>507</v>
+      </c>
+      <c r="C59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
         <v>181</v>
-      </c>
-      <c r="B59" t="s">
-        <v>510</v>
-      </c>
-      <c r="C59" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s">
-        <v>183</v>
       </c>
       <c r="G59" t="s">
         <v>21</v>
@@ -3349,30 +3349,30 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>182</v>
+      </c>
+      <c r="B60" t="s">
+        <v>183</v>
+      </c>
+      <c r="C60" t="s">
         <v>184</v>
-      </c>
-      <c r="B60" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" t="s">
-        <v>186</v>
       </c>
       <c r="D60" t="s">
         <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
         <v>96</v>
@@ -3381,7 +3381,7 @@
         <v>97</v>
       </c>
       <c r="F61" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G61" t="s">
         <v>10</v>
@@ -3389,39 +3389,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" t="s">
+        <v>190</v>
+      </c>
+      <c r="C62" t="s">
         <v>191</v>
-      </c>
-      <c r="B62" t="s">
-        <v>192</v>
-      </c>
-      <c r="C62" t="s">
-        <v>193</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G62" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
         <v>196</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
         <v>197</v>
-      </c>
-      <c r="C63" t="s">
-        <v>198</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" t="s">
-        <v>199</v>
       </c>
       <c r="G63" t="s">
         <v>21</v>
@@ -3429,30 +3429,30 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" t="s">
+        <v>199</v>
+      </c>
+      <c r="C64" t="s">
         <v>200</v>
-      </c>
-      <c r="B64" t="s">
-        <v>201</v>
-      </c>
-      <c r="C64" t="s">
-        <v>202</v>
       </c>
       <c r="D64" t="s">
         <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G64" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B65" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
         <v>57</v>
@@ -3461,7 +3461,7 @@
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G65" t="s">
         <v>10</v>
@@ -3469,39 +3469,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B66" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="C66" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>208</v>
+      </c>
+      <c r="B67" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" t="s">
         <v>210</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
         <v>211</v>
-      </c>
-      <c r="C67" t="s">
-        <v>212</v>
-      </c>
-      <c r="D67" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" t="s">
-        <v>213</v>
       </c>
       <c r="G67" t="s">
         <v>21</v>
@@ -3509,39 +3509,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>212</v>
+      </c>
+      <c r="B68" t="s">
+        <v>213</v>
+      </c>
+      <c r="C68" t="s">
         <v>214</v>
-      </c>
-      <c r="B68" t="s">
-        <v>215</v>
-      </c>
-      <c r="C68" t="s">
-        <v>216</v>
       </c>
       <c r="D68" t="s">
         <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G68" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" t="s">
         <v>219</v>
       </c>
-      <c r="B69" t="s">
+      <c r="D69" t="s">
         <v>220</v>
       </c>
-      <c r="C69" t="s">
+      <c r="F69" t="s">
         <v>221</v>
-      </c>
-      <c r="D69" t="s">
-        <v>222</v>
-      </c>
-      <c r="F69" t="s">
-        <v>223</v>
       </c>
       <c r="G69" t="s">
         <v>10</v>
@@ -3549,39 +3549,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B70" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C70" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G70" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" t="s">
+        <v>225</v>
+      </c>
+      <c r="C71" t="s">
         <v>226</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
         <v>227</v>
-      </c>
-      <c r="C71" t="s">
-        <v>228</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" t="s">
-        <v>229</v>
       </c>
       <c r="G71" t="s">
         <v>21</v>
@@ -3589,39 +3589,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B72" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C72" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
       </c>
       <c r="F72" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G72" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>232</v>
+      </c>
+      <c r="B73" t="s">
+        <v>555</v>
+      </c>
+      <c r="C73" t="s">
+        <v>233</v>
+      </c>
+      <c r="D73" t="s">
         <v>234</v>
       </c>
-      <c r="B73" t="s">
-        <v>558</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="F73" t="s">
         <v>235</v>
-      </c>
-      <c r="D73" t="s">
-        <v>236</v>
-      </c>
-      <c r="F73" t="s">
-        <v>237</v>
       </c>
       <c r="G73" t="s">
         <v>10</v>
@@ -3629,39 +3629,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B74" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C74" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G74" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>239</v>
+      </c>
+      <c r="B75" t="s">
+        <v>240</v>
+      </c>
+      <c r="C75" t="s">
         <v>241</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
         <v>242</v>
-      </c>
-      <c r="C75" t="s">
-        <v>243</v>
-      </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" t="s">
-        <v>244</v>
       </c>
       <c r="G75" t="s">
         <v>21</v>
@@ -3669,39 +3669,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>243</v>
+      </c>
+      <c r="B76" t="s">
+        <v>244</v>
+      </c>
+      <c r="C76" t="s">
         <v>245</v>
-      </c>
-      <c r="B76" t="s">
-        <v>246</v>
-      </c>
-      <c r="C76" t="s">
-        <v>247</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
       </c>
       <c r="F76" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G76" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>247</v>
+      </c>
+      <c r="B77" t="s">
+        <v>248</v>
+      </c>
+      <c r="C77" t="s">
         <v>249</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" t="s">
         <v>250</v>
-      </c>
-      <c r="C77" t="s">
-        <v>251</v>
-      </c>
-      <c r="D77" t="s">
-        <v>19</v>
-      </c>
-      <c r="F77" t="s">
-        <v>252</v>
       </c>
       <c r="G77" t="s">
         <v>10</v>
@@ -3709,39 +3709,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>251</v>
+      </c>
+      <c r="B78" t="s">
+        <v>252</v>
+      </c>
+      <c r="C78" t="s">
         <v>253</v>
-      </c>
-      <c r="B78" t="s">
-        <v>254</v>
-      </c>
-      <c r="C78" t="s">
-        <v>255</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G78" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>256</v>
+      </c>
+      <c r="B79" t="s">
+        <v>509</v>
+      </c>
+      <c r="C79" t="s">
+        <v>257</v>
+      </c>
+      <c r="D79" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" t="s">
         <v>258</v>
-      </c>
-      <c r="B79" t="s">
-        <v>512</v>
-      </c>
-      <c r="C79" t="s">
-        <v>259</v>
-      </c>
-      <c r="D79" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" t="s">
-        <v>260</v>
       </c>
       <c r="G79" t="s">
         <v>21</v>
@@ -3749,39 +3749,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B80" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C80" t="s">
+        <v>482</v>
+      </c>
+      <c r="D80" t="s">
         <v>484</v>
       </c>
-      <c r="D80" t="s">
-        <v>486</v>
-      </c>
       <c r="F80" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G80" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>260</v>
+      </c>
+      <c r="B81" t="s">
+        <v>261</v>
+      </c>
+      <c r="C81" t="s">
         <v>262</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>263</v>
       </c>
-      <c r="C81" t="s">
+      <c r="F81" t="s">
         <v>264</v>
-      </c>
-      <c r="D81" t="s">
-        <v>265</v>
-      </c>
-      <c r="F81" t="s">
-        <v>266</v>
       </c>
       <c r="G81" t="s">
         <v>10</v>
@@ -3789,39 +3789,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C82" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G82" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>268</v>
+      </c>
+      <c r="B83" t="s">
+        <v>485</v>
+      </c>
+      <c r="C83" t="s">
+        <v>269</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" t="s">
         <v>270</v>
-      </c>
-      <c r="B83" t="s">
-        <v>487</v>
-      </c>
-      <c r="C83" t="s">
-        <v>271</v>
-      </c>
-      <c r="D83" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" t="s">
-        <v>272</v>
       </c>
       <c r="G83" t="s">
         <v>21</v>
@@ -3829,39 +3829,39 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>271</v>
+      </c>
+      <c r="B84" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" t="s">
         <v>273</v>
       </c>
-      <c r="B84" t="s">
+      <c r="D84" t="s">
         <v>274</v>
       </c>
-      <c r="C84" t="s">
+      <c r="F84" t="s">
         <v>275</v>
       </c>
-      <c r="D84" t="s">
-        <v>276</v>
-      </c>
-      <c r="F84" t="s">
-        <v>277</v>
-      </c>
       <c r="G84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>276</v>
+      </c>
+      <c r="B85" t="s">
+        <v>277</v>
+      </c>
+      <c r="C85" t="s">
         <v>278</v>
       </c>
-      <c r="B85" t="s">
+      <c r="D85" t="s">
+        <v>538</v>
+      </c>
+      <c r="F85" t="s">
         <v>279</v>
-      </c>
-      <c r="C85" t="s">
-        <v>280</v>
-      </c>
-      <c r="D85" t="s">
-        <v>541</v>
-      </c>
-      <c r="F85" t="s">
-        <v>281</v>
       </c>
       <c r="G85" t="s">
         <v>10</v>
@@ -3869,39 +3869,39 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B86" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C86" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>283</v>
+      </c>
+      <c r="B87" t="s">
+        <v>523</v>
+      </c>
+      <c r="C87" t="s">
+        <v>284</v>
+      </c>
+      <c r="D87" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" t="s">
         <v>285</v>
-      </c>
-      <c r="B87" t="s">
-        <v>526</v>
-      </c>
-      <c r="C87" t="s">
-        <v>286</v>
-      </c>
-      <c r="D87" t="s">
-        <v>19</v>
-      </c>
-      <c r="F87" t="s">
-        <v>287</v>
       </c>
       <c r="G87" t="s">
         <v>21</v>
@@ -3909,39 +3909,39 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>286</v>
+      </c>
+      <c r="B88" t="s">
+        <v>287</v>
+      </c>
+      <c r="C88" t="s">
         <v>288</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" t="s">
         <v>289</v>
       </c>
-      <c r="C88" t="s">
-        <v>290</v>
-      </c>
-      <c r="D88" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" t="s">
-        <v>291</v>
-      </c>
       <c r="G88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>290</v>
+      </c>
+      <c r="B89" t="s">
+        <v>518</v>
+      </c>
+      <c r="C89" t="s">
+        <v>291</v>
+      </c>
+      <c r="D89" t="s">
+        <v>144</v>
+      </c>
+      <c r="F89" t="s">
         <v>292</v>
-      </c>
-      <c r="B89" t="s">
-        <v>521</v>
-      </c>
-      <c r="C89" t="s">
-        <v>293</v>
-      </c>
-      <c r="D89" t="s">
-        <v>146</v>
-      </c>
-      <c r="F89" t="s">
-        <v>294</v>
       </c>
       <c r="G89" t="s">
         <v>10</v>
@@ -3949,39 +3949,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B90" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C90" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G90" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B91" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C91" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G91" t="s">
         <v>21</v>
@@ -3989,39 +3989,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>298</v>
+      </c>
+      <c r="B92" t="s">
+        <v>520</v>
+      </c>
+      <c r="C92" t="s">
+        <v>299</v>
+      </c>
+      <c r="D92" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" t="s">
         <v>300</v>
       </c>
-      <c r="B92" t="s">
-        <v>523</v>
-      </c>
-      <c r="C92" t="s">
-        <v>301</v>
-      </c>
-      <c r="D92" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92" t="s">
-        <v>302</v>
-      </c>
       <c r="G92" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" t="s">
+        <v>302</v>
+      </c>
+      <c r="C93" t="s">
         <v>303</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
+        <v>144</v>
+      </c>
+      <c r="F93" t="s">
         <v>304</v>
-      </c>
-      <c r="C93" t="s">
-        <v>305</v>
-      </c>
-      <c r="D93" t="s">
-        <v>146</v>
-      </c>
-      <c r="F93" t="s">
-        <v>306</v>
       </c>
       <c r="G93" t="s">
         <v>10</v>
@@ -4029,39 +4029,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>305</v>
+      </c>
+      <c r="B94" t="s">
+        <v>521</v>
+      </c>
+      <c r="C94" t="s">
+        <v>306</v>
+      </c>
+      <c r="D94" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" t="s">
         <v>307</v>
       </c>
-      <c r="B94" t="s">
-        <v>524</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="G94" t="s">
         <v>308</v>
-      </c>
-      <c r="D94" t="s">
-        <v>19</v>
-      </c>
-      <c r="F94" t="s">
-        <v>309</v>
-      </c>
-      <c r="G94" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>309</v>
+      </c>
+      <c r="B95" t="s">
+        <v>473</v>
+      </c>
+      <c r="C95" t="s">
+        <v>474</v>
+      </c>
+      <c r="D95" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" t="s">
         <v>311</v>
-      </c>
-      <c r="B95" t="s">
-        <v>475</v>
-      </c>
-      <c r="C95" t="s">
-        <v>476</v>
-      </c>
-      <c r="D95" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" t="s">
-        <v>313</v>
       </c>
       <c r="G95" t="s">
         <v>21</v>
@@ -4069,39 +4069,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>312</v>
+      </c>
+      <c r="B96" t="s">
+        <v>522</v>
+      </c>
+      <c r="C96" t="s">
+        <v>313</v>
+      </c>
+      <c r="D96" t="s">
         <v>314</v>
       </c>
-      <c r="B96" t="s">
-        <v>525</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="F96" t="s">
         <v>315</v>
       </c>
-      <c r="D96" t="s">
-        <v>316</v>
-      </c>
-      <c r="F96" t="s">
-        <v>317</v>
-      </c>
       <c r="G96" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>316</v>
+      </c>
+      <c r="B97" t="s">
+        <v>317</v>
+      </c>
+      <c r="C97" t="s">
         <v>318</v>
-      </c>
-      <c r="B97" t="s">
-        <v>319</v>
-      </c>
-      <c r="C97" t="s">
-        <v>320</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G97" t="s">
         <v>10</v>
@@ -4109,39 +4109,39 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>320</v>
+      </c>
+      <c r="B98" t="s">
+        <v>321</v>
+      </c>
+      <c r="C98" t="s">
         <v>322</v>
-      </c>
-      <c r="B98" t="s">
-        <v>323</v>
-      </c>
-      <c r="C98" t="s">
-        <v>324</v>
       </c>
       <c r="D98" t="s">
         <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G98" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B99" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C99" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D99" t="s">
         <v>19</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G99" t="s">
         <v>21</v>
@@ -4149,59 +4149,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B100" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C100" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D100" t="s">
         <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G100" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>327</v>
+      </c>
+      <c r="B101" t="s">
+        <v>512</v>
+      </c>
+      <c r="C101" t="s">
+        <v>328</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+      <c r="F101" t="s">
         <v>329</v>
       </c>
-      <c r="B101" t="s">
-        <v>515</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="G101" t="s">
         <v>330</v>
-      </c>
-      <c r="D101" t="s">
-        <v>19</v>
-      </c>
-      <c r="F101" t="s">
-        <v>331</v>
-      </c>
-      <c r="G101" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>331</v>
+      </c>
+      <c r="B102" t="s">
+        <v>332</v>
+      </c>
+      <c r="C102" t="s">
+        <v>210</v>
+      </c>
+      <c r="D102" t="s">
+        <v>19</v>
+      </c>
+      <c r="F102" t="s">
         <v>333</v>
-      </c>
-      <c r="B102" t="s">
-        <v>334</v>
-      </c>
-      <c r="C102" t="s">
-        <v>212</v>
-      </c>
-      <c r="D102" t="s">
-        <v>19</v>
-      </c>
-      <c r="F102" t="s">
-        <v>335</v>
       </c>
       <c r="G102" t="s">
         <v>21</v>
@@ -4209,39 +4209,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>334</v>
+      </c>
+      <c r="B103" t="s">
+        <v>335</v>
+      </c>
+      <c r="C103" t="s">
         <v>336</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+      <c r="F103" t="s">
         <v>337</v>
       </c>
-      <c r="C103" t="s">
-        <v>338</v>
-      </c>
-      <c r="D103" t="s">
-        <v>19</v>
-      </c>
-      <c r="F103" t="s">
-        <v>339</v>
-      </c>
       <c r="G103" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>338</v>
+      </c>
+      <c r="B104" t="s">
+        <v>339</v>
+      </c>
+      <c r="C104" t="s">
         <v>340</v>
       </c>
-      <c r="B104" t="s">
+      <c r="D104" t="s">
         <v>341</v>
       </c>
-      <c r="C104" t="s">
+      <c r="F104" t="s">
         <v>342</v>
-      </c>
-      <c r="D104" t="s">
-        <v>343</v>
-      </c>
-      <c r="F104" t="s">
-        <v>344</v>
       </c>
       <c r="G104" t="s">
         <v>10</v>
@@ -4249,39 +4249,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>343</v>
+      </c>
+      <c r="B105" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" t="s">
         <v>345</v>
       </c>
-      <c r="B105" t="s">
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+      <c r="F105" t="s">
         <v>346</v>
       </c>
-      <c r="C105" t="s">
+      <c r="G105" t="s">
         <v>347</v>
-      </c>
-      <c r="D105" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" t="s">
-        <v>348</v>
-      </c>
-      <c r="G105" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>348</v>
+      </c>
+      <c r="B106" t="s">
+        <v>487</v>
+      </c>
+      <c r="C106" t="s">
+        <v>349</v>
+      </c>
+      <c r="D106" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" t="s">
         <v>350</v>
-      </c>
-      <c r="B106" t="s">
-        <v>489</v>
-      </c>
-      <c r="C106" t="s">
-        <v>351</v>
-      </c>
-      <c r="D106" t="s">
-        <v>19</v>
-      </c>
-      <c r="F106" t="s">
-        <v>352</v>
       </c>
       <c r="G106" t="s">
         <v>21</v>
@@ -4289,19 +4289,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B107" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C107" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D107" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F107" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G107" t="s">
         <v>10</v>
@@ -4309,39 +4309,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>353</v>
+      </c>
+      <c r="B108" t="s">
+        <v>524</v>
+      </c>
+      <c r="C108" t="s">
+        <v>354</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" t="s">
         <v>355</v>
       </c>
-      <c r="B108" t="s">
-        <v>527</v>
-      </c>
-      <c r="C108" t="s">
-        <v>356</v>
-      </c>
-      <c r="D108" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" t="s">
-        <v>357</v>
-      </c>
       <c r="G108" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>356</v>
+      </c>
+      <c r="B109" t="s">
+        <v>357</v>
+      </c>
+      <c r="C109" t="s">
+        <v>467</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="F109" t="s">
         <v>358</v>
-      </c>
-      <c r="B109" t="s">
-        <v>359</v>
-      </c>
-      <c r="C109" t="s">
-        <v>469</v>
-      </c>
-      <c r="D109" t="s">
-        <v>19</v>
-      </c>
-      <c r="F109" t="s">
-        <v>360</v>
       </c>
       <c r="G109" t="s">
         <v>21</v>
@@ -4349,19 +4349,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>359</v>
+      </c>
+      <c r="B110" t="s">
+        <v>360</v>
+      </c>
+      <c r="C110" t="s">
         <v>361</v>
       </c>
-      <c r="B110" t="s">
+      <c r="D110" t="s">
+        <v>234</v>
+      </c>
+      <c r="F110" t="s">
         <v>362</v>
-      </c>
-      <c r="C110" t="s">
-        <v>363</v>
-      </c>
-      <c r="D110" t="s">
-        <v>236</v>
-      </c>
-      <c r="F110" t="s">
-        <v>364</v>
       </c>
       <c r="G110" t="s">
         <v>10</v>
@@ -4369,39 +4369,39 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B111" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C111" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G111" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>366</v>
+      </c>
+      <c r="B112" t="s">
+        <v>367</v>
+      </c>
+      <c r="C112" t="s">
         <v>368</v>
       </c>
-      <c r="B112" t="s">
+      <c r="D112" t="s">
         <v>369</v>
       </c>
-      <c r="C112" t="s">
+      <c r="F112" t="s">
         <v>370</v>
-      </c>
-      <c r="D112" t="s">
-        <v>371</v>
-      </c>
-      <c r="F112" t="s">
-        <v>372</v>
       </c>
       <c r="G112" t="s">
         <v>10</v>
@@ -4409,39 +4409,39 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B113" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C113" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
       </c>
       <c r="F113" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G113" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>373</v>
+      </c>
+      <c r="B114" t="s">
+        <v>491</v>
+      </c>
+      <c r="C114" t="s">
+        <v>374</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="F114" t="s">
         <v>375</v>
-      </c>
-      <c r="B114" t="s">
-        <v>493</v>
-      </c>
-      <c r="C114" t="s">
-        <v>376</v>
-      </c>
-      <c r="D114" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" t="s">
-        <v>377</v>
       </c>
       <c r="G114" t="s">
         <v>21</v>
@@ -4449,59 +4449,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>376</v>
+      </c>
+      <c r="B115" t="s">
+        <v>377</v>
+      </c>
+      <c r="C115" t="s">
         <v>378</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="F115" t="s">
         <v>379</v>
       </c>
-      <c r="C115" t="s">
-        <v>380</v>
-      </c>
-      <c r="D115" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" t="s">
-        <v>381</v>
-      </c>
       <c r="G115" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>380</v>
+      </c>
+      <c r="B116" t="s">
+        <v>381</v>
+      </c>
+      <c r="C116" t="s">
+        <v>299</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="F116" t="s">
         <v>382</v>
       </c>
-      <c r="B116" t="s">
-        <v>383</v>
-      </c>
-      <c r="C116" t="s">
-        <v>301</v>
-      </c>
-      <c r="D116" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" t="s">
-        <v>384</v>
-      </c>
       <c r="G116" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
+        <v>383</v>
+      </c>
+      <c r="B117" t="s">
+        <v>384</v>
+      </c>
+      <c r="C117" t="s">
         <v>385</v>
       </c>
-      <c r="B117" t="s">
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="F117" t="s">
         <v>386</v>
-      </c>
-      <c r="C117" t="s">
-        <v>387</v>
-      </c>
-      <c r="D117" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" t="s">
-        <v>388</v>
       </c>
       <c r="G117" t="s">
         <v>21</v>
@@ -4509,39 +4509,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>387</v>
+      </c>
+      <c r="B118" t="s">
+        <v>388</v>
+      </c>
+      <c r="C118" t="s">
+        <v>539</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="F118" t="s">
         <v>389</v>
       </c>
-      <c r="B118" t="s">
-        <v>390</v>
-      </c>
-      <c r="C118" t="s">
-        <v>542</v>
-      </c>
-      <c r="D118" t="s">
-        <v>19</v>
-      </c>
-      <c r="F118" t="s">
-        <v>391</v>
-      </c>
       <c r="G118" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>390</v>
+      </c>
+      <c r="B119" t="s">
+        <v>391</v>
+      </c>
+      <c r="C119" t="s">
         <v>392</v>
       </c>
-      <c r="B119" t="s">
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="F119" t="s">
         <v>393</v>
-      </c>
-      <c r="C119" t="s">
-        <v>394</v>
-      </c>
-      <c r="D119" t="s">
-        <v>19</v>
-      </c>
-      <c r="F119" t="s">
-        <v>395</v>
       </c>
       <c r="G119" t="s">
         <v>10</v>
@@ -4549,39 +4549,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B120" t="s">
+        <v>566</v>
+      </c>
+      <c r="C120" t="s">
+        <v>567</v>
+      </c>
+      <c r="D120" t="s">
+        <v>568</v>
+      </c>
+      <c r="F120" t="s">
         <v>569</v>
       </c>
-      <c r="C120" t="s">
-        <v>570</v>
-      </c>
-      <c r="D120" t="s">
-        <v>571</v>
-      </c>
-      <c r="F120" t="s">
-        <v>572</v>
-      </c>
       <c r="G120" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>395</v>
+      </c>
+      <c r="B121" t="s">
+        <v>396</v>
+      </c>
+      <c r="C121" t="s">
         <v>397</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="F121" t="s">
         <v>398</v>
-      </c>
-      <c r="C121" t="s">
-        <v>399</v>
-      </c>
-      <c r="D121" t="s">
-        <v>19</v>
-      </c>
-      <c r="F121" t="s">
-        <v>400</v>
       </c>
       <c r="G121" t="s">
         <v>21</v>
@@ -4589,39 +4589,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>399</v>
+      </c>
+      <c r="B122" t="s">
+        <v>492</v>
+      </c>
+      <c r="C122" t="s">
+        <v>400</v>
+      </c>
+      <c r="D122" t="s">
         <v>401</v>
       </c>
-      <c r="B122" t="s">
-        <v>494</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="F122" t="s">
         <v>402</v>
       </c>
-      <c r="D122" t="s">
+      <c r="G122" t="s">
         <v>403</v>
-      </c>
-      <c r="F122" t="s">
-        <v>404</v>
-      </c>
-      <c r="G122" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>404</v>
+      </c>
+      <c r="B123" t="s">
+        <v>405</v>
+      </c>
+      <c r="C123" t="s">
         <v>406</v>
       </c>
-      <c r="B123" t="s">
+      <c r="D123" t="s">
+        <v>144</v>
+      </c>
+      <c r="F123" t="s">
         <v>407</v>
-      </c>
-      <c r="C123" t="s">
-        <v>408</v>
-      </c>
-      <c r="D123" t="s">
-        <v>146</v>
-      </c>
-      <c r="F123" t="s">
-        <v>409</v>
       </c>
       <c r="G123" t="s">
         <v>10</v>
@@ -4629,30 +4629,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>408</v>
+      </c>
+      <c r="B124" t="s">
+        <v>409</v>
+      </c>
+      <c r="C124" t="s">
         <v>410</v>
-      </c>
-      <c r="B124" t="s">
-        <v>411</v>
-      </c>
-      <c r="C124" t="s">
-        <v>412</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G124" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B125" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C125" t="s">
         <v>18</v>
@@ -4661,7 +4661,7 @@
         <v>19</v>
       </c>
       <c r="F125" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G125" t="s">
         <v>21</v>
@@ -4669,39 +4669,39 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>415</v>
+      </c>
+      <c r="B126" t="s">
+        <v>416</v>
+      </c>
+      <c r="C126" t="s">
         <v>417</v>
-      </c>
-      <c r="B126" t="s">
-        <v>418</v>
-      </c>
-      <c r="C126" t="s">
-        <v>419</v>
       </c>
       <c r="D126" t="s">
         <v>37</v>
       </c>
       <c r="F126" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G126" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B127" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C127" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G127" t="s">
         <v>10</v>
@@ -4709,39 +4709,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>422</v>
+      </c>
+      <c r="B128" t="s">
+        <v>423</v>
+      </c>
+      <c r="C128" t="s">
         <v>424</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="F128" t="s">
         <v>425</v>
       </c>
-      <c r="C128" t="s">
-        <v>426</v>
-      </c>
-      <c r="D128" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" t="s">
-        <v>427</v>
-      </c>
       <c r="G128" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>426</v>
+      </c>
+      <c r="B129" t="s">
+        <v>427</v>
+      </c>
+      <c r="C129" t="s">
         <v>428</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="F129" t="s">
         <v>429</v>
-      </c>
-      <c r="C129" t="s">
-        <v>430</v>
-      </c>
-      <c r="D129" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129" t="s">
-        <v>431</v>
       </c>
       <c r="G129" t="s">
         <v>21</v>
@@ -4749,39 +4749,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B130" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C130" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G130" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>433</v>
+      </c>
+      <c r="B131" t="s">
+        <v>525</v>
+      </c>
+      <c r="C131" t="s">
+        <v>434</v>
+      </c>
+      <c r="D131" t="s">
+        <v>538</v>
+      </c>
+      <c r="F131" t="s">
         <v>435</v>
-      </c>
-      <c r="B131" t="s">
-        <v>528</v>
-      </c>
-      <c r="C131" t="s">
-        <v>436</v>
-      </c>
-      <c r="D131" t="s">
-        <v>541</v>
-      </c>
-      <c r="F131" t="s">
-        <v>437</v>
       </c>
       <c r="G131" t="s">
         <v>10</v>
@@ -4789,39 +4789,39 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>436</v>
+      </c>
+      <c r="B132" t="s">
+        <v>437</v>
+      </c>
+      <c r="C132" t="s">
         <v>438</v>
-      </c>
-      <c r="B132" t="s">
-        <v>439</v>
-      </c>
-      <c r="C132" t="s">
-        <v>440</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="G132" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B133" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C133" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D133" t="s">
         <v>19</v>
       </c>
       <c r="F133" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G133" t="s">
         <v>21</v>
@@ -4829,39 +4829,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>442</v>
+      </c>
+      <c r="B134" t="s">
+        <v>443</v>
+      </c>
+      <c r="C134" t="s">
         <v>444</v>
-      </c>
-      <c r="B134" t="s">
-        <v>445</v>
-      </c>
-      <c r="C134" t="s">
-        <v>446</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="G134" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>447</v>
+      </c>
+      <c r="B135" t="s">
+        <v>448</v>
+      </c>
+      <c r="C135" t="s">
         <v>449</v>
       </c>
-      <c r="B135" t="s">
+      <c r="D135" t="s">
+        <v>310</v>
+      </c>
+      <c r="F135" t="s">
         <v>450</v>
-      </c>
-      <c r="C135" t="s">
-        <v>451</v>
-      </c>
-      <c r="D135" t="s">
-        <v>312</v>
-      </c>
-      <c r="F135" t="s">
-        <v>452</v>
       </c>
       <c r="G135" t="s">
         <v>10</v>
@@ -4869,39 +4869,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B136" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C136" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D136" t="s">
         <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="G136" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>454</v>
+      </c>
+      <c r="B137" t="s">
+        <v>455</v>
+      </c>
+      <c r="C137" t="s">
+        <v>210</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="F137" t="s">
         <v>456</v>
-      </c>
-      <c r="B137" t="s">
-        <v>457</v>
-      </c>
-      <c r="C137" t="s">
-        <v>212</v>
-      </c>
-      <c r="D137" t="s">
-        <v>19</v>
-      </c>
-      <c r="F137" t="s">
-        <v>458</v>
       </c>
       <c r="G137" t="s">
         <v>21</v>
@@ -4909,22 +4909,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B138" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C138" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D138" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F138" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G138" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/Rituel ecoute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E356823-BF5A-9D48-9789-13443C3580A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B566FF-1DAC-7B43-8D4A-24DEC79BD656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="581">
   <si>
     <t>titre</t>
   </si>
@@ -220,9 +220,6 @@
     <t>Michel Polnareff</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=BzA6mnM3dfg</t>
-  </si>
-  <si>
     <t>03/10/2025</t>
   </si>
   <si>
@@ -757,15 +754,6 @@
     <t>06/02/2026</t>
   </si>
   <si>
-    <t>Can't Stop the Feeling! (2016)</t>
-  </si>
-  <si>
-    <t>Justin Timberlake</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ru0K8uYEZWw</t>
-  </si>
-  <si>
     <t>09/02/2026</t>
   </si>
   <si>
@@ -841,9 +829,6 @@
     <t>06/03/2026</t>
   </si>
   <si>
-    <t>Stairway to Heaven (1946)</t>
-  </si>
-  <si>
     <t>Led Zeppelin</t>
   </si>
   <si>
@@ -1057,15 +1042,6 @@
     <t>28/04/2026</t>
   </si>
   <si>
-    <t>Petit pays (2016)</t>
-  </si>
-  <si>
-    <t>Gaël Faye</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=XTF2pwr8lYk</t>
-  </si>
-  <si>
     <t>hip-hop</t>
   </si>
   <si>
@@ -1177,15 +1153,6 @@
     <t>28/05/2026</t>
   </si>
   <si>
-    <t>Elle a les yeux revolver (1985)</t>
-  </si>
-  <si>
-    <t>Marc Lavoine</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=8G9CBCNKKdE</t>
-  </si>
-  <si>
     <t>29/05/2026</t>
   </si>
   <si>
@@ -1760,6 +1727,45 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=0QdbeM2JWYE&amp;list=RD0QdbeM2JWYE&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lnIcQBh-utA&amp;list=RDlnIcQBh-utA&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Entre toi pi moi pi la corde de bois (2021)</t>
+  </si>
+  <si>
+    <t>Lisa LeBlanc</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=iLuEWnHr5eI&amp;list=RDiLuEWnHr5eI&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Stairway to Heaven (1971)</t>
+  </si>
+  <si>
+    <t>Petit pays (2012)</t>
+  </si>
+  <si>
+    <t>Cesária Evora</t>
+  </si>
+  <si>
+    <t>Cap-Vert</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DeLUGn7qYP8&amp;list=RDDeLUGn7qYP8&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Romance (1971)</t>
+  </si>
+  <si>
+    <t>Narcisco Yepes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_ql2jxSKdzA&amp;list=RD_ql2jxSKdzA&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
@@ -2153,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2166,7 +2172,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2198,7 +2204,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -2212,7 +2218,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C3" t="s">
         <v>12</v>
@@ -2232,16 +2238,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="C4" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="G4" t="s">
         <v>21</v>
@@ -2252,19 +2258,19 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="C5" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="G5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2272,7 +2278,7 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
@@ -2292,10 +2298,10 @@
         <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="C7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -2304,7 +2310,7 @@
         <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2312,7 +2318,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -2332,7 +2338,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -2352,7 +2358,7 @@
         <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
@@ -2372,19 +2378,19 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
       <c r="C11" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D11" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="F11" t="s">
         <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2412,19 +2418,19 @@
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C13" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="D13" t="s">
         <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="G13" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2455,7 +2461,7 @@
         <v>48</v>
       </c>
       <c r="C15" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D15" t="s">
         <v>19</v>
@@ -2464,7 +2470,7 @@
         <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2472,7 +2478,7 @@
         <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C16" t="s">
         <v>51</v>
@@ -2492,10 +2498,10 @@
         <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="C17" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -2504,7 +2510,7 @@
         <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2552,7 +2558,7 @@
         <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
@@ -2560,8 +2566,8 @@
       <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="F20" t="s">
-        <v>65</v>
+      <c r="F20" s="1" t="s">
+        <v>568</v>
       </c>
       <c r="G20" t="s">
         <v>21</v>
@@ -2569,39 +2575,39 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D21" t="s">
+        <v>451</v>
+      </c>
+      <c r="F21" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C21" t="s">
-        <v>461</v>
-      </c>
-      <c r="D21" t="s">
-        <v>462</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
       <c r="G21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>69</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" t="s">
         <v>70</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>71</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -2609,19 +2615,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s">
+        <v>485</v>
+      </c>
+      <c r="C23" t="s">
         <v>72</v>
-      </c>
-      <c r="B23" t="s">
-        <v>496</v>
-      </c>
-      <c r="C23" t="s">
-        <v>73</v>
       </c>
       <c r="D23" t="s">
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" t="s">
         <v>14</v>
@@ -2629,19 +2635,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>468</v>
+      </c>
+      <c r="C24" t="s">
         <v>75</v>
       </c>
-      <c r="B24" t="s">
-        <v>479</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
         <v>76</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>77</v>
       </c>
       <c r="G24" t="s">
         <v>21</v>
@@ -2649,19 +2655,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" t="s">
+        <v>469</v>
+      </c>
+      <c r="C25" t="s">
         <v>78</v>
       </c>
-      <c r="B25" t="s">
-        <v>480</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" t="s">
         <v>79</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>80</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
@@ -2669,19 +2675,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" t="s">
-        <v>83</v>
       </c>
       <c r="D26" t="s">
         <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -2689,19 +2695,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" t="s">
+        <v>519</v>
+      </c>
+      <c r="C27" t="s">
+        <v>520</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
         <v>85</v>
-      </c>
-      <c r="B27" t="s">
-        <v>530</v>
-      </c>
-      <c r="C27" t="s">
-        <v>531</v>
-      </c>
-      <c r="D27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>86</v>
       </c>
       <c r="G27" t="s">
         <v>14</v>
@@ -2709,19 +2715,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" t="s">
         <v>87</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>88</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>89</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>90</v>
-      </c>
-      <c r="F28" t="s">
-        <v>91</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
@@ -2729,19 +2735,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" t="s">
+        <v>522</v>
+      </c>
+      <c r="C29" t="s">
+        <v>521</v>
+      </c>
+      <c r="D29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>533</v>
-      </c>
-      <c r="C29" t="s">
-        <v>532</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" t="s">
-        <v>93</v>
       </c>
       <c r="G29" t="s">
         <v>14</v>
@@ -2749,19 +2755,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
         <v>94</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>95</v>
       </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
       <c r="D30" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -2769,19 +2775,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>486</v>
+      </c>
+      <c r="C31" t="s">
         <v>99</v>
       </c>
-      <c r="B31" t="s">
-        <v>497</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
         <v>100</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>101</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
@@ -2789,10 +2795,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
         <v>102</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -2801,7 +2807,7 @@
         <v>19</v>
       </c>
       <c r="F32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G32" t="s">
         <v>21</v>
@@ -2809,19 +2815,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>457</v>
+      </c>
+      <c r="C33" t="s">
+        <v>458</v>
+      </c>
+      <c r="D33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
         <v>105</v>
-      </c>
-      <c r="B33" t="s">
-        <v>468</v>
-      </c>
-      <c r="C33" t="s">
-        <v>469</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" t="s">
-        <v>106</v>
       </c>
       <c r="G33" t="s">
         <v>21</v>
@@ -2829,10 +2835,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" t="s">
         <v>107</v>
-      </c>
-      <c r="B34" t="s">
-        <v>108</v>
       </c>
       <c r="C34" t="s">
         <v>57</v>
@@ -2841,7 +2847,7 @@
         <v>13</v>
       </c>
       <c r="F34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -2849,19 +2855,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>460</v>
+      </c>
+      <c r="C35" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" t="s">
         <v>110</v>
-      </c>
-      <c r="B35" t="s">
-        <v>471</v>
-      </c>
-      <c r="C35" t="s">
-        <v>470</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>111</v>
       </c>
       <c r="G35" t="s">
         <v>21</v>
@@ -2869,19 +2875,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="C36" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G36" t="s">
         <v>14</v>
@@ -2889,19 +2895,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>489</v>
+      </c>
+      <c r="C37" t="s">
         <v>114</v>
-      </c>
-      <c r="B37" t="s">
-        <v>500</v>
-      </c>
-      <c r="C37" t="s">
-        <v>115</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -2909,39 +2915,39 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C38" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D38" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F38" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="G38" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
         <v>118</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>119</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
         <v>120</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
-        <v>121</v>
       </c>
       <c r="G39" t="s">
         <v>21</v>
@@ -2949,19 +2955,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" t="s">
+        <v>490</v>
+      </c>
+      <c r="C40" t="s">
+        <v>461</v>
+      </c>
+      <c r="D40" t="s">
+        <v>361</v>
+      </c>
+      <c r="F40" t="s">
         <v>122</v>
-      </c>
-      <c r="B40" t="s">
-        <v>501</v>
-      </c>
-      <c r="C40" t="s">
-        <v>472</v>
-      </c>
-      <c r="D40" t="s">
-        <v>369</v>
-      </c>
-      <c r="F40" t="s">
-        <v>123</v>
       </c>
       <c r="G40" t="s">
         <v>14</v>
@@ -2969,19 +2975,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B41" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C41" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D41" t="s">
         <v>13</v>
       </c>
       <c r="F41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -2989,19 +2995,19 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="C42" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D42" t="s">
         <v>19</v>
       </c>
       <c r="F42" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="G42" t="s">
         <v>21</v>
@@ -3009,19 +3015,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B43" t="s">
+        <v>492</v>
+      </c>
+      <c r="C43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" t="s">
         <v>127</v>
-      </c>
-      <c r="B43" t="s">
-        <v>503</v>
-      </c>
-      <c r="C43" t="s">
-        <v>120</v>
-      </c>
-      <c r="D43" t="s">
-        <v>19</v>
-      </c>
-      <c r="F43" t="s">
-        <v>128</v>
       </c>
       <c r="G43" t="s">
         <v>21</v>
@@ -3029,19 +3035,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" t="s">
+        <v>530</v>
+      </c>
+      <c r="C44" t="s">
         <v>129</v>
-      </c>
-      <c r="B44" t="s">
-        <v>541</v>
-      </c>
-      <c r="C44" t="s">
-        <v>130</v>
       </c>
       <c r="D44" t="s">
         <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" t="s">
         <v>14</v>
@@ -3049,19 +3055,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" t="s">
+        <v>493</v>
+      </c>
+      <c r="C45" t="s">
         <v>132</v>
-      </c>
-      <c r="B45" t="s">
-        <v>504</v>
-      </c>
-      <c r="C45" t="s">
-        <v>133</v>
       </c>
       <c r="D45" t="s">
         <v>13</v>
       </c>
       <c r="F45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -3069,19 +3075,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" t="s">
         <v>135</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>136</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>470</v>
+      </c>
+      <c r="F46" t="s">
         <v>137</v>
-      </c>
-      <c r="D46" t="s">
-        <v>481</v>
-      </c>
-      <c r="F46" t="s">
-        <v>138</v>
       </c>
       <c r="G46" t="s">
         <v>14</v>
@@ -3089,19 +3095,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
         <v>139</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" t="s">
         <v>140</v>
-      </c>
-      <c r="C47" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" t="s">
-        <v>141</v>
       </c>
       <c r="G47" t="s">
         <v>21</v>
@@ -3109,39 +3115,39 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B48" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="C48" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="D48" t="s">
         <v>23</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="G48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>524</v>
+      </c>
+      <c r="C49" t="s">
         <v>147</v>
       </c>
-      <c r="B49" t="s">
-        <v>535</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" t="s">
         <v>148</v>
-      </c>
-      <c r="D49" t="s">
-        <v>144</v>
-      </c>
-      <c r="F49" t="s">
-        <v>149</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -3149,39 +3155,39 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="s">
         <v>150</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>151</v>
-      </c>
-      <c r="C50" t="s">
-        <v>152</v>
       </c>
       <c r="D50" t="s">
         <v>37</v>
       </c>
       <c r="F50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50" t="s">
         <v>153</v>
-      </c>
-      <c r="G50" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
         <v>155</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>156</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" t="s">
         <v>157</v>
-      </c>
-      <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" t="s">
-        <v>158</v>
       </c>
       <c r="G51" t="s">
         <v>21</v>
@@ -3189,30 +3195,30 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s">
+        <v>494</v>
+      </c>
+      <c r="C52" t="s">
         <v>159</v>
-      </c>
-      <c r="B52" t="s">
-        <v>505</v>
-      </c>
-      <c r="C52" t="s">
-        <v>160</v>
       </c>
       <c r="D52" t="s">
         <v>23</v>
       </c>
       <c r="F52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
         <v>162</v>
-      </c>
-      <c r="B53" t="s">
-        <v>163</v>
       </c>
       <c r="C53" t="s">
         <v>36</v>
@@ -3221,7 +3227,7 @@
         <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G53" t="s">
         <v>10</v>
@@ -3229,39 +3235,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B54" t="s">
+        <v>495</v>
+      </c>
+      <c r="C54" t="s">
         <v>165</v>
       </c>
-      <c r="B54" t="s">
-        <v>506</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" t="s">
         <v>166</v>
       </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>167</v>
-      </c>
-      <c r="G54" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" t="s">
         <v>169</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="F55" t="s">
         <v>170</v>
-      </c>
-      <c r="C55" t="s">
-        <v>89</v>
-      </c>
-      <c r="D55" t="s">
-        <v>90</v>
-      </c>
-      <c r="F55" t="s">
-        <v>171</v>
       </c>
       <c r="G55" t="s">
         <v>21</v>
@@ -3269,30 +3275,30 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" t="s">
         <v>143</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>144</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>145</v>
-      </c>
-      <c r="G56" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
       <c r="C57" t="s">
         <v>25</v>
@@ -3301,7 +3307,7 @@
         <v>13</v>
       </c>
       <c r="F57" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G57" t="s">
         <v>10</v>
@@ -3309,39 +3315,39 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" t="s">
         <v>175</v>
       </c>
-      <c r="B58" t="s">
-        <v>176</v>
-      </c>
       <c r="C58" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="D58" t="s">
         <v>23</v>
       </c>
       <c r="F58" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58" t="s">
         <v>177</v>
-      </c>
-      <c r="G58" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>178</v>
+      </c>
+      <c r="B59" t="s">
+        <v>496</v>
+      </c>
+      <c r="C59" t="s">
         <v>179</v>
       </c>
-      <c r="B59" t="s">
-        <v>507</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" t="s">
         <v>180</v>
-      </c>
-      <c r="D59" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" t="s">
-        <v>181</v>
       </c>
       <c r="G59" t="s">
         <v>21</v>
@@ -3349,39 +3355,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" t="s">
         <v>182</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>183</v>
-      </c>
-      <c r="C60" t="s">
-        <v>184</v>
       </c>
       <c r="D60" t="s">
         <v>37</v>
       </c>
       <c r="F60" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B61" t="s">
         <v>186</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" t="s">
         <v>187</v>
-      </c>
-      <c r="C61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" t="s">
-        <v>188</v>
       </c>
       <c r="G61" t="s">
         <v>10</v>
@@ -3389,39 +3395,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>188</v>
+      </c>
+      <c r="B62" t="s">
         <v>189</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>190</v>
-      </c>
-      <c r="C62" t="s">
-        <v>191</v>
       </c>
       <c r="D62" t="s">
         <v>23</v>
       </c>
       <c r="F62" t="s">
+        <v>191</v>
+      </c>
+      <c r="G62" t="s">
         <v>192</v>
-      </c>
-      <c r="G62" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>193</v>
+      </c>
+      <c r="B63" t="s">
         <v>194</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>195</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
         <v>196</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" t="s">
-        <v>197</v>
       </c>
       <c r="G63" t="s">
         <v>21</v>
@@ -3429,30 +3435,30 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" t="s">
         <v>198</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>199</v>
-      </c>
-      <c r="C64" t="s">
-        <v>200</v>
       </c>
       <c r="D64" t="s">
         <v>37</v>
       </c>
       <c r="F64" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G64" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>201</v>
+      </c>
+      <c r="B65" t="s">
         <v>202</v>
-      </c>
-      <c r="B65" t="s">
-        <v>203</v>
       </c>
       <c r="C65" t="s">
         <v>57</v>
@@ -3461,7 +3467,7 @@
         <v>13</v>
       </c>
       <c r="F65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G65" t="s">
         <v>10</v>
@@ -3469,39 +3475,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" t="s">
+        <v>504</v>
+      </c>
+      <c r="C66" t="s">
         <v>205</v>
-      </c>
-      <c r="B66" t="s">
-        <v>515</v>
-      </c>
-      <c r="C66" t="s">
-        <v>206</v>
       </c>
       <c r="D66" t="s">
         <v>23</v>
       </c>
       <c r="F66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" t="s">
         <v>208</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>209</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" t="s">
         <v>210</v>
-      </c>
-      <c r="D67" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" t="s">
-        <v>211</v>
       </c>
       <c r="G67" t="s">
         <v>21</v>
@@ -3509,39 +3515,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>211</v>
+      </c>
+      <c r="B68" t="s">
         <v>212</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>213</v>
-      </c>
-      <c r="C68" t="s">
-        <v>214</v>
       </c>
       <c r="D68" t="s">
         <v>37</v>
       </c>
       <c r="F68" t="s">
+        <v>214</v>
+      </c>
+      <c r="G68" t="s">
         <v>215</v>
-      </c>
-      <c r="G68" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B69" t="s">
         <v>217</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>218</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>219</v>
       </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
         <v>220</v>
-      </c>
-      <c r="F69" t="s">
-        <v>221</v>
       </c>
       <c r="G69" t="s">
         <v>10</v>
@@ -3549,39 +3555,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B70" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="C70" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D70" t="s">
         <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="G70" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" t="s">
         <v>224</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>225</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" t="s">
         <v>226</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F71" t="s">
-        <v>227</v>
       </c>
       <c r="G71" t="s">
         <v>21</v>
@@ -3589,39 +3595,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" t="s">
+        <v>506</v>
+      </c>
+      <c r="C72" t="s">
         <v>228</v>
-      </c>
-      <c r="B72" t="s">
-        <v>517</v>
-      </c>
-      <c r="C72" t="s">
-        <v>229</v>
       </c>
       <c r="D72" t="s">
         <v>23</v>
       </c>
       <c r="F72" t="s">
+        <v>229</v>
+      </c>
+      <c r="G72" t="s">
         <v>230</v>
-      </c>
-      <c r="G72" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>231</v>
+      </c>
+      <c r="B73" t="s">
+        <v>544</v>
+      </c>
+      <c r="C73" t="s">
         <v>232</v>
       </c>
-      <c r="B73" t="s">
-        <v>555</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>233</v>
       </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>234</v>
-      </c>
-      <c r="F73" t="s">
-        <v>235</v>
       </c>
       <c r="G73" t="s">
         <v>10</v>
@@ -3629,39 +3635,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>235</v>
+      </c>
+      <c r="B74" t="s">
+        <v>497</v>
+      </c>
+      <c r="C74" t="s">
         <v>236</v>
-      </c>
-      <c r="B74" t="s">
-        <v>508</v>
-      </c>
-      <c r="C74" t="s">
-        <v>237</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
       </c>
       <c r="F74" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>238</v>
+      </c>
+      <c r="B75" t="s">
         <v>239</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>240</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" t="s">
         <v>241</v>
-      </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" t="s">
-        <v>242</v>
       </c>
       <c r="G75" t="s">
         <v>21</v>
@@ -3669,39 +3675,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B76" t="s">
-        <v>244</v>
+        <v>569</v>
       </c>
       <c r="C76" t="s">
-        <v>245</v>
+        <v>570</v>
       </c>
       <c r="D76" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" t="s">
-        <v>246</v>
+        <v>571</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>572</v>
       </c>
       <c r="G76" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B77" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C77" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D77" t="s">
         <v>19</v>
       </c>
       <c r="F77" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G77" t="s">
         <v>10</v>
@@ -3709,39 +3715,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B78" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G78" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B79" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="C79" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="D79" t="s">
         <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G79" t="s">
         <v>21</v>
@@ -3749,39 +3755,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B80" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="C80" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="D80" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="F80" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="G80" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>256</v>
+      </c>
+      <c r="B81" t="s">
+        <v>257</v>
+      </c>
+      <c r="C81" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" t="s">
         <v>260</v>
-      </c>
-      <c r="B81" t="s">
-        <v>261</v>
-      </c>
-      <c r="C81" t="s">
-        <v>262</v>
-      </c>
-      <c r="D81" t="s">
-        <v>263</v>
-      </c>
-      <c r="F81" t="s">
-        <v>264</v>
       </c>
       <c r="G81" t="s">
         <v>10</v>
@@ -3789,39 +3795,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
       </c>
       <c r="F82" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G82" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B83" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="C83" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D83" t="s">
         <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G83" t="s">
         <v>21</v>
@@ -3829,39 +3835,39 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B84" t="s">
-        <v>272</v>
+        <v>573</v>
       </c>
       <c r="C84" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D84" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F84" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="G84" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B85" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C85" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D85" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F85" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G85" t="s">
         <v>10</v>
@@ -3869,39 +3875,39 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B86" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C86" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
       </c>
       <c r="F86" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="G86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B87" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="C87" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D87" t="s">
         <v>19</v>
       </c>
       <c r="F87" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="G87" t="s">
         <v>21</v>
@@ -3909,39 +3915,39 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B88" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C88" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D88" t="s">
         <v>19</v>
       </c>
       <c r="F88" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G88" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B89" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C89" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D89" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F89" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G89" t="s">
         <v>10</v>
@@ -3949,39 +3955,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B90" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="C90" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D90" t="s">
         <v>23</v>
       </c>
       <c r="F90" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G90" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B91" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="C91" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D91" t="s">
         <v>19</v>
       </c>
       <c r="F91" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="G91" t="s">
         <v>21</v>
@@ -3989,39 +3995,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B92" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
       <c r="C92" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D92" t="s">
         <v>19</v>
       </c>
       <c r="F92" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G92" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B93" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C93" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F93" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G93" t="s">
         <v>10</v>
@@ -4029,39 +4035,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B94" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="C94" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="D94" t="s">
         <v>19</v>
       </c>
       <c r="F94" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G94" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B95" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C95" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D95" t="s">
         <v>19</v>
       </c>
       <c r="F95" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="G95" t="s">
         <v>21</v>
@@ -4069,39 +4075,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B96" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="C96" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D96" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F96" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B97" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C97" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
       </c>
       <c r="F97" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G97" t="s">
         <v>10</v>
@@ -4109,39 +4115,39 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C98" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="D98" t="s">
         <v>37</v>
       </c>
       <c r="F98" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B99" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="C99" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D99" t="s">
         <v>19</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="G99" t="s">
         <v>21</v>
@@ -4149,59 +4155,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B100" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="C100" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D100" t="s">
         <v>37</v>
       </c>
       <c r="F100" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B101" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="C101" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D101" t="s">
         <v>19</v>
       </c>
       <c r="F101" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="G101" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B102" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C102" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D102" t="s">
         <v>19</v>
       </c>
       <c r="F102" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G102" t="s">
         <v>21</v>
@@ -4209,39 +4215,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B103" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C103" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D103" t="s">
         <v>19</v>
       </c>
       <c r="F103" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="G103" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B104" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C104" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D104" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="F104" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G104" t="s">
         <v>10</v>
@@ -4249,39 +4255,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B105" t="s">
-        <v>344</v>
+        <v>574</v>
       </c>
       <c r="C105" t="s">
-        <v>345</v>
+        <v>575</v>
       </c>
       <c r="D105" t="s">
-        <v>19</v>
-      </c>
-      <c r="F105" t="s">
-        <v>346</v>
+        <v>576</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>577</v>
       </c>
       <c r="G105" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B106" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C106" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D106" t="s">
         <v>19</v>
       </c>
       <c r="F106" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G106" t="s">
         <v>21</v>
@@ -4289,19 +4295,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B107" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C107" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="D107" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F107" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G107" t="s">
         <v>10</v>
@@ -4309,39 +4315,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="B108" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="C108" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="D108" t="s">
         <v>19</v>
       </c>
       <c r="F108" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G108" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B109" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C109" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D109" t="s">
         <v>19</v>
       </c>
       <c r="F109" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="G109" t="s">
         <v>21</v>
@@ -4349,19 +4355,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B110" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C110" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="D110" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F110" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G110" t="s">
         <v>10</v>
@@ -4369,39 +4375,39 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B111" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C111" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D111" t="s">
         <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G111" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B112" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C112" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="D112" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F112" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G112" t="s">
         <v>10</v>
@@ -4409,39 +4415,39 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B113" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C113" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D113" t="s">
         <v>19</v>
       </c>
       <c r="F113" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G113" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B114" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="C114" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D114" t="s">
         <v>19</v>
       </c>
       <c r="F114" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="G114" t="s">
         <v>21</v>
@@ -4449,59 +4455,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B115" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C115" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="D115" t="s">
         <v>19</v>
       </c>
       <c r="F115" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G115" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B116" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C116" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D116" t="s">
         <v>19</v>
       </c>
       <c r="F116" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G116" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B117" t="s">
-        <v>384</v>
+        <v>578</v>
       </c>
       <c r="C117" t="s">
-        <v>385</v>
+        <v>579</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" t="s">
-        <v>386</v>
+        <v>143</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>580</v>
       </c>
       <c r="G117" t="s">
         <v>21</v>
@@ -4509,39 +4515,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B118" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="C118" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D118" t="s">
         <v>19</v>
       </c>
       <c r="F118" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="G118" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B119" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="C119" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="D119" t="s">
         <v>19</v>
       </c>
       <c r="F119" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="G119" t="s">
         <v>10</v>
@@ -4549,39 +4555,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B120" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="C120" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D120" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="F120" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="G120" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B121" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C121" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D121" t="s">
         <v>19</v>
       </c>
       <c r="F121" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G121" t="s">
         <v>21</v>
@@ -4589,39 +4595,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B122" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="C122" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D122" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="F122" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G122" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="B123" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="C123" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="D123" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F123" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="G123" t="s">
         <v>10</v>
@@ -4629,30 +4635,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="B124" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C124" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="D124" t="s">
         <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="G124" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="B125" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C125" t="s">
         <v>18</v>
@@ -4661,7 +4667,7 @@
         <v>19</v>
       </c>
       <c r="F125" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="G125" t="s">
         <v>21</v>
@@ -4669,39 +4675,39 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="B126" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C126" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D126" t="s">
         <v>37</v>
       </c>
       <c r="F126" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="G126" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="B127" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C127" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="G127" t="s">
         <v>10</v>
@@ -4709,39 +4715,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="B128" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="C128" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D128" t="s">
         <v>19</v>
       </c>
       <c r="F128" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G128" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="B129" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C129" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D129" t="s">
         <v>19</v>
       </c>
       <c r="F129" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="G129" t="s">
         <v>21</v>
@@ -4749,39 +4755,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="B130" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C130" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D130" t="s">
         <v>23</v>
       </c>
       <c r="F130" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="G130" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="B131" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="C131" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D131" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="F131" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="G131" t="s">
         <v>10</v>
@@ -4789,39 +4795,39 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="B132" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="C132" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="D132" t="s">
         <v>23</v>
       </c>
       <c r="F132" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="G132" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B133" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="C133" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="D133" t="s">
         <v>19</v>
       </c>
       <c r="F133" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="G133" t="s">
         <v>21</v>
@@ -4829,39 +4835,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="B134" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C134" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="D134" t="s">
         <v>23</v>
       </c>
       <c r="F134" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="G134" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="B135" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C135" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D135" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="F135" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="G135" t="s">
         <v>10</v>
@@ -4869,39 +4875,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="B136" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="C136" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="D136" t="s">
         <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="G136" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B137" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C137" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D137" t="s">
         <v>19</v>
       </c>
       <c r="F137" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="G137" t="s">
         <v>21</v>
@@ -4909,22 +4915,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="B138" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="C138" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D138" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="F138" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="G138" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4938,6 +4944,10 @@
     <hyperlink ref="F4" r:id="rId2" xr:uid="{4D6D078D-D2C0-FD47-8CCB-F14D165B1D2C}"/>
     <hyperlink ref="F48" r:id="rId3" xr:uid="{E0FA50B5-CF5E-FE46-993E-E8F351602E9A}"/>
     <hyperlink ref="F99" r:id="rId4" xr:uid="{C7B5A66B-44B5-AE4D-BD10-31A13CC13758}"/>
+    <hyperlink ref="F20" r:id="rId5" xr:uid="{D75E392F-50A3-6449-9155-C0391CEE5BE0}"/>
+    <hyperlink ref="F76" r:id="rId6" xr:uid="{B14F8477-D0F1-4540-BA6D-C5FE9DDFE1AD}"/>
+    <hyperlink ref="F105" r:id="rId7" xr:uid="{978C369A-8FBC-F840-B5F4-DF7495B41247}"/>
+    <hyperlink ref="F117" r:id="rId8" xr:uid="{15AAE0D8-D438-0445-BD6E-A0C919093326}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/Rituel ecoute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B566FF-1DAC-7B43-8D4A-24DEC79BD656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF9F451-4DDB-CA49-961E-08BB4AAE8433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1762,10 +1762,10 @@
     <t>Romance (1971)</t>
   </si>
   <si>
-    <t>Narcisco Yepes</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=_ql2jxSKdzA&amp;list=RD_ql2jxSKdzA&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Narciso Yepes</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2160,7 @@
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A86" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4501,13 +4501,13 @@
         <v>578</v>
       </c>
       <c r="C117" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D117" t="s">
         <v>143</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G117" t="s">
         <v>21</v>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/Rituel ecoute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF9F451-4DDB-CA49-961E-08BB4AAE8433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE1DC7-32D4-8A4D-B218-EF15B761940D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="582">
   <si>
     <t>titre</t>
   </si>
@@ -46,9 +46,6 @@
     <t>01/09/2025</t>
   </si>
   <si>
-    <t>The Four Seasons (1725)</t>
-  </si>
-  <si>
     <t>Vivaldi</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
     <t>29/09/2025</t>
   </si>
   <si>
-    <t>Für Elise (1867)</t>
-  </si>
-  <si>
     <t>Beethoven</t>
   </si>
   <si>
@@ -511,9 +505,6 @@
     <t>15/12/2025</t>
   </si>
   <si>
-    <t>The Nutcracker Suite (1892)</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=GiEIe0ClGIM</t>
   </si>
   <si>
@@ -583,9 +574,6 @@
     <t>12/01/2026</t>
   </si>
   <si>
-    <t>Symphony No. 40 (1788)</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=-hJf4ZffkoI</t>
   </si>
   <si>
@@ -631,9 +619,6 @@
     <t>19/01/2026</t>
   </si>
   <si>
-    <t>Moonlight Sonata (1802)</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=4Tr0otuiQuU</t>
   </si>
   <si>
@@ -676,9 +661,6 @@
     <t>26/01/2026</t>
   </si>
   <si>
-    <t>In the Hall of the Mountain King (1875)</t>
-  </si>
-  <si>
     <t>Grieg</t>
   </si>
   <si>
@@ -841,9 +823,6 @@
     <t>09/03/2026</t>
   </si>
   <si>
-    <t>Piano Concerto No. 2 (1801)</t>
-  </si>
-  <si>
     <t>Rachmaninoff</t>
   </si>
   <si>
@@ -961,9 +940,6 @@
     <t>30/03/2026</t>
   </si>
   <si>
-    <t>The Ride of the Valkyries (1856)</t>
-  </si>
-  <si>
     <t>Wagner</t>
   </si>
   <si>
@@ -1027,9 +1003,6 @@
     <t>27/04/2026</t>
   </si>
   <si>
-    <t>Wedding March (1842)</t>
-  </si>
-  <si>
     <t>Mendelssohn</t>
   </si>
   <si>
@@ -1102,9 +1075,6 @@
     <t>18/05/2026</t>
   </si>
   <si>
-    <t>Hungarian Rhapsody No. 2 (1847)</t>
-  </si>
-  <si>
     <t>Liszt</t>
   </si>
   <si>
@@ -1426,9 +1396,6 @@
     <t>Sous le Soleil de Bodega (1992)</t>
   </si>
   <si>
-    <t>Toccata and Fugue in D minor (1740)</t>
-  </si>
-  <si>
     <t>On ira (2013)</t>
   </si>
   <si>
@@ -1477,9 +1444,6 @@
     <t>Jean-Louis Aubert</t>
   </si>
   <si>
-    <t>Swan Lake (1876)</t>
-  </si>
-  <si>
     <t>September (1978)</t>
   </si>
   <si>
@@ -1498,21 +1462,12 @@
     <t>Toto - Piano Cover (2018)</t>
   </si>
   <si>
-    <t>The Blue Danube (1866)</t>
-  </si>
-  <si>
     <t>Beau-papa (2020)</t>
   </si>
   <si>
-    <t>Hungarian Dance No. 5 (1879)</t>
-  </si>
-  <si>
     <t>Dream On (1973)</t>
   </si>
   <si>
-    <t>Bamboléo (1978)</t>
-  </si>
-  <si>
     <t>Dernière Danse (2003)</t>
   </si>
   <si>
@@ -1540,9 +1495,6 @@
     <t>Boulevard of Broken Dreams (2004)</t>
   </si>
   <si>
-    <t>Air on the G String (1730)</t>
-  </si>
-  <si>
     <t>I Feel Good (1964)</t>
   </si>
   <si>
@@ -1567,9 +1519,6 @@
     <t>Down the Road (2012)</t>
   </si>
   <si>
-    <t>Polovtsian Dances (1890)</t>
-  </si>
-  <si>
     <t>Can-Can (1868)</t>
   </si>
   <si>
@@ -1588,18 +1537,9 @@
     <t>Raphaël Haroche</t>
   </si>
   <si>
-    <t xml:space="preserve"> Camille Saint-Saëns</t>
-  </si>
-  <si>
-    <t>The Carnival of the Animals (1886)</t>
-  </si>
-  <si>
     <t>Johann Strauss II</t>
   </si>
   <si>
-    <t>The Barber of Seville (Ouverture) (1815)</t>
-  </si>
-  <si>
     <t>Moriarty (groupe)</t>
   </si>
   <si>
@@ -1657,9 +1597,6 @@
     <t>Marble Machine (2016)</t>
   </si>
   <si>
-    <t>Symphony No. 9 (1894)</t>
-  </si>
-  <si>
     <t>John LENNON</t>
   </si>
   <si>
@@ -1766,6 +1703,72 @@
   </si>
   <si>
     <t>Narciso Yepes</t>
+  </si>
+  <si>
+    <t>Piotr Ilitch Tchaïkovski</t>
+  </si>
+  <si>
+    <t>Le lac des cygnes (1876)</t>
+  </si>
+  <si>
+    <t>Les quatre saisons (1725)</t>
+  </si>
+  <si>
+    <t>La lettre à Elise (1867)</t>
+  </si>
+  <si>
+    <t>Camille Saint-Saëns</t>
+  </si>
+  <si>
+    <t>Casse-noisette Suite (1892)</t>
+  </si>
+  <si>
+    <t>Air sur la corde de sol (1730)</t>
+  </si>
+  <si>
+    <t>Sonate au clair de lune (1802)</t>
+  </si>
+  <si>
+    <t>Marche nuptiale (1842)</t>
+  </si>
+  <si>
+    <t>Rhapsodies hongroises No. 2 (1847)</t>
+  </si>
+  <si>
+    <t>Danses polovtsiennes (1890)</t>
+  </si>
+  <si>
+    <t>Bamboléo (1978)+B60</t>
+  </si>
+  <si>
+    <t>Dans l'antre du roi de la montagne (1875)</t>
+  </si>
+  <si>
+    <t>Danses hongroises No. 5 (1879)</t>
+  </si>
+  <si>
+    <t>Toccata et Fugue in D minor (1740)</t>
+  </si>
+  <si>
+    <t>Le Carnaval des animaux (1886)</t>
+  </si>
+  <si>
+    <t>Le Danube bleu (1866)</t>
+  </si>
+  <si>
+    <t>Le Barbier de Séville (Ouverture) (1815)</t>
+  </si>
+  <si>
+    <t>Symphonie No. 40 (1788)</t>
+  </si>
+  <si>
+    <t>Symphonie No. 9 (1894)</t>
+  </si>
+  <si>
+    <t>Concerto pour piano No. 2 (1801)</t>
+  </si>
+  <si>
+    <t>La chevauchée des Walkyries (1856)</t>
   </si>
 </sst>
 </file>
@@ -2159,8 +2162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2172,7 +2175,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2198,2739 +2201,2739 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>516</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="C4" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>553</v>
+        <v>532</v>
       </c>
       <c r="C5" t="s">
-        <v>552</v>
+        <v>531</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>554</v>
+        <v>533</v>
       </c>
       <c r="G5" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>574</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>467</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>509</v>
+      </c>
+      <c r="C7" t="s">
+        <v>444</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>529</v>
-      </c>
-      <c r="C7" t="s">
-        <v>454</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
-        <v>466</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>487</v>
+      </c>
+      <c r="C9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
-        <v>502</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>484</v>
+        <v>561</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>560</v>
       </c>
       <c r="D10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F10" t="s">
         <v>37</v>
       </c>
-      <c r="F10" t="s">
-        <v>38</v>
-      </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" t="s">
+        <v>443</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="B11" t="s">
-        <v>517</v>
-      </c>
-      <c r="C11" t="s">
-        <v>452</v>
-      </c>
-      <c r="D11" t="s">
-        <v>453</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
       <c r="G11" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
       <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>546</v>
+        <v>525</v>
       </c>
       <c r="C13" t="s">
-        <v>545</v>
+        <v>524</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>547</v>
+        <v>526</v>
       </c>
       <c r="G13" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" t="s">
-        <v>46</v>
-      </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
         <v>47</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
         <v>48</v>
       </c>
-      <c r="C15" t="s">
-        <v>539</v>
-      </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>49</v>
-      </c>
       <c r="G15" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>455</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
-        <v>465</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
         <v>51</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>52</v>
-      </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>439</v>
+      </c>
+      <c r="C17" t="s">
+        <v>446</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
-        <v>449</v>
-      </c>
-      <c r="C17" t="s">
-        <v>456</v>
-      </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>563</v>
+      </c>
+      <c r="C18" t="s">
         <v>55</v>
       </c>
-      <c r="B18" t="s">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
         <v>56</v>
       </c>
-      <c r="C18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>58</v>
-      </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s">
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" t="s">
-        <v>62</v>
-      </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="C21" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="D21" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" t="s">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>473</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s">
-        <v>485</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>73</v>
-      </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s">
-        <v>468</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>76</v>
-      </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="s">
-        <v>469</v>
-      </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" t="s">
-        <v>79</v>
-      </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" t="s">
         <v>81</v>
       </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" t="s">
-        <v>83</v>
-      </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="C27" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
         <v>87</v>
       </c>
-      <c r="C28" t="s">
+      <c r="F28" t="s">
         <v>88</v>
       </c>
-      <c r="D28" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" t="s">
-        <v>90</v>
-      </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>522</v>
+        <v>575</v>
       </c>
       <c r="C29" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
         <v>93</v>
       </c>
-      <c r="B30" t="s">
-        <v>94</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>253</v>
+      </c>
+      <c r="F30" t="s">
         <v>95</v>
       </c>
-      <c r="D30" t="s">
-        <v>259</v>
-      </c>
-      <c r="F30" t="s">
-        <v>97</v>
-      </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>474</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
         <v>98</v>
       </c>
-      <c r="B31" t="s">
-        <v>486</v>
-      </c>
-      <c r="C31" t="s">
-        <v>99</v>
-      </c>
-      <c r="D31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>100</v>
-      </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
         <v>101</v>
       </c>
-      <c r="B32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>103</v>
-      </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C33" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="D33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
         <v>106</v>
       </c>
-      <c r="B34" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>108</v>
-      </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="C35" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="C36" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37" t="s">
+        <v>477</v>
+      </c>
+      <c r="C37" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
         <v>113</v>
       </c>
-      <c r="B37" t="s">
-        <v>489</v>
-      </c>
-      <c r="C37" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>115</v>
-      </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>566</v>
+        <v>545</v>
       </c>
       <c r="C38" t="s">
-        <v>565</v>
+        <v>544</v>
       </c>
       <c r="D38" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F38" t="s">
-        <v>567</v>
+        <v>546</v>
       </c>
       <c r="G38" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" t="s">
         <v>117</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
         <v>118</v>
       </c>
-      <c r="C39" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
-        <v>120</v>
-      </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="C40" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D40" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" t="s">
-        <v>491</v>
+        <v>576</v>
       </c>
       <c r="C41" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C42" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="G42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>510</v>
+      </c>
+      <c r="C44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" t="s">
         <v>128</v>
       </c>
-      <c r="B44" t="s">
-        <v>530</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
-      </c>
-      <c r="D44" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" t="s">
-        <v>130</v>
-      </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>573</v>
+      </c>
+      <c r="C45" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
         <v>131</v>
       </c>
-      <c r="B45" t="s">
-        <v>493</v>
-      </c>
-      <c r="C45" t="s">
-        <v>132</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" t="s">
-        <v>133</v>
-      </c>
       <c r="G45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" t="s">
         <v>134</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
+        <v>459</v>
+      </c>
+      <c r="F46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" t="s">
-        <v>470</v>
-      </c>
-      <c r="F46" t="s">
-        <v>137</v>
-      </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" t="s">
         <v>138</v>
       </c>
-      <c r="B47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>140</v>
-      </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B48" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="C48" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="D48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="G48" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" t="s">
+        <v>577</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" t="s">
         <v>146</v>
       </c>
-      <c r="B49" t="s">
-        <v>524</v>
-      </c>
-      <c r="C49" t="s">
-        <v>147</v>
-      </c>
-      <c r="D49" t="s">
-        <v>143</v>
-      </c>
-      <c r="F49" t="s">
-        <v>148</v>
-      </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
         <v>149</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" t="s">
         <v>150</v>
       </c>
-      <c r="C50" t="s">
+      <c r="G50" t="s">
         <v>151</v>
-      </c>
-      <c r="D50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F50" t="s">
-        <v>152</v>
-      </c>
-      <c r="G50" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
         <v>154</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
         <v>155</v>
       </c>
-      <c r="C51" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" t="s">
-        <v>157</v>
-      </c>
       <c r="G51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" t="s">
+        <v>480</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
         <v>158</v>
       </c>
-      <c r="B52" t="s">
-        <v>494</v>
-      </c>
-      <c r="C52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" t="s">
-        <v>160</v>
-      </c>
       <c r="G52" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>565</v>
       </c>
       <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" t="s">
         <v>36</v>
       </c>
-      <c r="D53" t="s">
-        <v>37</v>
-      </c>
       <c r="F53" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="s">
+        <v>571</v>
+      </c>
+      <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>163</v>
+      </c>
+      <c r="G54" t="s">
         <v>164</v>
-      </c>
-      <c r="B54" t="s">
-        <v>495</v>
-      </c>
-      <c r="C54" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" t="s">
-        <v>166</v>
-      </c>
-      <c r="G54" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F55" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="C56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" t="s">
         <v>142</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>143</v>
-      </c>
-      <c r="F56" t="s">
-        <v>144</v>
-      </c>
-      <c r="G56" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B57" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
       <c r="C57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>171</v>
+      </c>
+      <c r="B58" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" t="s">
+        <v>505</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" t="s">
+        <v>173</v>
+      </c>
+      <c r="G58" t="s">
         <v>174</v>
-      </c>
-      <c r="B58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" t="s">
-        <v>525</v>
-      </c>
-      <c r="D58" t="s">
-        <v>23</v>
-      </c>
-      <c r="F58" t="s">
-        <v>176</v>
-      </c>
-      <c r="G58" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" t="s">
+        <v>179</v>
+      </c>
+      <c r="C60" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" t="s">
         <v>181</v>
       </c>
-      <c r="B60" t="s">
-        <v>182</v>
-      </c>
-      <c r="C60" t="s">
-        <v>183</v>
-      </c>
-      <c r="D60" t="s">
-        <v>37</v>
-      </c>
-      <c r="F60" t="s">
-        <v>184</v>
-      </c>
       <c r="G60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B61" t="s">
-        <v>186</v>
+        <v>578</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F61" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" t="s">
+        <v>185</v>
+      </c>
+      <c r="C62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="F62" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" t="s">
         <v>188</v>
-      </c>
-      <c r="B62" t="s">
-        <v>189</v>
-      </c>
-      <c r="C62" t="s">
-        <v>190</v>
-      </c>
-      <c r="D62" t="s">
-        <v>23</v>
-      </c>
-      <c r="F62" t="s">
-        <v>191</v>
-      </c>
-      <c r="G62" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F63" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G64" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
+        <v>567</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D65" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B66" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G66" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B67" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B68" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G68" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B69" t="s">
-        <v>217</v>
+        <v>572</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D69" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F69" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
-        <v>564</v>
+        <v>543</v>
       </c>
       <c r="C70" t="s">
-        <v>562</v>
+        <v>541</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="G70" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B71" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C71" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F71" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B72" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="C72" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="G72" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="C73" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D73" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F73" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="G73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B74" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C74" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D74" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="G74" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D75" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F75" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B76" t="s">
-        <v>569</v>
+        <v>548</v>
       </c>
       <c r="C76" t="s">
-        <v>570</v>
+        <v>549</v>
       </c>
       <c r="D76" t="s">
-        <v>571</v>
+        <v>550</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="G76" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B77" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F77" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G77" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B78" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="C78" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G78" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B79" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C79" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D79" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F79" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B80" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C80" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="D80" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="F80" t="s">
-        <v>551</v>
+        <v>530</v>
       </c>
       <c r="G80" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B81" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C81" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D81" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F81" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="C82" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="D82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G82" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B83" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C83" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F83" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B84" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="C84" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="D84" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F84" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="G84" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>580</v>
       </c>
       <c r="C85" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D85" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="F85" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B86" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="C86" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B87" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="C87" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F87" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B88" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C88" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D88" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F88" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G88" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B89" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="C89" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D89" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F89" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="G89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B90" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="C90" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F90" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="G90" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="B91" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="C91" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B92" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="C92" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D92" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F92" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="G92" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="B93" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D93" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F93" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="G93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B94" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="C94" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="D94" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F94" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G94" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B95" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="C95" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="D95" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F95" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B96" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
       <c r="C96" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="D96" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="F96" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="G96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B97" t="s">
-        <v>312</v>
+        <v>581</v>
       </c>
       <c r="C97" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B98" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C98" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B99" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="C99" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="G99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B100" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C100" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D100" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F100" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="G100" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B101" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="C101" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="D101" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F101" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="G101" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B102" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F102" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G102" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B103" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C103" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="D103" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F103" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="G103" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B104" t="s">
-        <v>334</v>
+        <v>568</v>
       </c>
       <c r="C104" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D104" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F104" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B105" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="C105" t="s">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="D105" t="s">
-        <v>576</v>
+        <v>555</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="G105" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B106" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C106" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F106" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B107" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C107" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="D107" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="F107" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B108" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="C108" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F108" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="G108" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B109" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C109" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="D109" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F109" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B110" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C110" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D110" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F110" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B111" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C111" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D111" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F111" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G111" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B112" t="s">
-        <v>359</v>
+        <v>569</v>
       </c>
       <c r="C112" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="D112" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F112" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B113" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="C113" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D113" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F113" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G113" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="B114" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C114" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F114" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="G114" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B115" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="C115" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="D115" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F115" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="G115" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="B116" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F116" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G116" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="B117" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="C117" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="D117" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>579</v>
+        <v>558</v>
       </c>
       <c r="G117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="B118" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="C118" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="D118" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F118" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G118" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B119" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C119" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D119" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F119" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="B120" t="s">
-        <v>555</v>
+        <v>534</v>
       </c>
       <c r="C120" t="s">
-        <v>556</v>
+        <v>535</v>
       </c>
       <c r="D120" t="s">
-        <v>557</v>
+        <v>536</v>
       </c>
       <c r="F120" t="s">
-        <v>558</v>
+        <v>537</v>
       </c>
       <c r="G120" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B121" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="C121" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F121" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="G121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="B122" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="C122" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="D122" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="F122" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="G122" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="B123" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="C123" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D123" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F123" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B124" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="C124" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D124" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F124" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="G124" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="B125" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="C125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F125" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B126" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C126" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F126" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G126" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B127" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="C127" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="D127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B128" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="C128" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="D128" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F128" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G128" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="B129" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="C129" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F129" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="G129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B130" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="C130" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D130" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F130" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G130" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="B131" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="C131" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="D131" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="F131" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="G131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="B132" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="C132" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
       <c r="D132" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F132" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="G132" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="B133" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C133" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="D133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F133" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="G133" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B134" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="C134" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="D134" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F134" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="G134" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="B135" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="C135" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="D135" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F135" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="G135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="B136" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="C136" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F136" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="G136" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B137" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C137" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D137" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F137" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="G137" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="B138" t="s">
-        <v>560</v>
+        <v>539</v>
       </c>
       <c r="C138" t="s">
-        <v>559</v>
+        <v>538</v>
       </c>
       <c r="D138" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="F138" t="s">
-        <v>561</v>
+        <v>540</v>
       </c>
       <c r="G138" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/Rituel ecoute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAE1DC7-32D4-8A4D-B218-EF15B761940D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99FD237-2AB8-7C4F-ACF1-DC0F111E523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="581">
   <si>
     <t>titre</t>
   </si>
@@ -130,9 +130,6 @@
     <t>15/09/2025</t>
   </si>
   <si>
-    <t>Tchaikovsky</t>
-  </si>
-  <si>
     <t>Royaume-Uni</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
     <t>10/11/2025</t>
   </si>
   <si>
-    <t>Symphony No. 9 (1826)</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=rOjHhS5MtvA</t>
   </si>
   <si>
@@ -1054,9 +1048,6 @@
     <t>11/05/2026</t>
   </si>
   <si>
-    <t>The Moldau (1874)</t>
-  </si>
-  <si>
     <t>Smetana</t>
   </si>
   <si>
@@ -1769,6 +1760,12 @@
   </si>
   <si>
     <t>La chevauchée des Walkyries (1856)</t>
+  </si>
+  <si>
+    <t>SymphonIE No. 9 (1826)</t>
+  </si>
+  <si>
+    <t>La Moldau (1874)</t>
   </si>
 </sst>
 </file>
@@ -2162,8 +2159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2175,7 +2172,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2201,13 +2198,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -2221,7 +2218,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2241,16 +2238,16 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C4" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -2261,19 +2258,19 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C5" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2281,7 +2278,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -2301,10 +2298,10 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -2313,7 +2310,7 @@
         <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2321,7 +2318,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -2341,7 +2338,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -2361,16 +2358,16 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C10" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D10" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
@@ -2378,27 +2375,27 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C11" t="s">
+        <v>439</v>
+      </c>
+      <c r="D11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>500</v>
-      </c>
-      <c r="C11" t="s">
-        <v>442</v>
-      </c>
-      <c r="D11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
       <c r="G11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -2418,39 +2415,39 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G13" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
       </c>
       <c r="G14" t="s">
         <v>9</v>
@@ -2458,39 +2455,39 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>516</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
         <v>47</v>
       </c>
-      <c r="C15" t="s">
-        <v>519</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>48</v>
-      </c>
       <c r="G15" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C16" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
-        <v>455</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
         <v>50</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>51</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -2498,39 +2495,39 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>436</v>
+      </c>
+      <c r="C17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s">
-        <v>439</v>
-      </c>
-      <c r="C17" t="s">
-        <v>446</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G17" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>563</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
@@ -2538,19 +2535,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" t="s">
         <v>57</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -2558,19 +2555,19 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>498</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="B20" t="s">
-        <v>501</v>
-      </c>
-      <c r="C20" t="s">
-        <v>62</v>
-      </c>
       <c r="D20" t="s">
         <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
@@ -2578,39 +2575,39 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" t="s">
+        <v>438</v>
+      </c>
+      <c r="F21" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="C21" t="s">
-        <v>440</v>
-      </c>
-      <c r="D21" t="s">
-        <v>441</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
       <c r="G21" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" t="s">
         <v>65</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>66</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
         <v>67</v>
-      </c>
-      <c r="D22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>68</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
@@ -2618,19 +2615,19 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>470</v>
+      </c>
+      <c r="C23" t="s">
         <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>473</v>
-      </c>
-      <c r="C23" t="s">
-        <v>70</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
         <v>13</v>
@@ -2638,19 +2635,19 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>454</v>
+      </c>
+      <c r="C24" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
         <v>73</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s">
-        <v>74</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -2658,19 +2655,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>455</v>
+      </c>
+      <c r="C25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" t="s">
-        <v>458</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
         <v>76</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s">
-        <v>77</v>
       </c>
       <c r="G25" t="s">
         <v>13</v>
@@ -2678,19 +2675,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" t="s">
         <v>78</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>79</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
         <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>81</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -2698,19 +2695,19 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B27" t="s">
+        <v>499</v>
+      </c>
+      <c r="C27" t="s">
+        <v>500</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
         <v>82</v>
-      </c>
-      <c r="B27" t="s">
-        <v>502</v>
-      </c>
-      <c r="C27" t="s">
-        <v>503</v>
-      </c>
-      <c r="D27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s">
-        <v>83</v>
       </c>
       <c r="G27" t="s">
         <v>13</v>
@@ -2718,19 +2715,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
         <v>84</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>85</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>87</v>
-      </c>
-      <c r="F28" t="s">
-        <v>88</v>
       </c>
       <c r="G28" t="s">
         <v>20</v>
@@ -2738,19 +2735,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="s">
+        <v>572</v>
+      </c>
+      <c r="C29" t="s">
+        <v>561</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s">
         <v>89</v>
-      </c>
-      <c r="B29" t="s">
-        <v>575</v>
-      </c>
-      <c r="C29" t="s">
-        <v>564</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>90</v>
       </c>
       <c r="G29" t="s">
         <v>13</v>
@@ -2758,19 +2755,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" t="s">
         <v>91</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>92</v>
       </c>
-      <c r="C30" t="s">
-        <v>93</v>
-      </c>
       <c r="D30" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
@@ -2778,19 +2775,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" t="s">
+        <v>471</v>
+      </c>
+      <c r="C31" t="s">
         <v>96</v>
       </c>
-      <c r="B31" t="s">
-        <v>474</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
         <v>97</v>
-      </c>
-      <c r="D31" t="s">
-        <v>18</v>
-      </c>
-      <c r="F31" t="s">
-        <v>98</v>
       </c>
       <c r="G31" t="s">
         <v>13</v>
@@ -2798,10 +2795,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
         <v>99</v>
-      </c>
-      <c r="B32" t="s">
-        <v>100</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -2810,7 +2807,7 @@
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
@@ -2818,19 +2815,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
+        <v>444</v>
+      </c>
+      <c r="C33" t="s">
+        <v>445</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
         <v>102</v>
-      </c>
-      <c r="B33" t="s">
-        <v>447</v>
-      </c>
-      <c r="C33" t="s">
-        <v>448</v>
-      </c>
-      <c r="D33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>103</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
@@ -2838,19 +2835,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>579</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
@@ -2858,19 +2855,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C35" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D35" t="s">
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
         <v>20</v>
@@ -2878,19 +2875,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C36" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -2898,19 +2895,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G37" t="s">
         <v>9</v>
@@ -2918,39 +2915,39 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C38" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D38" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F38" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G38" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
         <v>115</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
         <v>116</v>
-      </c>
-      <c r="C39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" t="s">
-        <v>118</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
@@ -2958,19 +2955,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C40" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D40" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G40" t="s">
         <v>13</v>
@@ -2978,19 +2975,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C41" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G41" t="s">
         <v>9</v>
@@ -2998,19 +2995,19 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C42" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
@@ -3018,19 +3015,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D43" t="s">
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
@@ -3038,19 +3035,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B44" t="s">
+        <v>507</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" t="s">
         <v>126</v>
-      </c>
-      <c r="B44" t="s">
-        <v>510</v>
-      </c>
-      <c r="C44" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" t="s">
-        <v>36</v>
-      </c>
-      <c r="F44" t="s">
-        <v>128</v>
       </c>
       <c r="G44" t="s">
         <v>13</v>
@@ -3058,19 +3055,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G45" t="s">
         <v>9</v>
@@ -3078,19 +3075,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
         <v>132</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
+        <v>456</v>
+      </c>
+      <c r="F46" t="s">
         <v>133</v>
-      </c>
-      <c r="C46" t="s">
-        <v>134</v>
-      </c>
-      <c r="D46" t="s">
-        <v>459</v>
-      </c>
-      <c r="F46" t="s">
-        <v>135</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -3098,19 +3095,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" t="s">
         <v>136</v>
-      </c>
-      <c r="B47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C47" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" t="s">
-        <v>138</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -3118,39 +3115,39 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C48" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G48" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" t="s">
+        <v>574</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+      <c r="F49" t="s">
         <v>144</v>
-      </c>
-      <c r="B49" t="s">
-        <v>577</v>
-      </c>
-      <c r="C49" t="s">
-        <v>145</v>
-      </c>
-      <c r="D49" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" t="s">
-        <v>146</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
@@ -3158,39 +3155,39 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
         <v>147</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="F50" t="s">
         <v>148</v>
       </c>
-      <c r="C50" t="s">
+      <c r="G50" t="s">
         <v>149</v>
-      </c>
-      <c r="D50" t="s">
-        <v>36</v>
-      </c>
-      <c r="F50" t="s">
-        <v>150</v>
-      </c>
-      <c r="G50" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" t="s">
         <v>152</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
         <v>153</v>
-      </c>
-      <c r="C51" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" t="s">
-        <v>155</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -3198,39 +3195,39 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C52" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D52" t="s">
         <v>22</v>
       </c>
       <c r="F52" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C53" t="s">
-        <v>35</v>
+        <v>557</v>
       </c>
       <c r="D53" t="s">
-        <v>36</v>
+        <v>504</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G53" t="s">
         <v>9</v>
@@ -3238,39 +3235,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>568</v>
+      </c>
+      <c r="C54" t="s">
+        <v>160</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
         <v>161</v>
       </c>
-      <c r="B54" t="s">
-        <v>571</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="G54" t="s">
         <v>162</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" t="s">
-        <v>163</v>
-      </c>
-      <c r="G54" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D55" t="s">
+        <v>86</v>
+      </c>
+      <c r="F55" t="s">
         <v>165</v>
-      </c>
-      <c r="B55" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" t="s">
-        <v>86</v>
-      </c>
-      <c r="D55" t="s">
-        <v>87</v>
-      </c>
-      <c r="F55" t="s">
-        <v>167</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
@@ -3278,30 +3275,30 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D56" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" t="s">
         <v>140</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>141</v>
-      </c>
-      <c r="F56" t="s">
-        <v>142</v>
-      </c>
-      <c r="G56" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
@@ -3310,7 +3307,7 @@
         <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G57" t="s">
         <v>9</v>
@@ -3318,39 +3315,39 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
       </c>
       <c r="F58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" t="s">
+        <v>478</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
         <v>175</v>
-      </c>
-      <c r="B59" t="s">
-        <v>481</v>
-      </c>
-      <c r="C59" t="s">
-        <v>176</v>
-      </c>
-      <c r="D59" t="s">
-        <v>18</v>
-      </c>
-      <c r="F59" t="s">
-        <v>177</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
@@ -3358,39 +3355,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>176</v>
+      </c>
+      <c r="B60" t="s">
+        <v>177</v>
+      </c>
+      <c r="C60" t="s">
         <v>178</v>
       </c>
-      <c r="B60" t="s">
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
         <v>179</v>
       </c>
-      <c r="C60" t="s">
-        <v>180</v>
-      </c>
-      <c r="D60" t="s">
-        <v>36</v>
-      </c>
-      <c r="F60" t="s">
-        <v>181</v>
-      </c>
       <c r="G60" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C61" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" t="s">
         <v>93</v>
       </c>
-      <c r="D61" t="s">
-        <v>94</v>
-      </c>
       <c r="F61" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G61" t="s">
         <v>9</v>
@@ -3398,39 +3395,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" t="s">
+        <v>183</v>
+      </c>
+      <c r="C62" t="s">
         <v>184</v>
-      </c>
-      <c r="B62" t="s">
-        <v>185</v>
-      </c>
-      <c r="C62" t="s">
-        <v>186</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
       </c>
       <c r="F62" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G62" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" t="s">
         <v>189</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
         <v>190</v>
-      </c>
-      <c r="C63" t="s">
-        <v>191</v>
-      </c>
-      <c r="D63" t="s">
-        <v>18</v>
-      </c>
-      <c r="F63" t="s">
-        <v>192</v>
       </c>
       <c r="G63" t="s">
         <v>20</v>
@@ -3438,39 +3435,39 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" t="s">
+        <v>192</v>
+      </c>
+      <c r="C64" t="s">
         <v>193</v>
       </c>
-      <c r="B64" t="s">
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="F64" t="s">
         <v>194</v>
       </c>
-      <c r="C64" t="s">
-        <v>195</v>
-      </c>
-      <c r="D64" t="s">
-        <v>36</v>
-      </c>
-      <c r="F64" t="s">
-        <v>196</v>
-      </c>
       <c r="G64" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G65" t="s">
         <v>9</v>
@@ -3478,39 +3475,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B66" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
       </c>
       <c r="F66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" t="s">
         <v>202</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
         <v>203</v>
-      </c>
-      <c r="C67" t="s">
-        <v>204</v>
-      </c>
-      <c r="D67" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" t="s">
-        <v>205</v>
       </c>
       <c r="G67" t="s">
         <v>20</v>
@@ -3518,39 +3515,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>204</v>
+      </c>
+      <c r="B68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" t="s">
         <v>206</v>
       </c>
-      <c r="B68" t="s">
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="F68" t="s">
         <v>207</v>
       </c>
-      <c r="C68" t="s">
+      <c r="G68" t="s">
         <v>208</v>
-      </c>
-      <c r="D68" t="s">
-        <v>36</v>
-      </c>
-      <c r="F68" t="s">
-        <v>209</v>
-      </c>
-      <c r="G68" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" t="s">
+        <v>569</v>
+      </c>
+      <c r="C69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D69" t="s">
         <v>211</v>
       </c>
-      <c r="B69" t="s">
-        <v>572</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="F69" t="s">
         <v>212</v>
-      </c>
-      <c r="D69" t="s">
-        <v>213</v>
-      </c>
-      <c r="F69" t="s">
-        <v>214</v>
       </c>
       <c r="G69" t="s">
         <v>9</v>
@@ -3558,39 +3555,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C70" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D70" t="s">
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G70" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" t="s">
+        <v>216</v>
+      </c>
+      <c r="C71" t="s">
         <v>217</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" t="s">
         <v>218</v>
-      </c>
-      <c r="C71" t="s">
-        <v>219</v>
-      </c>
-      <c r="D71" t="s">
-        <v>18</v>
-      </c>
-      <c r="F71" t="s">
-        <v>220</v>
       </c>
       <c r="G71" t="s">
         <v>20</v>
@@ -3598,39 +3595,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s">
         <v>22</v>
       </c>
       <c r="F72" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G72" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>223</v>
+      </c>
+      <c r="B73" t="s">
+        <v>576</v>
+      </c>
+      <c r="C73" t="s">
+        <v>224</v>
+      </c>
+      <c r="D73" t="s">
         <v>225</v>
       </c>
-      <c r="B73" t="s">
-        <v>579</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="F73" t="s">
         <v>226</v>
-      </c>
-      <c r="D73" t="s">
-        <v>227</v>
-      </c>
-      <c r="F73" t="s">
-        <v>228</v>
       </c>
       <c r="G73" t="s">
         <v>9</v>
@@ -3638,39 +3635,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B74" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C74" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D74" t="s">
         <v>22</v>
       </c>
       <c r="F74" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G74" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>230</v>
+      </c>
+      <c r="B75" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" t="s">
         <v>232</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75" t="s">
         <v>233</v>
-      </c>
-      <c r="C75" t="s">
-        <v>234</v>
-      </c>
-      <c r="D75" t="s">
-        <v>18</v>
-      </c>
-      <c r="F75" t="s">
-        <v>235</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -3678,39 +3675,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
+        <v>545</v>
+      </c>
+      <c r="C76" t="s">
+        <v>546</v>
+      </c>
+      <c r="D76" t="s">
+        <v>547</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="C76" t="s">
-        <v>549</v>
-      </c>
-      <c r="D76" t="s">
-        <v>550</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>551</v>
-      </c>
       <c r="G76" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>235</v>
+      </c>
+      <c r="B77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C77" t="s">
         <v>237</v>
       </c>
-      <c r="B77" t="s">
+      <c r="D77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" t="s">
         <v>238</v>
-      </c>
-      <c r="C77" t="s">
-        <v>239</v>
-      </c>
-      <c r="D77" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" t="s">
-        <v>240</v>
       </c>
       <c r="G77" t="s">
         <v>9</v>
@@ -3718,39 +3715,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" t="s">
         <v>241</v>
-      </c>
-      <c r="B78" t="s">
-        <v>242</v>
-      </c>
-      <c r="C78" t="s">
-        <v>243</v>
       </c>
       <c r="D78" t="s">
         <v>22</v>
       </c>
       <c r="F78" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>244</v>
+      </c>
+      <c r="B79" t="s">
+        <v>480</v>
+      </c>
+      <c r="C79" t="s">
+        <v>245</v>
+      </c>
+      <c r="D79" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" t="s">
         <v>246</v>
-      </c>
-      <c r="B79" t="s">
-        <v>483</v>
-      </c>
-      <c r="C79" t="s">
-        <v>247</v>
-      </c>
-      <c r="D79" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" t="s">
-        <v>248</v>
       </c>
       <c r="G79" t="s">
         <v>20</v>
@@ -3758,39 +3755,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B80" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C80" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D80" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F80" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G80" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" t="s">
+        <v>249</v>
+      </c>
+      <c r="C81" t="s">
         <v>250</v>
       </c>
-      <c r="B81" t="s">
+      <c r="D81" t="s">
         <v>251</v>
       </c>
-      <c r="C81" t="s">
+      <c r="F81" t="s">
         <v>252</v>
-      </c>
-      <c r="D81" t="s">
-        <v>253</v>
-      </c>
-      <c r="F81" t="s">
-        <v>254</v>
       </c>
       <c r="G81" t="s">
         <v>9</v>
@@ -3798,39 +3795,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B82" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G82" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>256</v>
+      </c>
+      <c r="B83" t="s">
+        <v>460</v>
+      </c>
+      <c r="C83" t="s">
+        <v>257</v>
+      </c>
+      <c r="D83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" t="s">
         <v>258</v>
-      </c>
-      <c r="B83" t="s">
-        <v>463</v>
-      </c>
-      <c r="C83" t="s">
-        <v>259</v>
-      </c>
-      <c r="D83" t="s">
-        <v>18</v>
-      </c>
-      <c r="F83" t="s">
-        <v>260</v>
       </c>
       <c r="G83" t="s">
         <v>20</v>
@@ -3838,39 +3835,39 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>259</v>
+      </c>
+      <c r="B84" t="s">
+        <v>549</v>
+      </c>
+      <c r="C84" t="s">
+        <v>260</v>
+      </c>
+      <c r="D84" t="s">
         <v>261</v>
       </c>
-      <c r="B84" t="s">
-        <v>552</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="F84" t="s">
         <v>262</v>
       </c>
-      <c r="D84" t="s">
-        <v>263</v>
-      </c>
-      <c r="F84" t="s">
-        <v>264</v>
-      </c>
       <c r="G84" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>263</v>
+      </c>
+      <c r="B85" t="s">
+        <v>577</v>
+      </c>
+      <c r="C85" t="s">
+        <v>264</v>
+      </c>
+      <c r="D85" t="s">
+        <v>504</v>
+      </c>
+      <c r="F85" t="s">
         <v>265</v>
-      </c>
-      <c r="B85" t="s">
-        <v>580</v>
-      </c>
-      <c r="C85" t="s">
-        <v>266</v>
-      </c>
-      <c r="D85" t="s">
-        <v>507</v>
-      </c>
-      <c r="F85" t="s">
-        <v>267</v>
       </c>
       <c r="G85" t="s">
         <v>9</v>
@@ -3878,39 +3875,39 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B86" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C86" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D86" t="s">
         <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G86" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>269</v>
+      </c>
+      <c r="B87" t="s">
+        <v>493</v>
+      </c>
+      <c r="C87" t="s">
+        <v>270</v>
+      </c>
+      <c r="D87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" t="s">
         <v>271</v>
-      </c>
-      <c r="B87" t="s">
-        <v>496</v>
-      </c>
-      <c r="C87" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" t="s">
-        <v>18</v>
-      </c>
-      <c r="F87" t="s">
-        <v>273</v>
       </c>
       <c r="G87" t="s">
         <v>20</v>
@@ -3918,39 +3915,39 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>272</v>
+      </c>
+      <c r="B88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" t="s">
         <v>274</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" t="s">
         <v>275</v>
       </c>
-      <c r="C88" t="s">
-        <v>276</v>
-      </c>
-      <c r="D88" t="s">
-        <v>18</v>
-      </c>
-      <c r="F88" t="s">
-        <v>277</v>
-      </c>
       <c r="G88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>276</v>
+      </c>
+      <c r="B89" t="s">
+        <v>488</v>
+      </c>
+      <c r="C89" t="s">
+        <v>277</v>
+      </c>
+      <c r="D89" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" t="s">
         <v>278</v>
-      </c>
-      <c r="B89" t="s">
-        <v>491</v>
-      </c>
-      <c r="C89" t="s">
-        <v>279</v>
-      </c>
-      <c r="D89" t="s">
-        <v>141</v>
-      </c>
-      <c r="F89" t="s">
-        <v>280</v>
       </c>
       <c r="G89" t="s">
         <v>9</v>
@@ -3958,39 +3955,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B90" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C90" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D90" t="s">
         <v>22</v>
       </c>
       <c r="F90" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G90" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B91" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C91" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D91" t="s">
         <v>18</v>
       </c>
       <c r="F91" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G91" t="s">
         <v>20</v>
@@ -3998,39 +3995,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>284</v>
+      </c>
+      <c r="B92" t="s">
+        <v>490</v>
+      </c>
+      <c r="C92" t="s">
+        <v>285</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92" t="s">
         <v>286</v>
       </c>
-      <c r="B92" t="s">
-        <v>493</v>
-      </c>
-      <c r="C92" t="s">
-        <v>287</v>
-      </c>
-      <c r="D92" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" t="s">
-        <v>288</v>
-      </c>
       <c r="G92" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>287</v>
+      </c>
+      <c r="B93" t="s">
+        <v>288</v>
+      </c>
+      <c r="C93" t="s">
         <v>289</v>
       </c>
-      <c r="B93" t="s">
+      <c r="D93" t="s">
+        <v>139</v>
+      </c>
+      <c r="F93" t="s">
         <v>290</v>
-      </c>
-      <c r="C93" t="s">
-        <v>291</v>
-      </c>
-      <c r="D93" t="s">
-        <v>141</v>
-      </c>
-      <c r="F93" t="s">
-        <v>292</v>
       </c>
       <c r="G93" t="s">
         <v>9</v>
@@ -4038,39 +4035,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" t="s">
+        <v>491</v>
+      </c>
+      <c r="C94" t="s">
+        <v>292</v>
+      </c>
+      <c r="D94" t="s">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s">
         <v>293</v>
       </c>
-      <c r="B94" t="s">
-        <v>494</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="G94" t="s">
         <v>294</v>
-      </c>
-      <c r="D94" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" t="s">
-        <v>295</v>
-      </c>
-      <c r="G94" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>295</v>
+      </c>
+      <c r="B95" t="s">
+        <v>449</v>
+      </c>
+      <c r="C95" t="s">
+        <v>450</v>
+      </c>
+      <c r="D95" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95" t="s">
         <v>297</v>
-      </c>
-      <c r="B95" t="s">
-        <v>452</v>
-      </c>
-      <c r="C95" t="s">
-        <v>453</v>
-      </c>
-      <c r="D95" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" t="s">
-        <v>299</v>
       </c>
       <c r="G95" t="s">
         <v>20</v>
@@ -4078,39 +4075,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>298</v>
+      </c>
+      <c r="B96" t="s">
+        <v>492</v>
+      </c>
+      <c r="C96" t="s">
+        <v>299</v>
+      </c>
+      <c r="D96" t="s">
         <v>300</v>
       </c>
-      <c r="B96" t="s">
-        <v>495</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="F96" t="s">
         <v>301</v>
       </c>
-      <c r="D96" t="s">
-        <v>302</v>
-      </c>
-      <c r="F96" t="s">
-        <v>303</v>
-      </c>
       <c r="G96" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B97" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C97" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D97" t="s">
         <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G97" t="s">
         <v>9</v>
@@ -4118,39 +4115,39 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" t="s">
         <v>307</v>
       </c>
-      <c r="B98" t="s">
+      <c r="D98" t="s">
+        <v>35</v>
+      </c>
+      <c r="F98" t="s">
         <v>308</v>
       </c>
-      <c r="C98" t="s">
-        <v>309</v>
-      </c>
-      <c r="D98" t="s">
-        <v>36</v>
-      </c>
-      <c r="F98" t="s">
-        <v>310</v>
-      </c>
       <c r="G98" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B99" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C99" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
@@ -4158,59 +4155,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B100" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C100" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G100" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>312</v>
+      </c>
+      <c r="B101" t="s">
+        <v>483</v>
+      </c>
+      <c r="C101" t="s">
+        <v>313</v>
+      </c>
+      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="F101" t="s">
         <v>314</v>
       </c>
-      <c r="B101" t="s">
-        <v>486</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="G101" t="s">
         <v>315</v>
-      </c>
-      <c r="D101" t="s">
-        <v>18</v>
-      </c>
-      <c r="F101" t="s">
-        <v>316</v>
-      </c>
-      <c r="G101" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>316</v>
+      </c>
+      <c r="B102" t="s">
+        <v>317</v>
+      </c>
+      <c r="C102" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" t="s">
         <v>318</v>
-      </c>
-      <c r="B102" t="s">
-        <v>319</v>
-      </c>
-      <c r="C102" t="s">
-        <v>204</v>
-      </c>
-      <c r="D102" t="s">
-        <v>18</v>
-      </c>
-      <c r="F102" t="s">
-        <v>320</v>
       </c>
       <c r="G102" t="s">
         <v>20</v>
@@ -4218,39 +4215,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>319</v>
+      </c>
+      <c r="B103" t="s">
+        <v>320</v>
+      </c>
+      <c r="C103" t="s">
         <v>321</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" t="s">
         <v>322</v>
       </c>
-      <c r="C103" t="s">
-        <v>323</v>
-      </c>
-      <c r="D103" t="s">
-        <v>18</v>
-      </c>
-      <c r="F103" t="s">
-        <v>324</v>
-      </c>
       <c r="G103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>323</v>
+      </c>
+      <c r="B104" t="s">
+        <v>565</v>
+      </c>
+      <c r="C104" t="s">
+        <v>324</v>
+      </c>
+      <c r="D104" t="s">
         <v>325</v>
       </c>
-      <c r="B104" t="s">
-        <v>568</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="F104" t="s">
         <v>326</v>
-      </c>
-      <c r="D104" t="s">
-        <v>327</v>
-      </c>
-      <c r="F104" t="s">
-        <v>328</v>
       </c>
       <c r="G104" t="s">
         <v>9</v>
@@ -4258,39 +4255,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B105" t="s">
+        <v>550</v>
+      </c>
+      <c r="C105" t="s">
+        <v>551</v>
+      </c>
+      <c r="D105" t="s">
+        <v>552</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C105" t="s">
-        <v>554</v>
-      </c>
-      <c r="D105" t="s">
-        <v>555</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>556</v>
-      </c>
       <c r="G105" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>329</v>
+      </c>
+      <c r="B106" t="s">
+        <v>462</v>
+      </c>
+      <c r="C106" t="s">
+        <v>330</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" t="s">
         <v>331</v>
-      </c>
-      <c r="B106" t="s">
-        <v>465</v>
-      </c>
-      <c r="C106" t="s">
-        <v>332</v>
-      </c>
-      <c r="D106" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" t="s">
-        <v>333</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
@@ -4298,19 +4295,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B107" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C107" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D107" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F107" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G107" t="s">
         <v>9</v>
@@ -4318,39 +4315,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>334</v>
+      </c>
+      <c r="B108" t="s">
+        <v>494</v>
+      </c>
+      <c r="C108" t="s">
+        <v>335</v>
+      </c>
+      <c r="D108" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" t="s">
         <v>336</v>
       </c>
-      <c r="B108" t="s">
-        <v>497</v>
-      </c>
-      <c r="C108" t="s">
-        <v>337</v>
-      </c>
-      <c r="D108" t="s">
-        <v>18</v>
-      </c>
-      <c r="F108" t="s">
-        <v>338</v>
-      </c>
       <c r="G108" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>337</v>
+      </c>
+      <c r="B109" t="s">
+        <v>338</v>
+      </c>
+      <c r="C109" t="s">
+        <v>443</v>
+      </c>
+      <c r="D109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" t="s">
         <v>339</v>
-      </c>
-      <c r="B109" t="s">
-        <v>340</v>
-      </c>
-      <c r="C109" t="s">
-        <v>446</v>
-      </c>
-      <c r="D109" t="s">
-        <v>18</v>
-      </c>
-      <c r="F109" t="s">
-        <v>341</v>
       </c>
       <c r="G109" t="s">
         <v>20</v>
@@ -4358,19 +4355,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>340</v>
+      </c>
+      <c r="B110" t="s">
+        <v>580</v>
+      </c>
+      <c r="C110" t="s">
+        <v>341</v>
+      </c>
+      <c r="D110" t="s">
+        <v>225</v>
+      </c>
+      <c r="F110" t="s">
         <v>342</v>
-      </c>
-      <c r="B110" t="s">
-        <v>343</v>
-      </c>
-      <c r="C110" t="s">
-        <v>344</v>
-      </c>
-      <c r="D110" t="s">
-        <v>227</v>
-      </c>
-      <c r="F110" t="s">
-        <v>345</v>
       </c>
       <c r="G110" t="s">
         <v>9</v>
@@ -4378,39 +4375,39 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C111" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D111" t="s">
         <v>22</v>
       </c>
       <c r="F111" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G111" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>346</v>
+      </c>
+      <c r="B112" t="s">
+        <v>566</v>
+      </c>
+      <c r="C112" t="s">
+        <v>347</v>
+      </c>
+      <c r="D112" t="s">
+        <v>348</v>
+      </c>
+      <c r="F112" t="s">
         <v>349</v>
-      </c>
-      <c r="B112" t="s">
-        <v>569</v>
-      </c>
-      <c r="C112" t="s">
-        <v>350</v>
-      </c>
-      <c r="D112" t="s">
-        <v>351</v>
-      </c>
-      <c r="F112" t="s">
-        <v>352</v>
       </c>
       <c r="G112" t="s">
         <v>9</v>
@@ -4418,39 +4415,39 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B113" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C113" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D113" t="s">
         <v>18</v>
       </c>
       <c r="F113" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G113" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B114" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C114" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D114" t="s">
         <v>18</v>
       </c>
       <c r="F114" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G114" t="s">
         <v>20</v>
@@ -4458,59 +4455,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>355</v>
+      </c>
+      <c r="B115" t="s">
+        <v>356</v>
+      </c>
+      <c r="C115" t="s">
+        <v>357</v>
+      </c>
+      <c r="D115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115" t="s">
         <v>358</v>
       </c>
-      <c r="B115" t="s">
-        <v>359</v>
-      </c>
-      <c r="C115" t="s">
-        <v>360</v>
-      </c>
-      <c r="D115" t="s">
-        <v>18</v>
-      </c>
-      <c r="F115" t="s">
-        <v>361</v>
-      </c>
       <c r="G115" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B116" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C116" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D116" t="s">
         <v>18</v>
       </c>
       <c r="F116" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G116" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B117" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C117" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D117" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G117" t="s">
         <v>20</v>
@@ -4518,39 +4515,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B118" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C118" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
       </c>
       <c r="F118" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G118" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>366</v>
+      </c>
+      <c r="B119" t="s">
+        <v>367</v>
+      </c>
+      <c r="C119" t="s">
+        <v>368</v>
+      </c>
+      <c r="D119" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119" t="s">
         <v>369</v>
-      </c>
-      <c r="B119" t="s">
-        <v>370</v>
-      </c>
-      <c r="C119" t="s">
-        <v>371</v>
-      </c>
-      <c r="D119" t="s">
-        <v>18</v>
-      </c>
-      <c r="F119" t="s">
-        <v>372</v>
       </c>
       <c r="G119" t="s">
         <v>9</v>
@@ -4558,39 +4555,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B120" t="s">
+        <v>531</v>
+      </c>
+      <c r="C120" t="s">
+        <v>532</v>
+      </c>
+      <c r="D120" t="s">
+        <v>533</v>
+      </c>
+      <c r="F120" t="s">
         <v>534</v>
       </c>
-      <c r="C120" t="s">
-        <v>535</v>
-      </c>
-      <c r="D120" t="s">
-        <v>536</v>
-      </c>
-      <c r="F120" t="s">
-        <v>537</v>
-      </c>
       <c r="G120" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>371</v>
+      </c>
+      <c r="B121" t="s">
+        <v>372</v>
+      </c>
+      <c r="C121" t="s">
+        <v>373</v>
+      </c>
+      <c r="D121" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" t="s">
         <v>374</v>
-      </c>
-      <c r="B121" t="s">
-        <v>375</v>
-      </c>
-      <c r="C121" t="s">
-        <v>376</v>
-      </c>
-      <c r="D121" t="s">
-        <v>18</v>
-      </c>
-      <c r="F121" t="s">
-        <v>377</v>
       </c>
       <c r="G121" t="s">
         <v>20</v>
@@ -4598,39 +4595,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>375</v>
+      </c>
+      <c r="B122" t="s">
+        <v>467</v>
+      </c>
+      <c r="C122" t="s">
+        <v>376</v>
+      </c>
+      <c r="D122" t="s">
+        <v>377</v>
+      </c>
+      <c r="F122" t="s">
         <v>378</v>
       </c>
-      <c r="B122" t="s">
-        <v>470</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="G122" t="s">
         <v>379</v>
-      </c>
-      <c r="D122" t="s">
-        <v>380</v>
-      </c>
-      <c r="F122" t="s">
-        <v>381</v>
-      </c>
-      <c r="G122" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>380</v>
+      </c>
+      <c r="B123" t="s">
+        <v>381</v>
+      </c>
+      <c r="C123" t="s">
+        <v>382</v>
+      </c>
+      <c r="D123" t="s">
+        <v>139</v>
+      </c>
+      <c r="F123" t="s">
         <v>383</v>
-      </c>
-      <c r="B123" t="s">
-        <v>384</v>
-      </c>
-      <c r="C123" t="s">
-        <v>385</v>
-      </c>
-      <c r="D123" t="s">
-        <v>141</v>
-      </c>
-      <c r="F123" t="s">
-        <v>386</v>
       </c>
       <c r="G123" t="s">
         <v>9</v>
@@ -4638,30 +4635,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B124" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C124" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D124" t="s">
         <v>22</v>
       </c>
       <c r="F124" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G124" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B125" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C125" t="s">
         <v>17</v>
@@ -4670,7 +4667,7 @@
         <v>18</v>
       </c>
       <c r="F125" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G125" t="s">
         <v>20</v>
@@ -4678,39 +4675,39 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>391</v>
+      </c>
+      <c r="B126" t="s">
+        <v>392</v>
+      </c>
+      <c r="C126" t="s">
+        <v>393</v>
+      </c>
+      <c r="D126" t="s">
+        <v>35</v>
+      </c>
+      <c r="F126" t="s">
         <v>394</v>
       </c>
-      <c r="B126" t="s">
-        <v>395</v>
-      </c>
-      <c r="C126" t="s">
-        <v>396</v>
-      </c>
-      <c r="D126" t="s">
-        <v>36</v>
-      </c>
-      <c r="F126" t="s">
-        <v>397</v>
-      </c>
       <c r="G126" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B127" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C127" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D127" t="s">
         <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G127" t="s">
         <v>9</v>
@@ -4718,39 +4715,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>398</v>
+      </c>
+      <c r="B128" t="s">
+        <v>399</v>
+      </c>
+      <c r="C128" t="s">
+        <v>400</v>
+      </c>
+      <c r="D128" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" t="s">
         <v>401</v>
       </c>
-      <c r="B128" t="s">
-        <v>402</v>
-      </c>
-      <c r="C128" t="s">
-        <v>403</v>
-      </c>
-      <c r="D128" t="s">
-        <v>18</v>
-      </c>
-      <c r="F128" t="s">
-        <v>404</v>
-      </c>
       <c r="G128" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>402</v>
+      </c>
+      <c r="B129" t="s">
+        <v>403</v>
+      </c>
+      <c r="C129" t="s">
+        <v>404</v>
+      </c>
+      <c r="D129" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" t="s">
         <v>405</v>
-      </c>
-      <c r="B129" t="s">
-        <v>406</v>
-      </c>
-      <c r="C129" t="s">
-        <v>407</v>
-      </c>
-      <c r="D129" t="s">
-        <v>18</v>
-      </c>
-      <c r="F129" t="s">
-        <v>408</v>
       </c>
       <c r="G129" t="s">
         <v>20</v>
@@ -4758,39 +4755,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B130" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C130" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D130" t="s">
         <v>22</v>
       </c>
       <c r="F130" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G130" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B131" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C131" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D131" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F131" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G131" t="s">
         <v>9</v>
@@ -4798,39 +4795,39 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B132" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C132" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D132" t="s">
         <v>22</v>
       </c>
       <c r="F132" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="G132" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B133" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C133" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D133" t="s">
         <v>18</v>
       </c>
       <c r="F133" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="G133" t="s">
         <v>20</v>
@@ -4838,39 +4835,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B134" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C134" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D134" t="s">
         <v>22</v>
       </c>
       <c r="F134" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="G134" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>423</v>
+      </c>
+      <c r="B135" t="s">
+        <v>424</v>
+      </c>
+      <c r="C135" t="s">
+        <v>425</v>
+      </c>
+      <c r="D135" t="s">
+        <v>296</v>
+      </c>
+      <c r="F135" t="s">
         <v>426</v>
-      </c>
-      <c r="B135" t="s">
-        <v>427</v>
-      </c>
-      <c r="C135" t="s">
-        <v>428</v>
-      </c>
-      <c r="D135" t="s">
-        <v>298</v>
-      </c>
-      <c r="F135" t="s">
-        <v>429</v>
       </c>
       <c r="G135" t="s">
         <v>9</v>
@@ -4878,39 +4875,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B136" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C136" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="G136" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B137" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C137" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D137" t="s">
         <v>18</v>
       </c>
       <c r="F137" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="G137" t="s">
         <v>20</v>
@@ -4918,22 +4915,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B138" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C138" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D138" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F138" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="G138" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/Rituel ecoute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B99FD237-2AB8-7C4F-ACF1-DC0F111E523F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555140A-2C93-EE4F-AC45-E0A0198E0A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="579">
   <si>
     <t>titre</t>
   </si>
@@ -1378,9 +1378,6 @@
     <t>Jean-Jacques Goldman</t>
   </si>
   <si>
-    <t xml:space="preserve">The Danish National Symphony Orchestra </t>
-  </si>
-  <si>
     <t>L'Autre Finistère (1992)</t>
   </si>
   <si>
@@ -1417,9 +1414,6 @@
     <t>Roy Orbison</t>
   </si>
   <si>
-    <t>Danemark</t>
-  </si>
-  <si>
     <t>Bongo Bong / Je ne t'aime plus (1999)</t>
   </si>
   <si>
@@ -1549,9 +1543,6 @@
     <t>House Of The Rising Sun (1964)</t>
   </si>
   <si>
-    <t>For A Few Dollars More (1965)</t>
-  </si>
-  <si>
     <t>Wild World (1970)</t>
   </si>
   <si>
@@ -1766,6 +1757,9 @@
   </si>
   <si>
     <t>La Moldau (1874)</t>
+  </si>
+  <si>
+    <t>Et pour quelques dollars de plus - Thème (1965)</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2154,7 @@
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2198,7 +2192,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -2218,7 +2212,7 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2238,16 +2232,16 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C4" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -2258,16 +2252,16 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C5" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="G5" t="s">
         <v>208</v>
@@ -2278,7 +2272,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C6" t="s">
         <v>24</v>
@@ -2298,7 +2292,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C7" t="s">
         <v>441</v>
@@ -2318,7 +2312,7 @@
         <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -2338,7 +2332,7 @@
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C9" t="s">
         <v>32</v>
@@ -2358,13 +2352,13 @@
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F10" t="s">
         <v>36</v>
@@ -2378,7 +2372,7 @@
         <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C11" t="s">
         <v>439</v>
@@ -2418,16 +2412,16 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C13" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="G13" t="s">
         <v>435</v>
@@ -2461,7 +2455,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -2478,7 +2472,7 @@
         <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
@@ -2518,7 +2512,7 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C18" t="s">
         <v>54</v>
@@ -2558,7 +2552,7 @@
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C20" t="s">
         <v>61</v>
@@ -2567,7 +2561,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
@@ -2578,7 +2572,7 @@
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C21" t="s">
         <v>437</v>
@@ -2618,7 +2612,7 @@
         <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C23" t="s">
         <v>69</v>
@@ -2638,7 +2632,7 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
@@ -2658,7 +2652,7 @@
         <v>74</v>
       </c>
       <c r="B25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C25" t="s">
         <v>75</v>
@@ -2698,10 +2692,10 @@
         <v>81</v>
       </c>
       <c r="B27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D27" t="s">
         <v>18</v>
@@ -2738,10 +2732,10 @@
         <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C29" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D29" t="s">
         <v>18</v>
@@ -2778,7 +2772,7 @@
         <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C31" t="s">
         <v>96</v>
@@ -2838,7 +2832,7 @@
         <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C34" t="s">
         <v>54</v>
@@ -2878,10 +2872,10 @@
         <v>107</v>
       </c>
       <c r="B36" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C36" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
@@ -2898,7 +2892,7 @@
         <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C37" t="s">
         <v>110</v>
@@ -2918,16 +2912,16 @@
         <v>112</v>
       </c>
       <c r="B38" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C38" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D38" t="s">
         <v>300</v>
       </c>
       <c r="F38" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G38" t="s">
         <v>422</v>
@@ -2958,7 +2952,7 @@
         <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C40" t="s">
         <v>448</v>
@@ -2978,10 +2972,10 @@
         <v>119</v>
       </c>
       <c r="B41" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="C41" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
@@ -2998,16 +2992,16 @@
         <v>121</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C42" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D42" t="s">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
@@ -3018,7 +3012,7 @@
         <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C43" t="s">
         <v>115</v>
@@ -3038,7 +3032,7 @@
         <v>124</v>
       </c>
       <c r="B44" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C44" t="s">
         <v>125</v>
@@ -3058,7 +3052,7 @@
         <v>127</v>
       </c>
       <c r="B45" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C45" t="s">
         <v>128</v>
@@ -3084,7 +3078,7 @@
         <v>132</v>
       </c>
       <c r="D46" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F46" t="s">
         <v>133</v>
@@ -3118,16 +3112,16 @@
         <v>137</v>
       </c>
       <c r="B48" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C48" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="D48" t="s">
         <v>22</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G48" t="s">
         <v>208</v>
@@ -3138,7 +3132,7 @@
         <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C49" t="s">
         <v>143</v>
@@ -3198,7 +3192,7 @@
         <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C52" t="s">
         <v>155</v>
@@ -3218,13 +3212,13 @@
         <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="C53" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D53" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F53" t="s">
         <v>158</v>
@@ -3238,7 +3232,7 @@
         <v>159</v>
       </c>
       <c r="B54" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C54" t="s">
         <v>160</v>
@@ -3278,7 +3272,7 @@
         <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C56" t="s">
         <v>138</v>
@@ -3298,7 +3292,7 @@
         <v>167</v>
       </c>
       <c r="B57" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C57" t="s">
         <v>24</v>
@@ -3321,7 +3315,7 @@
         <v>170</v>
       </c>
       <c r="C58" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D58" t="s">
         <v>22</v>
@@ -3338,7 +3332,7 @@
         <v>173</v>
       </c>
       <c r="B59" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C59" t="s">
         <v>174</v>
@@ -3378,7 +3372,7 @@
         <v>180</v>
       </c>
       <c r="B61" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C61" t="s">
         <v>92</v>
@@ -3458,7 +3452,7 @@
         <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C65" t="s">
         <v>54</v>
@@ -3478,7 +3472,7 @@
         <v>197</v>
       </c>
       <c r="B66" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C66" t="s">
         <v>198</v>
@@ -3538,7 +3532,7 @@
         <v>209</v>
       </c>
       <c r="B69" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C69" t="s">
         <v>210</v>
@@ -3558,16 +3552,16 @@
         <v>213</v>
       </c>
       <c r="B70" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C70" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D70" t="s">
         <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="G70" t="s">
         <v>214</v>
@@ -3598,7 +3592,7 @@
         <v>219</v>
       </c>
       <c r="B72" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C72" t="s">
         <v>220</v>
@@ -3618,7 +3612,7 @@
         <v>223</v>
       </c>
       <c r="B73" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C73" t="s">
         <v>224</v>
@@ -3638,7 +3632,7 @@
         <v>227</v>
       </c>
       <c r="B74" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C74" t="s">
         <v>228</v>
@@ -3678,16 +3672,16 @@
         <v>234</v>
       </c>
       <c r="B76" t="s">
+        <v>542</v>
+      </c>
+      <c r="C76" t="s">
+        <v>543</v>
+      </c>
+      <c r="D76" t="s">
+        <v>544</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>545</v>
-      </c>
-      <c r="C76" t="s">
-        <v>546</v>
-      </c>
-      <c r="D76" t="s">
-        <v>547</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>548</v>
       </c>
       <c r="G76" t="s">
         <v>208</v>
@@ -3738,7 +3732,7 @@
         <v>244</v>
       </c>
       <c r="B79" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C79" t="s">
         <v>245</v>
@@ -3758,16 +3752,16 @@
         <v>247</v>
       </c>
       <c r="B80" t="s">
+        <v>457</v>
+      </c>
+      <c r="C80" t="s">
+        <v>456</v>
+      </c>
+      <c r="D80" t="s">
         <v>458</v>
       </c>
-      <c r="C80" t="s">
-        <v>457</v>
-      </c>
-      <c r="D80" t="s">
-        <v>459</v>
-      </c>
       <c r="F80" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G80" t="s">
         <v>208</v>
@@ -3801,7 +3795,7 @@
         <v>254</v>
       </c>
       <c r="C82" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
@@ -3818,7 +3812,7 @@
         <v>256</v>
       </c>
       <c r="B83" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C83" t="s">
         <v>257</v>
@@ -3838,7 +3832,7 @@
         <v>259</v>
       </c>
       <c r="B84" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C84" t="s">
         <v>260</v>
@@ -3858,13 +3852,13 @@
         <v>263</v>
       </c>
       <c r="B85" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C85" t="s">
         <v>264</v>
       </c>
       <c r="D85" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F85" t="s">
         <v>265</v>
@@ -3878,7 +3872,7 @@
         <v>266</v>
       </c>
       <c r="B86" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C86" t="s">
         <v>267</v>
@@ -3898,7 +3892,7 @@
         <v>269</v>
       </c>
       <c r="B87" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C87" t="s">
         <v>270</v>
@@ -3938,7 +3932,7 @@
         <v>276</v>
       </c>
       <c r="B89" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C89" t="s">
         <v>277</v>
@@ -3958,7 +3952,7 @@
         <v>279</v>
       </c>
       <c r="B90" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C90" t="s">
         <v>280</v>
@@ -3978,7 +3972,7 @@
         <v>282</v>
       </c>
       <c r="B91" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C91" t="s">
         <v>217</v>
@@ -3998,7 +3992,7 @@
         <v>284</v>
       </c>
       <c r="B92" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C92" t="s">
         <v>285</v>
@@ -4038,7 +4032,7 @@
         <v>291</v>
       </c>
       <c r="B94" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C94" t="s">
         <v>292</v>
@@ -4078,7 +4072,7 @@
         <v>298</v>
       </c>
       <c r="B96" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C96" t="s">
         <v>299</v>
@@ -4098,7 +4092,7 @@
         <v>302</v>
       </c>
       <c r="B97" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C97" t="s">
         <v>303</v>
@@ -4138,16 +4132,16 @@
         <v>309</v>
       </c>
       <c r="B99" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C99" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D99" t="s">
         <v>18</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
@@ -4158,7 +4152,7 @@
         <v>310</v>
       </c>
       <c r="B100" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C100" t="s">
         <v>178</v>
@@ -4178,7 +4172,7 @@
         <v>312</v>
       </c>
       <c r="B101" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C101" t="s">
         <v>313</v>
@@ -4238,7 +4232,7 @@
         <v>323</v>
       </c>
       <c r="B104" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C104" t="s">
         <v>324</v>
@@ -4258,16 +4252,16 @@
         <v>327</v>
       </c>
       <c r="B105" t="s">
+        <v>547</v>
+      </c>
+      <c r="C105" t="s">
+        <v>548</v>
+      </c>
+      <c r="D105" t="s">
+        <v>549</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>550</v>
-      </c>
-      <c r="C105" t="s">
-        <v>551</v>
-      </c>
-      <c r="D105" t="s">
-        <v>552</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="G105" t="s">
         <v>328</v>
@@ -4278,7 +4272,7 @@
         <v>329</v>
       </c>
       <c r="B106" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C106" t="s">
         <v>330</v>
@@ -4298,13 +4292,13 @@
         <v>332</v>
       </c>
       <c r="B107" t="s">
-        <v>508</v>
+        <v>578</v>
       </c>
       <c r="C107" t="s">
-        <v>451</v>
+        <v>138</v>
       </c>
       <c r="D107" t="s">
-        <v>464</v>
+        <v>139</v>
       </c>
       <c r="F107" t="s">
         <v>333</v>
@@ -4318,7 +4312,7 @@
         <v>334</v>
       </c>
       <c r="B108" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C108" t="s">
         <v>335</v>
@@ -4358,7 +4352,7 @@
         <v>340</v>
       </c>
       <c r="B110" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C110" t="s">
         <v>341</v>
@@ -4381,7 +4375,7 @@
         <v>344</v>
       </c>
       <c r="C111" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D111" t="s">
         <v>22</v>
@@ -4398,7 +4392,7 @@
         <v>346</v>
       </c>
       <c r="B112" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C112" t="s">
         <v>347</v>
@@ -4418,7 +4412,7 @@
         <v>350</v>
       </c>
       <c r="B113" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C113" t="s">
         <v>274</v>
@@ -4438,7 +4432,7 @@
         <v>352</v>
       </c>
       <c r="B114" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C114" t="s">
         <v>353</v>
@@ -4498,16 +4492,16 @@
         <v>362</v>
       </c>
       <c r="B117" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C117" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D117" t="s">
         <v>139</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="G117" t="s">
         <v>20</v>
@@ -4521,7 +4515,7 @@
         <v>364</v>
       </c>
       <c r="C118" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D118" t="s">
         <v>18</v>
@@ -4558,16 +4552,16 @@
         <v>370</v>
       </c>
       <c r="B120" t="s">
+        <v>528</v>
+      </c>
+      <c r="C120" t="s">
+        <v>529</v>
+      </c>
+      <c r="D120" t="s">
+        <v>530</v>
+      </c>
+      <c r="F120" t="s">
         <v>531</v>
-      </c>
-      <c r="C120" t="s">
-        <v>532</v>
-      </c>
-      <c r="D120" t="s">
-        <v>533</v>
-      </c>
-      <c r="F120" t="s">
-        <v>534</v>
       </c>
       <c r="G120" t="s">
         <v>208</v>
@@ -4598,7 +4592,7 @@
         <v>375</v>
       </c>
       <c r="B122" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C122" t="s">
         <v>376</v>
@@ -4698,7 +4692,7 @@
         <v>395</v>
       </c>
       <c r="B127" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C127" t="s">
         <v>396</v>
@@ -4778,13 +4772,13 @@
         <v>409</v>
       </c>
       <c r="B131" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C131" t="s">
         <v>410</v>
       </c>
       <c r="D131" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F131" t="s">
         <v>411</v>
@@ -4818,10 +4812,10 @@
         <v>416</v>
       </c>
       <c r="B133" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C133" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D133" t="s">
         <v>18</v>
@@ -4878,7 +4872,7 @@
         <v>427</v>
       </c>
       <c r="B136" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C136" t="s">
         <v>428</v>
@@ -4918,16 +4912,16 @@
         <v>433</v>
       </c>
       <c r="B138" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C138" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D138" t="s">
         <v>438</v>
       </c>
       <c r="F138" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G138" t="s">
         <v>208</v>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/Rituel ecoute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555140A-2C93-EE4F-AC45-E0A0198E0A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA12E96D-336F-6140-BAD3-5757FE0A744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1753,13 +1753,13 @@
     <t>La chevauchée des Walkyries (1856)</t>
   </si>
   <si>
-    <t>SymphonIE No. 9 (1826)</t>
-  </si>
-  <si>
     <t>La Moldau (1874)</t>
   </si>
   <si>
     <t>Et pour quelques dollars de plus - Thème (1965)</t>
+  </si>
+  <si>
+    <t>Symphonie No. 9 (1826)</t>
   </si>
 </sst>
 </file>
@@ -2153,8 +2153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2832,7 +2832,7 @@
         <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="C34" t="s">
         <v>54</v>
@@ -4292,7 +4292,7 @@
         <v>332</v>
       </c>
       <c r="B107" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C107" t="s">
         <v>138</v>
@@ -4352,7 +4352,7 @@
         <v>340</v>
       </c>
       <c r="B110" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C110" t="s">
         <v>341</v>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/Rituel ecoute/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA12E96D-336F-6140-BAD3-5757FE0A744A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F632A-BD9F-E744-8612-B6BD9C8178DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planning!$A$1:$G$138</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,9 +58,6 @@
     <t>01/09/2025</t>
   </si>
   <si>
-    <t>Vivaldi</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=GRxofEmo3HA</t>
   </si>
   <si>
@@ -97,9 +106,6 @@
     <t>08/09/2025</t>
   </si>
   <si>
-    <t>Bach</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Nnuq9PXbywA</t>
   </si>
   <si>
@@ -187,9 +193,6 @@
     <t>29/09/2025</t>
   </si>
   <si>
-    <t>Beethoven</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=s71I_EWJk7I</t>
   </si>
   <si>
@@ -223,9 +226,6 @@
     <t>Nocturne in E-flat major (1832)</t>
   </si>
   <si>
-    <t>Chopin</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=9E6b3swbnWg</t>
   </si>
   <si>
@@ -262,9 +262,6 @@
     <t>Messiah (Hallelujah) (1767)</t>
   </si>
   <si>
-    <t>Handel</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=usfiAsWR4qU</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>Requiem (1792)</t>
   </si>
   <si>
-    <t>Mozart</t>
-  </si>
-  <si>
     <t>Archiduché d'Autriche</t>
   </si>
   <si>
@@ -355,9 +349,6 @@
     <t>17/11/2025</t>
   </si>
   <si>
-    <t>Pachelbel</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=NlprozGcs80</t>
   </si>
   <si>
@@ -409,9 +400,6 @@
     <t>01/12/2025</t>
   </si>
   <si>
-    <t>Brahms</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=3X9LvC9WkkQ</t>
   </si>
   <si>
@@ -454,9 +442,6 @@
     <t>08/12/2025</t>
   </si>
   <si>
-    <t>Rossini</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=OloXRhesab0</t>
   </si>
   <si>
@@ -655,9 +640,6 @@
     <t>26/01/2026</t>
   </si>
   <si>
-    <t>Grieg</t>
-  </si>
-  <si>
     <t>Norvège</t>
   </si>
   <si>
@@ -697,9 +679,6 @@
     <t>02/02/2026</t>
   </si>
   <si>
-    <t>Dvořák</t>
-  </si>
-  <si>
     <t>République tchèque</t>
   </si>
   <si>
@@ -736,9 +715,6 @@
     <t>Carmen (Habanera) (1850)</t>
   </si>
   <si>
-    <t>Bizet</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=EseMHr6VEM0</t>
   </si>
   <si>
@@ -775,9 +751,6 @@
     <t>Ave Maria (1825)</t>
   </si>
   <si>
-    <t>Schubert</t>
-  </si>
-  <si>
     <t>Autriche</t>
   </si>
   <si>
@@ -856,9 +829,6 @@
     <t>16/03/2026</t>
   </si>
   <si>
-    <t>Verdi</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=pu7zWrIMV_g</t>
   </si>
   <si>
@@ -892,9 +862,6 @@
     <t>La Bohème (1850)</t>
   </si>
   <si>
-    <t>Puccini</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=IDvE8uKWznc</t>
   </si>
   <si>
@@ -934,9 +901,6 @@
     <t>30/03/2026</t>
   </si>
   <si>
-    <t>Wagner</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=V92OBNsQgxU</t>
   </si>
   <si>
@@ -997,9 +961,6 @@
     <t>27/04/2026</t>
   </si>
   <si>
-    <t>Mendelssohn</t>
-  </si>
-  <si>
     <t>Royaume de Saxe</t>
   </si>
   <si>
@@ -1048,9 +1009,6 @@
     <t>11/05/2026</t>
   </si>
   <si>
-    <t>Smetana</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=l6kqu2mk-Kw</t>
   </si>
   <si>
@@ -1066,9 +1024,6 @@
     <t>18/05/2026</t>
   </si>
   <si>
-    <t>Liszt</t>
-  </si>
-  <si>
     <t>Hongrie</t>
   </si>
   <si>
@@ -1129,9 +1084,6 @@
     <t>Boléro (1929)</t>
   </si>
   <si>
-    <t>Ravel</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=r30D3SW4OVw</t>
   </si>
   <si>
@@ -1171,9 +1123,6 @@
     <t>Adagio in G minor (1958)</t>
   </si>
   <si>
-    <t>Albinoni</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=kn1gcjuhlhg</t>
   </si>
   <si>
@@ -1213,9 +1162,6 @@
     <t>15/06/2026</t>
   </si>
   <si>
-    <t>Offenbach</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=4Diu2N8TGKA</t>
   </si>
   <si>
@@ -1255,9 +1201,6 @@
     <t>22/06/2026</t>
   </si>
   <si>
-    <t>Borodin</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=wiexn6O9To4</t>
   </si>
   <si>
@@ -1300,9 +1243,6 @@
     <t>Finlandia (1900)</t>
   </si>
   <si>
-    <t>Sibelius</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=F5zg_af9b8c</t>
   </si>
   <si>
@@ -1760,6 +1700,78 @@
   </si>
   <si>
     <t>Symphonie No. 9 (1826)</t>
+  </si>
+  <si>
+    <t>Antonio Vivaldi</t>
+  </si>
+  <si>
+    <t>Jean-Sébastien Bach</t>
+  </si>
+  <si>
+    <t>Ludwig van Beethoven</t>
+  </si>
+  <si>
+    <t>Frédéric Chopin</t>
+  </si>
+  <si>
+    <t>Georg Friedrich Haendel</t>
+  </si>
+  <si>
+    <t>Wolfgang Amadeus Mozart</t>
+  </si>
+  <si>
+    <t>Johann Pachelbel</t>
+  </si>
+  <si>
+    <t>Johannes Brahms</t>
+  </si>
+  <si>
+    <t>Gioachino Rossini</t>
+  </si>
+  <si>
+    <t>Edvard Grieg</t>
+  </si>
+  <si>
+    <t>Antonín Dvořák</t>
+  </si>
+  <si>
+    <t>Georges Bizet</t>
+  </si>
+  <si>
+    <t>Franz Schubert</t>
+  </si>
+  <si>
+    <t>Giuseppe Verdi</t>
+  </si>
+  <si>
+    <t>Giacomo Puccini</t>
+  </si>
+  <si>
+    <t>Richard Wagner</t>
+  </si>
+  <si>
+    <t>Felix Mendelssohn Bartholdy</t>
+  </si>
+  <si>
+    <t>Bedřich Smetana</t>
+  </si>
+  <si>
+    <t>Franz Liszt</t>
+  </si>
+  <si>
+    <t>Maurice Ravel</t>
+  </si>
+  <si>
+    <t>Tomaso Albinoni</t>
+  </si>
+  <si>
+    <t>Jacques Offenbach</t>
+  </si>
+  <si>
+    <t>Alexandre Borodine</t>
+  </si>
+  <si>
+    <t>Jean Sibelius</t>
   </si>
 </sst>
 </file>
@@ -2153,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2166,7 +2178,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2192,2739 +2204,2739 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="C2" t="s">
+        <v>555</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="C4" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="C5" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="G5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>544</v>
+      </c>
+      <c r="C6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
-        <v>568</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="C7" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>428</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
-        <v>482</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C10" t="s">
+        <v>530</v>
+      </c>
+      <c r="D10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" t="s">
-        <v>555</v>
-      </c>
-      <c r="C10" t="s">
-        <v>554</v>
-      </c>
-      <c r="D10" t="s">
-        <v>502</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="C11" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="D11" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
       <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
         <v>18</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="G13" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
         <v>42</v>
       </c>
-      <c r="C14" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
-        <v>44</v>
-      </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>489</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>513</v>
-      </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>47</v>
-      </c>
       <c r="G15" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s">
-        <v>451</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
-        <v>50</v>
-      </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="C17" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
+        <v>533</v>
+      </c>
+      <c r="C18" t="s">
         <v>557</v>
       </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
         <v>56</v>
       </c>
-      <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" t="s">
-        <v>59</v>
-      </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="C21" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="D21" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>558</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>559</v>
       </c>
       <c r="D26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="C27" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="C29" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="D29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>560</v>
       </c>
       <c r="D30" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="C33" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>557</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="C35" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="C36" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="D36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>561</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B38" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="C38" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="D38" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F38" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="G38" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B39" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B40" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="C40" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="D40" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="F40" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B41" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="C41" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="C42" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="D42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="G42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B43" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>562</v>
       </c>
       <c r="D45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D46" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C47" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F47" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G47" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B48" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="C48" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="D48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="G48" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>563</v>
       </c>
       <c r="D49" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F49" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B50" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C50" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G50" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G52" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B53" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C53" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="D53" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="F53" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="G53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B54" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="C54" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="G54" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C55" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D55" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F55" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B56" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F56" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G56" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C57" t="s">
-        <v>24</v>
+        <v>556</v>
       </c>
       <c r="D57" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="D58" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="G58" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B59" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="G59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G60" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B61" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="C61" t="s">
-        <v>92</v>
+        <v>560</v>
       </c>
       <c r="D61" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F61" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C62" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="G62" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="G64" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B65" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="C65" t="s">
-        <v>54</v>
+        <v>557</v>
       </c>
       <c r="D65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B66" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="C66" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G66" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C67" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D68" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="G68" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B69" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>564</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F69" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B70" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="C70" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="G70" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C71" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D71" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="G71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B72" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="C72" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="D72" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G72" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B73" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="C73" t="s">
-        <v>224</v>
+        <v>565</v>
       </c>
       <c r="D73" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F73" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="B74" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="C74" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="D74" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="G74" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B75" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C75" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="G75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="C76" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="D76" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="G76" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C77" t="s">
-        <v>237</v>
+        <v>566</v>
       </c>
       <c r="D77" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C78" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G78" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="B79" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="C79" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="D79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="G79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="B80" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="C80" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="D80" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="F80" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="G80" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="C81" t="s">
-        <v>250</v>
+        <v>567</v>
       </c>
       <c r="D81" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F81" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B82" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C82" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="D82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G82" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B83" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="C83" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B84" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="C84" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="D84" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F84" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G84" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B85" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="C85" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D85" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="F85" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="B86" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="C86" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="G86" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="C87" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B88" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C88" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="G88" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>568</v>
       </c>
       <c r="D89" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F89" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="B90" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="C90" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G90" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B91" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="C91" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D91" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="G91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B92" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="C92" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D92" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G92" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B93" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="C93" t="s">
-        <v>289</v>
+        <v>569</v>
       </c>
       <c r="D93" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F93" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="G93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B94" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="C94" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D94" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="G94" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="B95" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="C95" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="D95" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="G95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="C96" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D96" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F96" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="G96" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="B97" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="C97" t="s">
-        <v>303</v>
+        <v>570</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="G97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="C98" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="G98" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B99" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C99" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="D99" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="G99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="C100" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="G100" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="B101" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="C101" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D101" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="G101" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B102" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="C102" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="G102" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="B103" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="C103" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D103" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="G103" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B104" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="C104" t="s">
-        <v>324</v>
+        <v>571</v>
       </c>
       <c r="D104" t="s">
-        <v>325</v>
+        <v>308</v>
       </c>
       <c r="F104" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
       <c r="G104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>327</v>
+        <v>310</v>
       </c>
       <c r="B105" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="C105" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="D105" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="G105" t="s">
-        <v>328</v>
+        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="B106" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="C106" t="s">
-        <v>330</v>
+        <v>313</v>
       </c>
       <c r="D106" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>331</v>
+        <v>314</v>
       </c>
       <c r="G106" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>332</v>
+        <v>315</v>
       </c>
       <c r="B107" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="C107" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D107" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F107" t="s">
-        <v>333</v>
+        <v>316</v>
       </c>
       <c r="G107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="B108" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="C108" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="D108" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="G108" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="B109" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="C109" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D109" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="G109" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="B110" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>572</v>
       </c>
       <c r="D110" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="F110" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="G110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="B111" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="C111" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="D111" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="G111" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="B112" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="C112" t="s">
-        <v>347</v>
+        <v>573</v>
       </c>
       <c r="D112" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="F112" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
       <c r="G112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B113" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="C113" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="D113" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="G113" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="B114" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C114" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="D114" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="G114" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="B115" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C115" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="D115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="G115" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="B116" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="C116" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="D116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="G116" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="B117" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="C117" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="D117" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="G117" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="B118" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C118" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="D118" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="G118" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="B119" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="C119" t="s">
-        <v>368</v>
+        <v>574</v>
       </c>
       <c r="D119" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
       <c r="G119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="B120" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="C120" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="D120" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="F120" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="G120" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="B121" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
       <c r="C121" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D121" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
       <c r="G121" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="B122" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="C122" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D122" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="F122" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="G122" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B123" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C123" t="s">
-        <v>382</v>
+        <v>575</v>
       </c>
       <c r="D123" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F123" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="G123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="B124" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="C124" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="D124" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="G124" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="B125" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="C125" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D125" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="G125" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="B126" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="C126" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="D126" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="G126" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="B127" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="C127" t="s">
-        <v>396</v>
+        <v>576</v>
       </c>
       <c r="D127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>397</v>
+        <v>375</v>
       </c>
       <c r="G127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>398</v>
+        <v>376</v>
       </c>
       <c r="B128" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="C128" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="D128" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>401</v>
+        <v>379</v>
       </c>
       <c r="G128" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>402</v>
+        <v>380</v>
       </c>
       <c r="B129" t="s">
-        <v>403</v>
+        <v>381</v>
       </c>
       <c r="C129" t="s">
-        <v>404</v>
+        <v>382</v>
       </c>
       <c r="D129" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>405</v>
+        <v>383</v>
       </c>
       <c r="G129" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
       <c r="B130" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="C130" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D130" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>408</v>
+        <v>386</v>
       </c>
       <c r="G130" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>409</v>
+        <v>387</v>
       </c>
       <c r="B131" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="C131" t="s">
-        <v>410</v>
+        <v>577</v>
       </c>
       <c r="D131" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="F131" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="G131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B132" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
       <c r="C132" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="D132" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="G132" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
       <c r="B133" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="C133" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="D133" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="G133" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="B134" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="C134" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="D134" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F134" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="G134" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="B135" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="C135" t="s">
-        <v>425</v>
+        <v>578</v>
       </c>
       <c r="D135" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="F135" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="G135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="B136" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="C136" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="D136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="G136" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="B137" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="C137" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="D137" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="G137" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="B138" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="C138" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="D138" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="F138" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="G138" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/Rituel ecoute/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888F632A-BD9F-E744-8612-B6BD9C8178DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFD8107-6C82-3E45-B4A8-5FD71D801C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -268,9 +268,6 @@
     <t>14/10/2025</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=xHJoY0oSD_Y</t>
-  </si>
-  <si>
     <t>16/10/2025</t>
   </si>
   <si>
@@ -1456,12 +1453,6 @@
     <t>Lettre à France (1978)</t>
   </si>
   <si>
-    <t>Caravane (2005)</t>
-  </si>
-  <si>
-    <t>Raphaël Haroche</t>
-  </si>
-  <si>
     <t>Johann Strauss II</t>
   </si>
   <si>
@@ -1772,6 +1763,15 @@
   </si>
   <si>
     <t>Jean Sibelius</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_nLmM9kcBKs&amp;list=RD_nLmM9kcBKs&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Chris Rodrigues &amp; Abby the Spoon Lady</t>
+  </si>
+  <si>
+    <t>Angels in Heaven (2017)</t>
   </si>
 </sst>
 </file>
@@ -2165,8 +2165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2178,7 +2178,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C2" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -2224,7 +2224,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2244,16 +2244,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C4" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2264,19 +2264,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C5" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2284,10 +2284,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2304,10 +2304,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2316,7 +2316,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2324,7 +2324,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2344,7 +2344,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2364,13 +2364,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D10" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2384,19 +2384,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D11" t="s">
         <v>415</v>
-      </c>
-      <c r="D11" t="s">
-        <v>416</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2424,19 +2424,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C13" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2467,7 +2467,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2476,7 +2476,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2484,7 +2484,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2504,10 +2504,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C17" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2516,7 +2516,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2524,10 +2524,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C18" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2564,7 +2564,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2573,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2584,19 +2584,19 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C21" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21" t="s">
         <v>413</v>
-      </c>
-      <c r="D21" t="s">
-        <v>414</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2607,7 +2607,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2624,7 +2624,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2644,7 +2644,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2664,7 +2664,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2687,7 +2687,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2704,16 +2704,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>473</v>
+        <v>578</v>
       </c>
       <c r="C27" t="s">
-        <v>474</v>
+        <v>577</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>576</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2721,19 +2721,19 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
         <v>78</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>79</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>80</v>
       </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>81</v>
-      </c>
-      <c r="F28" t="s">
-        <v>82</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2741,19 +2741,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" t="s">
+        <v>542</v>
+      </c>
+      <c r="C29" t="s">
+        <v>531</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
         <v>83</v>
-      </c>
-      <c r="B29" t="s">
-        <v>545</v>
-      </c>
-      <c r="C29" t="s">
-        <v>534</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="s">
-        <v>84</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2761,19 +2761,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B30" t="s">
-        <v>86</v>
-      </c>
       <c r="C30" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -2781,19 +2781,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" t="s">
+        <v>444</v>
+      </c>
+      <c r="C31" t="s">
         <v>89</v>
       </c>
-      <c r="B31" t="s">
-        <v>445</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
         <v>90</v>
-      </c>
-      <c r="D31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" t="s">
-        <v>91</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" t="s">
         <v>92</v>
-      </c>
-      <c r="B32" t="s">
-        <v>93</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -2813,7 +2813,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2821,19 +2821,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C33" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
         <v>95</v>
-      </c>
-      <c r="B33" t="s">
-        <v>420</v>
-      </c>
-      <c r="C33" t="s">
-        <v>421</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>96</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -2841,19 +2841,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s">
+        <v>551</v>
+      </c>
+      <c r="C34" t="s">
         <v>554</v>
-      </c>
-      <c r="C34" t="s">
-        <v>557</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -2861,19 +2861,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>422</v>
+      </c>
+      <c r="C35" t="s">
+        <v>421</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
         <v>99</v>
-      </c>
-      <c r="B35" t="s">
-        <v>423</v>
-      </c>
-      <c r="C35" t="s">
-        <v>422</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>100</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -2881,19 +2881,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2901,19 +2901,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C37" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -2921,39 +2921,39 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B38" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C38" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F38" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
         <v>106</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>107</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
         <v>108</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>109</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -2961,19 +2961,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>448</v>
+      </c>
+      <c r="C40" t="s">
+        <v>423</v>
+      </c>
+      <c r="D40" t="s">
+        <v>328</v>
+      </c>
+      <c r="F40" t="s">
         <v>110</v>
-      </c>
-      <c r="B40" t="s">
-        <v>449</v>
-      </c>
-      <c r="C40" t="s">
-        <v>424</v>
-      </c>
-      <c r="D40" t="s">
-        <v>329</v>
-      </c>
-      <c r="F40" t="s">
-        <v>111</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -2981,19 +2981,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C41" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -3001,19 +3001,19 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C42" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3021,19 +3021,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>449</v>
+      </c>
+      <c r="C43" t="s">
+        <v>107</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
         <v>115</v>
-      </c>
-      <c r="B43" t="s">
-        <v>450</v>
-      </c>
-      <c r="C43" t="s">
-        <v>108</v>
-      </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" t="s">
-        <v>116</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -3041,19 +3041,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" t="s">
+        <v>478</v>
+      </c>
+      <c r="C44" t="s">
         <v>117</v>
-      </c>
-      <c r="B44" t="s">
-        <v>481</v>
-      </c>
-      <c r="C44" t="s">
-        <v>118</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3061,19 +3061,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C45" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -3081,19 +3081,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" t="s">
         <v>122</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>123</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>430</v>
+      </c>
+      <c r="F46" t="s">
         <v>124</v>
-      </c>
-      <c r="D46" t="s">
-        <v>431</v>
-      </c>
-      <c r="F46" t="s">
-        <v>125</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3101,19 +3101,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" t="s">
         <v>126</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F47" t="s">
         <v>127</v>
-      </c>
-      <c r="C47" t="s">
-        <v>80</v>
-      </c>
-      <c r="D47" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" t="s">
-        <v>128</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3121,39 +3121,39 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B48" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C48" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G48" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" t="s">
+        <v>544</v>
+      </c>
+      <c r="C49" t="s">
+        <v>560</v>
+      </c>
+      <c r="D49" t="s">
+        <v>130</v>
+      </c>
+      <c r="F49" t="s">
         <v>134</v>
-      </c>
-      <c r="B49" t="s">
-        <v>547</v>
-      </c>
-      <c r="C49" t="s">
-        <v>563</v>
-      </c>
-      <c r="D49" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" t="s">
-        <v>135</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -3161,39 +3161,39 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" t="s">
         <v>136</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>137</v>
-      </c>
-      <c r="C50" t="s">
-        <v>138</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
       <c r="F50" t="s">
+        <v>138</v>
+      </c>
+      <c r="G50" t="s">
         <v>139</v>
-      </c>
-      <c r="G50" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" t="s">
         <v>141</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>142</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
         <v>143</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>144</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -3201,39 +3201,39 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" t="s">
+        <v>450</v>
+      </c>
+      <c r="C52" t="s">
         <v>145</v>
-      </c>
-      <c r="B52" t="s">
-        <v>451</v>
-      </c>
-      <c r="C52" t="s">
-        <v>146</v>
       </c>
       <c r="D52" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" t="s">
+        <v>532</v>
+      </c>
+      <c r="C53" t="s">
+        <v>527</v>
+      </c>
+      <c r="D53" t="s">
+        <v>475</v>
+      </c>
+      <c r="F53" t="s">
         <v>148</v>
-      </c>
-      <c r="B53" t="s">
-        <v>535</v>
-      </c>
-      <c r="C53" t="s">
-        <v>530</v>
-      </c>
-      <c r="D53" t="s">
-        <v>478</v>
-      </c>
-      <c r="F53" t="s">
-        <v>149</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
@@ -3241,39 +3241,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B54" t="s">
+        <v>538</v>
+      </c>
+      <c r="C54" t="s">
         <v>150</v>
       </c>
-      <c r="B54" t="s">
-        <v>541</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
         <v>151</v>
       </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>152</v>
-      </c>
-      <c r="G54" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
         <v>154</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55" t="s">
+        <v>80</v>
+      </c>
+      <c r="F55" t="s">
         <v>155</v>
-      </c>
-      <c r="C55" t="s">
-        <v>80</v>
-      </c>
-      <c r="D55" t="s">
-        <v>81</v>
-      </c>
-      <c r="F55" t="s">
-        <v>156</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3281,39 +3281,39 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B56" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D56" t="s">
         <v>130</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>131</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>132</v>
-      </c>
-      <c r="G56" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B57" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="C57" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -3321,39 +3321,39 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" t="s">
         <v>160</v>
       </c>
-      <c r="B58" t="s">
-        <v>161</v>
-      </c>
       <c r="C58" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
+        <v>161</v>
+      </c>
+      <c r="G58" t="s">
         <v>162</v>
-      </c>
-      <c r="G58" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>163</v>
+      </c>
+      <c r="B59" t="s">
+        <v>451</v>
+      </c>
+      <c r="C59" t="s">
         <v>164</v>
       </c>
-      <c r="B59" t="s">
-        <v>452</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
         <v>165</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" t="s">
-        <v>166</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3361,39 +3361,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" t="s">
         <v>167</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>168</v>
-      </c>
-      <c r="C60" t="s">
-        <v>169</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>170</v>
+      </c>
+      <c r="B61" t="s">
+        <v>545</v>
+      </c>
+      <c r="C61" t="s">
+        <v>557</v>
+      </c>
+      <c r="D61" t="s">
+        <v>86</v>
+      </c>
+      <c r="F61" t="s">
         <v>171</v>
-      </c>
-      <c r="B61" t="s">
-        <v>548</v>
-      </c>
-      <c r="C61" t="s">
-        <v>560</v>
-      </c>
-      <c r="D61" t="s">
-        <v>87</v>
-      </c>
-      <c r="F61" t="s">
-        <v>172</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -3401,39 +3401,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>172</v>
+      </c>
+      <c r="B62" t="s">
         <v>173</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>174</v>
-      </c>
-      <c r="C62" t="s">
-        <v>175</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
+        <v>175</v>
+      </c>
+      <c r="G62" t="s">
         <v>176</v>
-      </c>
-      <c r="G62" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" t="s">
         <v>178</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>179</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
         <v>180</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" t="s">
-        <v>181</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -3441,39 +3441,39 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" t="s">
         <v>182</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>183</v>
-      </c>
-      <c r="C64" t="s">
-        <v>184</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G64" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B65" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C65" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
@@ -3481,39 +3481,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>187</v>
+      </c>
+      <c r="B66" t="s">
+        <v>459</v>
+      </c>
+      <c r="C66" t="s">
         <v>188</v>
-      </c>
-      <c r="B66" t="s">
-        <v>460</v>
-      </c>
-      <c r="C66" t="s">
-        <v>189</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>190</v>
+      </c>
+      <c r="B67" t="s">
         <v>191</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>192</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
         <v>193</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s">
-        <v>194</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -3521,39 +3521,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>194</v>
+      </c>
+      <c r="B68" t="s">
         <v>195</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>196</v>
-      </c>
-      <c r="C68" t="s">
-        <v>197</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
+        <v>197</v>
+      </c>
+      <c r="G68" t="s">
         <v>198</v>
-      </c>
-      <c r="G68" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>199</v>
+      </c>
+      <c r="B69" t="s">
+        <v>539</v>
+      </c>
+      <c r="C69" t="s">
+        <v>561</v>
+      </c>
+      <c r="D69" t="s">
         <v>200</v>
       </c>
-      <c r="B69" t="s">
-        <v>542</v>
-      </c>
-      <c r="C69" t="s">
-        <v>564</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
         <v>201</v>
-      </c>
-      <c r="F69" t="s">
-        <v>202</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -3561,39 +3561,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B70" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C70" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="G70" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>204</v>
+      </c>
+      <c r="B71" t="s">
         <v>205</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>206</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
         <v>207</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>208</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -3601,39 +3601,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>208</v>
+      </c>
+      <c r="B72" t="s">
+        <v>460</v>
+      </c>
+      <c r="C72" t="s">
         <v>209</v>
-      </c>
-      <c r="B72" t="s">
-        <v>461</v>
-      </c>
-      <c r="C72" t="s">
-        <v>210</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
+        <v>210</v>
+      </c>
+      <c r="G72" t="s">
         <v>211</v>
-      </c>
-      <c r="G72" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>212</v>
+      </c>
+      <c r="B73" t="s">
+        <v>546</v>
+      </c>
+      <c r="C73" t="s">
+        <v>562</v>
+      </c>
+      <c r="D73" t="s">
         <v>213</v>
       </c>
-      <c r="B73" t="s">
-        <v>549</v>
-      </c>
-      <c r="C73" t="s">
-        <v>565</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>214</v>
-      </c>
-      <c r="F73" t="s">
-        <v>215</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -3641,39 +3641,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" t="s">
+        <v>452</v>
+      </c>
+      <c r="C74" t="s">
         <v>216</v>
-      </c>
-      <c r="B74" t="s">
-        <v>453</v>
-      </c>
-      <c r="C74" t="s">
-        <v>217</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" t="s">
         <v>219</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
         <v>220</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
         <v>221</v>
-      </c>
-      <c r="D75" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" t="s">
-        <v>222</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3681,39 +3681,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B76" t="s">
+        <v>515</v>
+      </c>
+      <c r="C76" t="s">
+        <v>516</v>
+      </c>
+      <c r="D76" t="s">
+        <v>517</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="C76" t="s">
-        <v>519</v>
-      </c>
-      <c r="D76" t="s">
-        <v>520</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>521</v>
-      </c>
       <c r="G76" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>223</v>
+      </c>
+      <c r="B77" t="s">
         <v>224</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>563</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
         <v>225</v>
-      </c>
-      <c r="C77" t="s">
-        <v>566</v>
-      </c>
-      <c r="D77" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" t="s">
-        <v>226</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -3721,39 +3721,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" t="s">
         <v>227</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>228</v>
-      </c>
-      <c r="C78" t="s">
-        <v>229</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
+        <v>229</v>
+      </c>
+      <c r="G78" t="s">
         <v>230</v>
-      </c>
-      <c r="G78" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>231</v>
+      </c>
+      <c r="B79" t="s">
+        <v>453</v>
+      </c>
+      <c r="C79" t="s">
         <v>232</v>
       </c>
-      <c r="B79" t="s">
-        <v>454</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s">
         <v>233</v>
-      </c>
-      <c r="D79" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" t="s">
-        <v>234</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -3761,39 +3761,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B80" t="s">
+        <v>432</v>
+      </c>
+      <c r="C80" t="s">
+        <v>431</v>
+      </c>
+      <c r="D80" t="s">
         <v>433</v>
       </c>
-      <c r="C80" t="s">
-        <v>432</v>
-      </c>
-      <c r="D80" t="s">
-        <v>434</v>
-      </c>
       <c r="F80" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G80" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" t="s">
         <v>236</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>564</v>
+      </c>
+      <c r="D81" t="s">
         <v>237</v>
       </c>
-      <c r="C81" t="s">
-        <v>567</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>238</v>
-      </c>
-      <c r="F81" t="s">
-        <v>239</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
@@ -3801,39 +3801,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>239</v>
+      </c>
+      <c r="B82" t="s">
         <v>240</v>
       </c>
-      <c r="B82" t="s">
-        <v>241</v>
-      </c>
       <c r="C82" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>242</v>
+      </c>
+      <c r="B83" t="s">
+        <v>434</v>
+      </c>
+      <c r="C83" t="s">
         <v>243</v>
       </c>
-      <c r="B83" t="s">
-        <v>435</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" t="s">
         <v>244</v>
-      </c>
-      <c r="D83" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" t="s">
-        <v>245</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -3841,39 +3841,39 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>245</v>
+      </c>
+      <c r="B84" t="s">
+        <v>519</v>
+      </c>
+      <c r="C84" t="s">
         <v>246</v>
       </c>
-      <c r="B84" t="s">
-        <v>522</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>247</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
         <v>248</v>
       </c>
-      <c r="F84" t="s">
-        <v>249</v>
-      </c>
       <c r="G84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B85" t="s">
+        <v>547</v>
+      </c>
+      <c r="C85" t="s">
         <v>250</v>
       </c>
-      <c r="B85" t="s">
-        <v>550</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>475</v>
+      </c>
+      <c r="F85" t="s">
         <v>251</v>
-      </c>
-      <c r="D85" t="s">
-        <v>478</v>
-      </c>
-      <c r="F85" t="s">
-        <v>252</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3881,39 +3881,39 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="s">
+        <v>454</v>
+      </c>
+      <c r="C86" t="s">
         <v>253</v>
-      </c>
-      <c r="B86" t="s">
-        <v>455</v>
-      </c>
-      <c r="C86" t="s">
-        <v>254</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="s">
+        <v>466</v>
+      </c>
+      <c r="C87" t="s">
         <v>256</v>
       </c>
-      <c r="B87" t="s">
-        <v>467</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" t="s">
         <v>257</v>
-      </c>
-      <c r="D87" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" t="s">
-        <v>258</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -3921,39 +3921,39 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="s">
         <v>259</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>260</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s">
         <v>261</v>
       </c>
-      <c r="D88" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" t="s">
-        <v>262</v>
-      </c>
       <c r="G88" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" t="s">
+        <v>461</v>
+      </c>
+      <c r="C89" t="s">
+        <v>565</v>
+      </c>
+      <c r="D89" t="s">
+        <v>130</v>
+      </c>
+      <c r="F89" t="s">
         <v>263</v>
-      </c>
-      <c r="B89" t="s">
-        <v>462</v>
-      </c>
-      <c r="C89" t="s">
-        <v>568</v>
-      </c>
-      <c r="D89" t="s">
-        <v>131</v>
-      </c>
-      <c r="F89" t="s">
-        <v>264</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -3961,39 +3961,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" t="s">
+        <v>435</v>
+      </c>
+      <c r="C90" t="s">
         <v>265</v>
-      </c>
-      <c r="B90" t="s">
-        <v>436</v>
-      </c>
-      <c r="C90" t="s">
-        <v>266</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G90" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" t="s">
+        <v>462</v>
+      </c>
+      <c r="C91" t="s">
+        <v>206</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" t="s">
         <v>268</v>
-      </c>
-      <c r="B91" t="s">
-        <v>463</v>
-      </c>
-      <c r="C91" t="s">
-        <v>207</v>
-      </c>
-      <c r="D91" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" t="s">
-        <v>269</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -4001,39 +4001,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>269</v>
+      </c>
+      <c r="B92" t="s">
+        <v>463</v>
+      </c>
+      <c r="C92" t="s">
         <v>270</v>
       </c>
-      <c r="B92" t="s">
-        <v>464</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s">
         <v>271</v>
       </c>
-      <c r="D92" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" t="s">
-        <v>272</v>
-      </c>
       <c r="G92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>272</v>
+      </c>
+      <c r="B93" t="s">
         <v>273</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>566</v>
+      </c>
+      <c r="D93" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" t="s">
         <v>274</v>
-      </c>
-      <c r="C93" t="s">
-        <v>569</v>
-      </c>
-      <c r="D93" t="s">
-        <v>131</v>
-      </c>
-      <c r="F93" t="s">
-        <v>275</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -4041,39 +4041,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>275</v>
+      </c>
+      <c r="B94" t="s">
+        <v>464</v>
+      </c>
+      <c r="C94" t="s">
         <v>276</v>
       </c>
-      <c r="B94" t="s">
-        <v>465</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
         <v>277</v>
       </c>
-      <c r="D94" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>278</v>
-      </c>
-      <c r="G94" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B95" t="s">
+        <v>424</v>
+      </c>
+      <c r="C95" t="s">
         <v>425</v>
       </c>
-      <c r="C95" t="s">
-        <v>426</v>
-      </c>
       <c r="D95" t="s">
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -4081,39 +4081,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>282</v>
+      </c>
+      <c r="B96" t="s">
+        <v>465</v>
+      </c>
+      <c r="C96" t="s">
         <v>283</v>
       </c>
-      <c r="B96" t="s">
-        <v>466</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>284</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>285</v>
       </c>
-      <c r="F96" t="s">
-        <v>286</v>
-      </c>
       <c r="G96" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B97" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C97" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
@@ -4121,39 +4121,39 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" t="s">
         <v>289</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>290</v>
-      </c>
-      <c r="C98" t="s">
-        <v>291</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G98" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B99" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C99" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4161,59 +4161,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B100" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C100" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G100" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>295</v>
+      </c>
+      <c r="B101" t="s">
+        <v>456</v>
+      </c>
+      <c r="C101" t="s">
         <v>296</v>
       </c>
-      <c r="B101" t="s">
-        <v>457</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s">
         <v>297</v>
       </c>
-      <c r="D101" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
         <v>298</v>
-      </c>
-      <c r="G101" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B102" t="s">
         <v>300</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
+        <v>192</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" t="s">
         <v>301</v>
-      </c>
-      <c r="C102" t="s">
-        <v>193</v>
-      </c>
-      <c r="D102" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" t="s">
-        <v>302</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -4221,39 +4221,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>302</v>
+      </c>
+      <c r="B103" t="s">
         <v>303</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>304</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" t="s">
         <v>305</v>
       </c>
-      <c r="D103" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" t="s">
-        <v>306</v>
-      </c>
       <c r="G103" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>306</v>
+      </c>
+      <c r="B104" t="s">
+        <v>535</v>
+      </c>
+      <c r="C104" t="s">
+        <v>568</v>
+      </c>
+      <c r="D104" t="s">
         <v>307</v>
       </c>
-      <c r="B104" t="s">
-        <v>538</v>
-      </c>
-      <c r="C104" t="s">
-        <v>571</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>308</v>
-      </c>
-      <c r="F104" t="s">
-        <v>309</v>
       </c>
       <c r="G104" t="s">
         <v>8</v>
@@ -4261,39 +4261,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>309</v>
+      </c>
+      <c r="B105" t="s">
+        <v>520</v>
+      </c>
+      <c r="C105" t="s">
+        <v>521</v>
+      </c>
+      <c r="D105" t="s">
+        <v>522</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="G105" t="s">
         <v>310</v>
-      </c>
-      <c r="B105" t="s">
-        <v>523</v>
-      </c>
-      <c r="C105" t="s">
-        <v>524</v>
-      </c>
-      <c r="D105" t="s">
-        <v>525</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="G105" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>311</v>
+      </c>
+      <c r="B106" t="s">
+        <v>436</v>
+      </c>
+      <c r="C106" t="s">
         <v>312</v>
       </c>
-      <c r="B106" t="s">
-        <v>437</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" t="s">
         <v>313</v>
-      </c>
-      <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" t="s">
-        <v>314</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -4301,19 +4301,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" t="s">
+        <v>550</v>
+      </c>
+      <c r="C107" t="s">
+        <v>129</v>
+      </c>
+      <c r="D107" t="s">
+        <v>130</v>
+      </c>
+      <c r="F107" t="s">
         <v>315</v>
-      </c>
-      <c r="B107" t="s">
-        <v>553</v>
-      </c>
-      <c r="C107" t="s">
-        <v>130</v>
-      </c>
-      <c r="D107" t="s">
-        <v>131</v>
-      </c>
-      <c r="F107" t="s">
-        <v>316</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -4321,39 +4321,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>316</v>
+      </c>
+      <c r="B108" t="s">
+        <v>467</v>
+      </c>
+      <c r="C108" t="s">
         <v>317</v>
       </c>
-      <c r="B108" t="s">
-        <v>468</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" t="s">
         <v>318</v>
       </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="F108" t="s">
-        <v>319</v>
-      </c>
       <c r="G108" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>319</v>
+      </c>
+      <c r="B109" t="s">
         <v>320</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>418</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" t="s">
         <v>321</v>
-      </c>
-      <c r="C109" t="s">
-        <v>419</v>
-      </c>
-      <c r="D109" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" t="s">
-        <v>322</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -4361,19 +4361,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>322</v>
+      </c>
+      <c r="B110" t="s">
+        <v>549</v>
+      </c>
+      <c r="C110" t="s">
+        <v>569</v>
+      </c>
+      <c r="D110" t="s">
+        <v>213</v>
+      </c>
+      <c r="F110" t="s">
         <v>323</v>
-      </c>
-      <c r="B110" t="s">
-        <v>552</v>
-      </c>
-      <c r="C110" t="s">
-        <v>572</v>
-      </c>
-      <c r="D110" t="s">
-        <v>214</v>
-      </c>
-      <c r="F110" t="s">
-        <v>324</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
@@ -4381,39 +4381,39 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>324</v>
+      </c>
+      <c r="B111" t="s">
         <v>325</v>
       </c>
-      <c r="B111" t="s">
-        <v>326</v>
-      </c>
       <c r="C111" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>327</v>
+      </c>
+      <c r="B112" t="s">
+        <v>536</v>
+      </c>
+      <c r="C112" t="s">
+        <v>570</v>
+      </c>
+      <c r="D112" t="s">
         <v>328</v>
       </c>
-      <c r="B112" t="s">
-        <v>539</v>
-      </c>
-      <c r="C112" t="s">
-        <v>573</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
         <v>329</v>
-      </c>
-      <c r="F112" t="s">
-        <v>330</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4421,39 +4421,39 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
+        <v>330</v>
+      </c>
+      <c r="B113" t="s">
+        <v>438</v>
+      </c>
+      <c r="C113" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" t="s">
         <v>331</v>
       </c>
-      <c r="B113" t="s">
-        <v>439</v>
-      </c>
-      <c r="C113" t="s">
-        <v>261</v>
-      </c>
-      <c r="D113" t="s">
-        <v>17</v>
-      </c>
-      <c r="F113" t="s">
-        <v>332</v>
-      </c>
       <c r="G113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114" t="s">
+        <v>439</v>
+      </c>
+      <c r="C114" t="s">
         <v>333</v>
       </c>
-      <c r="B114" t="s">
-        <v>440</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" t="s">
         <v>334</v>
-      </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="F114" t="s">
-        <v>335</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -4461,59 +4461,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>335</v>
+      </c>
+      <c r="B115" t="s">
         <v>336</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>337</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" t="s">
         <v>338</v>
       </c>
-      <c r="D115" t="s">
-        <v>17</v>
-      </c>
-      <c r="F115" t="s">
-        <v>339</v>
-      </c>
       <c r="G115" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>339</v>
+      </c>
+      <c r="B116" t="s">
         <v>340</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
+        <v>270</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" t="s">
         <v>341</v>
       </c>
-      <c r="C116" t="s">
-        <v>271</v>
-      </c>
-      <c r="D116" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" t="s">
-        <v>342</v>
-      </c>
       <c r="G116" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B117" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="C117" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D117" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4521,39 +4521,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>343</v>
+      </c>
+      <c r="B118" t="s">
         <v>344</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
+        <v>476</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" t="s">
         <v>345</v>
       </c>
-      <c r="C118" t="s">
-        <v>479</v>
-      </c>
-      <c r="D118" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" t="s">
-        <v>346</v>
-      </c>
       <c r="G118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>346</v>
+      </c>
+      <c r="B119" t="s">
         <v>347</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
+        <v>571</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" t="s">
         <v>348</v>
-      </c>
-      <c r="C119" t="s">
-        <v>574</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119" t="s">
-        <v>349</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -4561,39 +4561,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B120" t="s">
+        <v>501</v>
+      </c>
+      <c r="C120" t="s">
+        <v>502</v>
+      </c>
+      <c r="D120" t="s">
+        <v>503</v>
+      </c>
+      <c r="F120" t="s">
         <v>504</v>
       </c>
-      <c r="C120" t="s">
-        <v>505</v>
-      </c>
-      <c r="D120" t="s">
-        <v>506</v>
-      </c>
-      <c r="F120" t="s">
-        <v>507</v>
-      </c>
       <c r="G120" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>350</v>
+      </c>
+      <c r="B121" t="s">
         <v>351</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>352</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" t="s">
         <v>353</v>
-      </c>
-      <c r="D121" t="s">
-        <v>17</v>
-      </c>
-      <c r="F121" t="s">
-        <v>354</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -4601,39 +4601,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>354</v>
+      </c>
+      <c r="B122" t="s">
+        <v>440</v>
+      </c>
+      <c r="C122" t="s">
         <v>355</v>
       </c>
-      <c r="B122" t="s">
-        <v>441</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>356</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
         <v>357</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>358</v>
-      </c>
-      <c r="G122" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>359</v>
+      </c>
+      <c r="B123" t="s">
         <v>360</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
+        <v>572</v>
+      </c>
+      <c r="D123" t="s">
+        <v>130</v>
+      </c>
+      <c r="F123" t="s">
         <v>361</v>
-      </c>
-      <c r="C123" t="s">
-        <v>575</v>
-      </c>
-      <c r="D123" t="s">
-        <v>131</v>
-      </c>
-      <c r="F123" t="s">
-        <v>362</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -4641,30 +4641,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>362</v>
+      </c>
+      <c r="B124" t="s">
         <v>363</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>364</v>
-      </c>
-      <c r="C124" t="s">
-        <v>365</v>
       </c>
       <c r="D124" t="s">
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G124" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>366</v>
+      </c>
+      <c r="B125" t="s">
         <v>367</v>
-      </c>
-      <c r="B125" t="s">
-        <v>368</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -4673,7 +4673,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -4681,39 +4681,39 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>369</v>
+      </c>
+      <c r="B126" t="s">
         <v>370</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>371</v>
-      </c>
-      <c r="C126" t="s">
-        <v>372</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G126" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B127" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C127" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4721,39 +4721,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>375</v>
+      </c>
+      <c r="B128" t="s">
         <v>376</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>377</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" t="s">
         <v>378</v>
       </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="F128" t="s">
-        <v>379</v>
-      </c>
       <c r="G128" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>379</v>
+      </c>
+      <c r="B129" t="s">
         <v>380</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>381</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" t="s">
         <v>382</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="F129" t="s">
-        <v>383</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4761,39 +4761,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>383</v>
+      </c>
+      <c r="B130" t="s">
         <v>384</v>
       </c>
-      <c r="B130" t="s">
-        <v>385</v>
-      </c>
       <c r="C130" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G130" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>386</v>
+      </c>
+      <c r="B131" t="s">
+        <v>537</v>
+      </c>
+      <c r="C131" t="s">
+        <v>574</v>
+      </c>
+      <c r="D131" t="s">
+        <v>475</v>
+      </c>
+      <c r="F131" t="s">
         <v>387</v>
-      </c>
-      <c r="B131" t="s">
-        <v>540</v>
-      </c>
-      <c r="C131" t="s">
-        <v>577</v>
-      </c>
-      <c r="D131" t="s">
-        <v>478</v>
-      </c>
-      <c r="F131" t="s">
-        <v>388</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4801,39 +4801,39 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>388</v>
+      </c>
+      <c r="B132" t="s">
         <v>389</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>390</v>
-      </c>
-      <c r="C132" t="s">
-        <v>391</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G132" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>392</v>
+      </c>
+      <c r="B133" t="s">
+        <v>441</v>
+      </c>
+      <c r="C133" t="s">
+        <v>442</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" t="s">
         <v>393</v>
-      </c>
-      <c r="B133" t="s">
-        <v>442</v>
-      </c>
-      <c r="C133" t="s">
-        <v>443</v>
-      </c>
-      <c r="D133" t="s">
-        <v>17</v>
-      </c>
-      <c r="F133" t="s">
-        <v>394</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4841,39 +4841,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>394</v>
+      </c>
+      <c r="B134" t="s">
         <v>395</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>396</v>
-      </c>
-      <c r="C134" t="s">
-        <v>397</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
+        <v>397</v>
+      </c>
+      <c r="G134" t="s">
         <v>398</v>
-      </c>
-      <c r="G134" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>399</v>
+      </c>
+      <c r="B135" t="s">
         <v>400</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
+        <v>575</v>
+      </c>
+      <c r="D135" t="s">
+        <v>280</v>
+      </c>
+      <c r="F135" t="s">
         <v>401</v>
-      </c>
-      <c r="C135" t="s">
-        <v>578</v>
-      </c>
-      <c r="D135" t="s">
-        <v>281</v>
-      </c>
-      <c r="F135" t="s">
-        <v>402</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4881,39 +4881,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>402</v>
+      </c>
+      <c r="B136" t="s">
+        <v>479</v>
+      </c>
+      <c r="C136" t="s">
         <v>403</v>
-      </c>
-      <c r="B136" t="s">
-        <v>482</v>
-      </c>
-      <c r="C136" t="s">
-        <v>404</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G136" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>405</v>
+      </c>
+      <c r="B137" t="s">
         <v>406</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
+        <v>192</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" t="s">
         <v>407</v>
-      </c>
-      <c r="C137" t="s">
-        <v>193</v>
-      </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" t="s">
-        <v>408</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4921,22 +4921,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B138" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C138" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D138" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F138" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="G138" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFD8107-6C82-3E45-B4A8-5FD71D801C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E87774-58AD-A441-B60B-97382142CCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,12 +304,6 @@
     <t>04/11/2025</t>
   </si>
   <si>
-    <t>Sofiane Pamart</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=h1RZYc_43gs</t>
-  </si>
-  <si>
     <t>06/11/2025</t>
   </si>
   <si>
@@ -1369,9 +1363,6 @@
     <t>September (1978)</t>
   </si>
   <si>
-    <t>Planet (2019)</t>
-  </si>
-  <si>
     <t>Walk off the Earth</t>
   </si>
   <si>
@@ -1772,6 +1763,15 @@
   </si>
   <si>
     <t>Angels in Heaven (2017)</t>
+  </si>
+  <si>
+    <t>AC/DC</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v2AC41dglnM&amp;list=RDv2AC41dglnM&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Thunderstruck (1990)</t>
   </si>
 </sst>
 </file>
@@ -2166,7 +2166,7 @@
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2178,7 +2178,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2204,13 +2204,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C2" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -2224,7 +2224,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2244,16 +2244,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2264,19 +2264,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C5" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2284,10 +2284,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2304,10 +2304,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2316,7 +2316,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2324,7 +2324,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2344,7 +2344,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2364,13 +2364,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C10" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D10" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2384,19 +2384,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2424,19 +2424,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C13" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2467,7 +2467,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2476,7 +2476,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2484,7 +2484,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2504,10 +2504,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2516,7 +2516,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2524,10 +2524,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C18" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2564,7 +2564,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2573,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2584,19 +2584,19 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C21" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2607,7 +2607,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2624,7 +2624,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2644,7 +2644,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2664,7 +2664,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2687,7 +2687,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2704,16 +2704,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C27" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2744,10 +2744,10 @@
         <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C29" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -2767,10 +2767,10 @@
         <v>85</v>
       </c>
       <c r="C30" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F30" t="s">
         <v>87</v>
@@ -2784,16 +2784,16 @@
         <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>444</v>
+        <v>578</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>576</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>90</v>
+        <v>577</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2801,10 +2801,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -2813,7 +2813,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2821,19 +2821,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C33" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -2841,19 +2841,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
+        <v>548</v>
+      </c>
+      <c r="C34" t="s">
         <v>551</v>
-      </c>
-      <c r="C34" t="s">
-        <v>554</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -2861,19 +2861,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B35" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C35" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -2881,19 +2881,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C36" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2901,19 +2901,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B37" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C37" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -2921,39 +2921,39 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C38" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D38" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F38" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G38" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
         <v>105</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
         <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>108</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -2961,19 +2961,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C40" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D40" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -2981,19 +2981,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C41" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -3001,19 +3001,19 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C42" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3021,19 +3021,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B43" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -3041,19 +3041,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3061,19 +3061,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B45" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C45" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -3081,19 +3081,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" t="s">
         <v>121</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
+        <v>428</v>
+      </c>
+      <c r="F46" t="s">
         <v>122</v>
-      </c>
-      <c r="C46" t="s">
-        <v>123</v>
-      </c>
-      <c r="D46" t="s">
-        <v>430</v>
-      </c>
-      <c r="F46" t="s">
-        <v>124</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3101,10 +3101,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
         <v>79</v>
@@ -3113,7 +3113,7 @@
         <v>80</v>
       </c>
       <c r="F47" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3121,39 +3121,39 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B48" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C48" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="G48" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B49" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C49" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -3161,39 +3161,39 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B50" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" t="s">
         <v>135</v>
-      </c>
-      <c r="B50" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" t="s">
-        <v>137</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G50" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" t="s">
+        <v>139</v>
+      </c>
+      <c r="C51" t="s">
         <v>140</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
         <v>141</v>
-      </c>
-      <c r="C51" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>143</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -3201,39 +3201,39 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C52" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D52" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B53" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C53" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D53" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
@@ -3241,30 +3241,30 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" t="s">
+        <v>535</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
         <v>149</v>
       </c>
-      <c r="B54" t="s">
-        <v>538</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="G54" t="s">
         <v>150</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" t="s">
-        <v>151</v>
-      </c>
-      <c r="G54" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C55" t="s">
         <v>79</v>
@@ -3273,7 +3273,7 @@
         <v>80</v>
       </c>
       <c r="F55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3281,39 +3281,39 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B56" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="C56" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" t="s">
+        <v>128</v>
+      </c>
+      <c r="F56" t="s">
         <v>129</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>130</v>
-      </c>
-      <c r="F56" t="s">
-        <v>131</v>
-      </c>
-      <c r="G56" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B57" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C57" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -3321,39 +3321,39 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B58" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G58" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s">
+        <v>448</v>
+      </c>
+      <c r="C59" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
         <v>163</v>
-      </c>
-      <c r="B59" t="s">
-        <v>451</v>
-      </c>
-      <c r="C59" t="s">
-        <v>164</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" t="s">
-        <v>165</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3361,39 +3361,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" t="s">
+        <v>165</v>
+      </c>
+      <c r="C60" t="s">
         <v>166</v>
-      </c>
-      <c r="B60" t="s">
-        <v>167</v>
-      </c>
-      <c r="C60" t="s">
-        <v>168</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G60" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B61" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C61" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D61" t="s">
         <v>86</v>
       </c>
       <c r="F61" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -3401,39 +3401,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>170</v>
+      </c>
+      <c r="B62" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" t="s">
         <v>172</v>
-      </c>
-      <c r="B62" t="s">
-        <v>173</v>
-      </c>
-      <c r="C62" t="s">
-        <v>174</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" t="s">
         <v>177</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
         <v>178</v>
-      </c>
-      <c r="C63" t="s">
-        <v>179</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" t="s">
-        <v>180</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -3441,39 +3441,39 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" t="s">
+        <v>180</v>
+      </c>
+      <c r="C64" t="s">
         <v>181</v>
-      </c>
-      <c r="B64" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" t="s">
-        <v>183</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G64" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B65" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C65" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
@@ -3481,39 +3481,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B66" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C66" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G66" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>188</v>
+      </c>
+      <c r="B67" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" t="s">
         <v>190</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
         <v>191</v>
-      </c>
-      <c r="C67" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s">
-        <v>193</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -3521,39 +3521,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>192</v>
+      </c>
+      <c r="B68" t="s">
+        <v>193</v>
+      </c>
+      <c r="C68" t="s">
         <v>194</v>
-      </c>
-      <c r="B68" t="s">
-        <v>195</v>
-      </c>
-      <c r="C68" t="s">
-        <v>196</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>197</v>
+      </c>
+      <c r="B69" t="s">
+        <v>536</v>
+      </c>
+      <c r="C69" t="s">
+        <v>558</v>
+      </c>
+      <c r="D69" t="s">
+        <v>198</v>
+      </c>
+      <c r="F69" t="s">
         <v>199</v>
-      </c>
-      <c r="B69" t="s">
-        <v>539</v>
-      </c>
-      <c r="C69" t="s">
-        <v>561</v>
-      </c>
-      <c r="D69" t="s">
-        <v>200</v>
-      </c>
-      <c r="F69" t="s">
-        <v>201</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -3561,39 +3561,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B70" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C70" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G70" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" t="s">
         <v>204</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
         <v>205</v>
-      </c>
-      <c r="C71" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>207</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -3601,39 +3601,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C72" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G72" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" t="s">
+        <v>543</v>
+      </c>
+      <c r="C73" t="s">
+        <v>559</v>
+      </c>
+      <c r="D73" t="s">
+        <v>211</v>
+      </c>
+      <c r="F73" t="s">
         <v>212</v>
-      </c>
-      <c r="B73" t="s">
-        <v>546</v>
-      </c>
-      <c r="C73" t="s">
-        <v>562</v>
-      </c>
-      <c r="D73" t="s">
-        <v>213</v>
-      </c>
-      <c r="F73" t="s">
-        <v>214</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -3641,39 +3641,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B74" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" t="s">
+        <v>217</v>
+      </c>
+      <c r="C75" t="s">
         <v>218</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
         <v>219</v>
-      </c>
-      <c r="C75" t="s">
-        <v>220</v>
-      </c>
-      <c r="D75" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" t="s">
-        <v>221</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3681,39 +3681,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B76" t="s">
+        <v>512</v>
+      </c>
+      <c r="C76" t="s">
+        <v>513</v>
+      </c>
+      <c r="D76" t="s">
+        <v>514</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C76" t="s">
-        <v>516</v>
-      </c>
-      <c r="D76" t="s">
-        <v>517</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>518</v>
-      </c>
       <c r="G76" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>221</v>
+      </c>
+      <c r="B77" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" t="s">
+        <v>560</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
         <v>223</v>
-      </c>
-      <c r="B77" t="s">
-        <v>224</v>
-      </c>
-      <c r="C77" t="s">
-        <v>563</v>
-      </c>
-      <c r="D77" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" t="s">
-        <v>225</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -3721,39 +3721,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" t="s">
         <v>226</v>
-      </c>
-      <c r="B78" t="s">
-        <v>227</v>
-      </c>
-      <c r="C78" t="s">
-        <v>228</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G78" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>229</v>
+      </c>
+      <c r="B79" t="s">
+        <v>450</v>
+      </c>
+      <c r="C79" t="s">
+        <v>230</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s">
         <v>231</v>
-      </c>
-      <c r="B79" t="s">
-        <v>453</v>
-      </c>
-      <c r="C79" t="s">
-        <v>232</v>
-      </c>
-      <c r="D79" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" t="s">
-        <v>233</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -3761,39 +3761,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B80" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C80" t="s">
+        <v>429</v>
+      </c>
+      <c r="D80" t="s">
         <v>431</v>
       </c>
-      <c r="D80" t="s">
-        <v>433</v>
-      </c>
       <c r="F80" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="G80" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" t="s">
+        <v>561</v>
+      </c>
+      <c r="D81" t="s">
         <v>235</v>
       </c>
-      <c r="B81" t="s">
+      <c r="F81" t="s">
         <v>236</v>
-      </c>
-      <c r="C81" t="s">
-        <v>564</v>
-      </c>
-      <c r="D81" t="s">
-        <v>237</v>
-      </c>
-      <c r="F81" t="s">
-        <v>238</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
@@ -3801,39 +3801,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B82" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C82" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>240</v>
+      </c>
+      <c r="B83" t="s">
+        <v>432</v>
+      </c>
+      <c r="C83" t="s">
+        <v>241</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" t="s">
         <v>242</v>
-      </c>
-      <c r="B83" t="s">
-        <v>434</v>
-      </c>
-      <c r="C83" t="s">
-        <v>243</v>
-      </c>
-      <c r="D83" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" t="s">
-        <v>244</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -3841,39 +3841,39 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>243</v>
+      </c>
+      <c r="B84" t="s">
+        <v>516</v>
+      </c>
+      <c r="C84" t="s">
+        <v>244</v>
+      </c>
+      <c r="D84" t="s">
         <v>245</v>
       </c>
-      <c r="B84" t="s">
-        <v>519</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="F84" t="s">
         <v>246</v>
       </c>
-      <c r="D84" t="s">
-        <v>247</v>
-      </c>
-      <c r="F84" t="s">
-        <v>248</v>
-      </c>
       <c r="G84" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>247</v>
+      </c>
+      <c r="B85" t="s">
+        <v>544</v>
+      </c>
+      <c r="C85" t="s">
+        <v>248</v>
+      </c>
+      <c r="D85" t="s">
+        <v>472</v>
+      </c>
+      <c r="F85" t="s">
         <v>249</v>
-      </c>
-      <c r="B85" t="s">
-        <v>547</v>
-      </c>
-      <c r="C85" t="s">
-        <v>250</v>
-      </c>
-      <c r="D85" t="s">
-        <v>475</v>
-      </c>
-      <c r="F85" t="s">
-        <v>251</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3881,39 +3881,39 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B86" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C86" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>253</v>
+      </c>
+      <c r="B87" t="s">
+        <v>463</v>
+      </c>
+      <c r="C87" t="s">
+        <v>254</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" t="s">
         <v>255</v>
-      </c>
-      <c r="B87" t="s">
-        <v>466</v>
-      </c>
-      <c r="C87" t="s">
-        <v>256</v>
-      </c>
-      <c r="D87" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" t="s">
-        <v>257</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -3921,39 +3921,39 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>256</v>
+      </c>
+      <c r="B88" t="s">
+        <v>257</v>
+      </c>
+      <c r="C88" t="s">
         <v>258</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s">
         <v>259</v>
       </c>
-      <c r="C88" t="s">
-        <v>260</v>
-      </c>
-      <c r="D88" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" t="s">
-        <v>261</v>
-      </c>
       <c r="G88" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B89" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C89" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D89" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F89" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -3961,39 +3961,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B90" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C90" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G90" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B91" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -4001,39 +4001,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" t="s">
+        <v>460</v>
+      </c>
+      <c r="C92" t="s">
+        <v>268</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s">
         <v>269</v>
       </c>
-      <c r="B92" t="s">
-        <v>463</v>
-      </c>
-      <c r="C92" t="s">
-        <v>270</v>
-      </c>
-      <c r="D92" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" t="s">
-        <v>271</v>
-      </c>
       <c r="G92" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>270</v>
+      </c>
+      <c r="B93" t="s">
+        <v>271</v>
+      </c>
+      <c r="C93" t="s">
+        <v>563</v>
+      </c>
+      <c r="D93" t="s">
+        <v>128</v>
+      </c>
+      <c r="F93" t="s">
         <v>272</v>
-      </c>
-      <c r="B93" t="s">
-        <v>273</v>
-      </c>
-      <c r="C93" t="s">
-        <v>566</v>
-      </c>
-      <c r="D93" t="s">
-        <v>130</v>
-      </c>
-      <c r="F93" t="s">
-        <v>274</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -4041,39 +4041,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>273</v>
+      </c>
+      <c r="B94" t="s">
+        <v>461</v>
+      </c>
+      <c r="C94" t="s">
+        <v>274</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
         <v>275</v>
       </c>
-      <c r="B94" t="s">
-        <v>464</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="G94" t="s">
         <v>276</v>
-      </c>
-      <c r="D94" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" t="s">
-        <v>277</v>
-      </c>
-      <c r="G94" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>277</v>
+      </c>
+      <c r="B95" t="s">
+        <v>422</v>
+      </c>
+      <c r="C95" t="s">
+        <v>423</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s">
         <v>279</v>
-      </c>
-      <c r="B95" t="s">
-        <v>424</v>
-      </c>
-      <c r="C95" t="s">
-        <v>425</v>
-      </c>
-      <c r="D95" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" t="s">
-        <v>281</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -4081,39 +4081,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>280</v>
+      </c>
+      <c r="B96" t="s">
+        <v>462</v>
+      </c>
+      <c r="C96" t="s">
+        <v>281</v>
+      </c>
+      <c r="D96" t="s">
         <v>282</v>
       </c>
-      <c r="B96" t="s">
-        <v>465</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="F96" t="s">
         <v>283</v>
       </c>
-      <c r="D96" t="s">
-        <v>284</v>
-      </c>
-      <c r="F96" t="s">
-        <v>285</v>
-      </c>
       <c r="G96" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C97" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
@@ -4121,39 +4121,39 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>286</v>
+      </c>
+      <c r="B98" t="s">
+        <v>287</v>
+      </c>
+      <c r="C98" t="s">
         <v>288</v>
-      </c>
-      <c r="B98" t="s">
-        <v>289</v>
-      </c>
-      <c r="C98" t="s">
-        <v>290</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G98" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B99" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C99" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4161,59 +4161,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B100" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C100" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G100" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>293</v>
+      </c>
+      <c r="B101" t="s">
+        <v>453</v>
+      </c>
+      <c r="C101" t="s">
+        <v>294</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s">
         <v>295</v>
       </c>
-      <c r="B101" t="s">
-        <v>456</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="G101" t="s">
         <v>296</v>
-      </c>
-      <c r="D101" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" t="s">
-        <v>297</v>
-      </c>
-      <c r="G101" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>297</v>
+      </c>
+      <c r="B102" t="s">
+        <v>298</v>
+      </c>
+      <c r="C102" t="s">
+        <v>190</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" t="s">
         <v>299</v>
-      </c>
-      <c r="B102" t="s">
-        <v>300</v>
-      </c>
-      <c r="C102" t="s">
-        <v>192</v>
-      </c>
-      <c r="D102" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" t="s">
-        <v>301</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -4221,39 +4221,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>300</v>
+      </c>
+      <c r="B103" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" t="s">
         <v>302</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" t="s">
         <v>303</v>
       </c>
-      <c r="C103" t="s">
-        <v>304</v>
-      </c>
-      <c r="D103" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" t="s">
-        <v>305</v>
-      </c>
       <c r="G103" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>304</v>
+      </c>
+      <c r="B104" t="s">
+        <v>532</v>
+      </c>
+      <c r="C104" t="s">
+        <v>565</v>
+      </c>
+      <c r="D104" t="s">
+        <v>305</v>
+      </c>
+      <c r="F104" t="s">
         <v>306</v>
-      </c>
-      <c r="B104" t="s">
-        <v>535</v>
-      </c>
-      <c r="C104" t="s">
-        <v>568</v>
-      </c>
-      <c r="D104" t="s">
-        <v>307</v>
-      </c>
-      <c r="F104" t="s">
-        <v>308</v>
       </c>
       <c r="G104" t="s">
         <v>8</v>
@@ -4261,39 +4261,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B105" t="s">
+        <v>517</v>
+      </c>
+      <c r="C105" t="s">
+        <v>518</v>
+      </c>
+      <c r="D105" t="s">
+        <v>519</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="C105" t="s">
-        <v>521</v>
-      </c>
-      <c r="D105" t="s">
-        <v>522</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>523</v>
-      </c>
       <c r="G105" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>309</v>
+      </c>
+      <c r="B106" t="s">
+        <v>434</v>
+      </c>
+      <c r="C106" t="s">
+        <v>310</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" t="s">
         <v>311</v>
-      </c>
-      <c r="B106" t="s">
-        <v>436</v>
-      </c>
-      <c r="C106" t="s">
-        <v>312</v>
-      </c>
-      <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" t="s">
-        <v>313</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -4301,19 +4301,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B107" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C107" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D107" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F107" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -4321,39 +4321,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>314</v>
+      </c>
+      <c r="B108" t="s">
+        <v>464</v>
+      </c>
+      <c r="C108" t="s">
+        <v>315</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" t="s">
         <v>316</v>
       </c>
-      <c r="B108" t="s">
-        <v>467</v>
-      </c>
-      <c r="C108" t="s">
-        <v>317</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="F108" t="s">
-        <v>318</v>
-      </c>
       <c r="G108" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>317</v>
+      </c>
+      <c r="B109" t="s">
+        <v>318</v>
+      </c>
+      <c r="C109" t="s">
+        <v>416</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" t="s">
         <v>319</v>
-      </c>
-      <c r="B109" t="s">
-        <v>320</v>
-      </c>
-      <c r="C109" t="s">
-        <v>418</v>
-      </c>
-      <c r="D109" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" t="s">
-        <v>321</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -4361,19 +4361,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B110" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C110" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="D110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
@@ -4381,39 +4381,39 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B111" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C111" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G111" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>325</v>
+      </c>
+      <c r="B112" t="s">
+        <v>533</v>
+      </c>
+      <c r="C112" t="s">
+        <v>567</v>
+      </c>
+      <c r="D112" t="s">
+        <v>326</v>
+      </c>
+      <c r="F112" t="s">
         <v>327</v>
-      </c>
-      <c r="B112" t="s">
-        <v>536</v>
-      </c>
-      <c r="C112" t="s">
-        <v>570</v>
-      </c>
-      <c r="D112" t="s">
-        <v>328</v>
-      </c>
-      <c r="F112" t="s">
-        <v>329</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4421,39 +4421,39 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B113" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C113" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G113" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>330</v>
+      </c>
+      <c r="B114" t="s">
+        <v>437</v>
+      </c>
+      <c r="C114" t="s">
+        <v>331</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" t="s">
         <v>332</v>
-      </c>
-      <c r="B114" t="s">
-        <v>439</v>
-      </c>
-      <c r="C114" t="s">
-        <v>333</v>
-      </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="F114" t="s">
-        <v>334</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -4461,59 +4461,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>333</v>
+      </c>
+      <c r="B115" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" t="s">
         <v>335</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" t="s">
         <v>336</v>
       </c>
-      <c r="C115" t="s">
-        <v>337</v>
-      </c>
-      <c r="D115" t="s">
-        <v>17</v>
-      </c>
-      <c r="F115" t="s">
-        <v>338</v>
-      </c>
       <c r="G115" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
+        <v>337</v>
+      </c>
+      <c r="B116" t="s">
+        <v>338</v>
+      </c>
+      <c r="C116" t="s">
+        <v>268</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" t="s">
         <v>339</v>
       </c>
-      <c r="B116" t="s">
-        <v>340</v>
-      </c>
-      <c r="C116" t="s">
-        <v>270</v>
-      </c>
-      <c r="D116" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" t="s">
-        <v>341</v>
-      </c>
       <c r="G116" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B117" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C117" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D117" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4521,39 +4521,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>341</v>
+      </c>
+      <c r="B118" t="s">
+        <v>342</v>
+      </c>
+      <c r="C118" t="s">
+        <v>473</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" t="s">
         <v>343</v>
       </c>
-      <c r="B118" t="s">
-        <v>344</v>
-      </c>
-      <c r="C118" t="s">
-        <v>476</v>
-      </c>
-      <c r="D118" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" t="s">
-        <v>345</v>
-      </c>
       <c r="G118" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>344</v>
+      </c>
+      <c r="B119" t="s">
+        <v>345</v>
+      </c>
+      <c r="C119" t="s">
+        <v>568</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" t="s">
         <v>346</v>
-      </c>
-      <c r="B119" t="s">
-        <v>347</v>
-      </c>
-      <c r="C119" t="s">
-        <v>571</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119" t="s">
-        <v>348</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -4561,39 +4561,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B120" t="s">
+        <v>498</v>
+      </c>
+      <c r="C120" t="s">
+        <v>499</v>
+      </c>
+      <c r="D120" t="s">
+        <v>500</v>
+      </c>
+      <c r="F120" t="s">
         <v>501</v>
       </c>
-      <c r="C120" t="s">
-        <v>502</v>
-      </c>
-      <c r="D120" t="s">
-        <v>503</v>
-      </c>
-      <c r="F120" t="s">
-        <v>504</v>
-      </c>
       <c r="G120" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>348</v>
+      </c>
+      <c r="B121" t="s">
+        <v>349</v>
+      </c>
+      <c r="C121" t="s">
         <v>350</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" t="s">
         <v>351</v>
-      </c>
-      <c r="C121" t="s">
-        <v>352</v>
-      </c>
-      <c r="D121" t="s">
-        <v>17</v>
-      </c>
-      <c r="F121" t="s">
-        <v>353</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -4601,39 +4601,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>352</v>
+      </c>
+      <c r="B122" t="s">
+        <v>438</v>
+      </c>
+      <c r="C122" t="s">
+        <v>353</v>
+      </c>
+      <c r="D122" t="s">
         <v>354</v>
       </c>
-      <c r="B122" t="s">
-        <v>440</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="F122" t="s">
         <v>355</v>
       </c>
-      <c r="D122" t="s">
+      <c r="G122" t="s">
         <v>356</v>
-      </c>
-      <c r="F122" t="s">
-        <v>357</v>
-      </c>
-      <c r="G122" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>357</v>
+      </c>
+      <c r="B123" t="s">
+        <v>358</v>
+      </c>
+      <c r="C123" t="s">
+        <v>569</v>
+      </c>
+      <c r="D123" t="s">
+        <v>128</v>
+      </c>
+      <c r="F123" t="s">
         <v>359</v>
-      </c>
-      <c r="B123" t="s">
-        <v>360</v>
-      </c>
-      <c r="C123" t="s">
-        <v>572</v>
-      </c>
-      <c r="D123" t="s">
-        <v>130</v>
-      </c>
-      <c r="F123" t="s">
-        <v>361</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -4641,30 +4641,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>360</v>
+      </c>
+      <c r="B124" t="s">
+        <v>361</v>
+      </c>
+      <c r="C124" t="s">
         <v>362</v>
-      </c>
-      <c r="B124" t="s">
-        <v>363</v>
-      </c>
-      <c r="C124" t="s">
-        <v>364</v>
       </c>
       <c r="D124" t="s">
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G124" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B125" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -4673,7 +4673,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -4681,39 +4681,39 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>367</v>
+      </c>
+      <c r="B126" t="s">
+        <v>368</v>
+      </c>
+      <c r="C126" t="s">
         <v>369</v>
-      </c>
-      <c r="B126" t="s">
-        <v>370</v>
-      </c>
-      <c r="C126" t="s">
-        <v>371</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G126" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B127" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C127" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4721,39 +4721,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>373</v>
+      </c>
+      <c r="B128" t="s">
+        <v>374</v>
+      </c>
+      <c r="C128" t="s">
         <v>375</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" t="s">
         <v>376</v>
       </c>
-      <c r="C128" t="s">
-        <v>377</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="F128" t="s">
-        <v>378</v>
-      </c>
       <c r="G128" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129" t="s">
+        <v>378</v>
+      </c>
+      <c r="C129" t="s">
         <v>379</v>
       </c>
-      <c r="B129" t="s">
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" t="s">
         <v>380</v>
-      </c>
-      <c r="C129" t="s">
-        <v>381</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="F129" t="s">
-        <v>382</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4761,39 +4761,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B130" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C130" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G130" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B131" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="C131" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D131" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F131" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4801,39 +4801,39 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>386</v>
+      </c>
+      <c r="B132" t="s">
+        <v>387</v>
+      </c>
+      <c r="C132" t="s">
         <v>388</v>
-      </c>
-      <c r="B132" t="s">
-        <v>389</v>
-      </c>
-      <c r="C132" t="s">
-        <v>390</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G132" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B133" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C133" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4841,39 +4841,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>392</v>
+      </c>
+      <c r="B134" t="s">
+        <v>393</v>
+      </c>
+      <c r="C134" t="s">
         <v>394</v>
-      </c>
-      <c r="B134" t="s">
-        <v>395</v>
-      </c>
-      <c r="C134" t="s">
-        <v>396</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G134" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>397</v>
+      </c>
+      <c r="B135" t="s">
+        <v>398</v>
+      </c>
+      <c r="C135" t="s">
+        <v>572</v>
+      </c>
+      <c r="D135" t="s">
+        <v>278</v>
+      </c>
+      <c r="F135" t="s">
         <v>399</v>
-      </c>
-      <c r="B135" t="s">
-        <v>400</v>
-      </c>
-      <c r="C135" t="s">
-        <v>575</v>
-      </c>
-      <c r="D135" t="s">
-        <v>280</v>
-      </c>
-      <c r="F135" t="s">
-        <v>401</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4881,39 +4881,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B136" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C136" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G136" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>403</v>
+      </c>
+      <c r="B137" t="s">
+        <v>404</v>
+      </c>
+      <c r="C137" t="s">
+        <v>190</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" t="s">
         <v>405</v>
-      </c>
-      <c r="B137" t="s">
-        <v>406</v>
-      </c>
-      <c r="C137" t="s">
-        <v>192</v>
-      </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" t="s">
-        <v>407</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4921,22 +4921,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B138" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C138" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D138" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F138" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G138" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E87774-58AD-A441-B60B-97382142CCE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB1D09A-AC9D-3C42-BEBE-A0D6337817C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="583">
   <si>
     <t>titre</t>
   </si>
@@ -271,15 +271,6 @@
     <t>16/10/2025</t>
   </si>
   <si>
-    <t>Ne me quitte pas (1959)</t>
-  </si>
-  <si>
-    <t>Jacques Brel</t>
-  </si>
-  <si>
-    <t>Belgique</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=n0ehZeWGXW0</t>
   </si>
   <si>
@@ -349,15 +340,9 @@
     <t>20/11/2025</t>
   </si>
   <si>
-    <t>Pas là (2014)</t>
-  </si>
-  <si>
     <t>Vianney</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=nBI0bDH8W28</t>
-  </si>
-  <si>
     <t>21/11/2025</t>
   </si>
   <si>
@@ -409,12 +394,6 @@
     <t>04/12/2025</t>
   </si>
   <si>
-    <t>Vesoul (1968)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=VakkMDarFDQ</t>
-  </si>
-  <si>
     <t>05/12/2025</t>
   </si>
   <si>
@@ -493,12 +472,6 @@
     <t>18/12/2025</t>
   </si>
   <si>
-    <t>Le Port d'Amsterdam (1964)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=V3BSj1cHX-M</t>
-  </si>
-  <si>
     <t>19/12/2025</t>
   </si>
   <si>
@@ -1772,6 +1745,45 @@
   </si>
   <si>
     <t>Thunderstruck (1990)</t>
+  </si>
+  <si>
+    <t>Rodrigo y Gabriela</t>
+  </si>
+  <si>
+    <t>Mexique</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PT9hvyDvKHA&amp;list=RDPT9hvyDvKHA&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Diablo Rojo (2006)</t>
+  </si>
+  <si>
+    <t>Sanseverino</t>
+  </si>
+  <si>
+    <t>Maigrir (2002)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VizjETIFsjs&amp;list=RDVizjETIFsjs&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Bleu Jeans Bleu</t>
+  </si>
+  <si>
+    <t>Coton ouaté (2019)</t>
+  </si>
+  <si>
+    <t>Dick Annegarn</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QR_1P5-Y6xs&amp;list=RDQR_1P5-Y6xs&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Pays-Bas</t>
+  </si>
+  <si>
+    <t>Bébé éléphant (1964)</t>
   </si>
 </sst>
 </file>
@@ -2165,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2178,7 +2190,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2204,13 +2216,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="C2" t="s">
-        <v>549</v>
+        <v>540</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -2224,7 +2236,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2244,16 +2256,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C4" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2264,19 +2276,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C5" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="G5" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2284,10 +2296,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="C6" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2304,10 +2316,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C7" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2316,7 +2328,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2324,7 +2336,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2344,7 +2356,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2364,13 +2376,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="C10" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D10" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2384,19 +2396,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C11" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D11" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2424,19 +2436,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C13" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="G13" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2467,7 +2479,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2476,7 +2488,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2484,7 +2496,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2504,10 +2516,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C17" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2516,7 +2528,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2524,10 +2536,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="C18" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2564,7 +2576,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2573,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2584,19 +2596,19 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C21" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D21" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2607,7 +2619,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2624,7 +2636,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2644,7 +2656,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2664,7 +2676,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2687,7 +2699,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2704,16 +2716,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="C27" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2724,16 +2736,16 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
+        <v>578</v>
+      </c>
+      <c r="C28" t="s">
+        <v>577</v>
+      </c>
+      <c r="D28" t="s">
+        <v>505</v>
+      </c>
+      <c r="F28" t="s">
         <v>78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D28" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" t="s">
-        <v>81</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2741,19 +2753,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="C29" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="F29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2761,19 +2773,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>545</v>
+      </c>
+      <c r="D30" t="s">
+        <v>226</v>
+      </c>
+      <c r="F30" t="s">
         <v>84</v>
-      </c>
-      <c r="B30" t="s">
-        <v>85</v>
-      </c>
-      <c r="C30" t="s">
-        <v>554</v>
-      </c>
-      <c r="D30" t="s">
-        <v>235</v>
-      </c>
-      <c r="F30" t="s">
-        <v>87</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -2781,19 +2793,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="C31" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2801,10 +2813,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -2813,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2821,19 +2833,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C33" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -2841,19 +2853,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
       <c r="C34" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -2861,19 +2873,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C35" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -2881,19 +2893,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="C36" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2901,19 +2913,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C37" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -2921,39 +2933,39 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C38" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F38" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="G38" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>573</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>570</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>571</v>
       </c>
       <c r="F39" t="s">
-        <v>106</v>
+        <v>572</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -2961,19 +2973,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C40" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D40" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F40" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -2981,19 +2993,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="C41" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -3001,19 +3013,19 @@
     </row>
     <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="C42" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3021,19 +3033,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -3041,19 +3053,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3061,19 +3073,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="C45" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -3081,19 +3093,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="F46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3101,19 +3113,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>575</v>
       </c>
       <c r="C47" t="s">
-        <v>79</v>
+        <v>574</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>125</v>
+        <v>576</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3121,39 +3133,39 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="C48" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="G48" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="C49" t="s">
-        <v>557</v>
+        <v>548</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F49" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -3161,39 +3173,39 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G50" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B51" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -3201,39 +3213,39 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="C52" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="G52" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="C53" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D53" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F53" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
@@ -3241,39 +3253,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G54" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>582</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>579</v>
       </c>
       <c r="D55" t="s">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="F55" t="s">
-        <v>153</v>
+        <v>580</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3281,39 +3293,39 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D56" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F56" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G56" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="C57" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -3321,39 +3333,39 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="G58" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C59" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3361,39 +3373,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C60" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="G60" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B61" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="C61" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F61" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -3401,39 +3413,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G62" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C63" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -3441,39 +3453,39 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="G64" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B65" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="C65" t="s">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
@@ -3481,39 +3493,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B66" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="G66" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C67" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -3521,39 +3533,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B68" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="G68" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="B69" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="C69" t="s">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="D69" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F69" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -3561,39 +3573,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B70" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C70" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="G70" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B71" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C71" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -3601,39 +3613,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B72" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C72" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="G72" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B73" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="C73" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D73" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F73" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -3641,39 +3653,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B74" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C74" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="G74" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D75" t="s">
         <v>17</v>
       </c>
       <c r="F75" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3681,39 +3693,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B76" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C76" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D76" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="G76" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C77" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -3721,39 +3733,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B78" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G78" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="B79" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C79" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -3761,39 +3773,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B80" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C80" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="D80" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="F80" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="G80" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C81" t="s">
-        <v>561</v>
+        <v>552</v>
       </c>
       <c r="D81" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F81" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
@@ -3801,39 +3813,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B82" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C82" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D82" t="s">
         <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G82" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="B83" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -3841,39 +3853,39 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B84" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C84" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D84" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F84" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G84" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B85" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C85" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D85" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F85" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3881,39 +3893,39 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B86" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C86" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G86" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="B87" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="C87" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -3921,39 +3933,39 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B88" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C88" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G88" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B89" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C89" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D89" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F89" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -3961,39 +3973,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B90" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C90" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G90" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B91" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C91" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -4001,39 +4013,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B92" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C92" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D92" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G92" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B93" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C93" t="s">
-        <v>563</v>
+        <v>554</v>
       </c>
       <c r="D93" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F93" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -4041,39 +4053,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B94" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C94" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G94" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B95" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="C95" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -4081,39 +4093,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B96" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C96" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F96" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G96" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B97" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C97" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
@@ -4121,39 +4133,39 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C98" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="G98" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C99" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4161,59 +4173,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="C100" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G100" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B101" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C101" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="G101" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B102" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C102" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -4221,39 +4233,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B103" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C103" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="G103" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B104" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="C104" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D104" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F104" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G104" t="s">
         <v>8</v>
@@ -4261,39 +4273,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B105" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="C105" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D105" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G105" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="B106" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C106" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -4301,19 +4313,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B107" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C107" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D107" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F107" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -4321,39 +4333,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B108" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="C108" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G108" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B109" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C109" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -4361,19 +4373,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B110" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="C110" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="D110" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="F110" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
@@ -4381,39 +4393,39 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="B111" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C111" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G111" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B112" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="C112" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D112" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F112" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4421,39 +4433,39 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B113" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C113" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G113" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B114" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -4461,59 +4473,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C115" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="D115" t="s">
         <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G115" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="B116" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="C116" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D116" t="s">
         <v>17</v>
       </c>
       <c r="F116" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="G116" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="B117" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="C117" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D117" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4521,39 +4533,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="B118" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C118" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="G118" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="B119" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C119" t="s">
-        <v>568</v>
+        <v>559</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -4561,39 +4573,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B120" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C120" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="D120" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F120" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="G120" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B121" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C121" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="D121" t="s">
         <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -4601,39 +4613,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B122" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C122" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="D122" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="F122" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G122" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B123" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C123" t="s">
-        <v>569</v>
+        <v>560</v>
       </c>
       <c r="D123" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F123" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -4641,30 +4653,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B124" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C124" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D124" t="s">
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="G124" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B125" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -4673,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -4681,39 +4693,39 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="B126" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C126" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="G126" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B127" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="C127" t="s">
-        <v>570</v>
+        <v>561</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4721,39 +4733,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B128" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C128" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D128" t="s">
         <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="G128" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="B129" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C129" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4761,39 +4773,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B130" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C130" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="G130" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="B131" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="C131" t="s">
-        <v>571</v>
+        <v>562</v>
       </c>
       <c r="D131" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F131" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4801,39 +4813,39 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B132" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C132" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G132" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B133" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="C133" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4841,39 +4853,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B134" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C134" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="G134" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="B135" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C135" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="D135" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F135" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4881,39 +4893,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B136" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="C136" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G136" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="B137" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C137" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="D137" t="s">
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4921,22 +4933,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B138" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="C138" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="D138" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F138" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="G138" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB1D09A-AC9D-3C42-BEBE-A0D6337817C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72710AD4-71B0-2348-8DB9-1D1D79E45380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="585">
   <si>
     <t>titre</t>
   </si>
@@ -496,12 +496,6 @@
     <t>08/01/2026</t>
   </si>
   <si>
-    <t>Indila</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=K5KAc5CoCuk</t>
-  </si>
-  <si>
     <t>09/01/2026</t>
   </si>
   <si>
@@ -724,12 +718,6 @@
     <t>03/03/2026</t>
   </si>
   <si>
-    <t>Swanee River Boogie (1900)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=0o0O4Trjq3M</t>
-  </si>
-  <si>
     <t>05/03/2026</t>
   </si>
   <si>
@@ -1024,12 +1012,6 @@
     <t>26/05/2026</t>
   </si>
   <si>
-    <t>Saint Claude (2014)</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=ZzFYmz2lfT4</t>
-  </si>
-  <si>
     <t>28/05/2026</t>
   </si>
   <si>
@@ -1354,9 +1336,6 @@
     <t>Dream On (1973)</t>
   </si>
   <si>
-    <t>Dernière Danse (2003)</t>
-  </si>
-  <si>
     <t>Billie Jean (1982)</t>
   </si>
   <si>
@@ -1423,9 +1402,6 @@
     <t>Moriarty (groupe)</t>
   </si>
   <si>
-    <t>Jörg Hegemann</t>
-  </si>
-  <si>
     <t>Russie</t>
   </si>
   <si>
@@ -1784,6 +1760,36 @@
   </si>
   <si>
     <t>Bébé éléphant (1964)</t>
+  </si>
+  <si>
+    <t>Louis Chedid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> La Belle (1977)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rnmrZ_6Ef-s&amp;list=RDrnmrZ_6Ef-s&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Goran Bregović</t>
+  </si>
+  <si>
+    <t>Bosnie et Herzégovine</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_yer-9MCQG0&amp;list=RD_yer-9MCQG0&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Ederlezi (1988)</t>
+  </si>
+  <si>
+    <t>Nirvana</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OgeR2oqZGTs&amp;list=RDOgeR2oqZGTs&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>The Man Who Sold The World (1993)</t>
   </si>
 </sst>
 </file>
@@ -2177,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2190,7 +2196,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2216,10 +2222,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C2" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="D2" t="s">
         <v>121</v>
@@ -2236,7 +2242,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2256,16 +2262,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C4" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2276,19 +2282,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C5" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2296,10 +2302,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C6" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2316,10 +2322,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2328,7 +2334,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2336,7 +2342,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2356,7 +2362,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2376,13 +2382,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C10" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D10" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2396,19 +2402,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="C11" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D11" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2436,19 +2442,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C13" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G13" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2479,7 +2485,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2488,7 +2494,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2496,7 +2502,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2516,10 +2522,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="C17" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2536,10 +2542,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C18" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2576,7 +2582,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2585,7 +2591,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2596,19 +2602,19 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="C21" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D21" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2619,7 +2625,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2636,7 +2642,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2656,7 +2662,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2676,7 +2682,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2699,7 +2705,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2716,16 +2722,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C27" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2736,13 +2742,13 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C28" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="D28" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F28" t="s">
         <v>78</v>
@@ -2756,10 +2762,10 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C29" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -2779,10 +2785,10 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D30" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F30" t="s">
         <v>84</v>
@@ -2796,16 +2802,16 @@
         <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C31" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2836,10 +2842,10 @@
         <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C33" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -2856,10 +2862,10 @@
         <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C34" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -2876,10 +2882,10 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C35" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -2896,10 +2902,10 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C36" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -2916,10 +2922,10 @@
         <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C37" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -2936,36 +2942,36 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C38" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F38" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="G38" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>100</v>
       </c>
-      <c r="B39" t="s">
-        <v>573</v>
+      <c r="B39" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="C39" t="s">
-        <v>570</v>
+        <v>475</v>
       </c>
       <c r="D39" t="s">
-        <v>571</v>
+        <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>572</v>
+        <v>476</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -2976,13 +2982,13 @@
         <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C40" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="D40" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F40" t="s">
         <v>103</v>
@@ -2996,10 +3002,10 @@
         <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C41" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -3011,21 +3017,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>482</v>
+      <c r="B42" t="s">
+        <v>565</v>
       </c>
       <c r="C42" t="s">
-        <v>483</v>
+        <v>562</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>563</v>
       </c>
       <c r="F42" t="s">
-        <v>484</v>
+        <v>564</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3036,7 +3042,7 @@
         <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="C43" t="s">
         <v>101</v>
@@ -3056,7 +3062,7 @@
         <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C44" t="s">
         <v>110</v>
@@ -3076,10 +3082,10 @@
         <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C45" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -3102,7 +3108,7 @@
         <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F46" t="s">
         <v>117</v>
@@ -3116,16 +3122,16 @@
         <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C47" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3136,19 +3142,19 @@
         <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C48" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -3156,10 +3162,10 @@
         <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C49" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="D49" t="s">
         <v>121</v>
@@ -3216,7 +3222,7 @@
         <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C52" t="s">
         <v>136</v>
@@ -3236,13 +3242,13 @@
         <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C53" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="D53" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F53" t="s">
         <v>139</v>
@@ -3256,7 +3262,7 @@
         <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C54" t="s">
         <v>141</v>
@@ -3276,16 +3282,16 @@
         <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C55" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="D55" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="F55" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3296,7 +3302,7 @@
         <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C56" t="s">
         <v>120</v>
@@ -3316,10 +3322,10 @@
         <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C57" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -3339,7 +3345,7 @@
         <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
@@ -3356,16 +3362,16 @@
         <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>439</v>
+        <v>576</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>575</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>154</v>
+        <v>577</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3373,19 +3379,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>153</v>
+      </c>
+      <c r="B60" t="s">
+        <v>154</v>
+      </c>
+      <c r="C60" t="s">
         <v>155</v>
-      </c>
-      <c r="B60" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" t="s">
-        <v>157</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G60" t="s">
         <v>130</v>
@@ -3393,19 +3399,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C61" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="D61" t="s">
         <v>83</v>
       </c>
       <c r="F61" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -3413,39 +3419,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62" t="s">
         <v>161</v>
-      </c>
-      <c r="B62" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" t="s">
-        <v>163</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" t="s">
+        <v>165</v>
+      </c>
+      <c r="C63" t="s">
         <v>166</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
         <v>167</v>
-      </c>
-      <c r="C63" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" t="s">
-        <v>169</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -3453,19 +3459,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" t="s">
+        <v>169</v>
+      </c>
+      <c r="C64" t="s">
         <v>170</v>
-      </c>
-      <c r="B64" t="s">
-        <v>171</v>
-      </c>
-      <c r="C64" t="s">
-        <v>172</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G64" t="s">
         <v>130</v>
@@ -3473,19 +3479,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C65" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
@@ -3493,19 +3499,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B66" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="C66" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G66" t="s">
         <v>130</v>
@@ -3513,19 +3519,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>177</v>
+      </c>
+      <c r="B67" t="s">
+        <v>178</v>
+      </c>
+      <c r="C67" t="s">
         <v>179</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
         <v>180</v>
-      </c>
-      <c r="C67" t="s">
-        <v>181</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s">
-        <v>182</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -3533,39 +3539,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" t="s">
         <v>183</v>
-      </c>
-      <c r="B68" t="s">
-        <v>184</v>
-      </c>
-      <c r="C68" t="s">
-        <v>185</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>186</v>
+      </c>
+      <c r="B69" t="s">
+        <v>519</v>
+      </c>
+      <c r="C69" t="s">
+        <v>541</v>
+      </c>
+      <c r="D69" t="s">
+        <v>187</v>
+      </c>
+      <c r="F69" t="s">
         <v>188</v>
-      </c>
-      <c r="B69" t="s">
-        <v>527</v>
-      </c>
-      <c r="C69" t="s">
-        <v>549</v>
-      </c>
-      <c r="D69" t="s">
-        <v>189</v>
-      </c>
-      <c r="F69" t="s">
-        <v>190</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -3573,39 +3579,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B70" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C70" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="G70" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" t="s">
         <v>193</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
         <v>194</v>
-      </c>
-      <c r="C71" t="s">
-        <v>195</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>196</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -3613,39 +3619,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="C72" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G72" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" t="s">
+        <v>526</v>
+      </c>
+      <c r="C73" t="s">
+        <v>542</v>
+      </c>
+      <c r="D73" t="s">
+        <v>200</v>
+      </c>
+      <c r="F73" t="s">
         <v>201</v>
-      </c>
-      <c r="B73" t="s">
-        <v>534</v>
-      </c>
-      <c r="C73" t="s">
-        <v>550</v>
-      </c>
-      <c r="D73" t="s">
-        <v>202</v>
-      </c>
-      <c r="F73" t="s">
-        <v>203</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -3653,39 +3659,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B74" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G74" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" t="s">
         <v>207</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
         <v>208</v>
-      </c>
-      <c r="C75" t="s">
-        <v>209</v>
-      </c>
-      <c r="D75" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" t="s">
-        <v>210</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3693,39 +3699,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B76" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C76" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D76" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="G76" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>210</v>
+      </c>
+      <c r="B77" t="s">
+        <v>211</v>
+      </c>
+      <c r="C77" t="s">
+        <v>543</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
         <v>212</v>
-      </c>
-      <c r="B77" t="s">
-        <v>213</v>
-      </c>
-      <c r="C77" t="s">
-        <v>551</v>
-      </c>
-      <c r="D77" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" t="s">
-        <v>214</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -3733,39 +3739,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" t="s">
         <v>215</v>
-      </c>
-      <c r="B78" t="s">
-        <v>216</v>
-      </c>
-      <c r="C78" t="s">
-        <v>217</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G78" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>218</v>
+      </c>
+      <c r="B79" t="s">
+        <v>434</v>
+      </c>
+      <c r="C79" t="s">
+        <v>219</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s">
         <v>220</v>
-      </c>
-      <c r="B79" t="s">
-        <v>441</v>
-      </c>
-      <c r="C79" t="s">
-        <v>221</v>
-      </c>
-      <c r="D79" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" t="s">
-        <v>222</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -3773,39 +3779,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B80" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C80" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D80" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="F80" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="G80" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>222</v>
+      </c>
+      <c r="B81" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" t="s">
+        <v>544</v>
+      </c>
+      <c r="D81" t="s">
         <v>224</v>
       </c>
-      <c r="B81" t="s">
+      <c r="F81" t="s">
         <v>225</v>
-      </c>
-      <c r="C81" t="s">
-        <v>552</v>
-      </c>
-      <c r="D81" t="s">
-        <v>226</v>
-      </c>
-      <c r="F81" t="s">
-        <v>227</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
@@ -3813,39 +3819,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>581</v>
       </c>
       <c r="C82" t="s">
-        <v>462</v>
+        <v>578</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>579</v>
       </c>
       <c r="F82" t="s">
-        <v>230</v>
+        <v>580</v>
       </c>
       <c r="G82" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B83" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C83" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -3853,19 +3859,19 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B84" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C84" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D84" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F84" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G84" t="s">
         <v>130</v>
@@ -3873,19 +3879,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B85" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C85" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D85" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F85" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3893,19 +3899,19 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B86" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="C86" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="G86" t="s">
         <v>143</v>
@@ -3913,19 +3919,19 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B87" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C87" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -3933,19 +3939,19 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G88" t="s">
         <v>143</v>
@@ -3953,19 +3959,19 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B89" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="C89" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D89" t="s">
         <v>121</v>
       </c>
       <c r="F89" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -3973,39 +3979,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="C90" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G90" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="C91" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -4013,39 +4019,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B92" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C92" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D92" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G92" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C93" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="D93" t="s">
         <v>121</v>
       </c>
       <c r="F93" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -4053,39 +4059,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B94" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="C94" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G94" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B95" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="C95" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -4093,19 +4099,19 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B96" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="C96" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D96" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F96" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G96" t="s">
         <v>130</v>
@@ -4113,19 +4119,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B97" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C97" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
@@ -4133,19 +4139,19 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C98" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G98" t="s">
         <v>130</v>
@@ -4153,19 +4159,19 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B99" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C99" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4173,19 +4179,19 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="C100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G100" t="s">
         <v>130</v>
@@ -4193,39 +4199,39 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B101" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="C101" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G101" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -4233,39 +4239,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B103" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C103" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G103" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C104" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D104" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F104" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G104" t="s">
         <v>8</v>
@@ -4273,39 +4279,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B105" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C105" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D105" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="G105" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B106" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="C106" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -4313,10 +4319,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B107" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C107" t="s">
         <v>120</v>
@@ -4325,7 +4331,7 @@
         <v>121</v>
       </c>
       <c r="F107" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -4333,39 +4339,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B108" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="C108" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G108" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B109" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -4373,19 +4379,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B110" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C110" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F110" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
@@ -4393,19 +4399,19 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B111" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C111" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G111" t="s">
         <v>130</v>
@@ -4413,19 +4419,19 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B112" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C112" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="D112" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F112" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4433,19 +4439,19 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G113" t="s">
         <v>143</v>
@@ -4453,19 +4459,19 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B114" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C114" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -4473,59 +4479,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B115" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C115" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D115" t="s">
         <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G115" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B116" t="s">
-        <v>329</v>
+        <v>584</v>
       </c>
       <c r="C116" t="s">
-        <v>259</v>
+        <v>582</v>
       </c>
       <c r="D116" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>330</v>
+        <v>583</v>
       </c>
       <c r="G116" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B117" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C117" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D117" t="s">
         <v>121</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4533,39 +4539,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B118" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="C118" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G118" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B119" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C119" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -4573,39 +4579,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B120" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C120" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="D120" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="F120" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="G120" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B121" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C121" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="D121" t="s">
         <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -4613,39 +4619,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B122" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="C122" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="D122" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F122" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G122" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B123" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C123" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D123" t="s">
         <v>121</v>
       </c>
       <c r="F123" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -4653,30 +4659,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B124" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C124" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="D124" t="s">
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G124" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B125" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -4685,7 +4691,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -4693,19 +4699,19 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B126" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C126" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G126" t="s">
         <v>130</v>
@@ -4713,19 +4719,19 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B127" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C127" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4733,39 +4739,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B128" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C128" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="D128" t="s">
         <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G128" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B129" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C129" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4773,39 +4779,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B130" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B131" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C131" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D131" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F131" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4813,19 +4819,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B132" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C132" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="G132" t="s">
         <v>130</v>
@@ -4833,19 +4839,19 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B133" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C133" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4853,39 +4859,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B134" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C134" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G134" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B135" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="C135" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="D135" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4893,39 +4899,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B136" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C136" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="G136" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B137" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="C137" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D137" t="s">
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4933,22 +4939,22 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B138" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C138" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D138" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F138" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="G138" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72710AD4-71B0-2348-8DB9-1D1D79E45380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60130F7B-34E4-8A40-8AB6-3C7F5A7E2D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,12 +1126,6 @@
     <t>18/06/2026</t>
   </si>
   <si>
-    <t>Avenir (2014)</t>
-  </si>
-  <si>
-    <t>Louane</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=W6cp9FakTlo</t>
   </si>
   <si>
@@ -1790,6 +1784,12 @@
   </si>
   <si>
     <t>The Man Who Sold The World (1993)</t>
+  </si>
+  <si>
+    <t>Au P'Tit Bonheur</t>
+  </si>
+  <si>
+    <t>J'Veux Du Soleil (1991)</t>
   </si>
 </sst>
 </file>
@@ -2183,8 +2183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2196,7 +2196,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D2" t="s">
         <v>121</v>
@@ -2242,7 +2242,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2262,16 +2262,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C4" t="s">
         <v>463</v>
-      </c>
-      <c r="C4" t="s">
-        <v>465</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2282,16 +2282,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>478</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>480</v>
       </c>
       <c r="G5" t="s">
         <v>185</v>
@@ -2302,10 +2302,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2322,10 +2322,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2334,7 +2334,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2342,7 +2342,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2362,7 +2362,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2382,13 +2382,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C10" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2402,19 +2402,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2442,19 +2442,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="G13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2485,7 +2485,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2502,7 +2502,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2522,10 +2522,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C17" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2542,10 +2542,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C18" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2582,7 +2582,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2591,7 +2591,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2602,13 +2602,13 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
@@ -2625,7 +2625,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2642,7 +2642,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2662,7 +2662,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2682,7 +2682,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2705,7 +2705,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2722,16 +2722,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C27" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2742,13 +2742,13 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C28" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D28" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F28" t="s">
         <v>78</v>
@@ -2762,10 +2762,10 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C29" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -2785,7 +2785,7 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D30" t="s">
         <v>224</v>
@@ -2802,16 +2802,16 @@
         <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C31" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2842,10 +2842,10 @@
         <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -2862,10 +2862,10 @@
         <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C34" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -2882,10 +2882,10 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C35" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -2902,10 +2902,10 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C36" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -2922,10 +2922,10 @@
         <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C37" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -2942,19 +2942,19 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C38" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D38" t="s">
         <v>269</v>
       </c>
       <c r="F38" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="G38" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2962,16 +2962,16 @@
         <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C39" t="s">
+        <v>473</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
         <v>474</v>
-      </c>
-      <c r="C39" t="s">
-        <v>475</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>476</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -2982,10 +2982,10 @@
         <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C40" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D40" t="s">
         <v>313</v>
@@ -3002,10 +3002,10 @@
         <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C41" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -3022,16 +3022,16 @@
         <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C42" t="s">
+        <v>560</v>
+      </c>
+      <c r="D42" t="s">
+        <v>561</v>
+      </c>
+      <c r="F42" t="s">
         <v>562</v>
-      </c>
-      <c r="D42" t="s">
-        <v>563</v>
-      </c>
-      <c r="F42" t="s">
-        <v>564</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3042,7 +3042,7 @@
         <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C43" t="s">
         <v>101</v>
@@ -3062,7 +3062,7 @@
         <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C44" t="s">
         <v>110</v>
@@ -3082,10 +3082,10 @@
         <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C45" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -3108,7 +3108,7 @@
         <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F46" t="s">
         <v>117</v>
@@ -3122,16 +3122,16 @@
         <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C47" t="s">
+        <v>564</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
         <v>566</v>
-      </c>
-      <c r="D47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" t="s">
-        <v>568</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3142,16 +3142,16 @@
         <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C48" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G48" t="s">
         <v>185</v>
@@ -3162,10 +3162,10 @@
         <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C49" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D49" t="s">
         <v>121</v>
@@ -3222,7 +3222,7 @@
         <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C52" t="s">
         <v>136</v>
@@ -3242,13 +3242,13 @@
         <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C53" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D53" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F53" t="s">
         <v>139</v>
@@ -3262,7 +3262,7 @@
         <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C54" t="s">
         <v>141</v>
@@ -3282,16 +3282,16 @@
         <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C55" t="s">
+        <v>569</v>
+      </c>
+      <c r="D55" t="s">
         <v>571</v>
       </c>
-      <c r="D55" t="s">
-        <v>573</v>
-      </c>
       <c r="F55" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3302,7 +3302,7 @@
         <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C56" t="s">
         <v>120</v>
@@ -3322,10 +3322,10 @@
         <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C57" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -3345,7 +3345,7 @@
         <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
@@ -3362,16 +3362,16 @@
         <v>152</v>
       </c>
       <c r="B59" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C59" t="s">
+        <v>573</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
         <v>575</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" t="s">
-        <v>577</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3402,10 +3402,10 @@
         <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C61" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D61" t="s">
         <v>83</v>
@@ -3482,10 +3482,10 @@
         <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C65" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -3502,7 +3502,7 @@
         <v>174</v>
       </c>
       <c r="B66" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C66" t="s">
         <v>175</v>
@@ -3562,10 +3562,10 @@
         <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C69" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D69" t="s">
         <v>187</v>
@@ -3582,16 +3582,16 @@
         <v>189</v>
       </c>
       <c r="B70" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C70" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="G70" t="s">
         <v>190</v>
@@ -3622,7 +3622,7 @@
         <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C72" t="s">
         <v>196</v>
@@ -3642,10 +3642,10 @@
         <v>199</v>
       </c>
       <c r="B73" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C73" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D73" t="s">
         <v>200</v>
@@ -3662,7 +3662,7 @@
         <v>202</v>
       </c>
       <c r="B74" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C74" t="s">
         <v>203</v>
@@ -3702,16 +3702,16 @@
         <v>209</v>
       </c>
       <c r="B76" t="s">
+        <v>493</v>
+      </c>
+      <c r="C76" t="s">
+        <v>494</v>
+      </c>
+      <c r="D76" t="s">
         <v>495</v>
       </c>
-      <c r="C76" t="s">
+      <c r="F76" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="D76" t="s">
-        <v>497</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="G76" t="s">
         <v>185</v>
@@ -3725,7 +3725,7 @@
         <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -3762,7 +3762,7 @@
         <v>218</v>
       </c>
       <c r="B79" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C79" t="s">
         <v>219</v>
@@ -3782,16 +3782,16 @@
         <v>221</v>
       </c>
       <c r="B80" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C80" t="s">
+        <v>412</v>
+      </c>
+      <c r="D80" t="s">
         <v>414</v>
       </c>
-      <c r="D80" t="s">
-        <v>416</v>
-      </c>
       <c r="F80" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="G80" t="s">
         <v>185</v>
@@ -3805,7 +3805,7 @@
         <v>223</v>
       </c>
       <c r="C81" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D81" t="s">
         <v>224</v>
@@ -3822,16 +3822,16 @@
         <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C82" t="s">
+        <v>576</v>
+      </c>
+      <c r="D82" t="s">
+        <v>577</v>
+      </c>
+      <c r="F82" t="s">
         <v>578</v>
-      </c>
-      <c r="D82" t="s">
-        <v>579</v>
-      </c>
-      <c r="F82" t="s">
-        <v>580</v>
       </c>
       <c r="G82" t="s">
         <v>163</v>
@@ -3842,7 +3842,7 @@
         <v>227</v>
       </c>
       <c r="B83" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C83" t="s">
         <v>228</v>
@@ -3862,7 +3862,7 @@
         <v>230</v>
       </c>
       <c r="B84" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C84" t="s">
         <v>231</v>
@@ -3882,13 +3882,13 @@
         <v>234</v>
       </c>
       <c r="B85" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C85" t="s">
         <v>235</v>
       </c>
       <c r="D85" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F85" t="s">
         <v>236</v>
@@ -3902,7 +3902,7 @@
         <v>237</v>
       </c>
       <c r="B86" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C86" t="s">
         <v>238</v>
@@ -3922,7 +3922,7 @@
         <v>240</v>
       </c>
       <c r="B87" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C87" t="s">
         <v>241</v>
@@ -3962,10 +3962,10 @@
         <v>247</v>
       </c>
       <c r="B89" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C89" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D89" t="s">
         <v>121</v>
@@ -3982,7 +3982,7 @@
         <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C90" t="s">
         <v>250</v>
@@ -4002,7 +4002,7 @@
         <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C91" t="s">
         <v>193</v>
@@ -4022,7 +4022,7 @@
         <v>254</v>
       </c>
       <c r="B92" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C92" t="s">
         <v>255</v>
@@ -4045,7 +4045,7 @@
         <v>258</v>
       </c>
       <c r="C93" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D93" t="s">
         <v>121</v>
@@ -4062,7 +4062,7 @@
         <v>260</v>
       </c>
       <c r="B94" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C94" t="s">
         <v>261</v>
@@ -4082,10 +4082,10 @@
         <v>264</v>
       </c>
       <c r="B95" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C95" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
@@ -4102,7 +4102,7 @@
         <v>267</v>
       </c>
       <c r="B96" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C96" t="s">
         <v>268</v>
@@ -4122,10 +4122,10 @@
         <v>271</v>
       </c>
       <c r="B97" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C97" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
@@ -4162,16 +4162,16 @@
         <v>277</v>
       </c>
       <c r="B99" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C99" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4182,7 +4182,7 @@
         <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C100" t="s">
         <v>155</v>
@@ -4202,7 +4202,7 @@
         <v>280</v>
       </c>
       <c r="B101" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C101" t="s">
         <v>281</v>
@@ -4262,10 +4262,10 @@
         <v>291</v>
       </c>
       <c r="B104" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C104" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D104" t="s">
         <v>292</v>
@@ -4282,16 +4282,16 @@
         <v>294</v>
       </c>
       <c r="B105" t="s">
+        <v>498</v>
+      </c>
+      <c r="C105" t="s">
+        <v>499</v>
+      </c>
+      <c r="D105" t="s">
         <v>500</v>
       </c>
-      <c r="C105" t="s">
+      <c r="F105" s="1" t="s">
         <v>501</v>
-      </c>
-      <c r="D105" t="s">
-        <v>502</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>503</v>
       </c>
       <c r="G105" t="s">
         <v>295</v>
@@ -4302,7 +4302,7 @@
         <v>296</v>
       </c>
       <c r="B106" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C106" t="s">
         <v>297</v>
@@ -4322,7 +4322,7 @@
         <v>299</v>
       </c>
       <c r="B107" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C107" t="s">
         <v>120</v>
@@ -4342,7 +4342,7 @@
         <v>301</v>
       </c>
       <c r="B108" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C108" t="s">
         <v>302</v>
@@ -4365,7 +4365,7 @@
         <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
@@ -4382,10 +4382,10 @@
         <v>307</v>
       </c>
       <c r="B110" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C110" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D110" t="s">
         <v>200</v>
@@ -4405,7 +4405,7 @@
         <v>310</v>
       </c>
       <c r="C111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
@@ -4422,10 +4422,10 @@
         <v>312</v>
       </c>
       <c r="B112" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C112" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D112" t="s">
         <v>313</v>
@@ -4442,7 +4442,7 @@
         <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C113" t="s">
         <v>245</v>
@@ -4462,7 +4462,7 @@
         <v>317</v>
       </c>
       <c r="B114" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C114" t="s">
         <v>318</v>
@@ -4502,16 +4502,16 @@
         <v>324</v>
       </c>
       <c r="B116" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C116" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="G116" t="s">
         <v>185</v>
@@ -4522,16 +4522,16 @@
         <v>325</v>
       </c>
       <c r="B117" t="s">
+        <v>502</v>
+      </c>
+      <c r="C117" t="s">
         <v>504</v>
-      </c>
-      <c r="C117" t="s">
-        <v>506</v>
       </c>
       <c r="D117" t="s">
         <v>121</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4545,7 +4545,7 @@
         <v>327</v>
       </c>
       <c r="C118" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
@@ -4565,7 +4565,7 @@
         <v>330</v>
       </c>
       <c r="C119" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
@@ -4582,16 +4582,16 @@
         <v>332</v>
       </c>
       <c r="B120" t="s">
+        <v>479</v>
+      </c>
+      <c r="C120" t="s">
+        <v>480</v>
+      </c>
+      <c r="D120" t="s">
         <v>481</v>
       </c>
-      <c r="C120" t="s">
+      <c r="F120" t="s">
         <v>482</v>
-      </c>
-      <c r="D120" t="s">
-        <v>483</v>
-      </c>
-      <c r="F120" t="s">
-        <v>484</v>
       </c>
       <c r="G120" t="s">
         <v>185</v>
@@ -4622,7 +4622,7 @@
         <v>337</v>
       </c>
       <c r="B122" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C122" t="s">
         <v>338</v>
@@ -4645,7 +4645,7 @@
         <v>343</v>
       </c>
       <c r="C123" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D123" t="s">
         <v>121</v>
@@ -4722,10 +4722,10 @@
         <v>356</v>
       </c>
       <c r="B127" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C127" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
@@ -4762,16 +4762,16 @@
         <v>362</v>
       </c>
       <c r="B129" t="s">
+        <v>584</v>
+      </c>
+      <c r="C129" t="s">
+        <v>583</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" t="s">
         <v>363</v>
-      </c>
-      <c r="C129" t="s">
-        <v>364</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="F129" t="s">
-        <v>365</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B130" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C130" t="s">
         <v>161</v>
@@ -4791,7 +4791,7 @@
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G130" t="s">
         <v>163</v>
@@ -4799,19 +4799,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B131" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C131" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D131" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F131" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4819,19 +4819,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>369</v>
+      </c>
+      <c r="B132" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" t="s">
         <v>371</v>
-      </c>
-      <c r="B132" t="s">
-        <v>372</v>
-      </c>
-      <c r="C132" t="s">
-        <v>373</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G132" t="s">
         <v>130</v>
@@ -4839,19 +4839,19 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B133" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C133" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4859,39 +4859,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>375</v>
+      </c>
+      <c r="B134" t="s">
+        <v>376</v>
+      </c>
+      <c r="C134" t="s">
         <v>377</v>
-      </c>
-      <c r="B134" t="s">
-        <v>378</v>
-      </c>
-      <c r="C134" t="s">
-        <v>379</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G134" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B135" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C135" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D135" t="s">
         <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4899,19 +4899,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B136" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C136" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="G136" t="s">
         <v>341</v>
@@ -4919,10 +4919,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B137" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C137" t="s">
         <v>179</v>
@@ -4931,7 +4931,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4939,19 +4939,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B138" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C138" t="s">
+        <v>483</v>
+      </c>
+      <c r="D138" t="s">
+        <v>394</v>
+      </c>
+      <c r="F138" t="s">
         <v>485</v>
-      </c>
-      <c r="D138" t="s">
-        <v>396</v>
-      </c>
-      <c r="F138" t="s">
-        <v>487</v>
       </c>
       <c r="G138" t="s">
         <v>185</v>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60130F7B-34E4-8A40-8AB6-3C7F5A7E2D57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD2F6C0-750D-5944-BB3E-8DD45A42B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1126,9 +1126,6 @@
     <t>18/06/2026</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=W6cp9FakTlo</t>
-  </si>
-  <si>
     <t>19/06/2026</t>
   </si>
   <si>
@@ -1790,6 +1787,9 @@
   </si>
   <si>
     <t>J'Veux Du Soleil (1991)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3uStC_JW4XU&amp;list=RD3uStC_JW4XU&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
@@ -2184,7 +2184,7 @@
   <dimension ref="A1:G138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A103" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2196,7 +2196,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D2" t="s">
         <v>121</v>
@@ -2242,7 +2242,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2262,16 +2262,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2282,16 +2282,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>476</v>
+      </c>
+      <c r="C5" t="s">
+        <v>475</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>477</v>
-      </c>
-      <c r="C5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>478</v>
       </c>
       <c r="G5" t="s">
         <v>185</v>
@@ -2302,10 +2302,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2322,10 +2322,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2334,7 +2334,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2342,7 +2342,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2362,7 +2362,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2382,13 +2382,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2402,19 +2402,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C11" t="s">
+        <v>394</v>
+      </c>
+      <c r="D11" t="s">
         <v>395</v>
-      </c>
-      <c r="D11" t="s">
-        <v>396</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2442,19 +2442,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2485,7 +2485,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2502,7 +2502,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2522,10 +2522,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C17" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2542,10 +2542,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C18" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2582,7 +2582,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2591,7 +2591,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2602,13 +2602,13 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C21" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" t="s">
         <v>393</v>
-      </c>
-      <c r="D21" t="s">
-        <v>394</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
@@ -2625,7 +2625,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2642,7 +2642,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2662,7 +2662,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2682,7 +2682,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2705,7 +2705,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2722,16 +2722,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2742,13 +2742,13 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C28" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="F28" t="s">
         <v>78</v>
@@ -2762,10 +2762,10 @@
         <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C29" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -2785,7 +2785,7 @@
         <v>82</v>
       </c>
       <c r="C30" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D30" t="s">
         <v>224</v>
@@ -2802,16 +2802,16 @@
         <v>85</v>
       </c>
       <c r="B31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2842,10 +2842,10 @@
         <v>89</v>
       </c>
       <c r="B33" t="s">
+        <v>399</v>
+      </c>
+      <c r="C33" t="s">
         <v>400</v>
-      </c>
-      <c r="C33" t="s">
-        <v>401</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -2862,10 +2862,10 @@
         <v>91</v>
       </c>
       <c r="B34" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -2882,10 +2882,10 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -2902,10 +2902,10 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C36" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -2922,10 +2922,10 @@
         <v>97</v>
       </c>
       <c r="B37" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C37" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -2942,19 +2942,19 @@
         <v>99</v>
       </c>
       <c r="B38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D38" t="s">
         <v>269</v>
       </c>
       <c r="F38" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2962,16 +2962,16 @@
         <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C39" t="s">
         <v>472</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
         <v>473</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>474</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -2982,10 +2982,10 @@
         <v>102</v>
       </c>
       <c r="B40" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C40" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D40" t="s">
         <v>313</v>
@@ -3002,10 +3002,10 @@
         <v>104</v>
       </c>
       <c r="B41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -3022,16 +3022,16 @@
         <v>106</v>
       </c>
       <c r="B42" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C42" t="s">
+        <v>559</v>
+      </c>
+      <c r="D42" t="s">
         <v>560</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>561</v>
-      </c>
-      <c r="F42" t="s">
-        <v>562</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3042,7 +3042,7 @@
         <v>107</v>
       </c>
       <c r="B43" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C43" t="s">
         <v>101</v>
@@ -3062,7 +3062,7 @@
         <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C44" t="s">
         <v>110</v>
@@ -3082,10 +3082,10 @@
         <v>112</v>
       </c>
       <c r="B45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C45" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -3108,7 +3108,7 @@
         <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F46" t="s">
         <v>117</v>
@@ -3122,16 +3122,16 @@
         <v>118</v>
       </c>
       <c r="B47" t="s">
+        <v>564</v>
+      </c>
+      <c r="C47" t="s">
+        <v>563</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
         <v>565</v>
-      </c>
-      <c r="C47" t="s">
-        <v>564</v>
-      </c>
-      <c r="D47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" t="s">
-        <v>566</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3142,16 +3142,16 @@
         <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C48" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G48" t="s">
         <v>185</v>
@@ -3162,10 +3162,10 @@
         <v>124</v>
       </c>
       <c r="B49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C49" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D49" t="s">
         <v>121</v>
@@ -3222,7 +3222,7 @@
         <v>135</v>
       </c>
       <c r="B52" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C52" t="s">
         <v>136</v>
@@ -3242,13 +3242,13 @@
         <v>138</v>
       </c>
       <c r="B53" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C53" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D53" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F53" t="s">
         <v>139</v>
@@ -3262,7 +3262,7 @@
         <v>140</v>
       </c>
       <c r="B54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C54" t="s">
         <v>141</v>
@@ -3282,16 +3282,16 @@
         <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C55" t="s">
+        <v>568</v>
+      </c>
+      <c r="D55" t="s">
+        <v>570</v>
+      </c>
+      <c r="F55" t="s">
         <v>569</v>
-      </c>
-      <c r="D55" t="s">
-        <v>571</v>
-      </c>
-      <c r="F55" t="s">
-        <v>570</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3302,7 +3302,7 @@
         <v>145</v>
       </c>
       <c r="B56" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C56" t="s">
         <v>120</v>
@@ -3322,10 +3322,10 @@
         <v>146</v>
       </c>
       <c r="B57" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C57" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -3345,7 +3345,7 @@
         <v>149</v>
       </c>
       <c r="C58" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
@@ -3362,16 +3362,16 @@
         <v>152</v>
       </c>
       <c r="B59" t="s">
+        <v>573</v>
+      </c>
+      <c r="C59" t="s">
+        <v>572</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
         <v>574</v>
-      </c>
-      <c r="C59" t="s">
-        <v>573</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" t="s">
-        <v>575</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3402,10 +3402,10 @@
         <v>157</v>
       </c>
       <c r="B61" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C61" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D61" t="s">
         <v>83</v>
@@ -3482,10 +3482,10 @@
         <v>172</v>
       </c>
       <c r="B65" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C65" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -3502,7 +3502,7 @@
         <v>174</v>
       </c>
       <c r="B66" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C66" t="s">
         <v>175</v>
@@ -3562,10 +3562,10 @@
         <v>186</v>
       </c>
       <c r="B69" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C69" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D69" t="s">
         <v>187</v>
@@ -3582,16 +3582,16 @@
         <v>189</v>
       </c>
       <c r="B70" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C70" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G70" t="s">
         <v>190</v>
@@ -3622,7 +3622,7 @@
         <v>195</v>
       </c>
       <c r="B72" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C72" t="s">
         <v>196</v>
@@ -3642,10 +3642,10 @@
         <v>199</v>
       </c>
       <c r="B73" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C73" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D73" t="s">
         <v>200</v>
@@ -3662,7 +3662,7 @@
         <v>202</v>
       </c>
       <c r="B74" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C74" t="s">
         <v>203</v>
@@ -3702,16 +3702,16 @@
         <v>209</v>
       </c>
       <c r="B76" t="s">
+        <v>492</v>
+      </c>
+      <c r="C76" t="s">
         <v>493</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>494</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="G76" t="s">
         <v>185</v>
@@ -3725,7 +3725,7 @@
         <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -3762,7 +3762,7 @@
         <v>218</v>
       </c>
       <c r="B79" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C79" t="s">
         <v>219</v>
@@ -3782,16 +3782,16 @@
         <v>221</v>
       </c>
       <c r="B80" t="s">
+        <v>412</v>
+      </c>
+      <c r="C80" t="s">
+        <v>411</v>
+      </c>
+      <c r="D80" t="s">
         <v>413</v>
       </c>
-      <c r="C80" t="s">
-        <v>412</v>
-      </c>
-      <c r="D80" t="s">
-        <v>414</v>
-      </c>
       <c r="F80" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G80" t="s">
         <v>185</v>
@@ -3805,7 +3805,7 @@
         <v>223</v>
       </c>
       <c r="C81" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D81" t="s">
         <v>224</v>
@@ -3822,16 +3822,16 @@
         <v>226</v>
       </c>
       <c r="B82" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C82" t="s">
+        <v>575</v>
+      </c>
+      <c r="D82" t="s">
         <v>576</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>577</v>
-      </c>
-      <c r="F82" t="s">
-        <v>578</v>
       </c>
       <c r="G82" t="s">
         <v>163</v>
@@ -3842,7 +3842,7 @@
         <v>227</v>
       </c>
       <c r="B83" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C83" t="s">
         <v>228</v>
@@ -3862,7 +3862,7 @@
         <v>230</v>
       </c>
       <c r="B84" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C84" t="s">
         <v>231</v>
@@ -3882,13 +3882,13 @@
         <v>234</v>
       </c>
       <c r="B85" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C85" t="s">
         <v>235</v>
       </c>
       <c r="D85" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F85" t="s">
         <v>236</v>
@@ -3902,7 +3902,7 @@
         <v>237</v>
       </c>
       <c r="B86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C86" t="s">
         <v>238</v>
@@ -3922,7 +3922,7 @@
         <v>240</v>
       </c>
       <c r="B87" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C87" t="s">
         <v>241</v>
@@ -3962,10 +3962,10 @@
         <v>247</v>
       </c>
       <c r="B89" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C89" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D89" t="s">
         <v>121</v>
@@ -3982,7 +3982,7 @@
         <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C90" t="s">
         <v>250</v>
@@ -4002,7 +4002,7 @@
         <v>252</v>
       </c>
       <c r="B91" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C91" t="s">
         <v>193</v>
@@ -4022,7 +4022,7 @@
         <v>254</v>
       </c>
       <c r="B92" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C92" t="s">
         <v>255</v>
@@ -4045,7 +4045,7 @@
         <v>258</v>
       </c>
       <c r="C93" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D93" t="s">
         <v>121</v>
@@ -4062,7 +4062,7 @@
         <v>260</v>
       </c>
       <c r="B94" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C94" t="s">
         <v>261</v>
@@ -4082,10 +4082,10 @@
         <v>264</v>
       </c>
       <c r="B95" t="s">
+        <v>404</v>
+      </c>
+      <c r="C95" t="s">
         <v>405</v>
-      </c>
-      <c r="C95" t="s">
-        <v>406</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
@@ -4102,7 +4102,7 @@
         <v>267</v>
       </c>
       <c r="B96" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C96" t="s">
         <v>268</v>
@@ -4122,10 +4122,10 @@
         <v>271</v>
       </c>
       <c r="B97" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C97" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
@@ -4162,16 +4162,16 @@
         <v>277</v>
       </c>
       <c r="B99" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C99" t="s">
+        <v>465</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="D99" t="s">
-        <v>17</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>467</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4182,7 +4182,7 @@
         <v>278</v>
       </c>
       <c r="B100" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C100" t="s">
         <v>155</v>
@@ -4202,7 +4202,7 @@
         <v>280</v>
       </c>
       <c r="B101" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C101" t="s">
         <v>281</v>
@@ -4262,10 +4262,10 @@
         <v>291</v>
       </c>
       <c r="B104" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C104" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D104" t="s">
         <v>292</v>
@@ -4282,16 +4282,16 @@
         <v>294</v>
       </c>
       <c r="B105" t="s">
+        <v>497</v>
+      </c>
+      <c r="C105" t="s">
         <v>498</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>499</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" s="1" t="s">
         <v>500</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>501</v>
       </c>
       <c r="G105" t="s">
         <v>295</v>
@@ -4302,7 +4302,7 @@
         <v>296</v>
       </c>
       <c r="B106" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C106" t="s">
         <v>297</v>
@@ -4322,7 +4322,7 @@
         <v>299</v>
       </c>
       <c r="B107" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C107" t="s">
         <v>120</v>
@@ -4342,7 +4342,7 @@
         <v>301</v>
       </c>
       <c r="B108" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C108" t="s">
         <v>302</v>
@@ -4365,7 +4365,7 @@
         <v>305</v>
       </c>
       <c r="C109" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
@@ -4382,10 +4382,10 @@
         <v>307</v>
       </c>
       <c r="B110" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C110" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D110" t="s">
         <v>200</v>
@@ -4405,7 +4405,7 @@
         <v>310</v>
       </c>
       <c r="C111" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
@@ -4422,10 +4422,10 @@
         <v>312</v>
       </c>
       <c r="B112" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C112" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D112" t="s">
         <v>313</v>
@@ -4442,7 +4442,7 @@
         <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C113" t="s">
         <v>245</v>
@@ -4462,7 +4462,7 @@
         <v>317</v>
       </c>
       <c r="B114" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C114" t="s">
         <v>318</v>
@@ -4502,16 +4502,16 @@
         <v>324</v>
       </c>
       <c r="B116" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C116" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G116" t="s">
         <v>185</v>
@@ -4522,16 +4522,16 @@
         <v>325</v>
       </c>
       <c r="B117" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C117" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D117" t="s">
         <v>121</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4545,7 +4545,7 @@
         <v>327</v>
       </c>
       <c r="C118" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
@@ -4565,7 +4565,7 @@
         <v>330</v>
       </c>
       <c r="C119" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
@@ -4582,16 +4582,16 @@
         <v>332</v>
       </c>
       <c r="B120" t="s">
+        <v>478</v>
+      </c>
+      <c r="C120" t="s">
         <v>479</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>480</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
         <v>481</v>
-      </c>
-      <c r="F120" t="s">
-        <v>482</v>
       </c>
       <c r="G120" t="s">
         <v>185</v>
@@ -4622,7 +4622,7 @@
         <v>337</v>
       </c>
       <c r="B122" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C122" t="s">
         <v>338</v>
@@ -4645,7 +4645,7 @@
         <v>343</v>
       </c>
       <c r="C123" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D123" t="s">
         <v>121</v>
@@ -4722,10 +4722,10 @@
         <v>356</v>
       </c>
       <c r="B127" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C127" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
@@ -4762,16 +4762,16 @@
         <v>362</v>
       </c>
       <c r="B129" t="s">
+        <v>583</v>
+      </c>
+      <c r="C129" t="s">
+        <v>582</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" t="s">
         <v>584</v>
-      </c>
-      <c r="C129" t="s">
-        <v>583</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="F129" t="s">
-        <v>363</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4779,10 +4779,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>363</v>
+      </c>
+      <c r="B130" t="s">
         <v>364</v>
-      </c>
-      <c r="B130" t="s">
-        <v>365</v>
       </c>
       <c r="C130" t="s">
         <v>161</v>
@@ -4791,7 +4791,7 @@
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G130" t="s">
         <v>163</v>
@@ -4799,19 +4799,19 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>366</v>
+      </c>
+      <c r="B131" t="s">
+        <v>514</v>
+      </c>
+      <c r="C131" t="s">
+        <v>551</v>
+      </c>
+      <c r="D131" t="s">
+        <v>452</v>
+      </c>
+      <c r="F131" t="s">
         <v>367</v>
-      </c>
-      <c r="B131" t="s">
-        <v>515</v>
-      </c>
-      <c r="C131" t="s">
-        <v>552</v>
-      </c>
-      <c r="D131" t="s">
-        <v>453</v>
-      </c>
-      <c r="F131" t="s">
-        <v>368</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4819,19 +4819,19 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>368</v>
+      </c>
+      <c r="B132" t="s">
         <v>369</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>370</v>
-      </c>
-      <c r="C132" t="s">
-        <v>371</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G132" t="s">
         <v>130</v>
@@ -4839,19 +4839,19 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>372</v>
+      </c>
+      <c r="B133" t="s">
+        <v>421</v>
+      </c>
+      <c r="C133" t="s">
+        <v>422</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" t="s">
         <v>373</v>
-      </c>
-      <c r="B133" t="s">
-        <v>422</v>
-      </c>
-      <c r="C133" t="s">
-        <v>423</v>
-      </c>
-      <c r="D133" t="s">
-        <v>17</v>
-      </c>
-      <c r="F133" t="s">
-        <v>374</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4859,39 +4859,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>374</v>
+      </c>
+      <c r="B134" t="s">
         <v>375</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>376</v>
-      </c>
-      <c r="C134" t="s">
-        <v>377</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
+        <v>377</v>
+      </c>
+      <c r="G134" t="s">
         <v>378</v>
-      </c>
-      <c r="G134" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>379</v>
+      </c>
+      <c r="B135" t="s">
         <v>380</v>
       </c>
-      <c r="B135" t="s">
-        <v>381</v>
-      </c>
       <c r="C135" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D135" t="s">
         <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4899,19 +4899,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>382</v>
+      </c>
+      <c r="B136" t="s">
+        <v>456</v>
+      </c>
+      <c r="C136" t="s">
         <v>383</v>
-      </c>
-      <c r="B136" t="s">
-        <v>457</v>
-      </c>
-      <c r="C136" t="s">
-        <v>384</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G136" t="s">
         <v>341</v>
@@ -4919,10 +4919,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>385</v>
+      </c>
+      <c r="B137" t="s">
         <v>386</v>
-      </c>
-      <c r="B137" t="s">
-        <v>387</v>
       </c>
       <c r="C137" t="s">
         <v>179</v>
@@ -4931,7 +4931,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4939,19 +4939,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B138" t="s">
+        <v>483</v>
+      </c>
+      <c r="C138" t="s">
+        <v>482</v>
+      </c>
+      <c r="D138" t="s">
+        <v>393</v>
+      </c>
+      <c r="F138" t="s">
         <v>484</v>
-      </c>
-      <c r="C138" t="s">
-        <v>483</v>
-      </c>
-      <c r="D138" t="s">
-        <v>394</v>
-      </c>
-      <c r="F138" t="s">
-        <v>485</v>
       </c>
       <c r="G138" t="s">
         <v>185</v>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CD2F6C0-750D-5944-BB3E-8DD45A42B1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C126F185-4D2F-E342-A4E9-1F8146F8E290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="594">
   <si>
     <t>titre</t>
   </si>
@@ -271,9 +271,6 @@
     <t>16/10/2025</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=n0ehZeWGXW0</t>
-  </si>
-  <si>
     <t>17/10/2025</t>
   </si>
   <si>
@@ -301,9 +298,6 @@
     <t>J'suis snob (1954)</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=yFdYZQmQtcs</t>
-  </si>
-  <si>
     <t>07/11/2025</t>
   </si>
   <si>
@@ -1790,6 +1784,39 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=3uStC_JW4XU&amp;list=RD3uStC_JW4XU&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=EE7UNgAAKag&amp;list=RD3uStC_JW4XU&amp;index=2</t>
+  </si>
+  <si>
+    <t>Mano Negra</t>
+  </si>
+  <si>
+    <t>Out Of Time Man (1991)</t>
+  </si>
+  <si>
+    <t>ZOUFRIS MARACAS</t>
+  </si>
+  <si>
+    <t>Chienne de vie (2015)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QlooZ3FQR40&amp;list=RDQlooZ3FQR40&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Paolo Conte</t>
+  </si>
+  <si>
+    <t>Via con me</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tkrRmQPFzwU&amp;list=RDtkrRmQPFzwU&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_whvVXX0hCk&amp;list=RD_whvVXX0hCk&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ln40FTIfBl4&amp;list=RDln40FTIfBl4&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
@@ -2181,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2196,7 +2223,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2222,13 +2249,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -2242,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2262,16 +2289,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" t="s">
         <v>460</v>
-      </c>
-      <c r="C4" t="s">
-        <v>462</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2282,19 +2309,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C5" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>475</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>477</v>
-      </c>
       <c r="G5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2302,10 +2329,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2322,10 +2349,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2334,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2342,7 +2369,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2362,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2382,13 +2409,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D10" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2402,19 +2429,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2442,19 +2469,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2485,7 +2512,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2494,7 +2521,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2502,7 +2529,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2522,10 +2549,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C17" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2534,7 +2561,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2542,10 +2569,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C18" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2582,7 +2609,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2591,7 +2618,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2602,19 +2629,19 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2625,7 +2652,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2642,7 +2669,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2662,7 +2689,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2682,7 +2709,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2705,7 +2732,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2722,16 +2749,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C27" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2742,16 +2769,16 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C28" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D28" t="s">
-        <v>494</v>
-      </c>
-      <c r="F28" t="s">
-        <v>78</v>
+        <v>492</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2759,19 +2786,19 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>517</v>
+      </c>
+      <c r="C29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
         <v>79</v>
-      </c>
-      <c r="B29" t="s">
-        <v>519</v>
-      </c>
-      <c r="C29" t="s">
-        <v>508</v>
-      </c>
-      <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="s">
-        <v>80</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2779,19 +2806,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" t="s">
         <v>81</v>
       </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
       <c r="C30" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D30" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -2799,19 +2826,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C31" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2819,10 +2846,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
         <v>86</v>
-      </c>
-      <c r="B32" t="s">
-        <v>87</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -2831,7 +2858,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>88</v>
+        <v>593</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2839,19 +2866,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B33" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C33" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -2859,19 +2886,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C34" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -2879,19 +2906,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -2899,19 +2926,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C36" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2919,19 +2946,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C37" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -2939,39 +2966,39 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C38" t="s">
+        <v>486</v>
+      </c>
+      <c r="D38" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" t="s">
         <v>488</v>
       </c>
-      <c r="D38" t="s">
-        <v>269</v>
-      </c>
-      <c r="F38" t="s">
-        <v>490</v>
-      </c>
       <c r="G38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C39" t="s">
+        <v>470</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
         <v>471</v>
-      </c>
-      <c r="C39" t="s">
-        <v>472</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>473</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -2979,19 +3006,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C40" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D40" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -2999,19 +3026,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C41" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -3019,19 +3046,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B42" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C42" t="s">
+        <v>557</v>
+      </c>
+      <c r="D42" t="s">
+        <v>558</v>
+      </c>
+      <c r="F42" t="s">
         <v>559</v>
-      </c>
-      <c r="D42" t="s">
-        <v>560</v>
-      </c>
-      <c r="F42" t="s">
-        <v>561</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3039,19 +3066,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -3059,19 +3086,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3079,19 +3106,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C45" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -3099,19 +3126,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" t="s">
         <v>114</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
+        <v>408</v>
+      </c>
+      <c r="F46" t="s">
         <v>115</v>
-      </c>
-      <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" t="s">
-        <v>410</v>
-      </c>
-      <c r="F46" t="s">
-        <v>117</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3119,19 +3146,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C47" t="s">
+        <v>561</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
         <v>563</v>
-      </c>
-      <c r="D47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" t="s">
-        <v>565</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3139,39 +3166,39 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C48" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G48" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C49" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F49" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -3179,39 +3206,39 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" t="s">
         <v>126</v>
-      </c>
-      <c r="B50" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" t="s">
-        <v>128</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
         <v>131</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
         <v>132</v>
-      </c>
-      <c r="C51" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>134</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -3219,39 +3246,39 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B52" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C52" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G52" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B53" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C53" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D53" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F53" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
@@ -3259,39 +3286,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>513</v>
+      </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
         <v>140</v>
       </c>
-      <c r="B54" t="s">
-        <v>515</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="G54" t="s">
         <v>141</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" t="s">
-        <v>142</v>
-      </c>
-      <c r="G54" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B55" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C55" t="s">
+        <v>566</v>
+      </c>
+      <c r="D55" t="s">
         <v>568</v>
       </c>
-      <c r="D55" t="s">
-        <v>570</v>
-      </c>
       <c r="F55" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3299,39 +3326,39 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B56" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C56" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" t="s">
         <v>120</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>121</v>
-      </c>
-      <c r="F56" t="s">
-        <v>122</v>
-      </c>
-      <c r="G56" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B57" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C57" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -3339,39 +3366,39 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B58" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C58" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G58" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C59" t="s">
+        <v>570</v>
+      </c>
+      <c r="D59" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
         <v>572</v>
-      </c>
-      <c r="D59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" t="s">
-        <v>574</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3379,39 +3406,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="s">
         <v>153</v>
-      </c>
-      <c r="B60" t="s">
-        <v>154</v>
-      </c>
-      <c r="C60" t="s">
-        <v>155</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B61" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C61" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F61" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -3419,39 +3446,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>157</v>
+      </c>
+      <c r="B62" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" t="s">
         <v>159</v>
-      </c>
-      <c r="B62" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" t="s">
-        <v>161</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G62" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>162</v>
+      </c>
+      <c r="B63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" t="s">
         <v>164</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
         <v>165</v>
-      </c>
-      <c r="C63" t="s">
-        <v>166</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" t="s">
-        <v>167</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -3459,39 +3486,39 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" t="s">
+        <v>167</v>
+      </c>
+      <c r="C64" t="s">
         <v>168</v>
-      </c>
-      <c r="B64" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" t="s">
-        <v>170</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G64" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B65" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C65" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
@@ -3499,39 +3526,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B66" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C66" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>175</v>
+      </c>
+      <c r="B67" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
         <v>177</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
         <v>178</v>
-      </c>
-      <c r="C67" t="s">
-        <v>179</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s">
-        <v>180</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -3539,39 +3566,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>179</v>
+      </c>
+      <c r="B68" t="s">
+        <v>180</v>
+      </c>
+      <c r="C68" t="s">
         <v>181</v>
-      </c>
-      <c r="B68" t="s">
-        <v>182</v>
-      </c>
-      <c r="C68" t="s">
-        <v>183</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G68" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" t="s">
+        <v>514</v>
+      </c>
+      <c r="C69" t="s">
+        <v>536</v>
+      </c>
+      <c r="D69" t="s">
+        <v>185</v>
+      </c>
+      <c r="F69" t="s">
         <v>186</v>
-      </c>
-      <c r="B69" t="s">
-        <v>516</v>
-      </c>
-      <c r="C69" t="s">
-        <v>538</v>
-      </c>
-      <c r="D69" t="s">
-        <v>187</v>
-      </c>
-      <c r="F69" t="s">
-        <v>188</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -3579,39 +3606,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B70" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C70" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G70" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" t="s">
         <v>191</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
         <v>192</v>
-      </c>
-      <c r="C71" t="s">
-        <v>193</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>194</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -3619,39 +3646,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B72" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C72" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G72" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>197</v>
+      </c>
+      <c r="B73" t="s">
+        <v>521</v>
+      </c>
+      <c r="C73" t="s">
+        <v>537</v>
+      </c>
+      <c r="D73" t="s">
+        <v>198</v>
+      </c>
+      <c r="F73" t="s">
         <v>199</v>
-      </c>
-      <c r="B73" t="s">
-        <v>523</v>
-      </c>
-      <c r="C73" t="s">
-        <v>539</v>
-      </c>
-      <c r="D73" t="s">
-        <v>200</v>
-      </c>
-      <c r="F73" t="s">
-        <v>201</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -3659,39 +3686,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B74" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C74" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G74" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>203</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+      <c r="C75" t="s">
         <v>205</v>
       </c>
-      <c r="B75" t="s">
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" t="s">
         <v>206</v>
-      </c>
-      <c r="C75" t="s">
-        <v>207</v>
-      </c>
-      <c r="D75" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" t="s">
-        <v>208</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3699,39 +3726,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B76" t="s">
+        <v>490</v>
+      </c>
+      <c r="C76" t="s">
+        <v>491</v>
+      </c>
+      <c r="D76" t="s">
         <v>492</v>
       </c>
-      <c r="C76" t="s">
+      <c r="F76" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="D76" t="s">
-        <v>494</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>495</v>
-      </c>
       <c r="G76" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" t="s">
+        <v>209</v>
+      </c>
+      <c r="C77" t="s">
+        <v>538</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
         <v>210</v>
-      </c>
-      <c r="B77" t="s">
-        <v>211</v>
-      </c>
-      <c r="C77" t="s">
-        <v>540</v>
-      </c>
-      <c r="D77" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" t="s">
-        <v>212</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -3739,39 +3766,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>211</v>
+      </c>
+      <c r="B78" t="s">
+        <v>212</v>
+      </c>
+      <c r="C78" t="s">
         <v>213</v>
-      </c>
-      <c r="B78" t="s">
-        <v>214</v>
-      </c>
-      <c r="C78" t="s">
-        <v>215</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G78" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>216</v>
+      </c>
+      <c r="B79" t="s">
+        <v>429</v>
+      </c>
+      <c r="C79" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s">
         <v>218</v>
-      </c>
-      <c r="B79" t="s">
-        <v>431</v>
-      </c>
-      <c r="C79" t="s">
-        <v>219</v>
-      </c>
-      <c r="D79" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" t="s">
-        <v>220</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -3779,39 +3806,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B80" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C80" t="s">
+        <v>409</v>
+      </c>
+      <c r="D80" t="s">
         <v>411</v>
       </c>
-      <c r="D80" t="s">
-        <v>413</v>
-      </c>
       <c r="F80" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" t="s">
+        <v>539</v>
+      </c>
+      <c r="D81" t="s">
         <v>222</v>
       </c>
-      <c r="B81" t="s">
+      <c r="F81" t="s">
         <v>223</v>
-      </c>
-      <c r="C81" t="s">
-        <v>541</v>
-      </c>
-      <c r="D81" t="s">
-        <v>224</v>
-      </c>
-      <c r="F81" t="s">
-        <v>225</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
@@ -3819,39 +3846,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B82" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C82" t="s">
+        <v>573</v>
+      </c>
+      <c r="D82" t="s">
+        <v>574</v>
+      </c>
+      <c r="F82" t="s">
         <v>575</v>
       </c>
-      <c r="D82" t="s">
-        <v>576</v>
-      </c>
-      <c r="F82" t="s">
-        <v>577</v>
-      </c>
       <c r="G82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" t="s">
+        <v>412</v>
+      </c>
+      <c r="C83" t="s">
+        <v>226</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" t="s">
         <v>227</v>
-      </c>
-      <c r="B83" t="s">
-        <v>414</v>
-      </c>
-      <c r="C83" t="s">
-        <v>228</v>
-      </c>
-      <c r="D83" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" t="s">
-        <v>229</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -3859,39 +3886,39 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>228</v>
+      </c>
+      <c r="B84" t="s">
+        <v>494</v>
+      </c>
+      <c r="C84" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" t="s">
         <v>230</v>
       </c>
-      <c r="B84" t="s">
-        <v>496</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="F84" t="s">
         <v>231</v>
       </c>
-      <c r="D84" t="s">
-        <v>232</v>
-      </c>
-      <c r="F84" t="s">
-        <v>233</v>
-      </c>
       <c r="G84" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" t="s">
+        <v>522</v>
+      </c>
+      <c r="C85" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" t="s">
+        <v>450</v>
+      </c>
+      <c r="F85" t="s">
         <v>234</v>
-      </c>
-      <c r="B85" t="s">
-        <v>524</v>
-      </c>
-      <c r="C85" t="s">
-        <v>235</v>
-      </c>
-      <c r="D85" t="s">
-        <v>452</v>
-      </c>
-      <c r="F85" t="s">
-        <v>236</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3899,39 +3926,39 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C86" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>238</v>
+      </c>
+      <c r="B87" t="s">
+        <v>442</v>
+      </c>
+      <c r="C87" t="s">
+        <v>239</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" t="s">
         <v>240</v>
-      </c>
-      <c r="B87" t="s">
-        <v>444</v>
-      </c>
-      <c r="C87" t="s">
-        <v>241</v>
-      </c>
-      <c r="D87" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" t="s">
-        <v>242</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -3939,39 +3966,39 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>241</v>
+      </c>
+      <c r="B88" t="s">
+        <v>242</v>
+      </c>
+      <c r="C88" t="s">
         <v>243</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s">
         <v>244</v>
       </c>
-      <c r="C88" t="s">
-        <v>245</v>
-      </c>
-      <c r="D88" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" t="s">
-        <v>246</v>
-      </c>
       <c r="G88" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B89" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C89" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F89" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -3979,39 +4006,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B90" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C90" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G90" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B91" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C91" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -4019,39 +4046,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>252</v>
+      </c>
+      <c r="B92" t="s">
+        <v>439</v>
+      </c>
+      <c r="C92" t="s">
+        <v>253</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s">
         <v>254</v>
       </c>
-      <c r="B92" t="s">
-        <v>441</v>
-      </c>
-      <c r="C92" t="s">
-        <v>255</v>
-      </c>
-      <c r="D92" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" t="s">
-        <v>256</v>
-      </c>
       <c r="G92" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" t="s">
+        <v>256</v>
+      </c>
+      <c r="C93" t="s">
+        <v>541</v>
+      </c>
+      <c r="D93" t="s">
+        <v>119</v>
+      </c>
+      <c r="F93" t="s">
         <v>257</v>
-      </c>
-      <c r="B93" t="s">
-        <v>258</v>
-      </c>
-      <c r="C93" t="s">
-        <v>543</v>
-      </c>
-      <c r="D93" t="s">
-        <v>121</v>
-      </c>
-      <c r="F93" t="s">
-        <v>259</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -4059,39 +4086,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" t="s">
+        <v>440</v>
+      </c>
+      <c r="C94" t="s">
+        <v>259</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
         <v>260</v>
       </c>
-      <c r="B94" t="s">
-        <v>442</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="G94" t="s">
         <v>261</v>
-      </c>
-      <c r="D94" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" t="s">
-        <v>262</v>
-      </c>
-      <c r="G94" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>262</v>
+      </c>
+      <c r="B95" t="s">
+        <v>402</v>
+      </c>
+      <c r="C95" t="s">
+        <v>403</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s">
         <v>264</v>
-      </c>
-      <c r="B95" t="s">
-        <v>404</v>
-      </c>
-      <c r="C95" t="s">
-        <v>405</v>
-      </c>
-      <c r="D95" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" t="s">
-        <v>266</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -4099,39 +4126,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>265</v>
+      </c>
+      <c r="B96" t="s">
+        <v>441</v>
+      </c>
+      <c r="C96" t="s">
+        <v>266</v>
+      </c>
+      <c r="D96" t="s">
         <v>267</v>
       </c>
-      <c r="B96" t="s">
-        <v>443</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="F96" t="s">
         <v>268</v>
       </c>
-      <c r="D96" t="s">
-        <v>269</v>
-      </c>
-      <c r="F96" t="s">
-        <v>270</v>
-      </c>
       <c r="G96" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B97" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C97" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
@@ -4139,39 +4166,39 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>271</v>
+      </c>
+      <c r="B98" t="s">
+        <v>272</v>
+      </c>
+      <c r="C98" t="s">
         <v>273</v>
-      </c>
-      <c r="B98" t="s">
-        <v>274</v>
-      </c>
-      <c r="C98" t="s">
-        <v>275</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B99" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C99" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4179,59 +4206,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B100" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C100" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G100" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>278</v>
+      </c>
+      <c r="B101" t="s">
+        <v>432</v>
+      </c>
+      <c r="C101" t="s">
+        <v>279</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s">
         <v>280</v>
       </c>
-      <c r="B101" t="s">
-        <v>434</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="G101" t="s">
         <v>281</v>
-      </c>
-      <c r="D101" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" t="s">
-        <v>282</v>
-      </c>
-      <c r="G101" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>282</v>
+      </c>
+      <c r="B102" t="s">
+        <v>283</v>
+      </c>
+      <c r="C102" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" t="s">
         <v>284</v>
-      </c>
-      <c r="B102" t="s">
-        <v>285</v>
-      </c>
-      <c r="C102" t="s">
-        <v>179</v>
-      </c>
-      <c r="D102" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" t="s">
-        <v>286</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -4239,39 +4266,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>285</v>
+      </c>
+      <c r="B103" t="s">
+        <v>286</v>
+      </c>
+      <c r="C103" t="s">
         <v>287</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" t="s">
         <v>288</v>
       </c>
-      <c r="C103" t="s">
-        <v>289</v>
-      </c>
-      <c r="D103" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" t="s">
-        <v>290</v>
-      </c>
       <c r="G103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>289</v>
+      </c>
+      <c r="B104" t="s">
+        <v>510</v>
+      </c>
+      <c r="C104" t="s">
+        <v>543</v>
+      </c>
+      <c r="D104" t="s">
+        <v>290</v>
+      </c>
+      <c r="F104" t="s">
         <v>291</v>
-      </c>
-      <c r="B104" t="s">
-        <v>512</v>
-      </c>
-      <c r="C104" t="s">
-        <v>545</v>
-      </c>
-      <c r="D104" t="s">
-        <v>292</v>
-      </c>
-      <c r="F104" t="s">
-        <v>293</v>
       </c>
       <c r="G104" t="s">
         <v>8</v>
@@ -4279,39 +4306,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B105" t="s">
+        <v>495</v>
+      </c>
+      <c r="C105" t="s">
+        <v>496</v>
+      </c>
+      <c r="D105" t="s">
         <v>497</v>
       </c>
-      <c r="C105" t="s">
+      <c r="F105" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="D105" t="s">
-        <v>499</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>500</v>
-      </c>
       <c r="G105" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>294</v>
+      </c>
+      <c r="B106" t="s">
+        <v>414</v>
+      </c>
+      <c r="C106" t="s">
+        <v>295</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" t="s">
         <v>296</v>
-      </c>
-      <c r="B106" t="s">
-        <v>416</v>
-      </c>
-      <c r="C106" t="s">
-        <v>297</v>
-      </c>
-      <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" t="s">
-        <v>298</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -4319,19 +4346,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B107" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C107" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D107" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F107" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -4339,39 +4366,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>299</v>
+      </c>
+      <c r="B108" t="s">
+        <v>443</v>
+      </c>
+      <c r="C108" t="s">
+        <v>300</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" t="s">
         <v>301</v>
       </c>
-      <c r="B108" t="s">
-        <v>445</v>
-      </c>
-      <c r="C108" t="s">
-        <v>302</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="F108" t="s">
-        <v>303</v>
-      </c>
       <c r="G108" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>302</v>
+      </c>
+      <c r="B109" t="s">
+        <v>303</v>
+      </c>
+      <c r="C109" t="s">
+        <v>396</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" t="s">
         <v>304</v>
-      </c>
-      <c r="B109" t="s">
-        <v>305</v>
-      </c>
-      <c r="C109" t="s">
-        <v>398</v>
-      </c>
-      <c r="D109" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" t="s">
-        <v>306</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -4379,19 +4406,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B110" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C110" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D110" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F110" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
@@ -4399,39 +4426,39 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B111" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C111" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G111" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>310</v>
+      </c>
+      <c r="B112" t="s">
+        <v>511</v>
+      </c>
+      <c r="C112" t="s">
+        <v>545</v>
+      </c>
+      <c r="D112" t="s">
+        <v>311</v>
+      </c>
+      <c r="F112" t="s">
         <v>312</v>
-      </c>
-      <c r="B112" t="s">
-        <v>513</v>
-      </c>
-      <c r="C112" t="s">
-        <v>547</v>
-      </c>
-      <c r="D112" t="s">
-        <v>313</v>
-      </c>
-      <c r="F112" t="s">
-        <v>314</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4439,39 +4466,39 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B113" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C113" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G113" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>315</v>
+      </c>
+      <c r="B114" t="s">
+        <v>417</v>
+      </c>
+      <c r="C114" t="s">
+        <v>316</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" t="s">
         <v>317</v>
-      </c>
-      <c r="B114" t="s">
-        <v>419</v>
-      </c>
-      <c r="C114" t="s">
-        <v>318</v>
-      </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="F114" t="s">
-        <v>319</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -4479,59 +4506,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>318</v>
+      </c>
+      <c r="B115" t="s">
+        <v>319</v>
+      </c>
+      <c r="C115" t="s">
         <v>320</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" t="s">
         <v>321</v>
       </c>
-      <c r="C115" t="s">
-        <v>322</v>
-      </c>
-      <c r="D115" t="s">
-        <v>17</v>
-      </c>
-      <c r="F115" t="s">
-        <v>323</v>
-      </c>
       <c r="G115" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B116" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C116" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G116" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B117" t="s">
+        <v>499</v>
+      </c>
+      <c r="C117" t="s">
         <v>501</v>
       </c>
-      <c r="C117" t="s">
-        <v>503</v>
-      </c>
       <c r="D117" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4539,39 +4566,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>324</v>
+      </c>
+      <c r="B118" t="s">
+        <v>325</v>
+      </c>
+      <c r="C118" t="s">
+        <v>451</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" t="s">
         <v>326</v>
       </c>
-      <c r="B118" t="s">
-        <v>327</v>
-      </c>
-      <c r="C118" t="s">
-        <v>453</v>
-      </c>
-      <c r="D118" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" t="s">
-        <v>328</v>
-      </c>
       <c r="G118" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>327</v>
+      </c>
+      <c r="B119" t="s">
+        <v>328</v>
+      </c>
+      <c r="C119" t="s">
+        <v>546</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" t="s">
         <v>329</v>
-      </c>
-      <c r="B119" t="s">
-        <v>330</v>
-      </c>
-      <c r="C119" t="s">
-        <v>548</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119" t="s">
-        <v>331</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -4579,39 +4606,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B120" t="s">
+        <v>476</v>
+      </c>
+      <c r="C120" t="s">
+        <v>477</v>
+      </c>
+      <c r="D120" t="s">
         <v>478</v>
       </c>
-      <c r="C120" t="s">
+      <c r="F120" t="s">
         <v>479</v>
       </c>
-      <c r="D120" t="s">
-        <v>480</v>
-      </c>
-      <c r="F120" t="s">
-        <v>481</v>
-      </c>
       <c r="G120" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>331</v>
+      </c>
+      <c r="B121" t="s">
+        <v>332</v>
+      </c>
+      <c r="C121" t="s">
         <v>333</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" t="s">
         <v>334</v>
-      </c>
-      <c r="C121" t="s">
-        <v>335</v>
-      </c>
-      <c r="D121" t="s">
-        <v>17</v>
-      </c>
-      <c r="F121" t="s">
-        <v>336</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -4619,39 +4646,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>335</v>
+      </c>
+      <c r="B122" t="s">
+        <v>418</v>
+      </c>
+      <c r="C122" t="s">
+        <v>336</v>
+      </c>
+      <c r="D122" t="s">
         <v>337</v>
       </c>
-      <c r="B122" t="s">
-        <v>420</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="F122" t="s">
         <v>338</v>
       </c>
-      <c r="D122" t="s">
+      <c r="G122" t="s">
         <v>339</v>
-      </c>
-      <c r="F122" t="s">
-        <v>340</v>
-      </c>
-      <c r="G122" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>340</v>
+      </c>
+      <c r="B123" t="s">
+        <v>341</v>
+      </c>
+      <c r="C123" t="s">
+        <v>547</v>
+      </c>
+      <c r="D123" t="s">
+        <v>119</v>
+      </c>
+      <c r="F123" t="s">
         <v>342</v>
-      </c>
-      <c r="B123" t="s">
-        <v>343</v>
-      </c>
-      <c r="C123" t="s">
-        <v>549</v>
-      </c>
-      <c r="D123" t="s">
-        <v>121</v>
-      </c>
-      <c r="F123" t="s">
-        <v>344</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -4659,30 +4686,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>343</v>
+      </c>
+      <c r="B124" t="s">
+        <v>344</v>
+      </c>
+      <c r="C124" t="s">
         <v>345</v>
-      </c>
-      <c r="B124" t="s">
-        <v>346</v>
-      </c>
-      <c r="C124" t="s">
-        <v>347</v>
       </c>
       <c r="D124" t="s">
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G124" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B125" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -4691,7 +4718,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -4699,39 +4726,39 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>350</v>
+      </c>
+      <c r="B126" t="s">
+        <v>351</v>
+      </c>
+      <c r="C126" t="s">
         <v>352</v>
-      </c>
-      <c r="B126" t="s">
-        <v>353</v>
-      </c>
-      <c r="C126" t="s">
-        <v>354</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="G126" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B127" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C127" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4739,39 +4766,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>356</v>
+      </c>
+      <c r="B128" t="s">
+        <v>357</v>
+      </c>
+      <c r="C128" t="s">
         <v>358</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" t="s">
         <v>359</v>
       </c>
-      <c r="C128" t="s">
-        <v>360</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="F128" t="s">
-        <v>361</v>
-      </c>
       <c r="G128" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B129" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C129" t="s">
+        <v>580</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" t="s">
         <v>582</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="F129" t="s">
-        <v>584</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4779,39 +4806,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B130" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C130" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="G130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B131" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C131" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D131" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="F131" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4819,39 +4846,39 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>366</v>
+      </c>
+      <c r="B132" t="s">
+        <v>367</v>
+      </c>
+      <c r="C132" t="s">
         <v>368</v>
-      </c>
-      <c r="B132" t="s">
-        <v>369</v>
-      </c>
-      <c r="C132" t="s">
-        <v>370</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G132" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B133" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C133" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4859,39 +4886,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>372</v>
+      </c>
+      <c r="B134" t="s">
+        <v>373</v>
+      </c>
+      <c r="C134" t="s">
         <v>374</v>
-      </c>
-      <c r="B134" t="s">
-        <v>375</v>
-      </c>
-      <c r="C134" t="s">
-        <v>376</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="G134" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>377</v>
+      </c>
+      <c r="B135" t="s">
+        <v>378</v>
+      </c>
+      <c r="C135" t="s">
+        <v>550</v>
+      </c>
+      <c r="D135" t="s">
+        <v>263</v>
+      </c>
+      <c r="F135" t="s">
         <v>379</v>
-      </c>
-      <c r="B135" t="s">
-        <v>380</v>
-      </c>
-      <c r="C135" t="s">
-        <v>552</v>
-      </c>
-      <c r="D135" t="s">
-        <v>265</v>
-      </c>
-      <c r="F135" t="s">
-        <v>381</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4899,39 +4926,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B136" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C136" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G136" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>383</v>
+      </c>
+      <c r="B137" t="s">
+        <v>384</v>
+      </c>
+      <c r="C137" t="s">
+        <v>177</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" t="s">
         <v>385</v>
-      </c>
-      <c r="B137" t="s">
-        <v>386</v>
-      </c>
-      <c r="C137" t="s">
-        <v>179</v>
-      </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" t="s">
-        <v>387</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4939,22 +4966,61 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B138" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C138" t="s">
+        <v>480</v>
+      </c>
+      <c r="D138" t="s">
+        <v>391</v>
+      </c>
+      <c r="F138" t="s">
         <v>482</v>
       </c>
-      <c r="D138" t="s">
-        <v>393</v>
-      </c>
-      <c r="F138" t="s">
-        <v>484</v>
-      </c>
       <c r="G138" t="s">
-        <v>185</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B140" t="s">
+        <v>585</v>
+      </c>
+      <c r="C140" t="s">
+        <v>584</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
+        <v>587</v>
+      </c>
+      <c r="C141" t="s">
+        <v>586</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>590</v>
+      </c>
+      <c r="C142" t="s">
+        <v>589</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -4972,6 +5038,8 @@
     <hyperlink ref="F76" r:id="rId6" xr:uid="{B14F8477-D0F1-4540-BA6D-C5FE9DDFE1AD}"/>
     <hyperlink ref="F105" r:id="rId7" xr:uid="{978C369A-8FBC-F840-B5F4-DF7495B41247}"/>
     <hyperlink ref="F117" r:id="rId8" xr:uid="{15AAE0D8-D438-0445-BD6E-A0C919093326}"/>
+    <hyperlink ref="F141" r:id="rId9" xr:uid="{C764D21E-FDB9-1C48-8020-8398498CD7FB}"/>
+    <hyperlink ref="F142" r:id="rId10" xr:uid="{65A63F4A-D2EF-A440-8CBF-BA3B1FD63B9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C126F185-4D2F-E342-A4E9-1F8146F8E290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54C1A85-3B07-0B42-B097-B510219A45B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -274,9 +274,6 @@
     <t>17/10/2025</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=7SjagpXeNhM</t>
-  </si>
-  <si>
     <t>03/11/2025</t>
   </si>
   <si>
@@ -538,15 +535,6 @@
     <t>16/01/2026</t>
   </si>
   <si>
-    <t>My Generation (1965)</t>
-  </si>
-  <si>
-    <t>The Who</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=qN5zw04WxCc</t>
-  </si>
-  <si>
     <t>19/01/2026</t>
   </si>
   <si>
@@ -649,15 +637,6 @@
     <t>05/02/2026</t>
   </si>
   <si>
-    <t>Le temps de l'amour (1962)</t>
-  </si>
-  <si>
-    <t>Françoise Hardy</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=F9we8i2Lj5w</t>
-  </si>
-  <si>
     <t>06/02/2026</t>
   </si>
   <si>
@@ -1240,9 +1219,6 @@
     <t>Super pouvoir d'achat  (1999)</t>
   </si>
   <si>
-    <t xml:space="preserve">Peter Bence </t>
-  </si>
-  <si>
     <t>Encore un matin (1984)</t>
   </si>
   <si>
@@ -1555,9 +1531,6 @@
     <t>La lettre à Elise (1867)</t>
   </si>
   <si>
-    <t>Camille Saint-Saëns</t>
-  </si>
-  <si>
     <t>Casse-noisette Suite (1892)</t>
   </si>
   <si>
@@ -1588,9 +1561,6 @@
     <t>Toccata et Fugue in D minor (1740)</t>
   </si>
   <si>
-    <t>Le Carnaval des animaux (1886)</t>
-  </si>
-  <si>
     <t>Le Danube bleu (1866)</t>
   </si>
   <si>
@@ -1810,13 +1780,43 @@
     <t>Via con me</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=tkrRmQPFzwU&amp;list=RDtkrRmQPFzwU&amp;start_radio=1</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=_whvVXX0hCk&amp;list=RD_whvVXX0hCk&amp;start_radio=1</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=ln40FTIfBl4&amp;list=RDln40FTIfBl4&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-ma2AioqjgQ&amp;list=RD-ma2AioqjgQ&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Via con me (1981)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Péter Bence </t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Is This Love (1978)</t>
+  </si>
+  <si>
+    <t>Jamaïque</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=69RdQFDuYPI&amp;list=RD69RdQFDuYPI&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Reggea</t>
+  </si>
+  <si>
+    <t>In The Death Car (1993)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iggy Pop</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vmFAwzpLbGw&amp;list=RDvmFAwzpLbGw&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,7 +2223,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2249,13 +2249,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C2" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -2269,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2289,16 +2289,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C4" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2309,19 +2309,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C5" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2329,10 +2329,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C6" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2349,10 +2349,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2361,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2369,7 +2369,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2389,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2409,13 +2409,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C10" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="D10" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2429,19 +2429,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C11" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D11" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2469,19 +2469,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C13" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G13" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2512,7 +2512,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2521,7 +2521,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2529,7 +2529,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2549,10 +2549,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" t="s">
         <v>389</v>
-      </c>
-      <c r="C17" t="s">
-        <v>396</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2561,7 +2561,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2569,10 +2569,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C18" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2609,7 +2609,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2618,7 +2618,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2629,19 +2629,19 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C21" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D21" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2652,7 +2652,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2669,7 +2669,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2689,7 +2689,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2709,7 +2709,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2732,7 +2732,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2749,16 +2749,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="C27" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2769,16 +2769,16 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="C28" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D28" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2789,16 +2789,16 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="C29" t="s">
-        <v>506</v>
+        <v>579</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F29" t="s">
-        <v>79</v>
+        <v>118</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>583</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2806,19 +2806,19 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" t="s">
         <v>80</v>
       </c>
-      <c r="B30" t="s">
-        <v>81</v>
-      </c>
       <c r="C30" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -2826,19 +2826,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="C31" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" t="s">
         <v>85</v>
-      </c>
-      <c r="B32" t="s">
-        <v>86</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -2858,7 +2858,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2866,19 +2866,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" t="s">
+        <v>390</v>
+      </c>
+      <c r="C33" t="s">
+        <v>391</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
         <v>87</v>
-      </c>
-      <c r="B33" t="s">
-        <v>397</v>
-      </c>
-      <c r="C33" t="s">
-        <v>398</v>
-      </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
-        <v>88</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -2886,19 +2886,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="C34" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -2906,19 +2906,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>393</v>
+      </c>
+      <c r="C35" t="s">
+        <v>392</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
         <v>91</v>
-      </c>
-      <c r="B35" t="s">
-        <v>400</v>
-      </c>
-      <c r="C35" t="s">
-        <v>399</v>
-      </c>
-      <c r="D35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>92</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -2926,19 +2926,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C36" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2946,19 +2946,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C37" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -2966,39 +2966,39 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C38" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D38" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F38" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G38" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C39" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -3006,19 +3006,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>417</v>
+      </c>
+      <c r="C40" t="s">
+        <v>585</v>
+      </c>
+      <c r="D40" t="s">
+        <v>304</v>
+      </c>
+      <c r="F40" t="s">
         <v>100</v>
-      </c>
-      <c r="B40" t="s">
-        <v>425</v>
-      </c>
-      <c r="C40" t="s">
-        <v>401</v>
-      </c>
-      <c r="D40" t="s">
-        <v>311</v>
-      </c>
-      <c r="F40" t="s">
-        <v>101</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -3026,19 +3026,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C41" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -3046,19 +3046,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C42" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="D42" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="F42" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3066,19 +3066,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>418</v>
+      </c>
+      <c r="C43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" t="s">
         <v>105</v>
-      </c>
-      <c r="B43" t="s">
-        <v>426</v>
-      </c>
-      <c r="C43" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" t="s">
-        <v>106</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -3086,19 +3086,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>445</v>
+      </c>
+      <c r="C44" t="s">
         <v>107</v>
-      </c>
-      <c r="B44" t="s">
-        <v>453</v>
-      </c>
-      <c r="C44" t="s">
-        <v>108</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3106,19 +3106,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="C45" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -3126,19 +3126,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" t="s">
         <v>112</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>113</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>400</v>
+      </c>
+      <c r="F46" t="s">
         <v>114</v>
-      </c>
-      <c r="D46" t="s">
-        <v>408</v>
-      </c>
-      <c r="F46" t="s">
-        <v>115</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3146,19 +3146,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="C47" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3166,39 +3166,39 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C48" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G48" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" t="s">
+        <v>509</v>
+      </c>
+      <c r="C49" t="s">
+        <v>525</v>
+      </c>
+      <c r="D49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" t="s">
         <v>122</v>
-      </c>
-      <c r="B49" t="s">
-        <v>519</v>
-      </c>
-      <c r="C49" t="s">
-        <v>535</v>
-      </c>
-      <c r="D49" t="s">
-        <v>119</v>
-      </c>
-      <c r="F49" t="s">
-        <v>123</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -3206,39 +3206,39 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
         <v>124</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" t="s">
-        <v>126</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
       <c r="F50" t="s">
+        <v>126</v>
+      </c>
+      <c r="G50" t="s">
         <v>127</v>
-      </c>
-      <c r="G50" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51" t="s">
         <v>129</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>130</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
         <v>131</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>132</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -3246,39 +3246,39 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" t="s">
+        <v>419</v>
+      </c>
+      <c r="C52" t="s">
         <v>133</v>
-      </c>
-      <c r="B52" t="s">
-        <v>427</v>
-      </c>
-      <c r="C52" t="s">
-        <v>134</v>
       </c>
       <c r="D52" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" t="s">
+        <v>498</v>
+      </c>
+      <c r="C53" t="s">
+        <v>494</v>
+      </c>
+      <c r="D53" t="s">
+        <v>442</v>
+      </c>
+      <c r="F53" t="s">
         <v>136</v>
-      </c>
-      <c r="B53" t="s">
-        <v>507</v>
-      </c>
-      <c r="C53" t="s">
-        <v>502</v>
-      </c>
-      <c r="D53" t="s">
-        <v>450</v>
-      </c>
-      <c r="F53" t="s">
-        <v>137</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
@@ -3286,39 +3286,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" t="s">
+        <v>504</v>
+      </c>
+      <c r="C54" t="s">
         <v>138</v>
       </c>
-      <c r="B54" t="s">
-        <v>513</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
         <v>139</v>
       </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>140</v>
-      </c>
-      <c r="G54" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="C55" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="D55" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="F55" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3326,39 +3326,39 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C56" t="s">
+        <v>117</v>
+      </c>
+      <c r="D56" t="s">
         <v>118</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>119</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>120</v>
-      </c>
-      <c r="G56" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="C57" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -3366,39 +3366,39 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" t="s">
         <v>146</v>
       </c>
-      <c r="B58" t="s">
-        <v>147</v>
-      </c>
       <c r="C58" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" t="s">
         <v>148</v>
-      </c>
-      <c r="G58" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C59" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3406,39 +3406,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" t="s">
         <v>151</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>152</v>
-      </c>
-      <c r="C60" t="s">
-        <v>153</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G60" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" t="s">
+        <v>510</v>
+      </c>
+      <c r="C61" t="s">
+        <v>522</v>
+      </c>
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+      <c r="F61" t="s">
         <v>155</v>
-      </c>
-      <c r="B61" t="s">
-        <v>520</v>
-      </c>
-      <c r="C61" t="s">
-        <v>532</v>
-      </c>
-      <c r="D61" t="s">
-        <v>82</v>
-      </c>
-      <c r="F61" t="s">
-        <v>156</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -3446,39 +3446,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" t="s">
         <v>157</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>158</v>
-      </c>
-      <c r="C62" t="s">
-        <v>159</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
+        <v>159</v>
+      </c>
+      <c r="G62" t="s">
         <v>160</v>
-      </c>
-      <c r="G62" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" t="s">
         <v>162</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>163</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
         <v>164</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" t="s">
-        <v>165</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -3486,39 +3486,39 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>587</v>
       </c>
       <c r="C64" t="s">
-        <v>168</v>
+        <v>586</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>588</v>
       </c>
       <c r="F64" t="s">
-        <v>169</v>
+        <v>589</v>
       </c>
       <c r="G64" t="s">
-        <v>128</v>
+        <v>590</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B65" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="C65" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
@@ -3526,39 +3526,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C66" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C67" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -3566,39 +3566,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B68" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C68" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G68" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B69" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C69" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D69" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F69" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -3606,39 +3606,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C70" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G70" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B71" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -3646,39 +3646,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C72" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G72" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C73" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="D73" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F73" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -3686,39 +3686,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G74" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>591</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>592</v>
       </c>
       <c r="D75" t="s">
-        <v>17</v>
+        <v>564</v>
       </c>
       <c r="F75" t="s">
-        <v>206</v>
+        <v>593</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3726,39 +3726,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B76" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C76" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="D76" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G76" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B77" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -3766,39 +3766,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B78" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G78" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B79" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C79" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -3806,39 +3806,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B80" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C80" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D80" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="F80" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G80" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B81" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D81" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F81" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
@@ -3846,39 +3846,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B82" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C82" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="D82" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F82" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="G82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B83" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C83" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -3886,39 +3886,39 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B84" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="D84" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="F84" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G84" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B85" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="C85" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="D85" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F85" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3926,39 +3926,39 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B86" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C86" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G86" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B87" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C87" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -3966,39 +3966,39 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B88" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C88" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C89" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F89" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -4006,39 +4006,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B90" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C90" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="G90" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B91" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -4046,39 +4046,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B92" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C92" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D92" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G92" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B93" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C93" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="D93" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F93" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -4086,39 +4086,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B94" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C94" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G94" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C95" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -4126,39 +4126,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B96" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C96" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="D96" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F96" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G96" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B97" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C97" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
@@ -4166,39 +4166,39 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="B98" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C98" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B99" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C99" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4206,59 +4206,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B100" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="G100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="B101" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C101" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G101" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B102" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C102" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -4266,39 +4266,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B103" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="C103" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="G103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B104" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C104" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="D104" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="F104" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G104" t="s">
         <v>8</v>
@@ -4306,39 +4306,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B105" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C105" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="D105" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="G105" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B106" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C106" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -4346,19 +4346,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B107" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C107" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" t="s">
         <v>118</v>
       </c>
-      <c r="D107" t="s">
-        <v>119</v>
-      </c>
       <c r="F107" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -4366,39 +4366,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B108" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C108" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="G108" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="B109" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C109" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -4406,19 +4406,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B110" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C110" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D110" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F110" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
@@ -4426,39 +4426,39 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B111" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C111" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="G111" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B112" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C112" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D112" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="F112" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4466,39 +4466,39 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="B113" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C113" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="G113" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B114" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C114" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -4506,59 +4506,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B115" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C115" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D115" t="s">
         <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="G115" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B116" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C116" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G116" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B117" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C117" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4566,39 +4566,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B118" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C118" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G118" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B119" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="C119" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -4606,39 +4606,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="B120" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C120" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D120" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F120" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G120" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="B121" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C121" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D121" t="s">
         <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -4646,39 +4646,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B122" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C122" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D122" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="F122" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G122" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B123" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C123" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D123" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F123" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -4686,30 +4686,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="B124" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="C124" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="D124" t="s">
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="G124" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="B125" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -4718,7 +4718,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -4726,39 +4726,39 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="B126" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="C126" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="G126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="B127" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C127" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4766,39 +4766,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="B128" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="C128" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D128" t="s">
         <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="G128" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B129" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="C129" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4806,39 +4806,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B130" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C130" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="G130" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B131" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C131" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="D131" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="F131" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4846,39 +4846,39 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="B132" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C132" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="G132" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B133" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C133" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4886,39 +4886,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B134" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C134" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="G134" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="B135" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C135" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="D135" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4926,39 +4926,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B136" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C136" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="G136" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B137" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C137" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D137" t="s">
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4966,61 +4966,61 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="B138" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C138" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D138" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F138" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G138" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="C140" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C141" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C142" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
     </row>
   </sheetData>
@@ -5039,7 +5039,6 @@
     <hyperlink ref="F105" r:id="rId7" xr:uid="{978C369A-8FBC-F840-B5F4-DF7495B41247}"/>
     <hyperlink ref="F117" r:id="rId8" xr:uid="{15AAE0D8-D438-0445-BD6E-A0C919093326}"/>
     <hyperlink ref="F141" r:id="rId9" xr:uid="{C764D21E-FDB9-1C48-8020-8398498CD7FB}"/>
-    <hyperlink ref="F142" r:id="rId10" xr:uid="{65A63F4A-D2EF-A440-8CBF-BA3B1FD63B9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54C1A85-3B07-0B42-B097-B510219A45B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C62988-E6E3-AA42-9F6B-A3DF5FDCDF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1129,9 +1129,6 @@
     <t>25/06/2026</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=EVDlleOUQXY</t>
-  </si>
-  <si>
     <t>26/06/2026</t>
   </si>
   <si>
@@ -1270,12 +1267,6 @@
     <t>Fusion (2022)</t>
   </si>
   <si>
-    <t>Voilà, c'est fini (1989)</t>
-  </si>
-  <si>
-    <t>Jean-Louis Aubert</t>
-  </si>
-  <si>
     <t>September (1978)</t>
   </si>
   <si>
@@ -1817,6 +1808,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=vmFAwzpLbGw&amp;list=RDvmFAwzpLbGw&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Claude Nougaro</t>
+  </si>
+  <si>
+    <t>Armstrong (1978)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dRbjG6I-1No&amp;list=RDdRbjG6I-1No&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,7 +2223,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D2" t="s">
         <v>118</v>
@@ -2269,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2289,16 +2289,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2309,16 +2309,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C5" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G5" t="s">
         <v>179</v>
@@ -2329,10 +2329,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2349,10 +2349,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2361,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2369,7 +2369,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2389,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2409,13 +2409,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D10" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2429,19 +2429,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C11" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" t="s">
         <v>385</v>
-      </c>
-      <c r="D11" t="s">
-        <v>386</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2469,19 +2469,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C13" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2512,7 +2512,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2529,7 +2529,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2549,10 +2549,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C17" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2569,10 +2569,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C18" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2609,7 +2609,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2618,7 +2618,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2629,13 +2629,13 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C21" t="s">
+        <v>382</v>
+      </c>
+      <c r="D21" t="s">
         <v>383</v>
-      </c>
-      <c r="D21" t="s">
-        <v>384</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
@@ -2652,7 +2652,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2669,7 +2669,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2689,7 +2689,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2709,7 +2709,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2732,7 +2732,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2749,16 +2749,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C27" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2769,16 +2769,16 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C28" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D28" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2789,16 +2789,16 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C29" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D29" t="s">
         <v>118</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2812,7 +2812,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D30" t="s">
         <v>215</v>
@@ -2829,16 +2829,16 @@
         <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C31" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2858,7 +2858,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2869,10 +2869,10 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
+        <v>389</v>
+      </c>
+      <c r="C33" t="s">
         <v>390</v>
-      </c>
-      <c r="C33" t="s">
-        <v>391</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -2889,10 +2889,10 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
+        <v>513</v>
+      </c>
+      <c r="C34" t="s">
         <v>516</v>
-      </c>
-      <c r="C34" t="s">
-        <v>519</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -2909,10 +2909,10 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -2929,10 +2929,10 @@
         <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C36" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -2949,10 +2949,10 @@
         <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C37" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -2969,19 +2969,19 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C38" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D38" t="s">
         <v>260</v>
       </c>
       <c r="F38" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="G38" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2989,16 +2989,16 @@
         <v>97</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C39" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -3009,10 +3009,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C40" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D40" t="s">
         <v>304</v>
@@ -3029,10 +3029,10 @@
         <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C41" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -3049,16 +3049,16 @@
         <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C42" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D42" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F42" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3069,7 +3069,7 @@
         <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C43" t="s">
         <v>98</v>
@@ -3089,7 +3089,7 @@
         <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C44" t="s">
         <v>107</v>
@@ -3109,10 +3109,10 @@
         <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C45" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -3135,7 +3135,7 @@
         <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F46" t="s">
         <v>114</v>
@@ -3149,16 +3149,16 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C47" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3169,16 +3169,16 @@
         <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C48" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G48" t="s">
         <v>179</v>
@@ -3189,10 +3189,10 @@
         <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C49" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D49" t="s">
         <v>118</v>
@@ -3249,7 +3249,7 @@
         <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C52" t="s">
         <v>133</v>
@@ -3269,13 +3269,13 @@
         <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C53" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D53" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F53" t="s">
         <v>136</v>
@@ -3289,7 +3289,7 @@
         <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C54" t="s">
         <v>138</v>
@@ -3309,16 +3309,16 @@
         <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="C55" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D55" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F55" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3329,7 +3329,7 @@
         <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="C56" t="s">
         <v>117</v>
@@ -3349,10 +3349,10 @@
         <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C57" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -3372,7 +3372,7 @@
         <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
@@ -3389,16 +3389,16 @@
         <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C59" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3429,10 +3429,10 @@
         <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C61" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
@@ -3489,19 +3489,19 @@
         <v>165</v>
       </c>
       <c r="B64" t="s">
+        <v>584</v>
+      </c>
+      <c r="C64" t="s">
+        <v>583</v>
+      </c>
+      <c r="D64" t="s">
+        <v>585</v>
+      </c>
+      <c r="F64" t="s">
+        <v>586</v>
+      </c>
+      <c r="G64" t="s">
         <v>587</v>
-      </c>
-      <c r="C64" t="s">
-        <v>586</v>
-      </c>
-      <c r="D64" t="s">
-        <v>588</v>
-      </c>
-      <c r="F64" t="s">
-        <v>589</v>
-      </c>
-      <c r="G64" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3509,10 +3509,10 @@
         <v>166</v>
       </c>
       <c r="B65" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C65" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -3529,7 +3529,7 @@
         <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C66" t="s">
         <v>169</v>
@@ -3589,10 +3589,10 @@
         <v>180</v>
       </c>
       <c r="B69" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C69" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D69" t="s">
         <v>181</v>
@@ -3609,16 +3609,16 @@
         <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C70" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G70" t="s">
         <v>184</v>
@@ -3649,7 +3649,7 @@
         <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C72" t="s">
         <v>190</v>
@@ -3669,10 +3669,10 @@
         <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C73" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D73" t="s">
         <v>194</v>
@@ -3689,7 +3689,7 @@
         <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C74" t="s">
         <v>197</v>
@@ -3709,16 +3709,16 @@
         <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C75" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D75" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F75" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3729,16 +3729,16 @@
         <v>200</v>
       </c>
       <c r="B76" t="s">
+        <v>479</v>
+      </c>
+      <c r="C76" t="s">
+        <v>480</v>
+      </c>
+      <c r="D76" t="s">
+        <v>481</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="C76" t="s">
-        <v>483</v>
-      </c>
-      <c r="D76" t="s">
-        <v>484</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>485</v>
       </c>
       <c r="G76" t="s">
         <v>179</v>
@@ -3752,7 +3752,7 @@
         <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -3789,7 +3789,7 @@
         <v>209</v>
       </c>
       <c r="B79" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C79" t="s">
         <v>210</v>
@@ -3809,16 +3809,16 @@
         <v>212</v>
       </c>
       <c r="B80" t="s">
+        <v>401</v>
+      </c>
+      <c r="C80" t="s">
+        <v>400</v>
+      </c>
+      <c r="D80" t="s">
         <v>402</v>
       </c>
-      <c r="C80" t="s">
-        <v>401</v>
-      </c>
-      <c r="D80" t="s">
-        <v>403</v>
-      </c>
       <c r="F80" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G80" t="s">
         <v>179</v>
@@ -3832,7 +3832,7 @@
         <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D81" t="s">
         <v>215</v>
@@ -3849,16 +3849,16 @@
         <v>217</v>
       </c>
       <c r="B82" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C82" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D82" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F82" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G82" t="s">
         <v>160</v>
@@ -3869,7 +3869,7 @@
         <v>218</v>
       </c>
       <c r="B83" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C83" t="s">
         <v>219</v>
@@ -3889,7 +3889,7 @@
         <v>221</v>
       </c>
       <c r="B84" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C84" t="s">
         <v>222</v>
@@ -3909,13 +3909,13 @@
         <v>225</v>
       </c>
       <c r="B85" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C85" t="s">
         <v>226</v>
       </c>
       <c r="D85" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F85" t="s">
         <v>227</v>
@@ -3929,7 +3929,7 @@
         <v>228</v>
       </c>
       <c r="B86" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C86" t="s">
         <v>229</v>
@@ -3949,7 +3949,7 @@
         <v>231</v>
       </c>
       <c r="B87" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C87" t="s">
         <v>232</v>
@@ -3989,10 +3989,10 @@
         <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C89" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D89" t="s">
         <v>118</v>
@@ -4009,7 +4009,7 @@
         <v>240</v>
       </c>
       <c r="B90" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C90" t="s">
         <v>241</v>
@@ -4029,7 +4029,7 @@
         <v>243</v>
       </c>
       <c r="B91" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C91" t="s">
         <v>187</v>
@@ -4049,7 +4049,7 @@
         <v>245</v>
       </c>
       <c r="B92" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C92" t="s">
         <v>246</v>
@@ -4072,7 +4072,7 @@
         <v>249</v>
       </c>
       <c r="C93" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D93" t="s">
         <v>118</v>
@@ -4089,7 +4089,7 @@
         <v>251</v>
       </c>
       <c r="B94" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C94" t="s">
         <v>252</v>
@@ -4109,10 +4109,10 @@
         <v>255</v>
       </c>
       <c r="B95" t="s">
+        <v>393</v>
+      </c>
+      <c r="C95" t="s">
         <v>394</v>
-      </c>
-      <c r="C95" t="s">
-        <v>395</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
@@ -4129,7 +4129,7 @@
         <v>258</v>
       </c>
       <c r="B96" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C96" t="s">
         <v>259</v>
@@ -4149,10 +4149,10 @@
         <v>262</v>
       </c>
       <c r="B97" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C97" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
@@ -4189,16 +4189,16 @@
         <v>268</v>
       </c>
       <c r="B99" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C99" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4209,7 +4209,7 @@
         <v>269</v>
       </c>
       <c r="B100" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C100" t="s">
         <v>152</v>
@@ -4229,7 +4229,7 @@
         <v>271</v>
       </c>
       <c r="B101" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C101" t="s">
         <v>272</v>
@@ -4289,10 +4289,10 @@
         <v>282</v>
       </c>
       <c r="B104" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C104" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D104" t="s">
         <v>283</v>
@@ -4309,16 +4309,16 @@
         <v>285</v>
       </c>
       <c r="B105" t="s">
+        <v>484</v>
+      </c>
+      <c r="C105" t="s">
+        <v>485</v>
+      </c>
+      <c r="D105" t="s">
+        <v>486</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>487</v>
-      </c>
-      <c r="C105" t="s">
-        <v>488</v>
-      </c>
-      <c r="D105" t="s">
-        <v>489</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="G105" t="s">
         <v>286</v>
@@ -4329,7 +4329,7 @@
         <v>287</v>
       </c>
       <c r="B106" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C106" t="s">
         <v>288</v>
@@ -4349,7 +4349,7 @@
         <v>290</v>
       </c>
       <c r="B107" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C107" t="s">
         <v>117</v>
@@ -4369,7 +4369,7 @@
         <v>292</v>
       </c>
       <c r="B108" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C108" t="s">
         <v>293</v>
@@ -4392,7 +4392,7 @@
         <v>296</v>
       </c>
       <c r="C109" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
@@ -4409,10 +4409,10 @@
         <v>298</v>
       </c>
       <c r="B110" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C110" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D110" t="s">
         <v>194</v>
@@ -4432,7 +4432,7 @@
         <v>301</v>
       </c>
       <c r="C111" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
@@ -4449,10 +4449,10 @@
         <v>303</v>
       </c>
       <c r="B112" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C112" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D112" t="s">
         <v>304</v>
@@ -4469,7 +4469,7 @@
         <v>306</v>
       </c>
       <c r="B113" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C113" t="s">
         <v>236</v>
@@ -4489,7 +4489,7 @@
         <v>308</v>
       </c>
       <c r="B114" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C114" t="s">
         <v>309</v>
@@ -4529,16 +4529,16 @@
         <v>315</v>
       </c>
       <c r="B116" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C116" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G116" t="s">
         <v>179</v>
@@ -4549,16 +4549,16 @@
         <v>316</v>
       </c>
       <c r="B117" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="C117" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D117" t="s">
         <v>118</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4572,7 +4572,7 @@
         <v>318</v>
       </c>
       <c r="C118" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
@@ -4592,7 +4592,7 @@
         <v>321</v>
       </c>
       <c r="C119" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
@@ -4609,16 +4609,16 @@
         <v>323</v>
       </c>
       <c r="B120" t="s">
+        <v>465</v>
+      </c>
+      <c r="C120" t="s">
+        <v>466</v>
+      </c>
+      <c r="D120" t="s">
+        <v>467</v>
+      </c>
+      <c r="F120" t="s">
         <v>468</v>
-      </c>
-      <c r="C120" t="s">
-        <v>469</v>
-      </c>
-      <c r="D120" t="s">
-        <v>470</v>
-      </c>
-      <c r="F120" t="s">
-        <v>471</v>
       </c>
       <c r="G120" t="s">
         <v>179</v>
@@ -4649,7 +4649,7 @@
         <v>328</v>
       </c>
       <c r="B122" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C122" t="s">
         <v>329</v>
@@ -4672,7 +4672,7 @@
         <v>334</v>
       </c>
       <c r="C123" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D123" t="s">
         <v>118</v>
@@ -4749,10 +4749,10 @@
         <v>347</v>
       </c>
       <c r="B127" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C127" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
@@ -4789,16 +4789,16 @@
         <v>353</v>
       </c>
       <c r="B129" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C129" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4829,13 +4829,13 @@
         <v>357</v>
       </c>
       <c r="B131" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C131" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D131" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F131" t="s">
         <v>358</v>
@@ -4869,16 +4869,16 @@
         <v>363</v>
       </c>
       <c r="B133" t="s">
-        <v>411</v>
+        <v>592</v>
       </c>
       <c r="C133" t="s">
-        <v>412</v>
+        <v>591</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>364</v>
+        <v>593</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4886,39 +4886,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>364</v>
+      </c>
+      <c r="B134" t="s">
         <v>365</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>366</v>
-      </c>
-      <c r="C134" t="s">
-        <v>367</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
+        <v>367</v>
+      </c>
+      <c r="G134" t="s">
         <v>368</v>
-      </c>
-      <c r="G134" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>369</v>
+      </c>
+      <c r="B135" t="s">
         <v>370</v>
       </c>
-      <c r="B135" t="s">
-        <v>371</v>
-      </c>
       <c r="C135" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="D135" t="s">
         <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4926,19 +4926,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>372</v>
+      </c>
+      <c r="B136" t="s">
+        <v>443</v>
+      </c>
+      <c r="C136" t="s">
         <v>373</v>
-      </c>
-      <c r="B136" t="s">
-        <v>446</v>
-      </c>
-      <c r="C136" t="s">
-        <v>374</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G136" t="s">
         <v>332</v>
@@ -4946,10 +4946,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>375</v>
+      </c>
+      <c r="B137" t="s">
         <v>376</v>
-      </c>
-      <c r="B137" t="s">
-        <v>377</v>
       </c>
       <c r="C137" t="s">
         <v>173</v>
@@ -4958,7 +4958,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4966,19 +4966,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B138" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C138" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D138" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F138" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="G138" t="s">
         <v>179</v>
@@ -4986,41 +4986,41 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C140" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C141" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
+        <v>577</v>
+      </c>
+      <c r="C142" t="s">
+        <v>576</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>580</v>
-      </c>
-      <c r="C142" t="s">
-        <v>579</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>583</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C62988-E6E3-AA42-9F6B-A3DF5FDCDF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FDB5A8-4CA4-8341-8EF5-D5F537B8F981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1117,15 +1117,6 @@
     <t>23/06/2026</t>
   </si>
   <si>
-    <t>Numb (1993)</t>
-  </si>
-  <si>
-    <t>Linkin Park</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=kXYiU_JCYtU</t>
-  </si>
-  <si>
     <t>25/06/2026</t>
   </si>
   <si>
@@ -1817,6 +1808,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=dRbjG6I-1No&amp;list=RDdRbjG6I-1No&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Metallica</t>
+  </si>
+  <si>
+    <t>Nothing Else Matters (1992)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tAGnKpE4NCI&amp;list=RDtAGnKpE4NCI&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F132" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,7 +2223,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="C2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D2" t="s">
         <v>118</v>
@@ -2269,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2289,16 +2289,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2309,16 +2309,16 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C5" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G5" t="s">
         <v>179</v>
@@ -2329,10 +2329,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2349,10 +2349,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2361,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2369,7 +2369,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2389,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2409,13 +2409,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C10" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D10" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2429,19 +2429,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C11" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D11" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2469,19 +2469,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C13" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G13" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2512,7 +2512,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2529,7 +2529,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2549,10 +2549,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C17" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2569,10 +2569,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C18" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2609,7 +2609,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2618,7 +2618,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2629,13 +2629,13 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C21" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D21" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
@@ -2652,7 +2652,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2669,7 +2669,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2689,7 +2689,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2709,7 +2709,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2732,7 +2732,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2749,16 +2749,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="C27" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2769,16 +2769,16 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C28" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D28" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2789,16 +2789,16 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C29" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D29" t="s">
         <v>118</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2812,7 +2812,7 @@
         <v>80</v>
       </c>
       <c r="C30" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D30" t="s">
         <v>215</v>
@@ -2829,16 +2829,16 @@
         <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="C31" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2858,7 +2858,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2869,10 +2869,10 @@
         <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C33" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
@@ -2889,10 +2889,10 @@
         <v>88</v>
       </c>
       <c r="B34" t="s">
+        <v>510</v>
+      </c>
+      <c r="C34" t="s">
         <v>513</v>
-      </c>
-      <c r="C34" t="s">
-        <v>516</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
@@ -2909,10 +2909,10 @@
         <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C35" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -2929,10 +2929,10 @@
         <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -2949,10 +2949,10 @@
         <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C37" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
@@ -2969,19 +2969,19 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="C38" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D38" t="s">
         <v>260</v>
       </c>
       <c r="F38" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="G38" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -2989,16 +2989,16 @@
         <v>97</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -3009,10 +3009,10 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C40" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D40" t="s">
         <v>304</v>
@@ -3029,10 +3029,10 @@
         <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C41" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -3049,16 +3049,16 @@
         <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C42" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D42" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="F42" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3069,7 +3069,7 @@
         <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C43" t="s">
         <v>98</v>
@@ -3089,7 +3089,7 @@
         <v>106</v>
       </c>
       <c r="B44" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C44" t="s">
         <v>107</v>
@@ -3109,10 +3109,10 @@
         <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C45" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
@@ -3135,7 +3135,7 @@
         <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F46" t="s">
         <v>114</v>
@@ -3149,16 +3149,16 @@
         <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C47" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3169,16 +3169,16 @@
         <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C48" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="G48" t="s">
         <v>179</v>
@@ -3189,10 +3189,10 @@
         <v>121</v>
       </c>
       <c r="B49" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C49" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D49" t="s">
         <v>118</v>
@@ -3249,7 +3249,7 @@
         <v>132</v>
       </c>
       <c r="B52" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C52" t="s">
         <v>133</v>
@@ -3269,13 +3269,13 @@
         <v>135</v>
       </c>
       <c r="B53" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C53" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D53" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F53" t="s">
         <v>136</v>
@@ -3289,7 +3289,7 @@
         <v>137</v>
       </c>
       <c r="B54" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C54" t="s">
         <v>138</v>
@@ -3309,16 +3309,16 @@
         <v>141</v>
       </c>
       <c r="B55" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C55" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D55" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F55" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3329,7 +3329,7 @@
         <v>142</v>
       </c>
       <c r="B56" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C56" t="s">
         <v>117</v>
@@ -3349,10 +3349,10 @@
         <v>143</v>
       </c>
       <c r="B57" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C57" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
@@ -3372,7 +3372,7 @@
         <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
@@ -3389,16 +3389,16 @@
         <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C59" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3429,10 +3429,10 @@
         <v>154</v>
       </c>
       <c r="B61" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C61" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D61" t="s">
         <v>81</v>
@@ -3489,19 +3489,19 @@
         <v>165</v>
       </c>
       <c r="B64" t="s">
+        <v>581</v>
+      </c>
+      <c r="C64" t="s">
+        <v>580</v>
+      </c>
+      <c r="D64" t="s">
+        <v>582</v>
+      </c>
+      <c r="F64" t="s">
+        <v>583</v>
+      </c>
+      <c r="G64" t="s">
         <v>584</v>
-      </c>
-      <c r="C64" t="s">
-        <v>583</v>
-      </c>
-      <c r="D64" t="s">
-        <v>585</v>
-      </c>
-      <c r="F64" t="s">
-        <v>586</v>
-      </c>
-      <c r="G64" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3509,10 +3509,10 @@
         <v>166</v>
       </c>
       <c r="B65" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="C65" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
@@ -3529,7 +3529,7 @@
         <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C66" t="s">
         <v>169</v>
@@ -3589,10 +3589,10 @@
         <v>180</v>
       </c>
       <c r="B69" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C69" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D69" t="s">
         <v>181</v>
@@ -3609,16 +3609,16 @@
         <v>183</v>
       </c>
       <c r="B70" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C70" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G70" t="s">
         <v>184</v>
@@ -3649,7 +3649,7 @@
         <v>189</v>
       </c>
       <c r="B72" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C72" t="s">
         <v>190</v>
@@ -3669,10 +3669,10 @@
         <v>193</v>
       </c>
       <c r="B73" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C73" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D73" t="s">
         <v>194</v>
@@ -3689,7 +3689,7 @@
         <v>196</v>
       </c>
       <c r="B74" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C74" t="s">
         <v>197</v>
@@ -3709,16 +3709,16 @@
         <v>199</v>
       </c>
       <c r="B75" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C75" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D75" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F75" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3729,16 +3729,16 @@
         <v>200</v>
       </c>
       <c r="B76" t="s">
+        <v>476</v>
+      </c>
+      <c r="C76" t="s">
+        <v>477</v>
+      </c>
+      <c r="D76" t="s">
+        <v>478</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>479</v>
-      </c>
-      <c r="C76" t="s">
-        <v>480</v>
-      </c>
-      <c r="D76" t="s">
-        <v>481</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>482</v>
       </c>
       <c r="G76" t="s">
         <v>179</v>
@@ -3752,7 +3752,7 @@
         <v>202</v>
       </c>
       <c r="C77" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
@@ -3789,7 +3789,7 @@
         <v>209</v>
       </c>
       <c r="B79" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C79" t="s">
         <v>210</v>
@@ -3809,16 +3809,16 @@
         <v>212</v>
       </c>
       <c r="B80" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C80" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D80" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F80" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G80" t="s">
         <v>179</v>
@@ -3832,7 +3832,7 @@
         <v>214</v>
       </c>
       <c r="C81" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D81" t="s">
         <v>215</v>
@@ -3849,16 +3849,16 @@
         <v>217</v>
       </c>
       <c r="B82" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C82" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D82" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F82" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G82" t="s">
         <v>160</v>
@@ -3869,7 +3869,7 @@
         <v>218</v>
       </c>
       <c r="B83" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C83" t="s">
         <v>219</v>
@@ -3889,7 +3889,7 @@
         <v>221</v>
       </c>
       <c r="B84" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C84" t="s">
         <v>222</v>
@@ -3909,13 +3909,13 @@
         <v>225</v>
       </c>
       <c r="B85" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C85" t="s">
         <v>226</v>
       </c>
       <c r="D85" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F85" t="s">
         <v>227</v>
@@ -3929,7 +3929,7 @@
         <v>228</v>
       </c>
       <c r="B86" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C86" t="s">
         <v>229</v>
@@ -3949,7 +3949,7 @@
         <v>231</v>
       </c>
       <c r="B87" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C87" t="s">
         <v>232</v>
@@ -3989,10 +3989,10 @@
         <v>238</v>
       </c>
       <c r="B89" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C89" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D89" t="s">
         <v>118</v>
@@ -4009,7 +4009,7 @@
         <v>240</v>
       </c>
       <c r="B90" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C90" t="s">
         <v>241</v>
@@ -4029,7 +4029,7 @@
         <v>243</v>
       </c>
       <c r="B91" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C91" t="s">
         <v>187</v>
@@ -4049,7 +4049,7 @@
         <v>245</v>
       </c>
       <c r="B92" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C92" t="s">
         <v>246</v>
@@ -4072,7 +4072,7 @@
         <v>249</v>
       </c>
       <c r="C93" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D93" t="s">
         <v>118</v>
@@ -4089,7 +4089,7 @@
         <v>251</v>
       </c>
       <c r="B94" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C94" t="s">
         <v>252</v>
@@ -4109,10 +4109,10 @@
         <v>255</v>
       </c>
       <c r="B95" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C95" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
@@ -4129,7 +4129,7 @@
         <v>258</v>
       </c>
       <c r="B96" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C96" t="s">
         <v>259</v>
@@ -4149,10 +4149,10 @@
         <v>262</v>
       </c>
       <c r="B97" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C97" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
@@ -4189,16 +4189,16 @@
         <v>268</v>
       </c>
       <c r="B99" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C99" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4209,7 +4209,7 @@
         <v>269</v>
       </c>
       <c r="B100" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C100" t="s">
         <v>152</v>
@@ -4229,7 +4229,7 @@
         <v>271</v>
       </c>
       <c r="B101" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C101" t="s">
         <v>272</v>
@@ -4289,10 +4289,10 @@
         <v>282</v>
       </c>
       <c r="B104" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C104" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D104" t="s">
         <v>283</v>
@@ -4309,16 +4309,16 @@
         <v>285</v>
       </c>
       <c r="B105" t="s">
+        <v>481</v>
+      </c>
+      <c r="C105" t="s">
+        <v>482</v>
+      </c>
+      <c r="D105" t="s">
+        <v>483</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>484</v>
-      </c>
-      <c r="C105" t="s">
-        <v>485</v>
-      </c>
-      <c r="D105" t="s">
-        <v>486</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="G105" t="s">
         <v>286</v>
@@ -4329,7 +4329,7 @@
         <v>287</v>
       </c>
       <c r="B106" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C106" t="s">
         <v>288</v>
@@ -4349,7 +4349,7 @@
         <v>290</v>
       </c>
       <c r="B107" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C107" t="s">
         <v>117</v>
@@ -4369,7 +4369,7 @@
         <v>292</v>
       </c>
       <c r="B108" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C108" t="s">
         <v>293</v>
@@ -4392,7 +4392,7 @@
         <v>296</v>
       </c>
       <c r="C109" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
@@ -4409,10 +4409,10 @@
         <v>298</v>
       </c>
       <c r="B110" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C110" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D110" t="s">
         <v>194</v>
@@ -4432,7 +4432,7 @@
         <v>301</v>
       </c>
       <c r="C111" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
@@ -4449,10 +4449,10 @@
         <v>303</v>
       </c>
       <c r="B112" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C112" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D112" t="s">
         <v>304</v>
@@ -4469,7 +4469,7 @@
         <v>306</v>
       </c>
       <c r="B113" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C113" t="s">
         <v>236</v>
@@ -4489,7 +4489,7 @@
         <v>308</v>
       </c>
       <c r="B114" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C114" t="s">
         <v>309</v>
@@ -4529,16 +4529,16 @@
         <v>315</v>
       </c>
       <c r="B116" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C116" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G116" t="s">
         <v>179</v>
@@ -4549,16 +4549,16 @@
         <v>316</v>
       </c>
       <c r="B117" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C117" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D117" t="s">
         <v>118</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4572,7 +4572,7 @@
         <v>318</v>
       </c>
       <c r="C118" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
@@ -4592,7 +4592,7 @@
         <v>321</v>
       </c>
       <c r="C119" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
@@ -4609,16 +4609,16 @@
         <v>323</v>
       </c>
       <c r="B120" t="s">
+        <v>462</v>
+      </c>
+      <c r="C120" t="s">
+        <v>463</v>
+      </c>
+      <c r="D120" t="s">
+        <v>464</v>
+      </c>
+      <c r="F120" t="s">
         <v>465</v>
-      </c>
-      <c r="C120" t="s">
-        <v>466</v>
-      </c>
-      <c r="D120" t="s">
-        <v>467</v>
-      </c>
-      <c r="F120" t="s">
-        <v>468</v>
       </c>
       <c r="G120" t="s">
         <v>179</v>
@@ -4649,7 +4649,7 @@
         <v>328</v>
       </c>
       <c r="B122" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C122" t="s">
         <v>329</v>
@@ -4672,7 +4672,7 @@
         <v>334</v>
       </c>
       <c r="C123" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D123" t="s">
         <v>118</v>
@@ -4749,10 +4749,10 @@
         <v>347</v>
       </c>
       <c r="B127" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C127" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
@@ -4789,16 +4789,16 @@
         <v>353</v>
       </c>
       <c r="B129" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="C129" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4829,13 +4829,13 @@
         <v>357</v>
       </c>
       <c r="B131" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C131" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D131" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F131" t="s">
         <v>358</v>
@@ -4849,16 +4849,16 @@
         <v>359</v>
       </c>
       <c r="B132" t="s">
-        <v>360</v>
+        <v>592</v>
       </c>
       <c r="C132" t="s">
-        <v>361</v>
+        <v>591</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>362</v>
+        <v>593</v>
       </c>
       <c r="G132" t="s">
         <v>127</v>
@@ -4866,19 +4866,19 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B133" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C133" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4886,39 +4886,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B134" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C134" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="G134" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B135" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C135" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D135" t="s">
         <v>256</v>
       </c>
       <c r="F135" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4926,19 +4926,19 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B136" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C136" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G136" t="s">
         <v>332</v>
@@ -4946,10 +4946,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B137" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C137" t="s">
         <v>173</v>
@@ -4958,7 +4958,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4966,19 +4966,19 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B138" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C138" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="D138" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F138" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G138" t="s">
         <v>179</v>
@@ -4986,41 +4986,41 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C140" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C141" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
+        <v>574</v>
+      </c>
+      <c r="C142" t="s">
+        <v>573</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="C142" t="s">
-        <v>576</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>580</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FDB5A8-4CA4-8341-8EF5-D5F537B8F981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D475FC-83A0-B748-8403-2F88AE34D106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,15 +277,9 @@
     <t>03/11/2025</t>
   </si>
   <si>
-    <t>Requiem (1792)</t>
-  </si>
-  <si>
     <t>Archiduché d'Autriche</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=XR9ZyJ_WbNM</t>
-  </si>
-  <si>
     <t>04/11/2025</t>
   </si>
   <si>
@@ -1699,9 +1693,6 @@
     <t>Bébé éléphant (1964)</t>
   </si>
   <si>
-    <t>Louis Chedid</t>
-  </si>
-  <si>
     <t xml:space="preserve"> La Belle (1977)</t>
   </si>
   <si>
@@ -1817,6 +1808,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=tAGnKpE4NCI&amp;list=RDtAGnKpE4NCI&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Requiem - Lacrimosa (1792)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MafAZeag1_0&amp;list=RDMafAZeag1_0&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chedid Louis </t>
   </si>
 </sst>
 </file>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F132" sqref="F132"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="89" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,7 +2223,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2249,13 +2249,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -2269,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2289,16 +2289,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C4" t="s">
         <v>444</v>
-      </c>
-      <c r="C4" t="s">
-        <v>446</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2309,19 +2309,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>459</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>461</v>
-      </c>
       <c r="G5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2329,10 +2329,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2349,10 +2349,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2361,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2369,7 +2369,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2389,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2409,13 +2409,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2429,19 +2429,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2469,19 +2469,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C13" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2512,7 +2512,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2521,7 +2521,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2529,7 +2529,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2549,10 +2549,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C17" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2561,7 +2561,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2569,10 +2569,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C18" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2609,7 +2609,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2618,7 +2618,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2629,19 +2629,19 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2652,7 +2652,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2669,7 +2669,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2689,7 +2689,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2709,7 +2709,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2732,7 +2732,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2749,16 +2749,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2769,16 +2769,16 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C28" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D28" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2789,16 +2789,16 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C29" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2809,16 +2809,16 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>591</v>
       </c>
       <c r="C30" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D30" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>592</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -2826,19 +2826,19 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C31" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2846,10 +2846,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -2858,7 +2858,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2866,19 +2866,19 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C33" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D33" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G33" t="s">
         <v>19</v>
@@ -2886,19 +2886,19 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C34" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -2906,19 +2906,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C35" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -2926,19 +2926,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C36" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2946,19 +2946,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C37" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -2966,39 +2966,39 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C38" t="s">
+        <v>470</v>
+      </c>
+      <c r="D38" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" t="s">
         <v>472</v>
       </c>
-      <c r="D38" t="s">
-        <v>260</v>
-      </c>
-      <c r="F38" t="s">
-        <v>474</v>
-      </c>
       <c r="G38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C39" t="s">
+        <v>454</v>
+      </c>
+      <c r="D39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
         <v>455</v>
-      </c>
-      <c r="C39" t="s">
-        <v>456</v>
-      </c>
-      <c r="D39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F39" t="s">
-        <v>457</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -3006,19 +3006,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B40" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C40" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D40" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -3026,19 +3026,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C41" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -3046,19 +3046,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C42" t="s">
+        <v>539</v>
+      </c>
+      <c r="D42" t="s">
+        <v>540</v>
+      </c>
+      <c r="F42" t="s">
         <v>541</v>
-      </c>
-      <c r="D42" t="s">
-        <v>542</v>
-      </c>
-      <c r="F42" t="s">
-        <v>543</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3066,19 +3066,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -3086,19 +3086,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3106,19 +3106,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B45" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C45" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -3126,19 +3126,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>109</v>
+      </c>
+      <c r="B46" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" t="s">
         <v>111</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
+        <v>394</v>
+      </c>
+      <c r="F46" t="s">
         <v>112</v>
-      </c>
-      <c r="C46" t="s">
-        <v>113</v>
-      </c>
-      <c r="D46" t="s">
-        <v>396</v>
-      </c>
-      <c r="F46" t="s">
-        <v>114</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3146,19 +3146,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B47" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C47" t="s">
+        <v>543</v>
+      </c>
+      <c r="D47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
         <v>545</v>
-      </c>
-      <c r="D47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" t="s">
-        <v>547</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3166,39 +3166,39 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B48" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C48" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G48" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C49" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D49" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -3206,39 +3206,39 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C50" t="s">
         <v>123</v>
-      </c>
-      <c r="B50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" t="s">
-        <v>125</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>126</v>
+      </c>
+      <c r="B51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" t="s">
         <v>128</v>
       </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
         <v>129</v>
-      </c>
-      <c r="C51" t="s">
-        <v>130</v>
-      </c>
-      <c r="D51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>131</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -3246,39 +3246,39 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B53" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C53" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D53" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F53" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
@@ -3286,39 +3286,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" t="s">
+        <v>496</v>
+      </c>
+      <c r="C54" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" t="s">
         <v>137</v>
       </c>
-      <c r="B54" t="s">
-        <v>498</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="G54" t="s">
         <v>138</v>
-      </c>
-      <c r="D54" t="s">
-        <v>17</v>
-      </c>
-      <c r="F54" t="s">
-        <v>139</v>
-      </c>
-      <c r="G54" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B55" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C55" t="s">
+        <v>548</v>
+      </c>
+      <c r="D55" t="s">
         <v>550</v>
       </c>
-      <c r="D55" t="s">
-        <v>552</v>
-      </c>
       <c r="F55" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3326,39 +3326,39 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B56" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C56" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" t="s">
         <v>117</v>
       </c>
-      <c r="D56" t="s">
+      <c r="G56" t="s">
         <v>118</v>
-      </c>
-      <c r="F56" t="s">
-        <v>119</v>
-      </c>
-      <c r="G56" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B57" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C57" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -3366,39 +3366,39 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C58" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G58" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B59" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C59" t="s">
-        <v>554</v>
+        <v>593</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3406,39 +3406,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" t="s">
+        <v>149</v>
+      </c>
+      <c r="C60" t="s">
         <v>150</v>
-      </c>
-      <c r="B60" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" t="s">
-        <v>152</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B61" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C61" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F61" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -3446,39 +3446,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" t="s">
+        <v>155</v>
+      </c>
+      <c r="C62" t="s">
         <v>156</v>
-      </c>
-      <c r="B62" t="s">
-        <v>157</v>
-      </c>
-      <c r="C62" t="s">
-        <v>158</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G62" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" t="s">
+        <v>160</v>
+      </c>
+      <c r="C63" t="s">
         <v>161</v>
       </c>
-      <c r="B63" t="s">
+      <c r="D63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F63" t="s">
         <v>162</v>
-      </c>
-      <c r="C63" t="s">
-        <v>163</v>
-      </c>
-      <c r="D63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F63" t="s">
-        <v>164</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -3486,39 +3486,39 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B64" t="s">
+        <v>578</v>
+      </c>
+      <c r="C64" t="s">
+        <v>577</v>
+      </c>
+      <c r="D64" t="s">
+        <v>579</v>
+      </c>
+      <c r="F64" t="s">
+        <v>580</v>
+      </c>
+      <c r="G64" t="s">
         <v>581</v>
-      </c>
-      <c r="C64" t="s">
-        <v>580</v>
-      </c>
-      <c r="D64" t="s">
-        <v>582</v>
-      </c>
-      <c r="F64" t="s">
-        <v>583</v>
-      </c>
-      <c r="G64" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B65" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C65" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
@@ -3526,39 +3526,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B66" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C66" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" t="s">
+        <v>170</v>
+      </c>
+      <c r="C67" t="s">
         <v>171</v>
       </c>
-      <c r="B67" t="s">
+      <c r="D67" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
         <v>172</v>
-      </c>
-      <c r="C67" t="s">
-        <v>173</v>
-      </c>
-      <c r="D67" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" t="s">
-        <v>174</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -3566,39 +3566,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" t="s">
         <v>175</v>
-      </c>
-      <c r="B68" t="s">
-        <v>176</v>
-      </c>
-      <c r="C68" t="s">
-        <v>177</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G68" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" t="s">
+        <v>497</v>
+      </c>
+      <c r="C69" t="s">
+        <v>518</v>
+      </c>
+      <c r="D69" t="s">
+        <v>179</v>
+      </c>
+      <c r="F69" t="s">
         <v>180</v>
-      </c>
-      <c r="B69" t="s">
-        <v>499</v>
-      </c>
-      <c r="C69" t="s">
-        <v>520</v>
-      </c>
-      <c r="D69" t="s">
-        <v>181</v>
-      </c>
-      <c r="F69" t="s">
-        <v>182</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -3606,39 +3606,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C70" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G70" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" t="s">
         <v>185</v>
       </c>
-      <c r="B71" t="s">
+      <c r="D71" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" t="s">
         <v>186</v>
-      </c>
-      <c r="C71" t="s">
-        <v>187</v>
-      </c>
-      <c r="D71" t="s">
-        <v>17</v>
-      </c>
-      <c r="F71" t="s">
-        <v>188</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -3646,39 +3646,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B72" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C72" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G72" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>191</v>
+      </c>
+      <c r="B73" t="s">
+        <v>503</v>
+      </c>
+      <c r="C73" t="s">
+        <v>519</v>
+      </c>
+      <c r="D73" t="s">
+        <v>192</v>
+      </c>
+      <c r="F73" t="s">
         <v>193</v>
-      </c>
-      <c r="B73" t="s">
-        <v>505</v>
-      </c>
-      <c r="C73" t="s">
-        <v>521</v>
-      </c>
-      <c r="D73" t="s">
-        <v>194</v>
-      </c>
-      <c r="F73" t="s">
-        <v>195</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -3686,39 +3686,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B74" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C74" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G74" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B75" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C75" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D75" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F75" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3726,39 +3726,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B76" t="s">
+        <v>474</v>
+      </c>
+      <c r="C76" t="s">
+        <v>475</v>
+      </c>
+      <c r="D76" t="s">
         <v>476</v>
       </c>
-      <c r="C76" t="s">
+      <c r="F76" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="D76" t="s">
-        <v>478</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>479</v>
-      </c>
       <c r="G76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" t="s">
+        <v>520</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" t="s">
         <v>201</v>
-      </c>
-      <c r="B77" t="s">
-        <v>202</v>
-      </c>
-      <c r="C77" t="s">
-        <v>522</v>
-      </c>
-      <c r="D77" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" t="s">
-        <v>203</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -3766,39 +3766,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>202</v>
+      </c>
+      <c r="B78" t="s">
+        <v>203</v>
+      </c>
+      <c r="C78" t="s">
         <v>204</v>
-      </c>
-      <c r="B78" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78" t="s">
-        <v>206</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" t="s">
+        <v>413</v>
+      </c>
+      <c r="C79" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s">
         <v>209</v>
-      </c>
-      <c r="B79" t="s">
-        <v>415</v>
-      </c>
-      <c r="C79" t="s">
-        <v>210</v>
-      </c>
-      <c r="D79" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" t="s">
-        <v>211</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -3806,39 +3806,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B80" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C80" t="s">
+        <v>395</v>
+      </c>
+      <c r="D80" t="s">
         <v>397</v>
       </c>
-      <c r="D80" t="s">
-        <v>399</v>
-      </c>
       <c r="F80" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G80" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B81" t="s">
+        <v>212</v>
+      </c>
+      <c r="C81" t="s">
+        <v>521</v>
+      </c>
+      <c r="D81" t="s">
         <v>213</v>
       </c>
-      <c r="B81" t="s">
+      <c r="F81" t="s">
         <v>214</v>
-      </c>
-      <c r="C81" t="s">
-        <v>523</v>
-      </c>
-      <c r="D81" t="s">
-        <v>215</v>
-      </c>
-      <c r="F81" t="s">
-        <v>216</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
@@ -3846,39 +3846,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B82" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C82" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D82" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F82" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83" t="s">
+        <v>398</v>
+      </c>
+      <c r="C83" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" t="s">
         <v>218</v>
-      </c>
-      <c r="B83" t="s">
-        <v>400</v>
-      </c>
-      <c r="C83" t="s">
-        <v>219</v>
-      </c>
-      <c r="D83" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" t="s">
-        <v>220</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -3886,39 +3886,39 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" t="s">
+        <v>478</v>
+      </c>
+      <c r="C84" t="s">
+        <v>220</v>
+      </c>
+      <c r="D84" t="s">
         <v>221</v>
       </c>
-      <c r="B84" t="s">
-        <v>480</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="F84" t="s">
         <v>222</v>
       </c>
-      <c r="D84" t="s">
-        <v>223</v>
-      </c>
-      <c r="F84" t="s">
-        <v>224</v>
-      </c>
       <c r="G84" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>223</v>
+      </c>
+      <c r="B85" t="s">
+        <v>504</v>
+      </c>
+      <c r="C85" t="s">
+        <v>224</v>
+      </c>
+      <c r="D85" t="s">
+        <v>434</v>
+      </c>
+      <c r="F85" t="s">
         <v>225</v>
-      </c>
-      <c r="B85" t="s">
-        <v>506</v>
-      </c>
-      <c r="C85" t="s">
-        <v>226</v>
-      </c>
-      <c r="D85" t="s">
-        <v>436</v>
-      </c>
-      <c r="F85" t="s">
-        <v>227</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3926,39 +3926,39 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B86" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G86" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" t="s">
+        <v>426</v>
+      </c>
+      <c r="C87" t="s">
+        <v>230</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" t="s">
         <v>231</v>
-      </c>
-      <c r="B87" t="s">
-        <v>428</v>
-      </c>
-      <c r="C87" t="s">
-        <v>232</v>
-      </c>
-      <c r="D87" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" t="s">
-        <v>233</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -3966,39 +3966,39 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>232</v>
+      </c>
+      <c r="B88" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" t="s">
         <v>234</v>
       </c>
-      <c r="B88" t="s">
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="F88" t="s">
         <v>235</v>
       </c>
-      <c r="C88" t="s">
-        <v>236</v>
-      </c>
-      <c r="D88" t="s">
-        <v>17</v>
-      </c>
-      <c r="F88" t="s">
-        <v>237</v>
-      </c>
       <c r="G88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B89" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C89" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D89" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -4006,39 +4006,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B90" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C90" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G90" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B91" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -4046,39 +4046,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" t="s">
+        <v>423</v>
+      </c>
+      <c r="C92" t="s">
+        <v>244</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" t="s">
         <v>245</v>
       </c>
-      <c r="B92" t="s">
-        <v>425</v>
-      </c>
-      <c r="C92" t="s">
-        <v>246</v>
-      </c>
-      <c r="D92" t="s">
-        <v>17</v>
-      </c>
-      <c r="F92" t="s">
-        <v>247</v>
-      </c>
       <c r="G92" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>246</v>
+      </c>
+      <c r="B93" t="s">
+        <v>247</v>
+      </c>
+      <c r="C93" t="s">
+        <v>523</v>
+      </c>
+      <c r="D93" t="s">
+        <v>116</v>
+      </c>
+      <c r="F93" t="s">
         <v>248</v>
-      </c>
-      <c r="B93" t="s">
-        <v>249</v>
-      </c>
-      <c r="C93" t="s">
-        <v>525</v>
-      </c>
-      <c r="D93" t="s">
-        <v>118</v>
-      </c>
-      <c r="F93" t="s">
-        <v>250</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -4086,39 +4086,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>249</v>
+      </c>
+      <c r="B94" t="s">
+        <v>424</v>
+      </c>
+      <c r="C94" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" t="s">
         <v>251</v>
       </c>
-      <c r="B94" t="s">
-        <v>426</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="G94" t="s">
         <v>252</v>
-      </c>
-      <c r="D94" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" t="s">
-        <v>253</v>
-      </c>
-      <c r="G94" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>253</v>
+      </c>
+      <c r="B95" t="s">
+        <v>388</v>
+      </c>
+      <c r="C95" t="s">
+        <v>389</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" t="s">
         <v>255</v>
-      </c>
-      <c r="B95" t="s">
-        <v>390</v>
-      </c>
-      <c r="C95" t="s">
-        <v>391</v>
-      </c>
-      <c r="D95" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" t="s">
-        <v>257</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -4126,39 +4126,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>256</v>
+      </c>
+      <c r="B96" t="s">
+        <v>425</v>
+      </c>
+      <c r="C96" t="s">
+        <v>257</v>
+      </c>
+      <c r="D96" t="s">
         <v>258</v>
       </c>
-      <c r="B96" t="s">
-        <v>427</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="F96" t="s">
         <v>259</v>
       </c>
-      <c r="D96" t="s">
-        <v>260</v>
-      </c>
-      <c r="F96" t="s">
-        <v>261</v>
-      </c>
       <c r="G96" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B97" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C97" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
@@ -4166,39 +4166,39 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>262</v>
+      </c>
+      <c r="B98" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" t="s">
         <v>264</v>
-      </c>
-      <c r="B98" t="s">
-        <v>265</v>
-      </c>
-      <c r="C98" t="s">
-        <v>266</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G98" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B99" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C99" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4206,59 +4206,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B100" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G100" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>269</v>
+      </c>
+      <c r="B101" t="s">
+        <v>416</v>
+      </c>
+      <c r="C101" t="s">
+        <v>270</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s">
         <v>271</v>
       </c>
-      <c r="B101" t="s">
-        <v>418</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="G101" t="s">
         <v>272</v>
-      </c>
-      <c r="D101" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" t="s">
-        <v>273</v>
-      </c>
-      <c r="G101" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>273</v>
+      </c>
+      <c r="B102" t="s">
+        <v>274</v>
+      </c>
+      <c r="C102" t="s">
+        <v>171</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" t="s">
         <v>275</v>
-      </c>
-      <c r="B102" t="s">
-        <v>276</v>
-      </c>
-      <c r="C102" t="s">
-        <v>173</v>
-      </c>
-      <c r="D102" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" t="s">
-        <v>277</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -4266,39 +4266,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>276</v>
+      </c>
+      <c r="B103" t="s">
+        <v>277</v>
+      </c>
+      <c r="C103" t="s">
         <v>278</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" t="s">
         <v>279</v>
       </c>
-      <c r="C103" t="s">
-        <v>280</v>
-      </c>
-      <c r="D103" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" t="s">
-        <v>281</v>
-      </c>
       <c r="G103" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>280</v>
+      </c>
+      <c r="B104" t="s">
+        <v>493</v>
+      </c>
+      <c r="C104" t="s">
+        <v>525</v>
+      </c>
+      <c r="D104" t="s">
+        <v>281</v>
+      </c>
+      <c r="F104" t="s">
         <v>282</v>
-      </c>
-      <c r="B104" t="s">
-        <v>495</v>
-      </c>
-      <c r="C104" t="s">
-        <v>527</v>
-      </c>
-      <c r="D104" t="s">
-        <v>283</v>
-      </c>
-      <c r="F104" t="s">
-        <v>284</v>
       </c>
       <c r="G104" t="s">
         <v>8</v>
@@ -4306,39 +4306,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B105" t="s">
+        <v>479</v>
+      </c>
+      <c r="C105" t="s">
+        <v>480</v>
+      </c>
+      <c r="D105" t="s">
         <v>481</v>
       </c>
-      <c r="C105" t="s">
+      <c r="F105" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="D105" t="s">
-        <v>483</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="G105" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>285</v>
+      </c>
+      <c r="B106" t="s">
+        <v>400</v>
+      </c>
+      <c r="C106" t="s">
+        <v>286</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" t="s">
         <v>287</v>
-      </c>
-      <c r="B106" t="s">
-        <v>402</v>
-      </c>
-      <c r="C106" t="s">
-        <v>288</v>
-      </c>
-      <c r="D106" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" t="s">
-        <v>289</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -4346,19 +4346,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B107" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C107" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D107" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F107" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -4366,39 +4366,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>290</v>
+      </c>
+      <c r="B108" t="s">
+        <v>427</v>
+      </c>
+      <c r="C108" t="s">
+        <v>291</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" t="s">
         <v>292</v>
       </c>
-      <c r="B108" t="s">
-        <v>429</v>
-      </c>
-      <c r="C108" t="s">
-        <v>293</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="F108" t="s">
-        <v>294</v>
-      </c>
       <c r="G108" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>293</v>
+      </c>
+      <c r="B109" t="s">
+        <v>294</v>
+      </c>
+      <c r="C109" t="s">
+        <v>383</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" t="s">
         <v>295</v>
-      </c>
-      <c r="B109" t="s">
-        <v>296</v>
-      </c>
-      <c r="C109" t="s">
-        <v>385</v>
-      </c>
-      <c r="D109" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" t="s">
-        <v>297</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -4406,19 +4406,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B110" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C110" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D110" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F110" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
@@ -4426,39 +4426,39 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B111" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C111" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G111" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>301</v>
+      </c>
+      <c r="B112" t="s">
+        <v>494</v>
+      </c>
+      <c r="C112" t="s">
+        <v>527</v>
+      </c>
+      <c r="D112" t="s">
+        <v>302</v>
+      </c>
+      <c r="F112" t="s">
         <v>303</v>
-      </c>
-      <c r="B112" t="s">
-        <v>496</v>
-      </c>
-      <c r="C112" t="s">
-        <v>529</v>
-      </c>
-      <c r="D112" t="s">
-        <v>304</v>
-      </c>
-      <c r="F112" t="s">
-        <v>305</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4466,39 +4466,39 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B113" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C113" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G113" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>306</v>
+      </c>
+      <c r="B114" t="s">
+        <v>403</v>
+      </c>
+      <c r="C114" t="s">
+        <v>307</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" t="s">
         <v>308</v>
-      </c>
-      <c r="B114" t="s">
-        <v>405</v>
-      </c>
-      <c r="C114" t="s">
-        <v>309</v>
-      </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="F114" t="s">
-        <v>310</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -4506,59 +4506,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>309</v>
+      </c>
+      <c r="B115" t="s">
+        <v>310</v>
+      </c>
+      <c r="C115" t="s">
         <v>311</v>
       </c>
-      <c r="B115" t="s">
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" t="s">
         <v>312</v>
       </c>
-      <c r="C115" t="s">
-        <v>313</v>
-      </c>
-      <c r="D115" t="s">
-        <v>17</v>
-      </c>
-      <c r="F115" t="s">
-        <v>314</v>
-      </c>
       <c r="G115" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B116" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C116" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G116" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B117" t="s">
+        <v>483</v>
+      </c>
+      <c r="C117" t="s">
         <v>485</v>
       </c>
-      <c r="C117" t="s">
-        <v>487</v>
-      </c>
       <c r="D117" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4566,39 +4566,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>315</v>
+      </c>
+      <c r="B118" t="s">
+        <v>316</v>
+      </c>
+      <c r="C118" t="s">
+        <v>435</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" t="s">
         <v>317</v>
       </c>
-      <c r="B118" t="s">
-        <v>318</v>
-      </c>
-      <c r="C118" t="s">
-        <v>437</v>
-      </c>
-      <c r="D118" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" t="s">
-        <v>319</v>
-      </c>
       <c r="G118" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>318</v>
+      </c>
+      <c r="B119" t="s">
+        <v>319</v>
+      </c>
+      <c r="C119" t="s">
+        <v>528</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" t="s">
         <v>320</v>
-      </c>
-      <c r="B119" t="s">
-        <v>321</v>
-      </c>
-      <c r="C119" t="s">
-        <v>530</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="F119" t="s">
-        <v>322</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -4606,39 +4606,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B120" t="s">
+        <v>460</v>
+      </c>
+      <c r="C120" t="s">
+        <v>461</v>
+      </c>
+      <c r="D120" t="s">
         <v>462</v>
       </c>
-      <c r="C120" t="s">
+      <c r="F120" t="s">
         <v>463</v>
       </c>
-      <c r="D120" t="s">
-        <v>464</v>
-      </c>
-      <c r="F120" t="s">
-        <v>465</v>
-      </c>
       <c r="G120" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>322</v>
+      </c>
+      <c r="B121" t="s">
+        <v>323</v>
+      </c>
+      <c r="C121" t="s">
         <v>324</v>
       </c>
-      <c r="B121" t="s">
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" t="s">
         <v>325</v>
-      </c>
-      <c r="C121" t="s">
-        <v>326</v>
-      </c>
-      <c r="D121" t="s">
-        <v>17</v>
-      </c>
-      <c r="F121" t="s">
-        <v>327</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -4646,39 +4646,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>326</v>
+      </c>
+      <c r="B122" t="s">
+        <v>404</v>
+      </c>
+      <c r="C122" t="s">
+        <v>327</v>
+      </c>
+      <c r="D122" t="s">
         <v>328</v>
       </c>
-      <c r="B122" t="s">
-        <v>406</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="F122" t="s">
         <v>329</v>
       </c>
-      <c r="D122" t="s">
+      <c r="G122" t="s">
         <v>330</v>
-      </c>
-      <c r="F122" t="s">
-        <v>331</v>
-      </c>
-      <c r="G122" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>331</v>
+      </c>
+      <c r="B123" t="s">
+        <v>332</v>
+      </c>
+      <c r="C123" t="s">
+        <v>529</v>
+      </c>
+      <c r="D123" t="s">
+        <v>116</v>
+      </c>
+      <c r="F123" t="s">
         <v>333</v>
-      </c>
-      <c r="B123" t="s">
-        <v>334</v>
-      </c>
-      <c r="C123" t="s">
-        <v>531</v>
-      </c>
-      <c r="D123" t="s">
-        <v>118</v>
-      </c>
-      <c r="F123" t="s">
-        <v>335</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -4686,30 +4686,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>334</v>
+      </c>
+      <c r="B124" t="s">
+        <v>335</v>
+      </c>
+      <c r="C124" t="s">
         <v>336</v>
-      </c>
-      <c r="B124" t="s">
-        <v>337</v>
-      </c>
-      <c r="C124" t="s">
-        <v>338</v>
       </c>
       <c r="D124" t="s">
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G124" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B125" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -4718,7 +4718,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -4726,39 +4726,39 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>341</v>
+      </c>
+      <c r="B126" t="s">
+        <v>342</v>
+      </c>
+      <c r="C126" t="s">
         <v>343</v>
-      </c>
-      <c r="B126" t="s">
-        <v>344</v>
-      </c>
-      <c r="C126" t="s">
-        <v>345</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G126" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B127" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C127" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4766,39 +4766,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>347</v>
+      </c>
+      <c r="B128" t="s">
+        <v>348</v>
+      </c>
+      <c r="C128" t="s">
         <v>349</v>
       </c>
-      <c r="B128" t="s">
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" t="s">
         <v>350</v>
       </c>
-      <c r="C128" t="s">
-        <v>351</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="F128" t="s">
-        <v>352</v>
-      </c>
       <c r="G128" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B129" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C129" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4806,39 +4806,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B130" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C130" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G130" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B131" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C131" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D131" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="F131" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4846,39 +4846,39 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B132" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C132" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G132" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B133" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C133" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4886,39 +4886,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>359</v>
+      </c>
+      <c r="B134" t="s">
+        <v>360</v>
+      </c>
+      <c r="C134" t="s">
         <v>361</v>
-      </c>
-      <c r="B134" t="s">
-        <v>362</v>
-      </c>
-      <c r="C134" t="s">
-        <v>363</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G134" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>364</v>
+      </c>
+      <c r="B135" t="s">
+        <v>365</v>
+      </c>
+      <c r="C135" t="s">
+        <v>532</v>
+      </c>
+      <c r="D135" t="s">
+        <v>254</v>
+      </c>
+      <c r="F135" t="s">
         <v>366</v>
-      </c>
-      <c r="B135" t="s">
-        <v>367</v>
-      </c>
-      <c r="C135" t="s">
-        <v>534</v>
-      </c>
-      <c r="D135" t="s">
-        <v>256</v>
-      </c>
-      <c r="F135" t="s">
-        <v>368</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4926,39 +4926,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B136" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C136" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="G136" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>370</v>
+      </c>
+      <c r="B137" t="s">
+        <v>371</v>
+      </c>
+      <c r="C137" t="s">
+        <v>171</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" t="s">
         <v>372</v>
-      </c>
-      <c r="B137" t="s">
-        <v>373</v>
-      </c>
-      <c r="C137" t="s">
-        <v>173</v>
-      </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="F137" t="s">
-        <v>374</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4966,61 +4966,61 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B138" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C138" t="s">
+        <v>464</v>
+      </c>
+      <c r="D138" t="s">
+        <v>378</v>
+      </c>
+      <c r="F138" t="s">
         <v>466</v>
       </c>
-      <c r="D138" t="s">
-        <v>380</v>
-      </c>
-      <c r="F138" t="s">
-        <v>468</v>
-      </c>
       <c r="G138" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C140" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="C141" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
+        <v>571</v>
+      </c>
+      <c r="C142" t="s">
+        <v>570</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>574</v>
-      </c>
-      <c r="C142" t="s">
-        <v>573</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>577</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4D475FC-83A0-B748-8403-2F88AE34D106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01875A6A-AEA1-1546-8694-F99687CF0265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1783,15 +1783,6 @@
     <t>Reggea</t>
   </si>
   <si>
-    <t>In The Death Car (1993)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Iggy Pop</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=vmFAwzpLbGw&amp;list=RDvmFAwzpLbGw&amp;start_radio=1</t>
-  </si>
-  <si>
     <t>Claude Nougaro</t>
   </si>
   <si>
@@ -1816,7 +1807,16 @@
     <t>https://www.youtube.com/watch?v=MafAZeag1_0&amp;list=RDMafAZeag1_0&amp;start_radio=1</t>
   </si>
   <si>
-    <t xml:space="preserve">Chedid Louis </t>
+    <t>Nina Simone</t>
+  </si>
+  <si>
+    <t>Ain't Got No, I Got Life (1968)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=L5jI9I03q8E&amp;list=RDL5jI9I03q8E&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>Louis Chedid (chanteur/compositeur)</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2211,7 @@
   <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A39" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2809,7 +2809,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C30" t="s">
         <v>514</v>
@@ -2818,7 +2818,7 @@
         <v>213</v>
       </c>
       <c r="F30" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -3709,16 +3709,16 @@
         <v>197</v>
       </c>
       <c r="B75" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="C75" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="D75" t="s">
-        <v>555</v>
+        <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -4849,16 +4849,16 @@
         <v>357</v>
       </c>
       <c r="B132" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C132" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="G132" t="s">
         <v>125</v>
@@ -4869,16 +4869,16 @@
         <v>358</v>
       </c>
       <c r="B133" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C133" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01875A6A-AEA1-1546-8694-F99687CF0265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDCBB55-B4A4-B147-8EF5-5464BE42757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1816,7 +1816,7 @@
     <t>https://www.youtube.com/watch?v=L5jI9I03q8E&amp;list=RDL5jI9I03q8E&amp;start_radio=1</t>
   </si>
   <si>
-    <t>Louis Chedid (chanteur/compositeur)</t>
+    <t>Chedid Louis</t>
   </si>
 </sst>
 </file>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDCBB55-B4A4-B147-8EF5-5464BE42757A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B968D1A-D79E-2B47-ABE0-45E1B4BB3AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planning!$A$1:$G$138</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="595">
   <si>
     <t>titre</t>
   </si>
@@ -286,9 +286,6 @@
     <t>06/11/2025</t>
   </si>
   <si>
-    <t>J'suis snob (1954)</t>
-  </si>
-  <si>
     <t>07/11/2025</t>
   </si>
   <si>
@@ -1756,9 +1753,6 @@
     <t>https://www.youtube.com/watch?v=_whvVXX0hCk&amp;list=RD_whvVXX0hCk&amp;start_radio=1</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=ln40FTIfBl4&amp;list=RDln40FTIfBl4&amp;start_radio=1</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=-ma2AioqjgQ&amp;list=RD-ma2AioqjgQ&amp;start_radio=1</t>
   </si>
   <si>
@@ -1817,6 +1811,15 @@
   </si>
   <si>
     <t>Chedid Louis</t>
+  </si>
+  <si>
+    <t>Vulfpeck</t>
+  </si>
+  <si>
+    <t>Dean town (2016)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=le0BLAEO93g</t>
   </si>
 </sst>
 </file>
@@ -2210,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2223,7 +2226,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2249,13 +2252,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -2269,7 +2272,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2289,16 +2292,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2309,19 +2312,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2329,10 +2332,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2349,10 +2352,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2361,7 +2364,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2369,7 +2372,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2389,7 +2392,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2409,13 +2412,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2429,19 +2432,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C11" t="s">
+        <v>378</v>
+      </c>
+      <c r="D11" t="s">
         <v>379</v>
-      </c>
-      <c r="D11" t="s">
-        <v>380</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2469,19 +2472,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2512,7 +2515,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2521,7 +2524,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2529,7 +2532,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2549,10 +2552,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C17" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2561,7 +2564,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2569,10 +2572,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C18" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2609,7 +2612,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2618,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2629,19 +2632,19 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" t="s">
         <v>377</v>
-      </c>
-      <c r="D21" t="s">
-        <v>378</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2652,7 +2655,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2669,7 +2672,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2689,7 +2692,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2709,7 +2712,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2732,7 +2735,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2749,16 +2752,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2769,16 +2772,16 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C28" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D28" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2789,16 +2792,16 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C29" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2809,16 +2812,16 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C30" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -2829,16 +2832,16 @@
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C31" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2849,16 +2852,16 @@
         <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>384</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>573</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
         <v>19</v>
@@ -2866,39 +2869,36 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>384</v>
+        <v>593</v>
       </c>
       <c r="C33" t="s">
-        <v>385</v>
+        <v>592</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>85</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
+        <v>594</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C34" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -2906,19 +2906,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -2926,19 +2926,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2946,19 +2946,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B37" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C37" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -2966,39 +2966,39 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
+        <v>470</v>
+      </c>
+      <c r="C38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D38" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" t="s">
         <v>471</v>
       </c>
-      <c r="C38" t="s">
-        <v>470</v>
-      </c>
-      <c r="D38" t="s">
-        <v>258</v>
-      </c>
-      <c r="F38" t="s">
-        <v>472</v>
-      </c>
       <c r="G38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C39" t="s">
         <v>453</v>
-      </c>
-      <c r="C39" t="s">
-        <v>454</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -3006,19 +3006,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" t="s">
+        <v>408</v>
+      </c>
+      <c r="C40" t="s">
+        <v>574</v>
+      </c>
+      <c r="D40" t="s">
+        <v>301</v>
+      </c>
+      <c r="F40" t="s">
         <v>97</v>
-      </c>
-      <c r="B40" t="s">
-        <v>409</v>
-      </c>
-      <c r="C40" t="s">
-        <v>576</v>
-      </c>
-      <c r="D40" t="s">
-        <v>302</v>
-      </c>
-      <c r="F40" t="s">
-        <v>98</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -3026,19 +3026,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -3046,19 +3046,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C42" t="s">
+        <v>538</v>
+      </c>
+      <c r="D42" t="s">
         <v>539</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>540</v>
-      </c>
-      <c r="F42" t="s">
-        <v>541</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3066,19 +3066,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -3086,19 +3086,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>436</v>
+      </c>
+      <c r="C44" t="s">
         <v>104</v>
-      </c>
-      <c r="B44" t="s">
-        <v>437</v>
-      </c>
-      <c r="C44" t="s">
-        <v>105</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3106,19 +3106,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -3126,19 +3126,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
         <v>109</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>110</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>393</v>
+      </c>
+      <c r="F46" t="s">
         <v>111</v>
-      </c>
-      <c r="D46" t="s">
-        <v>394</v>
-      </c>
-      <c r="F46" t="s">
-        <v>112</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3146,19 +3146,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C47" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3166,39 +3166,39 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" t="s">
+        <v>500</v>
+      </c>
+      <c r="C49" t="s">
+        <v>516</v>
+      </c>
+      <c r="D49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" t="s">
         <v>119</v>
-      </c>
-      <c r="B49" t="s">
-        <v>501</v>
-      </c>
-      <c r="C49" t="s">
-        <v>517</v>
-      </c>
-      <c r="D49" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" t="s">
-        <v>120</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -3206,39 +3206,39 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" t="s">
         <v>121</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>122</v>
-      </c>
-      <c r="C50" t="s">
-        <v>123</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
       <c r="F50" t="s">
+        <v>123</v>
+      </c>
+      <c r="G50" t="s">
         <v>124</v>
-      </c>
-      <c r="G50" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" t="s">
         <v>126</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>127</v>
-      </c>
-      <c r="C51" t="s">
-        <v>128</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -3246,39 +3246,39 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" t="s">
+        <v>410</v>
+      </c>
+      <c r="C52" t="s">
         <v>130</v>
-      </c>
-      <c r="B52" t="s">
-        <v>411</v>
-      </c>
-      <c r="C52" t="s">
-        <v>131</v>
       </c>
       <c r="D52" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>132</v>
+      </c>
+      <c r="B53" t="s">
+        <v>489</v>
+      </c>
+      <c r="C53" t="s">
+        <v>485</v>
+      </c>
+      <c r="D53" t="s">
+        <v>433</v>
+      </c>
+      <c r="F53" t="s">
         <v>133</v>
-      </c>
-      <c r="B53" t="s">
-        <v>490</v>
-      </c>
-      <c r="C53" t="s">
-        <v>486</v>
-      </c>
-      <c r="D53" t="s">
-        <v>434</v>
-      </c>
-      <c r="F53" t="s">
-        <v>134</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
@@ -3286,39 +3286,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" t="s">
+        <v>495</v>
+      </c>
+      <c r="C54" t="s">
         <v>135</v>
-      </c>
-      <c r="B54" t="s">
-        <v>496</v>
-      </c>
-      <c r="C54" t="s">
-        <v>136</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="F54" t="s">
+        <v>136</v>
+      </c>
+      <c r="G54" t="s">
         <v>137</v>
-      </c>
-      <c r="G54" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B55" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C55" t="s">
+        <v>547</v>
+      </c>
+      <c r="D55" t="s">
+        <v>549</v>
+      </c>
+      <c r="F55" t="s">
         <v>548</v>
-      </c>
-      <c r="D55" t="s">
-        <v>550</v>
-      </c>
-      <c r="F55" t="s">
-        <v>549</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3326,39 +3326,39 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
         <v>115</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>116</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>117</v>
-      </c>
-      <c r="G56" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C57" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -3366,39 +3366,39 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>142</v>
+      </c>
+      <c r="B58" t="s">
         <v>143</v>
       </c>
-      <c r="B58" t="s">
-        <v>144</v>
-      </c>
       <c r="C58" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" t="s">
         <v>145</v>
-      </c>
-      <c r="G58" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B59" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C59" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3406,39 +3406,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
         <v>148</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>149</v>
-      </c>
-      <c r="C60" t="s">
-        <v>150</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C61" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
       </c>
       <c r="F61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -3446,39 +3446,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" t="s">
         <v>154</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>155</v>
-      </c>
-      <c r="C62" t="s">
-        <v>156</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" t="s">
         <v>157</v>
-      </c>
-      <c r="G62" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" t="s">
         <v>159</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>160</v>
-      </c>
-      <c r="C63" t="s">
-        <v>161</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -3486,39 +3486,39 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B64" t="s">
+        <v>576</v>
+      </c>
+      <c r="C64" t="s">
+        <v>575</v>
+      </c>
+      <c r="D64" t="s">
+        <v>577</v>
+      </c>
+      <c r="F64" t="s">
         <v>578</v>
       </c>
-      <c r="C64" t="s">
-        <v>577</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="G64" t="s">
         <v>579</v>
-      </c>
-      <c r="F64" t="s">
-        <v>580</v>
-      </c>
-      <c r="G64" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B65" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C65" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
@@ -3526,39 +3526,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>165</v>
+      </c>
+      <c r="B66" t="s">
+        <v>418</v>
+      </c>
+      <c r="C66" t="s">
         <v>166</v>
-      </c>
-      <c r="B66" t="s">
-        <v>419</v>
-      </c>
-      <c r="C66" t="s">
-        <v>167</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G66" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" t="s">
         <v>169</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>170</v>
-      </c>
-      <c r="C67" t="s">
-        <v>171</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -3566,39 +3566,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" t="s">
         <v>173</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>174</v>
-      </c>
-      <c r="C68" t="s">
-        <v>175</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
+        <v>175</v>
+      </c>
+      <c r="G68" t="s">
         <v>176</v>
-      </c>
-      <c r="G68" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" t="s">
+        <v>496</v>
+      </c>
+      <c r="C69" t="s">
+        <v>517</v>
+      </c>
+      <c r="D69" t="s">
         <v>178</v>
       </c>
-      <c r="B69" t="s">
-        <v>497</v>
-      </c>
-      <c r="C69" t="s">
-        <v>518</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
         <v>179</v>
-      </c>
-      <c r="F69" t="s">
-        <v>180</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -3606,39 +3606,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B70" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C70" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" t="s">
         <v>183</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>184</v>
-      </c>
-      <c r="C71" t="s">
-        <v>185</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -3646,39 +3646,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>186</v>
+      </c>
+      <c r="B72" t="s">
+        <v>419</v>
+      </c>
+      <c r="C72" t="s">
         <v>187</v>
-      </c>
-      <c r="B72" t="s">
-        <v>420</v>
-      </c>
-      <c r="C72" t="s">
-        <v>188</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
+        <v>188</v>
+      </c>
+      <c r="G72" t="s">
         <v>189</v>
-      </c>
-      <c r="G72" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>190</v>
+      </c>
+      <c r="B73" t="s">
+        <v>502</v>
+      </c>
+      <c r="C73" t="s">
+        <v>518</v>
+      </c>
+      <c r="D73" t="s">
         <v>191</v>
       </c>
-      <c r="B73" t="s">
-        <v>503</v>
-      </c>
-      <c r="C73" t="s">
-        <v>519</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>192</v>
-      </c>
-      <c r="F73" t="s">
-        <v>193</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -3686,39 +3686,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>193</v>
+      </c>
+      <c r="B74" t="s">
+        <v>411</v>
+      </c>
+      <c r="C74" t="s">
         <v>194</v>
-      </c>
-      <c r="B74" t="s">
-        <v>412</v>
-      </c>
-      <c r="C74" t="s">
-        <v>195</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B75" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C75" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3726,39 +3726,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s">
+        <v>473</v>
+      </c>
+      <c r="C76" t="s">
         <v>474</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>475</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>477</v>
-      </c>
       <c r="G76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" t="s">
         <v>199</v>
       </c>
-      <c r="B77" t="s">
-        <v>200</v>
-      </c>
       <c r="C77" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -3766,39 +3766,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" t="s">
         <v>202</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>203</v>
-      </c>
-      <c r="C78" t="s">
-        <v>204</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
+        <v>204</v>
+      </c>
+      <c r="G78" t="s">
         <v>205</v>
-      </c>
-      <c r="G78" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>206</v>
+      </c>
+      <c r="B79" t="s">
+        <v>412</v>
+      </c>
+      <c r="C79" t="s">
         <v>207</v>
-      </c>
-      <c r="B79" t="s">
-        <v>413</v>
-      </c>
-      <c r="C79" t="s">
-        <v>208</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -3806,39 +3806,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B80" t="s">
+        <v>395</v>
+      </c>
+      <c r="C80" t="s">
+        <v>394</v>
+      </c>
+      <c r="D80" t="s">
         <v>396</v>
       </c>
-      <c r="C80" t="s">
-        <v>395</v>
-      </c>
-      <c r="D80" t="s">
-        <v>397</v>
-      </c>
       <c r="F80" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>210</v>
+      </c>
+      <c r="B81" t="s">
         <v>211</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>520</v>
+      </c>
+      <c r="D81" t="s">
         <v>212</v>
       </c>
-      <c r="C81" t="s">
-        <v>521</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>213</v>
-      </c>
-      <c r="F81" t="s">
-        <v>214</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
@@ -3846,39 +3846,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B82" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C82" t="s">
+        <v>553</v>
+      </c>
+      <c r="D82" t="s">
         <v>554</v>
       </c>
-      <c r="D82" t="s">
+      <c r="F82" t="s">
         <v>555</v>
       </c>
-      <c r="F82" t="s">
-        <v>556</v>
-      </c>
       <c r="G82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>215</v>
+      </c>
+      <c r="B83" t="s">
+        <v>397</v>
+      </c>
+      <c r="C83" t="s">
         <v>216</v>
-      </c>
-      <c r="B83" t="s">
-        <v>398</v>
-      </c>
-      <c r="C83" t="s">
-        <v>217</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -3886,39 +3886,39 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>218</v>
+      </c>
+      <c r="B84" t="s">
+        <v>477</v>
+      </c>
+      <c r="C84" t="s">
         <v>219</v>
       </c>
-      <c r="B84" t="s">
-        <v>478</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>220</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
         <v>221</v>
       </c>
-      <c r="F84" t="s">
-        <v>222</v>
-      </c>
       <c r="G84" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>222</v>
+      </c>
+      <c r="B85" t="s">
+        <v>503</v>
+      </c>
+      <c r="C85" t="s">
         <v>223</v>
       </c>
-      <c r="B85" t="s">
-        <v>504</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>433</v>
+      </c>
+      <c r="F85" t="s">
         <v>224</v>
-      </c>
-      <c r="D85" t="s">
-        <v>434</v>
-      </c>
-      <c r="F85" t="s">
-        <v>225</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3926,39 +3926,39 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>225</v>
+      </c>
+      <c r="B86" t="s">
+        <v>413</v>
+      </c>
+      <c r="C86" t="s">
         <v>226</v>
-      </c>
-      <c r="B86" t="s">
-        <v>414</v>
-      </c>
-      <c r="C86" t="s">
-        <v>227</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>228</v>
+      </c>
+      <c r="B87" t="s">
+        <v>425</v>
+      </c>
+      <c r="C87" t="s">
         <v>229</v>
-      </c>
-      <c r="B87" t="s">
-        <v>426</v>
-      </c>
-      <c r="C87" t="s">
-        <v>230</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -3966,39 +3966,39 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>231</v>
+      </c>
+      <c r="B88" t="s">
         <v>232</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>233</v>
-      </c>
-      <c r="C88" t="s">
-        <v>234</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G88" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>235</v>
+      </c>
+      <c r="B89" t="s">
+        <v>420</v>
+      </c>
+      <c r="C89" t="s">
+        <v>521</v>
+      </c>
+      <c r="D89" t="s">
+        <v>115</v>
+      </c>
+      <c r="F89" t="s">
         <v>236</v>
-      </c>
-      <c r="B89" t="s">
-        <v>421</v>
-      </c>
-      <c r="C89" t="s">
-        <v>522</v>
-      </c>
-      <c r="D89" t="s">
-        <v>116</v>
-      </c>
-      <c r="F89" t="s">
-        <v>237</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -4006,39 +4006,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>237</v>
+      </c>
+      <c r="B90" t="s">
+        <v>398</v>
+      </c>
+      <c r="C90" t="s">
         <v>238</v>
-      </c>
-      <c r="B90" t="s">
-        <v>399</v>
-      </c>
-      <c r="C90" t="s">
-        <v>239</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B91" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -4046,39 +4046,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" t="s">
+        <v>422</v>
+      </c>
+      <c r="C92" t="s">
         <v>243</v>
-      </c>
-      <c r="B92" t="s">
-        <v>423</v>
-      </c>
-      <c r="C92" t="s">
-        <v>244</v>
       </c>
       <c r="D92" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G92" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>245</v>
+      </c>
+      <c r="B93" t="s">
         <v>246</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>522</v>
+      </c>
+      <c r="D93" t="s">
+        <v>115</v>
+      </c>
+      <c r="F93" t="s">
         <v>247</v>
-      </c>
-      <c r="C93" t="s">
-        <v>523</v>
-      </c>
-      <c r="D93" t="s">
-        <v>116</v>
-      </c>
-      <c r="F93" t="s">
-        <v>248</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -4086,39 +4086,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>248</v>
+      </c>
+      <c r="B94" t="s">
+        <v>423</v>
+      </c>
+      <c r="C94" t="s">
         <v>249</v>
-      </c>
-      <c r="B94" t="s">
-        <v>424</v>
-      </c>
-      <c r="C94" t="s">
-        <v>250</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
       </c>
       <c r="F94" t="s">
+        <v>250</v>
+      </c>
+      <c r="G94" t="s">
         <v>251</v>
-      </c>
-      <c r="G94" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B95" t="s">
+        <v>387</v>
+      </c>
+      <c r="C95" t="s">
         <v>388</v>
-      </c>
-      <c r="C95" t="s">
-        <v>389</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -4126,39 +4126,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" t="s">
+        <v>424</v>
+      </c>
+      <c r="C96" t="s">
         <v>256</v>
       </c>
-      <c r="B96" t="s">
-        <v>425</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>257</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>258</v>
       </c>
-      <c r="F96" t="s">
-        <v>259</v>
-      </c>
       <c r="G96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B97" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C97" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
@@ -4166,39 +4166,39 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" t="s">
         <v>262</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>263</v>
-      </c>
-      <c r="C98" t="s">
-        <v>264</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G98" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B99" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C99" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4206,59 +4206,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B100" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C100" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G100" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>268</v>
+      </c>
+      <c r="B101" t="s">
+        <v>415</v>
+      </c>
+      <c r="C101" t="s">
         <v>269</v>
-      </c>
-      <c r="B101" t="s">
-        <v>416</v>
-      </c>
-      <c r="C101" t="s">
-        <v>270</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
+        <v>270</v>
+      </c>
+      <c r="G101" t="s">
         <v>271</v>
-      </c>
-      <c r="G101" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>272</v>
+      </c>
+      <c r="B102" t="s">
         <v>273</v>
       </c>
-      <c r="B102" t="s">
-        <v>274</v>
-      </c>
       <c r="C102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -4266,39 +4266,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>275</v>
+      </c>
+      <c r="B103" t="s">
         <v>276</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>277</v>
-      </c>
-      <c r="C103" t="s">
-        <v>278</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>279</v>
+      </c>
+      <c r="B104" t="s">
+        <v>492</v>
+      </c>
+      <c r="C104" t="s">
+        <v>524</v>
+      </c>
+      <c r="D104" t="s">
         <v>280</v>
       </c>
-      <c r="B104" t="s">
-        <v>493</v>
-      </c>
-      <c r="C104" t="s">
-        <v>525</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>281</v>
-      </c>
-      <c r="F104" t="s">
-        <v>282</v>
       </c>
       <c r="G104" t="s">
         <v>8</v>
@@ -4306,39 +4306,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>282</v>
+      </c>
+      <c r="B105" t="s">
+        <v>478</v>
+      </c>
+      <c r="C105" t="s">
+        <v>479</v>
+      </c>
+      <c r="D105" t="s">
+        <v>480</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="G105" t="s">
         <v>283</v>
-      </c>
-      <c r="B105" t="s">
-        <v>479</v>
-      </c>
-      <c r="C105" t="s">
-        <v>480</v>
-      </c>
-      <c r="D105" t="s">
-        <v>481</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="G105" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>284</v>
+      </c>
+      <c r="B106" t="s">
+        <v>399</v>
+      </c>
+      <c r="C106" t="s">
         <v>285</v>
-      </c>
-      <c r="B106" t="s">
-        <v>400</v>
-      </c>
-      <c r="C106" t="s">
-        <v>286</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -4346,19 +4346,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>287</v>
+      </c>
+      <c r="B107" t="s">
+        <v>506</v>
+      </c>
+      <c r="C107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107" t="s">
+        <v>115</v>
+      </c>
+      <c r="F107" t="s">
         <v>288</v>
-      </c>
-      <c r="B107" t="s">
-        <v>507</v>
-      </c>
-      <c r="C107" t="s">
-        <v>115</v>
-      </c>
-      <c r="D107" t="s">
-        <v>116</v>
-      </c>
-      <c r="F107" t="s">
-        <v>289</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -4366,39 +4366,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>289</v>
+      </c>
+      <c r="B108" t="s">
+        <v>426</v>
+      </c>
+      <c r="C108" t="s">
         <v>290</v>
-      </c>
-      <c r="B108" t="s">
-        <v>427</v>
-      </c>
-      <c r="C108" t="s">
-        <v>291</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G108" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>292</v>
+      </c>
+      <c r="B109" t="s">
         <v>293</v>
       </c>
-      <c r="B109" t="s">
-        <v>294</v>
-      </c>
       <c r="C109" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -4406,19 +4406,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>295</v>
+      </c>
+      <c r="B110" t="s">
+        <v>505</v>
+      </c>
+      <c r="C110" t="s">
+        <v>525</v>
+      </c>
+      <c r="D110" t="s">
+        <v>191</v>
+      </c>
+      <c r="F110" t="s">
         <v>296</v>
-      </c>
-      <c r="B110" t="s">
-        <v>506</v>
-      </c>
-      <c r="C110" t="s">
-        <v>526</v>
-      </c>
-      <c r="D110" t="s">
-        <v>192</v>
-      </c>
-      <c r="F110" t="s">
-        <v>297</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
@@ -4426,39 +4426,39 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>297</v>
+      </c>
+      <c r="B111" t="s">
         <v>298</v>
       </c>
-      <c r="B111" t="s">
-        <v>299</v>
-      </c>
       <c r="C111" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G111" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>300</v>
+      </c>
+      <c r="B112" t="s">
+        <v>493</v>
+      </c>
+      <c r="C112" t="s">
+        <v>526</v>
+      </c>
+      <c r="D112" t="s">
         <v>301</v>
       </c>
-      <c r="B112" t="s">
-        <v>494</v>
-      </c>
-      <c r="C112" t="s">
-        <v>527</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
         <v>302</v>
-      </c>
-      <c r="F112" t="s">
-        <v>303</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4466,39 +4466,39 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B113" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C113" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>305</v>
+      </c>
+      <c r="B114" t="s">
+        <v>402</v>
+      </c>
+      <c r="C114" t="s">
         <v>306</v>
-      </c>
-      <c r="B114" t="s">
-        <v>403</v>
-      </c>
-      <c r="C114" t="s">
-        <v>307</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -4506,59 +4506,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>308</v>
+      </c>
+      <c r="B115" t="s">
         <v>309</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>310</v>
-      </c>
-      <c r="C115" t="s">
-        <v>311</v>
       </c>
       <c r="D115" t="s">
         <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G115" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B116" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C116" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G116" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B117" t="s">
+        <v>482</v>
+      </c>
+      <c r="C117" t="s">
+        <v>484</v>
+      </c>
+      <c r="D117" t="s">
+        <v>115</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="C117" t="s">
-        <v>485</v>
-      </c>
-      <c r="D117" t="s">
-        <v>116</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4566,39 +4566,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>314</v>
+      </c>
+      <c r="B118" t="s">
         <v>315</v>
       </c>
-      <c r="B118" t="s">
-        <v>316</v>
-      </c>
       <c r="C118" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G118" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>317</v>
+      </c>
+      <c r="B119" t="s">
         <v>318</v>
       </c>
-      <c r="B119" t="s">
-        <v>319</v>
-      </c>
       <c r="C119" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -4606,39 +4606,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B120" t="s">
+        <v>459</v>
+      </c>
+      <c r="C120" t="s">
         <v>460</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>461</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
         <v>462</v>
       </c>
-      <c r="F120" t="s">
-        <v>463</v>
-      </c>
       <c r="G120" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>321</v>
+      </c>
+      <c r="B121" t="s">
         <v>322</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>323</v>
-      </c>
-      <c r="C121" t="s">
-        <v>324</v>
       </c>
       <c r="D121" t="s">
         <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -4646,39 +4646,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>325</v>
+      </c>
+      <c r="B122" t="s">
+        <v>403</v>
+      </c>
+      <c r="C122" t="s">
         <v>326</v>
       </c>
-      <c r="B122" t="s">
-        <v>404</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>327</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
         <v>328</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>329</v>
-      </c>
-      <c r="G122" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>330</v>
+      </c>
+      <c r="B123" t="s">
         <v>331</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
+        <v>528</v>
+      </c>
+      <c r="D123" t="s">
+        <v>115</v>
+      </c>
+      <c r="F123" t="s">
         <v>332</v>
-      </c>
-      <c r="C123" t="s">
-        <v>529</v>
-      </c>
-      <c r="D123" t="s">
-        <v>116</v>
-      </c>
-      <c r="F123" t="s">
-        <v>333</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -4686,30 +4686,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>333</v>
+      </c>
+      <c r="B124" t="s">
         <v>334</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>335</v>
-      </c>
-      <c r="C124" t="s">
-        <v>336</v>
       </c>
       <c r="D124" t="s">
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G124" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>337</v>
+      </c>
+      <c r="B125" t="s">
         <v>338</v>
-      </c>
-      <c r="B125" t="s">
-        <v>339</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -4718,7 +4718,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -4726,39 +4726,39 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>340</v>
+      </c>
+      <c r="B126" t="s">
         <v>341</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>342</v>
-      </c>
-      <c r="C126" t="s">
-        <v>343</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B127" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C127" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4766,39 +4766,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>346</v>
+      </c>
+      <c r="B128" t="s">
         <v>347</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>348</v>
-      </c>
-      <c r="C128" t="s">
-        <v>349</v>
       </c>
       <c r="D128" t="s">
         <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G128" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B129" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C129" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4806,39 +4806,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>351</v>
+      </c>
+      <c r="B130" t="s">
         <v>352</v>
       </c>
-      <c r="B130" t="s">
-        <v>353</v>
-      </c>
       <c r="C130" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G130" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>354</v>
+      </c>
+      <c r="B131" t="s">
+        <v>494</v>
+      </c>
+      <c r="C131" t="s">
+        <v>530</v>
+      </c>
+      <c r="D131" t="s">
+        <v>433</v>
+      </c>
+      <c r="F131" t="s">
         <v>355</v>
-      </c>
-      <c r="B131" t="s">
-        <v>495</v>
-      </c>
-      <c r="C131" t="s">
-        <v>531</v>
-      </c>
-      <c r="D131" t="s">
-        <v>434</v>
-      </c>
-      <c r="F131" t="s">
-        <v>356</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4846,39 +4846,39 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B132" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C132" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B133" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C133" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4886,39 +4886,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>358</v>
+      </c>
+      <c r="B134" t="s">
         <v>359</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>360</v>
-      </c>
-      <c r="C134" t="s">
-        <v>361</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
+        <v>361</v>
+      </c>
+      <c r="G134" t="s">
         <v>362</v>
-      </c>
-      <c r="G134" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>363</v>
+      </c>
+      <c r="B135" t="s">
         <v>364</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
+        <v>531</v>
+      </c>
+      <c r="D135" t="s">
+        <v>253</v>
+      </c>
+      <c r="F135" t="s">
         <v>365</v>
-      </c>
-      <c r="C135" t="s">
-        <v>532</v>
-      </c>
-      <c r="D135" t="s">
-        <v>254</v>
-      </c>
-      <c r="F135" t="s">
-        <v>366</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4926,39 +4926,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>366</v>
+      </c>
+      <c r="B136" t="s">
+        <v>437</v>
+      </c>
+      <c r="C136" t="s">
         <v>367</v>
-      </c>
-      <c r="B136" t="s">
-        <v>438</v>
-      </c>
-      <c r="C136" t="s">
-        <v>368</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G136" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>369</v>
+      </c>
+      <c r="B137" t="s">
         <v>370</v>
       </c>
-      <c r="B137" t="s">
-        <v>371</v>
-      </c>
       <c r="C137" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D137" t="s">
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4966,61 +4966,61 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B138" t="s">
+        <v>464</v>
+      </c>
+      <c r="C138" t="s">
+        <v>463</v>
+      </c>
+      <c r="D138" t="s">
+        <v>377</v>
+      </c>
+      <c r="F138" t="s">
         <v>465</v>
       </c>
-      <c r="C138" t="s">
-        <v>464</v>
-      </c>
-      <c r="D138" t="s">
-        <v>378</v>
-      </c>
-      <c r="F138" t="s">
-        <v>466</v>
-      </c>
       <c r="G138" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C140" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C141" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C142" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B968D1A-D79E-2B47-ABE0-45E1B4BB3AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAA1ACE-3656-144F-A2E4-AA1F39856E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planning!$A$1:$G$138</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -295,9 +295,6 @@
     <t>10/11/2025</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=rOjHhS5MtvA</t>
-  </si>
-  <si>
     <t>13/11/2025</t>
   </si>
   <si>
@@ -1558,9 +1555,6 @@
     <t>Et pour quelques dollars de plus - Thème (1965)</t>
   </si>
   <si>
-    <t>Symphonie No. 9 (1826)</t>
-  </si>
-  <si>
     <t>Antonio Vivaldi</t>
   </si>
   <si>
@@ -1820,6 +1814,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=le0BLAEO93g</t>
+  </si>
+  <si>
+    <t>Symphony 9, Op. 125 (1826)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FepxYDp630Y&amp;list=RDFepxYDp630Y&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2214,7 @@
   <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2226,7 +2226,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2252,13 +2252,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -2272,7 +2272,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2292,16 +2292,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2312,19 +2312,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C5" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2332,10 +2332,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2352,10 +2352,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2364,7 +2364,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2372,7 +2372,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2392,7 +2392,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2412,13 +2412,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2432,19 +2432,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" t="s">
         <v>378</v>
-      </c>
-      <c r="D11" t="s">
-        <v>379</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2472,19 +2472,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2515,7 +2515,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2524,7 +2524,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2532,7 +2532,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2552,10 +2552,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2564,7 +2564,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2572,10 +2572,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C18" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2612,7 +2612,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2621,7 +2621,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2632,19 +2632,19 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C21" t="s">
+        <v>375</v>
+      </c>
+      <c r="D21" t="s">
         <v>376</v>
-      </c>
-      <c r="D21" t="s">
-        <v>377</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2655,7 +2655,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2672,7 +2672,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2692,7 +2692,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2712,7 +2712,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2735,7 +2735,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2752,16 +2752,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C27" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2772,16 +2772,16 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C28" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D28" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2792,16 +2792,16 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C29" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2812,16 +2812,16 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C30" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -2832,16 +2832,16 @@
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C31" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2852,10 +2852,10 @@
         <v>82</v>
       </c>
       <c r="B32" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" t="s">
         <v>383</v>
-      </c>
-      <c r="C32" t="s">
-        <v>384</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -2872,16 +2872,16 @@
         <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C33" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2889,16 +2889,16 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>507</v>
+        <v>593</v>
       </c>
       <c r="C34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>86</v>
+        <v>594</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -2906,19 +2906,19 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G35" t="s">
         <v>19</v>
@@ -2926,19 +2926,19 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
         <v>12</v>
@@ -2946,19 +2946,19 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C37" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -2966,39 +2966,39 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
+        <v>469</v>
+      </c>
+      <c r="C38" t="s">
+        <v>468</v>
+      </c>
+      <c r="D38" t="s">
+        <v>256</v>
+      </c>
+      <c r="F38" t="s">
         <v>470</v>
       </c>
-      <c r="C38" t="s">
-        <v>469</v>
-      </c>
-      <c r="D38" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" t="s">
-        <v>471</v>
-      </c>
       <c r="G38" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="C39" t="s">
         <v>452</v>
-      </c>
-      <c r="C39" t="s">
-        <v>453</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -3006,19 +3006,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>407</v>
+      </c>
+      <c r="C40" t="s">
+        <v>572</v>
+      </c>
+      <c r="D40" t="s">
+        <v>300</v>
+      </c>
+      <c r="F40" t="s">
         <v>96</v>
-      </c>
-      <c r="B40" t="s">
-        <v>408</v>
-      </c>
-      <c r="C40" t="s">
-        <v>574</v>
-      </c>
-      <c r="D40" t="s">
-        <v>301</v>
-      </c>
-      <c r="F40" t="s">
-        <v>97</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -3026,19 +3026,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C41" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -3046,19 +3046,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C42" t="s">
+        <v>536</v>
+      </c>
+      <c r="D42" t="s">
+        <v>537</v>
+      </c>
+      <c r="F42" t="s">
         <v>538</v>
-      </c>
-      <c r="D42" t="s">
-        <v>539</v>
-      </c>
-      <c r="F42" t="s">
-        <v>540</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3066,19 +3066,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -3086,19 +3086,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>435</v>
+      </c>
+      <c r="C44" t="s">
         <v>103</v>
-      </c>
-      <c r="B44" t="s">
-        <v>436</v>
-      </c>
-      <c r="C44" t="s">
-        <v>104</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3106,19 +3106,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C45" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -3126,19 +3126,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" t="s">
         <v>108</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>109</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
+        <v>392</v>
+      </c>
+      <c r="F46" t="s">
         <v>110</v>
-      </c>
-      <c r="D46" t="s">
-        <v>393</v>
-      </c>
-      <c r="F46" t="s">
-        <v>111</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3146,19 +3146,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C47" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3166,39 +3166,39 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B48" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C48" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>499</v>
+      </c>
+      <c r="C49" t="s">
+        <v>514</v>
+      </c>
+      <c r="D49" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" t="s">
         <v>118</v>
-      </c>
-      <c r="B49" t="s">
-        <v>500</v>
-      </c>
-      <c r="C49" t="s">
-        <v>516</v>
-      </c>
-      <c r="D49" t="s">
-        <v>115</v>
-      </c>
-      <c r="F49" t="s">
-        <v>119</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -3206,39 +3206,39 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" t="s">
         <v>120</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>121</v>
-      </c>
-      <c r="C50" t="s">
-        <v>122</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
       <c r="F50" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" t="s">
         <v>123</v>
-      </c>
-      <c r="G50" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
         <v>125</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>126</v>
-      </c>
-      <c r="C51" t="s">
-        <v>127</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -3246,39 +3246,39 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" t="s">
+        <v>409</v>
+      </c>
+      <c r="C52" t="s">
         <v>129</v>
-      </c>
-      <c r="B52" t="s">
-        <v>410</v>
-      </c>
-      <c r="C52" t="s">
-        <v>130</v>
       </c>
       <c r="D52" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G52" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B53" t="s">
+        <v>488</v>
+      </c>
+      <c r="C53" t="s">
+        <v>484</v>
+      </c>
+      <c r="D53" t="s">
+        <v>432</v>
+      </c>
+      <c r="F53" t="s">
         <v>132</v>
-      </c>
-      <c r="B53" t="s">
-        <v>489</v>
-      </c>
-      <c r="C53" t="s">
-        <v>485</v>
-      </c>
-      <c r="D53" t="s">
-        <v>433</v>
-      </c>
-      <c r="F53" t="s">
-        <v>133</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
@@ -3286,39 +3286,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" t="s">
+        <v>494</v>
+      </c>
+      <c r="C54" t="s">
         <v>134</v>
-      </c>
-      <c r="B54" t="s">
-        <v>495</v>
-      </c>
-      <c r="C54" t="s">
-        <v>135</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="F54" t="s">
+        <v>135</v>
+      </c>
+      <c r="G54" t="s">
         <v>136</v>
-      </c>
-      <c r="G54" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B55" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C55" t="s">
+        <v>545</v>
+      </c>
+      <c r="D55" t="s">
         <v>547</v>
       </c>
-      <c r="D55" t="s">
-        <v>549</v>
-      </c>
       <c r="F55" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3326,39 +3326,39 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" t="s">
         <v>114</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>115</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>116</v>
-      </c>
-      <c r="G56" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B57" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C57" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -3366,39 +3366,39 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" t="s">
         <v>142</v>
       </c>
-      <c r="B58" t="s">
-        <v>143</v>
-      </c>
       <c r="C58" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
+        <v>143</v>
+      </c>
+      <c r="G58" t="s">
         <v>144</v>
-      </c>
-      <c r="G58" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B59" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C59" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3406,39 +3406,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" t="s">
         <v>147</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
         <v>148</v>
-      </c>
-      <c r="C60" t="s">
-        <v>149</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B61" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C61" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
       </c>
       <c r="F61" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -3446,39 +3446,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" t="s">
         <v>153</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
         <v>154</v>
-      </c>
-      <c r="C62" t="s">
-        <v>155</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
+        <v>155</v>
+      </c>
+      <c r="G62" t="s">
         <v>156</v>
-      </c>
-      <c r="G62" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>157</v>
+      </c>
+      <c r="B63" t="s">
         <v>158</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
         <v>159</v>
-      </c>
-      <c r="C63" t="s">
-        <v>160</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -3486,39 +3486,39 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B64" t="s">
+        <v>574</v>
+      </c>
+      <c r="C64" t="s">
+        <v>573</v>
+      </c>
+      <c r="D64" t="s">
+        <v>575</v>
+      </c>
+      <c r="F64" t="s">
         <v>576</v>
       </c>
-      <c r="C64" t="s">
-        <v>575</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="G64" t="s">
         <v>577</v>
-      </c>
-      <c r="F64" t="s">
-        <v>578</v>
-      </c>
-      <c r="G64" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B65" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C65" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
@@ -3526,39 +3526,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" t="s">
+        <v>417</v>
+      </c>
+      <c r="C66" t="s">
         <v>165</v>
-      </c>
-      <c r="B66" t="s">
-        <v>418</v>
-      </c>
-      <c r="C66" t="s">
-        <v>166</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G66" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" t="s">
         <v>168</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>169</v>
-      </c>
-      <c r="C67" t="s">
-        <v>170</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -3566,39 +3566,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" t="s">
         <v>172</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>173</v>
-      </c>
-      <c r="C68" t="s">
-        <v>174</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
+        <v>174</v>
+      </c>
+      <c r="G68" t="s">
         <v>175</v>
-      </c>
-      <c r="G68" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>176</v>
+      </c>
+      <c r="B69" t="s">
+        <v>495</v>
+      </c>
+      <c r="C69" t="s">
+        <v>515</v>
+      </c>
+      <c r="D69" t="s">
         <v>177</v>
       </c>
-      <c r="B69" t="s">
-        <v>496</v>
-      </c>
-      <c r="C69" t="s">
-        <v>517</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="F69" t="s">
         <v>178</v>
-      </c>
-      <c r="F69" t="s">
-        <v>179</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -3606,39 +3606,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B70" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C70" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>181</v>
+      </c>
+      <c r="B71" t="s">
         <v>182</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>183</v>
-      </c>
-      <c r="C71" t="s">
-        <v>184</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -3646,39 +3646,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" t="s">
+        <v>418</v>
+      </c>
+      <c r="C72" t="s">
         <v>186</v>
-      </c>
-      <c r="B72" t="s">
-        <v>419</v>
-      </c>
-      <c r="C72" t="s">
-        <v>187</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
+        <v>187</v>
+      </c>
+      <c r="G72" t="s">
         <v>188</v>
-      </c>
-      <c r="G72" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" t="s">
+        <v>501</v>
+      </c>
+      <c r="C73" t="s">
+        <v>516</v>
+      </c>
+      <c r="D73" t="s">
         <v>190</v>
       </c>
-      <c r="B73" t="s">
-        <v>502</v>
-      </c>
-      <c r="C73" t="s">
-        <v>518</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="F73" t="s">
         <v>191</v>
-      </c>
-      <c r="F73" t="s">
-        <v>192</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -3686,39 +3686,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" t="s">
+        <v>410</v>
+      </c>
+      <c r="C74" t="s">
         <v>193</v>
-      </c>
-      <c r="B74" t="s">
-        <v>411</v>
-      </c>
-      <c r="C74" t="s">
-        <v>194</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C75" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3726,39 +3726,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B76" t="s">
+        <v>472</v>
+      </c>
+      <c r="C76" t="s">
         <v>473</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>474</v>
       </c>
-      <c r="D76" t="s">
+      <c r="F76" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>476</v>
-      </c>
       <c r="G76" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77" t="s">
         <v>198</v>
       </c>
-      <c r="B77" t="s">
-        <v>199</v>
-      </c>
       <c r="C77" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -3766,39 +3766,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>200</v>
+      </c>
+      <c r="B78" t="s">
         <v>201</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>202</v>
-      </c>
-      <c r="C78" t="s">
-        <v>203</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
+        <v>203</v>
+      </c>
+      <c r="G78" t="s">
         <v>204</v>
-      </c>
-      <c r="G78" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" t="s">
+        <v>411</v>
+      </c>
+      <c r="C79" t="s">
         <v>206</v>
-      </c>
-      <c r="B79" t="s">
-        <v>412</v>
-      </c>
-      <c r="C79" t="s">
-        <v>207</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -3806,39 +3806,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B80" t="s">
+        <v>394</v>
+      </c>
+      <c r="C80" t="s">
+        <v>393</v>
+      </c>
+      <c r="D80" t="s">
         <v>395</v>
       </c>
-      <c r="C80" t="s">
-        <v>394</v>
-      </c>
-      <c r="D80" t="s">
-        <v>396</v>
-      </c>
       <c r="F80" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>209</v>
+      </c>
+      <c r="B81" t="s">
         <v>210</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>518</v>
+      </c>
+      <c r="D81" t="s">
         <v>211</v>
       </c>
-      <c r="C81" t="s">
-        <v>520</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="F81" t="s">
         <v>212</v>
-      </c>
-      <c r="F81" t="s">
-        <v>213</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
@@ -3846,39 +3846,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B82" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C82" t="s">
+        <v>551</v>
+      </c>
+      <c r="D82" t="s">
+        <v>552</v>
+      </c>
+      <c r="F82" t="s">
         <v>553</v>
       </c>
-      <c r="D82" t="s">
-        <v>554</v>
-      </c>
-      <c r="F82" t="s">
-        <v>555</v>
-      </c>
       <c r="G82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>214</v>
+      </c>
+      <c r="B83" t="s">
+        <v>396</v>
+      </c>
+      <c r="C83" t="s">
         <v>215</v>
-      </c>
-      <c r="B83" t="s">
-        <v>397</v>
-      </c>
-      <c r="C83" t="s">
-        <v>216</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -3886,39 +3886,39 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84" t="s">
+        <v>476</v>
+      </c>
+      <c r="C84" t="s">
         <v>218</v>
       </c>
-      <c r="B84" t="s">
-        <v>477</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>219</v>
       </c>
-      <c r="D84" t="s">
+      <c r="F84" t="s">
         <v>220</v>
       </c>
-      <c r="F84" t="s">
-        <v>221</v>
-      </c>
       <c r="G84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" t="s">
+        <v>502</v>
+      </c>
+      <c r="C85" t="s">
         <v>222</v>
       </c>
-      <c r="B85" t="s">
-        <v>503</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>432</v>
+      </c>
+      <c r="F85" t="s">
         <v>223</v>
-      </c>
-      <c r="D85" t="s">
-        <v>433</v>
-      </c>
-      <c r="F85" t="s">
-        <v>224</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3926,39 +3926,39 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>224</v>
+      </c>
+      <c r="B86" t="s">
+        <v>412</v>
+      </c>
+      <c r="C86" t="s">
         <v>225</v>
-      </c>
-      <c r="B86" t="s">
-        <v>413</v>
-      </c>
-      <c r="C86" t="s">
-        <v>226</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B87" t="s">
+        <v>424</v>
+      </c>
+      <c r="C87" t="s">
         <v>228</v>
-      </c>
-      <c r="B87" t="s">
-        <v>425</v>
-      </c>
-      <c r="C87" t="s">
-        <v>229</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -3966,39 +3966,39 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" t="s">
         <v>231</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>232</v>
-      </c>
-      <c r="C88" t="s">
-        <v>233</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" t="s">
+        <v>419</v>
+      </c>
+      <c r="C89" t="s">
+        <v>519</v>
+      </c>
+      <c r="D89" t="s">
+        <v>114</v>
+      </c>
+      <c r="F89" t="s">
         <v>235</v>
-      </c>
-      <c r="B89" t="s">
-        <v>420</v>
-      </c>
-      <c r="C89" t="s">
-        <v>521</v>
-      </c>
-      <c r="D89" t="s">
-        <v>115</v>
-      </c>
-      <c r="F89" t="s">
-        <v>236</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -4006,39 +4006,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>236</v>
+      </c>
+      <c r="B90" t="s">
+        <v>397</v>
+      </c>
+      <c r="C90" t="s">
         <v>237</v>
-      </c>
-      <c r="B90" t="s">
-        <v>398</v>
-      </c>
-      <c r="C90" t="s">
-        <v>238</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G90" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B91" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C91" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -4046,39 +4046,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>241</v>
+      </c>
+      <c r="B92" t="s">
+        <v>421</v>
+      </c>
+      <c r="C92" t="s">
         <v>242</v>
-      </c>
-      <c r="B92" t="s">
-        <v>422</v>
-      </c>
-      <c r="C92" t="s">
-        <v>243</v>
       </c>
       <c r="D92" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G92" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" t="s">
         <v>245</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>520</v>
+      </c>
+      <c r="D93" t="s">
+        <v>114</v>
+      </c>
+      <c r="F93" t="s">
         <v>246</v>
-      </c>
-      <c r="C93" t="s">
-        <v>522</v>
-      </c>
-      <c r="D93" t="s">
-        <v>115</v>
-      </c>
-      <c r="F93" t="s">
-        <v>247</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -4086,39 +4086,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>247</v>
+      </c>
+      <c r="B94" t="s">
+        <v>422</v>
+      </c>
+      <c r="C94" t="s">
         <v>248</v>
-      </c>
-      <c r="B94" t="s">
-        <v>423</v>
-      </c>
-      <c r="C94" t="s">
-        <v>249</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
       </c>
       <c r="F94" t="s">
+        <v>249</v>
+      </c>
+      <c r="G94" t="s">
         <v>250</v>
-      </c>
-      <c r="G94" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B95" t="s">
+        <v>386</v>
+      </c>
+      <c r="C95" t="s">
         <v>387</v>
-      </c>
-      <c r="C95" t="s">
-        <v>388</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -4126,39 +4126,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>254</v>
+      </c>
+      <c r="B96" t="s">
+        <v>423</v>
+      </c>
+      <c r="C96" t="s">
         <v>255</v>
       </c>
-      <c r="B96" t="s">
-        <v>424</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>256</v>
       </c>
-      <c r="D96" t="s">
+      <c r="F96" t="s">
         <v>257</v>
       </c>
-      <c r="F96" t="s">
-        <v>258</v>
-      </c>
       <c r="G96" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B97" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C97" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
@@ -4166,39 +4166,39 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>260</v>
+      </c>
+      <c r="B98" t="s">
         <v>261</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>262</v>
-      </c>
-      <c r="C98" t="s">
-        <v>263</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G98" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B99" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C99" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4206,59 +4206,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B100" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>267</v>
+      </c>
+      <c r="B101" t="s">
+        <v>414</v>
+      </c>
+      <c r="C101" t="s">
         <v>268</v>
-      </c>
-      <c r="B101" t="s">
-        <v>415</v>
-      </c>
-      <c r="C101" t="s">
-        <v>269</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
+        <v>269</v>
+      </c>
+      <c r="G101" t="s">
         <v>270</v>
-      </c>
-      <c r="G101" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
+        <v>271</v>
+      </c>
+      <c r="B102" t="s">
         <v>272</v>
       </c>
-      <c r="B102" t="s">
-        <v>273</v>
-      </c>
       <c r="C102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -4266,39 +4266,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>274</v>
+      </c>
+      <c r="B103" t="s">
         <v>275</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>276</v>
-      </c>
-      <c r="C103" t="s">
-        <v>277</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" t="s">
+        <v>491</v>
+      </c>
+      <c r="C104" t="s">
+        <v>522</v>
+      </c>
+      <c r="D104" t="s">
         <v>279</v>
       </c>
-      <c r="B104" t="s">
-        <v>492</v>
-      </c>
-      <c r="C104" t="s">
-        <v>524</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="F104" t="s">
         <v>280</v>
-      </c>
-      <c r="F104" t="s">
-        <v>281</v>
       </c>
       <c r="G104" t="s">
         <v>8</v>
@@ -4306,39 +4306,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
+        <v>281</v>
+      </c>
+      <c r="B105" t="s">
+        <v>477</v>
+      </c>
+      <c r="C105" t="s">
+        <v>478</v>
+      </c>
+      <c r="D105" t="s">
+        <v>479</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="G105" t="s">
         <v>282</v>
-      </c>
-      <c r="B105" t="s">
-        <v>478</v>
-      </c>
-      <c r="C105" t="s">
-        <v>479</v>
-      </c>
-      <c r="D105" t="s">
-        <v>480</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="G105" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" t="s">
+        <v>398</v>
+      </c>
+      <c r="C106" t="s">
         <v>284</v>
-      </c>
-      <c r="B106" t="s">
-        <v>399</v>
-      </c>
-      <c r="C106" t="s">
-        <v>285</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -4346,19 +4346,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>286</v>
+      </c>
+      <c r="B107" t="s">
+        <v>505</v>
+      </c>
+      <c r="C107" t="s">
+        <v>113</v>
+      </c>
+      <c r="D107" t="s">
+        <v>114</v>
+      </c>
+      <c r="F107" t="s">
         <v>287</v>
-      </c>
-      <c r="B107" t="s">
-        <v>506</v>
-      </c>
-      <c r="C107" t="s">
-        <v>114</v>
-      </c>
-      <c r="D107" t="s">
-        <v>115</v>
-      </c>
-      <c r="F107" t="s">
-        <v>288</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -4366,39 +4366,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>288</v>
+      </c>
+      <c r="B108" t="s">
+        <v>425</v>
+      </c>
+      <c r="C108" t="s">
         <v>289</v>
-      </c>
-      <c r="B108" t="s">
-        <v>426</v>
-      </c>
-      <c r="C108" t="s">
-        <v>290</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G108" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
+        <v>291</v>
+      </c>
+      <c r="B109" t="s">
         <v>292</v>
       </c>
-      <c r="B109" t="s">
-        <v>293</v>
-      </c>
       <c r="C109" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -4406,19 +4406,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>294</v>
+      </c>
+      <c r="B110" t="s">
+        <v>504</v>
+      </c>
+      <c r="C110" t="s">
+        <v>523</v>
+      </c>
+      <c r="D110" t="s">
+        <v>190</v>
+      </c>
+      <c r="F110" t="s">
         <v>295</v>
-      </c>
-      <c r="B110" t="s">
-        <v>505</v>
-      </c>
-      <c r="C110" t="s">
-        <v>525</v>
-      </c>
-      <c r="D110" t="s">
-        <v>191</v>
-      </c>
-      <c r="F110" t="s">
-        <v>296</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
@@ -4426,39 +4426,39 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>296</v>
+      </c>
+      <c r="B111" t="s">
         <v>297</v>
       </c>
-      <c r="B111" t="s">
-        <v>298</v>
-      </c>
       <c r="C111" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G111" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>299</v>
+      </c>
+      <c r="B112" t="s">
+        <v>492</v>
+      </c>
+      <c r="C112" t="s">
+        <v>524</v>
+      </c>
+      <c r="D112" t="s">
         <v>300</v>
       </c>
-      <c r="B112" t="s">
-        <v>493</v>
-      </c>
-      <c r="C112" t="s">
-        <v>526</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="F112" t="s">
         <v>301</v>
-      </c>
-      <c r="F112" t="s">
-        <v>302</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4466,39 +4466,39 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B113" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C113" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G113" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
+        <v>304</v>
+      </c>
+      <c r="B114" t="s">
+        <v>401</v>
+      </c>
+      <c r="C114" t="s">
         <v>305</v>
-      </c>
-      <c r="B114" t="s">
-        <v>402</v>
-      </c>
-      <c r="C114" t="s">
-        <v>306</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -4506,59 +4506,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
+        <v>307</v>
+      </c>
+      <c r="B115" t="s">
         <v>308</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
         <v>309</v>
-      </c>
-      <c r="C115" t="s">
-        <v>310</v>
       </c>
       <c r="D115" t="s">
         <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G115" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B116" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C116" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G116" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B117" t="s">
+        <v>481</v>
+      </c>
+      <c r="C117" t="s">
+        <v>483</v>
+      </c>
+      <c r="D117" t="s">
+        <v>114</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>482</v>
-      </c>
-      <c r="C117" t="s">
-        <v>484</v>
-      </c>
-      <c r="D117" t="s">
-        <v>115</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>483</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4566,39 +4566,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
+        <v>313</v>
+      </c>
+      <c r="B118" t="s">
         <v>314</v>
       </c>
-      <c r="B118" t="s">
-        <v>315</v>
-      </c>
       <c r="C118" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G118" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
+        <v>316</v>
+      </c>
+      <c r="B119" t="s">
         <v>317</v>
       </c>
-      <c r="B119" t="s">
-        <v>318</v>
-      </c>
       <c r="C119" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -4606,39 +4606,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B120" t="s">
+        <v>458</v>
+      </c>
+      <c r="C120" t="s">
         <v>459</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>460</v>
       </c>
-      <c r="D120" t="s">
+      <c r="F120" t="s">
         <v>461</v>
       </c>
-      <c r="F120" t="s">
-        <v>462</v>
-      </c>
       <c r="G120" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
+        <v>320</v>
+      </c>
+      <c r="B121" t="s">
         <v>321</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
         <v>322</v>
-      </c>
-      <c r="C121" t="s">
-        <v>323</v>
       </c>
       <c r="D121" t="s">
         <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -4646,39 +4646,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
+        <v>324</v>
+      </c>
+      <c r="B122" t="s">
+        <v>402</v>
+      </c>
+      <c r="C122" t="s">
         <v>325</v>
       </c>
-      <c r="B122" t="s">
-        <v>403</v>
-      </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>326</v>
       </c>
-      <c r="D122" t="s">
+      <c r="F122" t="s">
         <v>327</v>
       </c>
-      <c r="F122" t="s">
+      <c r="G122" t="s">
         <v>328</v>
-      </c>
-      <c r="G122" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
+        <v>329</v>
+      </c>
+      <c r="B123" t="s">
         <v>330</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
+        <v>526</v>
+      </c>
+      <c r="D123" t="s">
+        <v>114</v>
+      </c>
+      <c r="F123" t="s">
         <v>331</v>
-      </c>
-      <c r="C123" t="s">
-        <v>528</v>
-      </c>
-      <c r="D123" t="s">
-        <v>115</v>
-      </c>
-      <c r="F123" t="s">
-        <v>332</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -4686,30 +4686,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>332</v>
+      </c>
+      <c r="B124" t="s">
         <v>333</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
         <v>334</v>
-      </c>
-      <c r="C124" t="s">
-        <v>335</v>
       </c>
       <c r="D124" t="s">
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G124" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>336</v>
+      </c>
+      <c r="B125" t="s">
         <v>337</v>
-      </c>
-      <c r="B125" t="s">
-        <v>338</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -4718,7 +4718,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -4726,39 +4726,39 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
+        <v>339</v>
+      </c>
+      <c r="B126" t="s">
         <v>340</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
         <v>341</v>
-      </c>
-      <c r="C126" t="s">
-        <v>342</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G126" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B127" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C127" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4766,39 +4766,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>345</v>
+      </c>
+      <c r="B128" t="s">
         <v>346</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>347</v>
-      </c>
-      <c r="C128" t="s">
-        <v>348</v>
       </c>
       <c r="D128" t="s">
         <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G128" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B129" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C129" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4806,39 +4806,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>350</v>
+      </c>
+      <c r="B130" t="s">
         <v>351</v>
       </c>
-      <c r="B130" t="s">
-        <v>352</v>
-      </c>
       <c r="C130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G130" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>353</v>
+      </c>
+      <c r="B131" t="s">
+        <v>493</v>
+      </c>
+      <c r="C131" t="s">
+        <v>528</v>
+      </c>
+      <c r="D131" t="s">
+        <v>432</v>
+      </c>
+      <c r="F131" t="s">
         <v>354</v>
-      </c>
-      <c r="B131" t="s">
-        <v>494</v>
-      </c>
-      <c r="C131" t="s">
-        <v>530</v>
-      </c>
-      <c r="D131" t="s">
-        <v>433</v>
-      </c>
-      <c r="F131" t="s">
-        <v>355</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4846,39 +4846,39 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B132" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C132" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="G132" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B133" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C133" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4886,39 +4886,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>357</v>
+      </c>
+      <c r="B134" t="s">
         <v>358</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
         <v>359</v>
-      </c>
-      <c r="C134" t="s">
-        <v>360</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
+        <v>360</v>
+      </c>
+      <c r="G134" t="s">
         <v>361</v>
-      </c>
-      <c r="G134" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>362</v>
+      </c>
+      <c r="B135" t="s">
         <v>363</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
+        <v>529</v>
+      </c>
+      <c r="D135" t="s">
+        <v>252</v>
+      </c>
+      <c r="F135" t="s">
         <v>364</v>
-      </c>
-      <c r="C135" t="s">
-        <v>531</v>
-      </c>
-      <c r="D135" t="s">
-        <v>253</v>
-      </c>
-      <c r="F135" t="s">
-        <v>365</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4926,39 +4926,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>365</v>
+      </c>
+      <c r="B136" t="s">
+        <v>436</v>
+      </c>
+      <c r="C136" t="s">
         <v>366</v>
-      </c>
-      <c r="B136" t="s">
-        <v>437</v>
-      </c>
-      <c r="C136" t="s">
-        <v>367</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
+        <v>368</v>
+      </c>
+      <c r="B137" t="s">
         <v>369</v>
       </c>
-      <c r="B137" t="s">
-        <v>370</v>
-      </c>
       <c r="C137" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D137" t="s">
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4966,61 +4966,61 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B138" t="s">
+        <v>463</v>
+      </c>
+      <c r="C138" t="s">
+        <v>462</v>
+      </c>
+      <c r="D138" t="s">
+        <v>376</v>
+      </c>
+      <c r="F138" t="s">
         <v>464</v>
       </c>
-      <c r="C138" t="s">
-        <v>463</v>
-      </c>
-      <c r="D138" t="s">
-        <v>377</v>
-      </c>
-      <c r="F138" t="s">
-        <v>465</v>
-      </c>
       <c r="G138" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C140" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C141" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
+        <v>568</v>
+      </c>
+      <c r="C142" t="s">
+        <v>567</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>570</v>
-      </c>
-      <c r="C142" t="s">
-        <v>569</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CAA1ACE-3656-144F-A2E4-AA1F39856E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90479CE0-2FD5-6340-8404-32AF0808AC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="594">
   <si>
     <t>titre</t>
   </si>
@@ -310,9 +310,6 @@
     <t>17/11/2025</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=NlprozGcs80</t>
-  </si>
-  <si>
     <t>18/11/2025</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>24/11/2025</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=_CTYymbbEL4</t>
-  </si>
-  <si>
     <t>25/11/2025</t>
   </si>
   <si>
@@ -355,9 +349,6 @@
     <t>01/12/2025</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=3X9LvC9WkkQ</t>
-  </si>
-  <si>
     <t>02/12/2025</t>
   </si>
   <si>
@@ -391,9 +382,6 @@
     <t>08/12/2025</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=OloXRhesab0</t>
-  </si>
-  <si>
     <t>09/12/2025</t>
   </si>
   <si>
@@ -457,9 +445,6 @@
     <t>05/01/2026</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=GMkmQlfOJDk</t>
-  </si>
-  <si>
     <t>06/01/2026</t>
   </si>
   <si>
@@ -490,9 +475,6 @@
     <t>12/01/2026</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=-hJf4ZffkoI</t>
-  </si>
-  <si>
     <t>13/01/2026</t>
   </si>
   <si>
@@ -526,9 +508,6 @@
     <t>19/01/2026</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=4Tr0otuiQuU</t>
-  </si>
-  <si>
     <t>20/01/2026</t>
   </si>
   <si>
@@ -571,9 +550,6 @@
     <t>Norvège</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=kLp_Hh6DKWc</t>
-  </si>
-  <si>
     <t>27/01/2026</t>
   </si>
   <si>
@@ -814,9 +790,6 @@
     <t>30/03/2026</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=V92OBNsQgxU</t>
-  </si>
-  <si>
     <t>31/03/2026</t>
   </si>
   <si>
@@ -874,9 +847,6 @@
     <t>27/04/2026</t>
   </si>
   <si>
-    <t>Royaume de Saxe</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=0Oo4z37OUEI</t>
   </si>
   <si>
@@ -940,9 +910,6 @@
     <t>Hongrie</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=uNi-_0kqpdE</t>
-  </si>
-  <si>
     <t>19/05/2026</t>
   </si>
   <si>
@@ -991,9 +958,6 @@
     <t>Boléro (1929)</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=r30D3SW4OVw</t>
-  </si>
-  <si>
     <t>02/06/2026</t>
   </si>
   <si>
@@ -1069,9 +1033,6 @@
     <t>15/06/2026</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=4Diu2N8TGKA</t>
-  </si>
-  <si>
     <t>16/06/2026</t>
   </si>
   <si>
@@ -1129,9 +1090,6 @@
     <t>Finlandia (1900)</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=F5zg_af9b8c</t>
-  </si>
-  <si>
     <t>30/06/2026</t>
   </si>
   <si>
@@ -1820,6 +1778,45 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=FepxYDp630Y&amp;list=RDFepxYDp630Y&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JvNQLJ1_HQ0&amp;list=RDJvNQLJ1_HQ0&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GUcS1p5YnA8&amp;list=RDGUcS1p5YnA8&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O192eo9zbT4&amp;list=RDO192eo9zbT4&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mdGtyQnCMtI&amp;list=RDmdGtyQnCMtI&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1PkD47rNkfY&amp;list=RD1PkD47rNkfY&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RPWjixqYBFs&amp;list=RDRPWjixqYBFs&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Hu7hscHkfPw&amp;list=RDHu7hscHkfPw&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Be3yvl13mv4&amp;list=RDBe3yvl13mv4&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Clg1IbQ7sNY&amp;list=RDClg1IbQ7sNY&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=uNi-_0kqpdE&amp;list=RDuNi-_0kqpdE&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UcCsf77JdrU&amp;list=RDUcCsf77JdrU&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sf9CtbLGzgw&amp;list=RDsf9CtbLGzgw&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fE0RbPsC9uE&amp;list=RDfE0RbPsC9uE&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
@@ -2213,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F135" sqref="F135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2226,7 +2223,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2252,13 +2249,13 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="C2" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -2272,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -2292,16 +2289,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="G4" t="s">
         <v>19</v>
@@ -2312,19 +2309,19 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="G5" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2332,10 +2329,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="C6" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -2352,10 +2349,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -2364,7 +2361,7 @@
         <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -2372,7 +2369,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -2392,7 +2389,7 @@
         <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
@@ -2412,13 +2409,13 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="C10" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D10" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
@@ -2432,19 +2429,19 @@
         <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D11" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
       </c>
       <c r="G11" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2472,19 +2469,19 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="C13" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="G13" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2515,7 +2512,7 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
@@ -2524,7 +2521,7 @@
         <v>45</v>
       </c>
       <c r="G15" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -2532,7 +2529,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -2552,10 +2549,10 @@
         <v>49</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="C17" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -2564,7 +2561,7 @@
         <v>50</v>
       </c>
       <c r="G17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -2572,10 +2569,10 @@
         <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="C18" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
@@ -2612,7 +2609,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
         <v>58</v>
@@ -2621,7 +2618,7 @@
         <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="G20" t="s">
         <v>19</v>
@@ -2632,19 +2629,19 @@
         <v>59</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C21" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D21" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="F21" t="s">
         <v>60</v>
       </c>
       <c r="G21" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -2655,7 +2652,7 @@
         <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -2672,7 +2669,7 @@
         <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2692,7 +2689,7 @@
         <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -2712,7 +2709,7 @@
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="C25" t="s">
         <v>71</v>
@@ -2735,7 +2732,7 @@
         <v>74</v>
       </c>
       <c r="C26" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -2752,16 +2749,16 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="C27" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G27" t="s">
         <v>12</v>
@@ -2772,16 +2769,16 @@
         <v>77</v>
       </c>
       <c r="B28" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="C28" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D28" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2792,16 +2789,16 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="C29" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2812,16 +2809,16 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="C30" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F30" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -2832,16 +2829,16 @@
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="C31" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D31" t="s">
         <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="G31" t="s">
         <v>12</v>
@@ -2852,10 +2849,10 @@
         <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="C32" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -2872,16 +2869,16 @@
         <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="C33" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2889,16 +2886,16 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="C34" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -2909,10 +2906,10 @@
         <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="C35" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D35" t="s">
         <v>17</v>
@@ -2929,10 +2926,10 @@
         <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="C36" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -2949,16 +2946,16 @@
         <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="C37" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>91</v>
+        <v>581</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -2966,39 +2963,39 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="C38" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="D38" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F38" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G38" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="C39" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="F39" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -3006,19 +3003,19 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>393</v>
+      </c>
+      <c r="C40" t="s">
+        <v>558</v>
+      </c>
+      <c r="D40" t="s">
+        <v>290</v>
+      </c>
+      <c r="F40" t="s">
         <v>95</v>
-      </c>
-      <c r="B40" t="s">
-        <v>407</v>
-      </c>
-      <c r="C40" t="s">
-        <v>572</v>
-      </c>
-      <c r="D40" t="s">
-        <v>300</v>
-      </c>
-      <c r="F40" t="s">
-        <v>96</v>
       </c>
       <c r="G40" t="s">
         <v>12</v>
@@ -3026,19 +3023,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="C41" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>98</v>
+        <v>582</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -3046,19 +3043,19 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="C42" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="D42" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F42" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="G42" t="s">
         <v>19</v>
@@ -3066,19 +3063,19 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -3086,19 +3083,19 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B44" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G44" t="s">
         <v>12</v>
@@ -3106,19 +3103,19 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="C45" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>106</v>
+        <v>583</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -3126,19 +3123,19 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" t="s">
+        <v>378</v>
+      </c>
+      <c r="F46" t="s">
         <v>107</v>
-      </c>
-      <c r="B46" t="s">
-        <v>108</v>
-      </c>
-      <c r="C46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" t="s">
-        <v>392</v>
-      </c>
-      <c r="F46" t="s">
-        <v>110</v>
       </c>
       <c r="G46" t="s">
         <v>12</v>
@@ -3146,19 +3143,19 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="C47" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="D47" t="s">
         <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G47" t="s">
         <v>19</v>
@@ -3166,39 +3163,39 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="C48" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="G48" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B49" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="C49" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F49" t="s">
-        <v>118</v>
+        <v>584</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -3206,39 +3203,39 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B50" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C50" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G50" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D51" t="s">
         <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G51" t="s">
         <v>19</v>
@@ -3246,39 +3243,39 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B52" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C52" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D52" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G52" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B53" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="C53" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D53" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="F53" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G53" t="s">
         <v>8</v>
@@ -3286,39 +3283,39 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="F54" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G54" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B55" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="C55" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="D55" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F55" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -3326,39 +3323,39 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="C56" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56" t="s">
+        <v>112</v>
+      </c>
+      <c r="G56" t="s">
         <v>113</v>
-      </c>
-      <c r="D56" t="s">
-        <v>114</v>
-      </c>
-      <c r="F56" t="s">
-        <v>115</v>
-      </c>
-      <c r="G56" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B57" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="C57" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="D57" t="s">
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>140</v>
+        <v>585</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -3366,39 +3363,39 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="F58" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G58" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B59" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="C59" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -3406,39 +3403,39 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G60" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B61" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="C61" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="D61" t="s">
         <v>80</v>
       </c>
       <c r="F61" t="s">
-        <v>151</v>
+        <v>586</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -3446,39 +3443,39 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B62" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
         <v>21</v>
       </c>
       <c r="F62" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G62" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B63" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C63" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
       </c>
       <c r="F63" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G63" t="s">
         <v>19</v>
@@ -3486,39 +3483,39 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B64" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="C64" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="D64" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F64" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G64" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="C65" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>163</v>
+        <v>587</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
@@ -3526,39 +3523,39 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B66" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="C66" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D66" t="s">
         <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G66" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="F67" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="G67" t="s">
         <v>19</v>
@@ -3566,39 +3563,39 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C68" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="D68" t="s">
         <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G68" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B69" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="C69" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="D69" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F69" t="s">
-        <v>178</v>
+        <v>588</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -3606,39 +3603,39 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B70" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="C70" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="D70" t="s">
         <v>21</v>
       </c>
       <c r="F70" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G70" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C71" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D71" t="s">
         <v>17</v>
       </c>
       <c r="F71" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G71" t="s">
         <v>19</v>
@@ -3646,39 +3643,39 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B72" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C72" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="D72" t="s">
         <v>21</v>
       </c>
       <c r="F72" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G72" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B73" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="C73" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="D73" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F73" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G73" t="s">
         <v>8</v>
@@ -3686,39 +3683,39 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B74" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="C74" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
       </c>
       <c r="F74" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G74" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B75" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="C75" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3726,39 +3723,39 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B76" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="C76" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="D76" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="G76" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B77" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C77" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="D77" t="s">
         <v>17</v>
       </c>
       <c r="F77" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G77" t="s">
         <v>8</v>
@@ -3766,39 +3763,39 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B78" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="F78" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G78" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B79" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C79" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
       </c>
       <c r="F79" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G79" t="s">
         <v>19</v>
@@ -3806,39 +3803,39 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B80" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="C80" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="D80" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="F80" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="G80" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B81" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C81" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="D81" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="F81" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="G81" t="s">
         <v>8</v>
@@ -3846,39 +3843,39 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B82" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="C82" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D82" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="F82" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="G82" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B83" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="C83" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G83" t="s">
         <v>19</v>
@@ -3886,39 +3883,39 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B84" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="C84" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D84" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F84" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G84" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B85" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="C85" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D85" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="F85" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G85" t="s">
         <v>8</v>
@@ -3926,39 +3923,39 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B86" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="C86" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G86" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B87" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C87" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D87" t="s">
         <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="G87" t="s">
         <v>19</v>
@@ -3966,39 +3963,39 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B88" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C88" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D88" t="s">
         <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G88" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B89" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C89" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="D89" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F89" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G89" t="s">
         <v>8</v>
@@ -4006,39 +4003,39 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B90" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="C90" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D90" t="s">
         <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G90" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B91" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D91" t="s">
         <v>17</v>
       </c>
       <c r="F91" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="G91" t="s">
         <v>19</v>
@@ -4046,39 +4043,39 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B92" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="C92" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D92" t="s">
         <v>17</v>
       </c>
       <c r="F92" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="G92" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B93" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C93" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F93" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="G93" t="s">
         <v>8</v>
@@ -4086,39 +4083,39 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B94" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="C94" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D94" t="s">
         <v>17</v>
       </c>
       <c r="F94" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G94" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B95" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="C95" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D95" t="s">
         <v>17</v>
       </c>
       <c r="F95" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="G95" t="s">
         <v>19</v>
@@ -4126,39 +4123,39 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B96" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="C96" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D96" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F96" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="G96" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B97" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="C97" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="D97" t="s">
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>259</v>
+        <v>589</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
@@ -4166,39 +4163,39 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B98" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C98" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="G98" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B99" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="C99" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D99" t="s">
         <v>17</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G99" t="s">
         <v>19</v>
@@ -4206,59 +4203,59 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B100" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C100" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G100" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B101" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C101" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G101" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B102" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C102" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G102" t="s">
         <v>19</v>
@@ -4266,39 +4263,39 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B103" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C103" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
       </c>
       <c r="F103" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G103" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B104" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="C104" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="D104" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G104" t="s">
         <v>8</v>
@@ -4306,39 +4303,39 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B105" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="C105" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="D105" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="G105" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B106" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="C106" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
       </c>
       <c r="F106" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="G106" t="s">
         <v>19</v>
@@ -4346,19 +4343,19 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B107" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="C107" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D107" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F107" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G107" t="s">
         <v>8</v>
@@ -4366,39 +4363,39 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B108" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="C108" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D108" t="s">
         <v>17</v>
       </c>
       <c r="F108" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G108" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B109" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="C109" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D109" t="s">
         <v>17</v>
       </c>
       <c r="F109" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="G109" t="s">
         <v>19</v>
@@ -4406,19 +4403,19 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B110" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="C110" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="D110" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F110" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="G110" t="s">
         <v>8</v>
@@ -4426,39 +4423,39 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B111" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C111" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D111" t="s">
         <v>21</v>
       </c>
       <c r="F111" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G111" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B112" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="C112" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="D112" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F112" t="s">
-        <v>301</v>
+        <v>590</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4466,39 +4463,39 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B113" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="C113" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D113" t="s">
         <v>17</v>
       </c>
       <c r="F113" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="G113" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B114" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="C114" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
       </c>
       <c r="F114" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="G114" t="s">
         <v>19</v>
@@ -4506,59 +4503,59 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B115" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="C115" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D115" t="s">
         <v>17</v>
       </c>
       <c r="F115" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="G115" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B116" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="C116" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G116" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B117" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C117" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="D117" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="G117" t="s">
         <v>19</v>
@@ -4566,39 +4563,39 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B118" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C118" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="D118" t="s">
         <v>17</v>
       </c>
       <c r="F118" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="G118" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B119" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C119" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="D119" t="s">
         <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>318</v>
+        <v>591</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -4606,39 +4603,39 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B120" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="C120" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="D120" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="F120" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="G120" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B121" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="C121" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="D121" t="s">
         <v>17</v>
       </c>
       <c r="F121" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="G121" t="s">
         <v>19</v>
@@ -4646,39 +4643,39 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="B122" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="C122" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="D122" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="F122" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G122" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B123" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="C123" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="D123" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F123" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G123" t="s">
         <v>8</v>
@@ -4686,30 +4683,30 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="B124" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C124" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D124" t="s">
         <v>21</v>
       </c>
       <c r="F124" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="G124" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B125" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -4718,7 +4715,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="G125" t="s">
         <v>19</v>
@@ -4726,39 +4723,39 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B126" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="C126" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="G126" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B127" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="C127" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="D127" t="s">
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>344</v>
+        <v>592</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4766,39 +4763,39 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="B128" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="C128" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="D128" t="s">
         <v>17</v>
       </c>
       <c r="F128" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G128" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B129" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="C129" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4806,39 +4803,39 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B130" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="C130" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D130" t="s">
         <v>21</v>
       </c>
       <c r="F130" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="G130" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="B131" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="C131" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="D131" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="F131" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="G131" t="s">
         <v>8</v>
@@ -4846,39 +4843,39 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="B132" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="C132" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="G132" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B133" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="C133" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4886,39 +4883,39 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B134" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C134" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="D134" t="s">
         <v>21</v>
       </c>
       <c r="F134" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="G134" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B135" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C135" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="D135" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F135" t="s">
-        <v>364</v>
+        <v>593</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4926,39 +4923,39 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="B136" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="C136" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G136" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B137" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="C137" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D137" t="s">
         <v>17</v>
       </c>
       <c r="F137" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G137" t="s">
         <v>19</v>
@@ -4966,61 +4963,61 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="B138" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="C138" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="D138" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="F138" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G138" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="C140" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="C141" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="C142" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90479CE0-2FD5-6340-8404-32AF0808AC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C46FC2-B904-1D4B-9CBC-753B59745B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1654,9 +1654,6 @@
     <t>Bosnie et Herzégovine</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=_yer-9MCQG0&amp;list=RD_yer-9MCQG0&amp;start_radio=1</t>
-  </si>
-  <si>
     <t>Ederlezi (1988)</t>
   </si>
   <si>
@@ -1817,6 +1814,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=fE0RbPsC9uE&amp;list=RDfE0RbPsC9uE&amp;start_radio=1</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5aSyaXdU-mk&amp;list=RD5aSyaXdU-mk&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
@@ -2210,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScale="89" workbookViewId="0">
-      <selection activeCell="F135" sqref="F135"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="89" workbookViewId="0">
+      <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2778,7 +2778,7 @@
         <v>460</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -2789,16 +2789,16 @@
         <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G29" t="s">
         <v>12</v>
@@ -2809,7 +2809,7 @@
         <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C30" t="s">
         <v>497</v>
@@ -2818,7 +2818,7 @@
         <v>203</v>
       </c>
       <c r="F30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
@@ -2869,16 +2869,16 @@
         <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
       </c>
       <c r="F33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -2886,7 +2886,7 @@
         <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C34" t="s">
         <v>494</v>
@@ -2895,7 +2895,7 @@
         <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
@@ -2955,7 +2955,7 @@
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
@@ -3009,7 +3009,7 @@
         <v>393</v>
       </c>
       <c r="C40" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D40" t="s">
         <v>290</v>
@@ -3035,7 +3035,7 @@
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G41" t="s">
         <v>8</v>
@@ -3115,7 +3115,7 @@
         <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G45" t="s">
         <v>8</v>
@@ -3195,7 +3195,7 @@
         <v>111</v>
       </c>
       <c r="F49" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G49" t="s">
         <v>8</v>
@@ -3355,7 +3355,7 @@
         <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G57" t="s">
         <v>8</v>
@@ -3389,7 +3389,7 @@
         <v>535</v>
       </c>
       <c r="C59" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
@@ -3435,7 +3435,7 @@
         <v>80</v>
       </c>
       <c r="F61" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G61" t="s">
         <v>8</v>
@@ -3486,19 +3486,19 @@
         <v>155</v>
       </c>
       <c r="B64" t="s">
+        <v>559</v>
+      </c>
+      <c r="C64" t="s">
+        <v>558</v>
+      </c>
+      <c r="D64" t="s">
         <v>560</v>
       </c>
-      <c r="C64" t="s">
-        <v>559</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="F64" t="s">
         <v>561</v>
       </c>
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>562</v>
-      </c>
-      <c r="G64" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
@@ -3515,7 +3515,7 @@
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G65" t="s">
         <v>8</v>
@@ -3595,7 +3595,7 @@
         <v>170</v>
       </c>
       <c r="F69" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G69" t="s">
         <v>8</v>
@@ -3706,16 +3706,16 @@
         <v>187</v>
       </c>
       <c r="B75" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C75" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
       </c>
       <c r="F75" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G75" t="s">
         <v>19</v>
@@ -3846,7 +3846,7 @@
         <v>205</v>
       </c>
       <c r="B82" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C82" t="s">
         <v>537</v>
@@ -3855,7 +3855,7 @@
         <v>538</v>
       </c>
       <c r="F82" t="s">
-        <v>539</v>
+        <v>593</v>
       </c>
       <c r="G82" t="s">
         <v>150</v>
@@ -4155,7 +4155,7 @@
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G97" t="s">
         <v>8</v>
@@ -4455,7 +4455,7 @@
         <v>290</v>
       </c>
       <c r="F112" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G112" t="s">
         <v>8</v>
@@ -4526,16 +4526,16 @@
         <v>300</v>
       </c>
       <c r="B116" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C116" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D116" t="s">
         <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G116" t="s">
         <v>168</v>
@@ -4595,7 +4595,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G119" t="s">
         <v>8</v>
@@ -4755,7 +4755,7 @@
         <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G127" t="s">
         <v>8</v>
@@ -4786,16 +4786,16 @@
         <v>336</v>
       </c>
       <c r="B129" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C129" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D129" t="s">
         <v>17</v>
       </c>
       <c r="F129" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G129" t="s">
         <v>19</v>
@@ -4846,16 +4846,16 @@
         <v>342</v>
       </c>
       <c r="B132" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C132" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D132" t="s">
         <v>21</v>
       </c>
       <c r="F132" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G132" t="s">
         <v>119</v>
@@ -4866,16 +4866,16 @@
         <v>343</v>
       </c>
       <c r="B133" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C133" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D133" t="s">
         <v>17</v>
       </c>
       <c r="F133" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G133" t="s">
         <v>19</v>
@@ -4915,7 +4915,7 @@
         <v>244</v>
       </c>
       <c r="F135" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G135" t="s">
         <v>8</v>
@@ -4983,41 +4983,41 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B140" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C140" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D140" t="s">
         <v>17</v>
       </c>
       <c r="F140" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B141" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C141" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D141" t="s">
         <v>17</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B142" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C142" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>

--- a/musique.xlsx
+++ b/musique.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jm/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C46FC2-B904-1D4B-9CBC-753B59745B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416B4700-4871-0C4B-8A20-EDAA4DBBA70D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1816,7 +1816,7 @@
     <t>https://www.youtube.com/watch?v=fE0RbPsC9uE&amp;list=RDfE0RbPsC9uE&amp;start_radio=1</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=5aSyaXdU-mk&amp;list=RD5aSyaXdU-mk&amp;start_radio=1</t>
+    <t>https://www.youtube.com/watch?v=GG2jench7Kg&amp;list=RDGG2jench7Kg&amp;start_radio=1</t>
   </si>
 </sst>
 </file>
